--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{24D6985E-B186-48EA-8DF4-F858A90CA723}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E79AC7-383D-4A81-B9F6-6AE4F0AFCEA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="45">
   <si>
     <t>Système</t>
   </si>
@@ -117,9 +117,6 @@
     <t>réducteur</t>
   </si>
   <si>
-    <t>contrôleur</t>
-  </si>
-  <si>
     <t>cable de connexion avec le faisceau</t>
   </si>
   <si>
@@ -132,20 +129,47 @@
     <t>télémétrie</t>
   </si>
   <si>
-    <t>RaceCapureMK3</t>
-  </si>
-  <si>
     <t>système d'acquisition de données</t>
   </si>
   <si>
     <t>innovate-LC-2</t>
+  </si>
+  <si>
+    <t>BG45x15PI 12V motor</t>
+  </si>
+  <si>
+    <t>SG62 8:1 gearbox</t>
+  </si>
+  <si>
+    <t>BGE 45 controller</t>
+  </si>
+  <si>
+    <t>conrôleur</t>
+  </si>
+  <si>
+    <t>cable CPL BG65 1500 G WD 12POL AMH</t>
+  </si>
+  <si>
+    <t>RaceCapureMK3 without cellular option</t>
+  </si>
+  <si>
+    <t>FPS-V2-100</t>
+  </si>
+  <si>
+    <t>Capteur pression frein</t>
+  </si>
+  <si>
+    <t>100 bar max</t>
+  </si>
+  <si>
+    <t>Romain FERNAND   : &lt;r.fernand@texense.com&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +190,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -256,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,6 +321,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +615,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +638,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -956,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +1030,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1368,6 +1420,9 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
+      <c r="D1" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1460,6 +1515,15 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1778,7 +1842,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,7 +1861,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2172,7 +2236,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,7 +2255,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2267,7 +2331,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -2573,7 +2637,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,7 +2656,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2617,14 +2681,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7"/>
       <c r="F2">
         <f>1.2*E2</f>
         <v>0</v>
@@ -2638,11 +2704,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7"/>
       <c r="F3">
         <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
         <v>0</v>
@@ -2656,27 +2724,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -2693,10 +2766,10 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -2965,6 +3038,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2985,7 +3059,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,7 +3078,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -3372,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3386,14 +3460,14 @@
     <col min="8" max="8" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -3418,15 +3492,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E79AC7-383D-4A81-B9F6-6AE4F0AFCEA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCBE83C-8066-4A15-8886-0F0936FD4F78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
   <si>
     <t>Système</t>
   </si>
@@ -163,13 +163,19 @@
   </si>
   <si>
     <t>Romain FERNAND   : &lt;r.fernand@texense.com&gt;</t>
+  </si>
+  <si>
+    <t>854-1966</t>
+  </si>
+  <si>
+    <t>Contacteur guillotine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +202,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -217,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -294,11 +307,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -319,9 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -331,6 +350,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +663,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -664,7 +689,16 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F2">
         <f>1.2*E2</f>
         <v>0</v>
@@ -1030,7 +1064,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1415,12 +1449,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1861,7 +1895,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2255,7 +2289,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2656,7 +2690,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2685,7 +2719,7 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2705,7 +2739,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -2725,7 +2759,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -2745,7 +2779,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -3078,7 +3112,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -3446,7 +3480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3467,7 +3501,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCBE83C-8066-4A15-8886-0F0936FD4F78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E30AEA3-1251-491B-9830-8AD91263ABDD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
   <si>
     <t>Système</t>
   </si>
@@ -165,10 +165,19 @@
     <t>Romain FERNAND   : &lt;r.fernand@texense.com&gt;</t>
   </si>
   <si>
-    <t>854-1966</t>
-  </si>
-  <si>
-    <t>Contacteur guillotine</t>
+    <t>403-563</t>
+  </si>
+  <si>
+    <t>MCP23008</t>
+  </si>
+  <si>
+    <t>Extenseur de voie digital par protocol I²C pour tableau de bord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">769-7409 </t>
+  </si>
+  <si>
+    <t>Arduino Uno</t>
   </si>
 </sst>
 </file>
@@ -210,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +238,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -308,19 +323,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,8 +388,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,12 +689,12 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="35.140625" customWidth="1"/>
@@ -690,287 +739,469 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F2">
+      <c r="D2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1.022</v>
+      </c>
+      <c r="F2" s="18">
         <f>1.2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>H2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
+        <v>1.2263999999999999</v>
+      </c>
+      <c r="G2" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="18">
+        <v>5</v>
+      </c>
+      <c r="I2" s="20">
+        <f>H2*E2*(1-G2)</f>
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="J2" s="20">
         <f>I2*1.2</f>
-        <v>0</v>
+        <v>5.5187999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F3">
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13">
+        <v>20.57</v>
+      </c>
+      <c r="F3" s="13">
         <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I24" si="1">H3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
+        <v>24.684000000000001</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2</v>
+      </c>
+      <c r="I3" s="21">
+        <f t="shared" ref="I3:I20" si="1">H3*E3*(1-G3)</f>
+        <v>37.026000000000003</v>
+      </c>
+      <c r="J3" s="21">
         <f t="shared" ref="J3:J24" si="2">I3*1.2</f>
-        <v>0</v>
+        <v>44.431200000000004</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I3:I24" si="3">H21*E21</f>
         <v>0</v>
       </c>
       <c r="J21">
@@ -978,13 +1209,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J22">
@@ -992,13 +1223,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J23">
@@ -1006,13 +1237,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J24">
@@ -2270,7 +2501,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2520,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -3630,7 +3861,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E30AEA3-1251-491B-9830-8AD91263ABDD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECBC205-DD26-46B6-9BE8-6204545B5809}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
     <sheet name="Mouser" sheetId="3" r:id="rId2"/>
-    <sheet name="Texense" sheetId="4" r:id="rId3"/>
-    <sheet name="oscaro" sheetId="5" r:id="rId4"/>
-    <sheet name="DTA Fast" sheetId="6" r:id="rId5"/>
-    <sheet name="DUNKERMOTOREN" sheetId="7" r:id="rId6"/>
-    <sheet name="Souriau" sheetId="8" r:id="rId7"/>
-    <sheet name="Racecapture" sheetId="9" r:id="rId8"/>
-    <sheet name="Données" sheetId="2" r:id="rId9"/>
+    <sheet name="Variohm" sheetId="10" r:id="rId3"/>
+    <sheet name="Texense" sheetId="4" r:id="rId4"/>
+    <sheet name="oscaro" sheetId="5" r:id="rId5"/>
+    <sheet name="DTA Fast" sheetId="6" r:id="rId6"/>
+    <sheet name="DUNKERMOTOREN" sheetId="7" r:id="rId7"/>
+    <sheet name="Souriau" sheetId="8" r:id="rId8"/>
+    <sheet name="Racecapture" sheetId="9" r:id="rId9"/>
+    <sheet name="Données" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="66">
   <si>
     <t>Système</t>
   </si>
@@ -178,6 +179,54 @@
   </si>
   <si>
     <t>Arduino Uno</t>
+  </si>
+  <si>
+    <t>PY2-C-25-P</t>
+  </si>
+  <si>
+    <t>Linear motion position sensor</t>
+  </si>
+  <si>
+    <t>Pression huile moteur</t>
+  </si>
+  <si>
+    <t>Pressur sensor</t>
+  </si>
+  <si>
+    <t>Position guillotine</t>
+  </si>
+  <si>
+    <t>EPT1200-K-16000-B-5-A</t>
+  </si>
+  <si>
+    <t>Pression frein</t>
+  </si>
+  <si>
+    <t>EPT3100-H-25000-A-5-A</t>
+  </si>
+  <si>
+    <t>EURO-WS-M10</t>
+  </si>
+  <si>
+    <t>Wheel speed sensor</t>
+  </si>
+  <si>
+    <t>Vitesse des roues</t>
+  </si>
+  <si>
+    <t>Pression essence</t>
+  </si>
+  <si>
+    <t>Dash 3</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>Connecteur méca</t>
   </si>
 </sst>
 </file>
@@ -245,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -350,11 +399,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -385,9 +449,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -404,6 +465,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -688,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -739,458 +806,458 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>1.022</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <f>1.2*E2</f>
         <v>1.2263999999999999</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>0.1</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>5</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <f>H2*E2*(1-G2)</f>
         <v>4.5990000000000002</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <f>I2*1.2</f>
         <v>5.5187999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12">
         <v>20.57</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
         <v>24.684000000000001</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>0.1</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>2</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <f t="shared" ref="I3:I20" si="1">H3*E3*(1-G3)</f>
         <v>37.026000000000003</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <f t="shared" ref="J3:J24" si="2">I3*1.2</f>
         <v>44.431200000000004</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
         <v>0.1</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="21">
+      <c r="H4" s="12"/>
+      <c r="I4" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
         <v>0.1</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
+      <c r="H5" s="12"/>
+      <c r="I5" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
         <v>0.1</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="21">
+      <c r="H6" s="12"/>
+      <c r="I6" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
         <v>0.1</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
+      <c r="H7" s="12"/>
+      <c r="I7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
         <v>0.1</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="21">
+      <c r="H8" s="12"/>
+      <c r="I8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
         <v>0.1</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="21">
+      <c r="H9" s="12"/>
+      <c r="I9" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
         <v>0.1</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="21">
+      <c r="H10" s="12"/>
+      <c r="I10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
         <v>0.1</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="21">
+      <c r="H11" s="12"/>
+      <c r="I11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
         <v>0.1</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="21">
+      <c r="H12" s="12"/>
+      <c r="I12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
         <v>0.1</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="21">
+      <c r="H13" s="12"/>
+      <c r="I13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
         <v>0.1</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="21">
+      <c r="H14" s="12"/>
+      <c r="I14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
         <v>0.1</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="21">
+      <c r="H15" s="12"/>
+      <c r="I15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
         <v>0.1</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="21">
+      <c r="H16" s="12"/>
+      <c r="I16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="14">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
         <v>0.1</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="21">
+      <c r="H17" s="12"/>
+      <c r="I17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="14">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
         <v>0.1</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="21">
+      <c r="H18" s="12"/>
+      <c r="I18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="14">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
         <v>0.1</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="21">
+      <c r="H19" s="12"/>
+      <c r="I19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="21">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1201,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I3:I24" si="3">H21*E21</f>
+        <f t="shared" ref="I21:I24" si="3">H21*E21</f>
         <v>0</v>
       </c>
       <c r="J21">
@@ -1266,6 +1333,41 @@
       </x14:dataValidations>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1660,6 +1762,476 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2975CF6-F759-4AB5-BD70-F4541FA768DC}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2">
+        <f>1.2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>H2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>I2*1.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I24" si="1">H3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J24" si="2">I3*1.2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4380C4A4-E62E-475A-A73D-70090E7E2E9A}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -1680,11 +2252,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="11" t="s">
         <v>44</v>
       </c>
@@ -2102,12 +2674,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,7 +3068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
@@ -2520,7 +3092,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2897,7 +3469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -3319,7 +3891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -3707,7 +4279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -3854,39 +4426,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECBC205-DD26-46B6-9BE8-6204545B5809}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48662CC1-1EBC-4817-955C-DC221C7FF211}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -181,12 +181,6 @@
     <t>Arduino Uno</t>
   </si>
   <si>
-    <t>PY2-C-25-P</t>
-  </si>
-  <si>
-    <t>Linear motion position sensor</t>
-  </si>
-  <si>
     <t>Pression huile moteur</t>
   </si>
   <si>
@@ -227,6 +221,12 @@
   </si>
   <si>
     <t>Connecteur méca</t>
+  </si>
+  <si>
+    <t>ELPM-25</t>
+  </si>
+  <si>
+    <t>Motorsport linear motion position sensor</t>
   </si>
 </sst>
 </file>
@@ -467,11 +467,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,7 +1766,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,22 +1810,22 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -1848,13 +1848,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1880,13 +1880,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1912,13 +1912,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1944,10 +1944,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -2252,11 +2252,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="11" t="s">
         <v>44</v>
       </c>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48662CC1-1EBC-4817-955C-DC221C7FF211}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8C3E8D-8B35-4E9E-BF41-25FF719D2973}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="77">
   <si>
     <t>Système</t>
   </si>
@@ -67,12 +67,6 @@
     <t>Télémétrie</t>
   </si>
   <si>
-    <t>Passage de vitesse</t>
-  </si>
-  <si>
-    <t>électronique</t>
-  </si>
-  <si>
     <t>S80 Spliced Loom Kit</t>
   </si>
   <si>
@@ -227,13 +221,83 @@
   </si>
   <si>
     <t>Motorsport linear motion position sensor</t>
+  </si>
+  <si>
+    <t>507-949</t>
+  </si>
+  <si>
+    <t>numéro de la commande</t>
+  </si>
+  <si>
+    <t>Boîtier IP66</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(10/102018)</t>
+    </r>
+  </si>
+  <si>
+    <t>pour arduino uno(voir place des souriau)</t>
+  </si>
+  <si>
+    <t>Carte avant</t>
+  </si>
+  <si>
+    <t>Carte arrière</t>
+  </si>
+  <si>
+    <t>Tableau de bord</t>
+  </si>
+  <si>
+    <t>124-5482</t>
+  </si>
+  <si>
+    <t>Ruban led</t>
+  </si>
+  <si>
+    <t>pour le compte tour ( 2x moins chère chez adafruit !)</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Ruban LED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,8 +331,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +388,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF57171"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -414,11 +521,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -457,9 +746,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -473,12 +759,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF57171"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -753,582 +1114,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="F2" s="32">
+        <v>1.022</v>
+      </c>
+      <c r="G2" s="32">
+        <f>1.2*F2</f>
+        <v>1.2263999999999999</v>
+      </c>
+      <c r="H2" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="32">
+        <v>5</v>
+      </c>
+      <c r="J2" s="34">
+        <f>I2*F2*(1-H2)</f>
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="K2" s="35">
+        <f>J2*1.2</f>
+        <v>5.5187999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="17">
-        <v>1.022</v>
-      </c>
-      <c r="F2" s="17">
-        <f>1.2*E2</f>
-        <v>1.2263999999999999</v>
-      </c>
-      <c r="G2" s="18">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39">
+        <v>20.57</v>
+      </c>
+      <c r="G3" s="39">
+        <f t="shared" ref="G3:G25" si="0">1.2*F3</f>
+        <v>24.684000000000001</v>
+      </c>
+      <c r="H3" s="40">
         <v>0.1</v>
       </c>
-      <c r="H2" s="17">
-        <v>5</v>
-      </c>
-      <c r="I2" s="19">
-        <f>H2*E2*(1-G2)</f>
-        <v>4.5990000000000002</v>
-      </c>
-      <c r="J2" s="19">
-        <f>I2*1.2</f>
-        <v>5.5187999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12">
-        <v>20.57</v>
-      </c>
-      <c r="F3" s="12">
-        <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
-        <v>24.684000000000001</v>
-      </c>
-      <c r="G3" s="13">
+      <c r="I3" s="39">
+        <v>2</v>
+      </c>
+      <c r="J3" s="41">
+        <f t="shared" ref="J3:J21" si="1">I3*F3*(1-H3)</f>
+        <v>37.026000000000003</v>
+      </c>
+      <c r="K3" s="42">
+        <f>J3*1.2</f>
+        <v>44.431200000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="47">
+        <f>SUM(F2:F3)</f>
+        <v>21.591999999999999</v>
+      </c>
+      <c r="G4" s="47">
+        <f t="shared" ref="G4:K4" si="2">SUM(G2:G3)</f>
+        <v>25.910400000000003</v>
+      </c>
+      <c r="H4" s="47">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="47">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J4" s="47">
+        <f t="shared" si="2"/>
+        <v>41.625</v>
+      </c>
+      <c r="K4" s="47">
+        <f t="shared" si="2"/>
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="51">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="16">
+        <v>13.59</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="0"/>
+        <v>16.308</v>
+      </c>
+      <c r="H5" s="17">
         <v>0.1</v>
       </c>
-      <c r="H3" s="12">
+      <c r="I5" s="16">
         <v>2</v>
       </c>
-      <c r="I3" s="20">
-        <f t="shared" ref="I3:I20" si="1">H3*E3*(1-G3)</f>
-        <v>37.026000000000003</v>
-      </c>
-      <c r="J3" s="20">
-        <f t="shared" ref="J3:J24" si="2">I3*1.2</f>
-        <v>44.431200000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="J5" s="18">
+        <f t="shared" si="1"/>
+        <v>24.462</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" ref="K3:K25" si="3">J5*1.2</f>
+        <v>29.354399999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
         <v>0.1</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="I6" s="12"/>
+      <c r="J6" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
         <v>0.1</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
         <v>0.1</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
         <v>0.1</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
         <v>0.1</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
         <v>0.1</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
         <v>0.1</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
         <v>0.1</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
         <v>0.1</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
         <v>0.1</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
         <v>0.1</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
         <v>0.1</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
         <v>0.1</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="13">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
         <v>0.1</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ref="I21:I24" si="3">H21*E21</f>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
+        <f t="shared" ref="J22:J25" si="4">I22*F22</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>Données!$A$1:$A$4</xm:f>
+            <xm:f>Données!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A21</xm:sqref>
+          <xm:sqref>B22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F15CAACE-BD3C-4F3F-8AD7-94DA2B82CEF2}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1338,13 +1782,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1358,12 +1805,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1828,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1874,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
       <c r="F2">
         <f>1.2*E2</f>
         <v>0</v>
@@ -1436,7 +1889,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
       <c r="F3">
         <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
         <v>0</v>
@@ -1450,7 +1904,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1464,7 +1919,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1478,7 +1934,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1492,7 +1949,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1506,7 +1964,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1520,7 +1979,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1534,7 +1994,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1548,7 +2009,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1562,7 +2024,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1576,7 +2039,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1590,7 +2054,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1604,7 +2069,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1618,7 +2084,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1632,7 +2099,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1646,7 +2114,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1660,7 +2129,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1674,7 +2144,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1688,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1702,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1716,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1730,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1748,12 +2219,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>Données!$A$1:$A$4</xm:f>
+            <xm:f>Données!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A21</xm:sqref>
+          <xm:sqref>A21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74EB11D5-595D-4F81-BCDC-E78475ACEDAA}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1765,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2975CF6-F759-4AB5-BD70-F4541FA768DC}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,22 +2287,22 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -1843,18 +2320,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
@@ -1872,21 +2349,21 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -1904,21 +2381,21 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
         <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -1936,18 +2413,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -1962,7 +2437,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1976,7 +2452,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1990,7 +2467,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2004,7 +2482,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2018,7 +2497,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2032,7 +2512,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2046,7 +2527,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2060,7 +2542,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2074,7 +2557,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2088,7 +2572,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2102,7 +2587,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2116,7 +2602,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2130,7 +2617,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2144,7 +2632,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2158,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2172,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2186,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2200,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2218,12 +2707,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4380C4A4-E62E-475A-A73D-70090E7E2E9A}">
           <x14:formula1>
-            <xm:f>Données!$A$1:$A$4</xm:f>
+            <xm:f>Données!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A21</xm:sqref>
+          <xm:sqref>A21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B58D1E6-4568-4AB6-9373-5555FB956C9D}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2236,7 +2731,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,13 +2747,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2298,13 +2793,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>81</v>
@@ -2327,13 +2822,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>110</v>
@@ -2353,13 +2848,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -2664,7 +3159,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
-            <xm:f>Données!$A$1:$A$4</xm:f>
+            <xm:f>Données!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A22</xm:sqref>
         </x14:dataValidation>
@@ -2678,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,7 +3223,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -3058,7 +3553,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
-            <xm:f>Données!$A$1:$A$4</xm:f>
+            <xm:f>Données!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A21</xm:sqref>
         </x14:dataValidation>
@@ -3073,7 +3568,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3092,7 +3587,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -3122,10 +3617,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -3145,10 +3640,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F23" si="0">1.2*E3</f>
@@ -3168,10 +3663,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -3459,7 +3954,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
-            <xm:f>Données!$A$1:$A$4</xm:f>
+            <xm:f>Données!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A20</xm:sqref>
         </x14:dataValidation>
@@ -3474,7 +3969,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3518,15 +4013,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -3541,12 +4036,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="C3" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
@@ -3561,52 +4059,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -3621,7 +4128,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3635,7 +4143,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3649,7 +4158,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3663,7 +4173,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3677,7 +4188,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3691,7 +4203,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3705,7 +4218,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3719,7 +4233,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3733,7 +4248,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3747,7 +4263,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3761,7 +4278,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3775,7 +4293,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3789,7 +4308,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3803,7 +4323,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3817,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3831,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3845,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3859,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3878,12 +4399,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
-            <xm:f>Données!$A$1:$A$4</xm:f>
+            <xm:f>Données!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A21</xm:sqref>
+          <xm:sqref>A21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{523A28AA-3BA2-47B7-8A1A-0DE4382AF599}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3896,7 +4423,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3941,6 +4468,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="F2">
         <f>1.2*E2</f>
         <v>0</v>
@@ -3955,6 +4485,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
       <c r="F3">
         <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
         <v>0</v>
@@ -3969,6 +4502,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3983,6 +4519,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3997,6 +4536,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4011,6 +4553,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4025,6 +4570,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4039,6 +4587,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4053,6 +4604,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4067,6 +4621,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4269,7 +4826,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
-            <xm:f>Données!$A$1:$A$4</xm:f>
+            <xm:f>Données!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A21</xm:sqref>
         </x14:dataValidation>
@@ -4331,13 +4888,13 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -4418,7 +4975,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{83A983CF-8CAD-41B1-865B-95D300006522}">
           <x14:formula1>
-            <xm:f>Données!$A$1:$A$4</xm:f>
+            <xm:f>Données!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A6</xm:sqref>
         </x14:dataValidation>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8C3E8D-8B35-4E9E-BF41-25FF719D2973}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB48EE7-D756-41E5-A316-51EB05949EDA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
   <si>
     <t>Système</t>
   </si>
@@ -281,16 +281,13 @@
     <t>124-5482</t>
   </si>
   <si>
-    <t>Ruban led</t>
-  </si>
-  <si>
-    <t>pour le compte tour ( 2x moins chère chez adafruit !)</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>Ruban LED</t>
+  </si>
+  <si>
+    <t>pour le compte tour ( 2x plus chère que chez adafruit !)</t>
   </si>
 </sst>
 </file>
@@ -756,9 +753,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -814,6 +808,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,11 +823,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,7 +1114,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,148 +1132,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="31">
         <v>1.022</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="31">
         <f>1.2*F2</f>
         <v>1.2263999999999999</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="32">
         <v>0.1</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="31">
         <v>5</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="33">
         <f>I2*F2*(1-H2)</f>
         <v>4.5990000000000002</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="34">
         <f>J2*1.2</f>
         <v>5.5187999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38">
         <v>20.57</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="38">
         <f t="shared" ref="G3:G25" si="0">1.2*F3</f>
         <v>24.684000000000001</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="39">
         <v>0.1</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="38">
         <v>2</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="40">
         <f t="shared" ref="J3:J21" si="1">I3*F3*(1-H3)</f>
         <v>37.026000000000003</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="41">
         <f>J3*1.2</f>
         <v>44.431200000000004</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="47">
+      <c r="A4" s="51"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="46">
         <f>SUM(F2:F3)</f>
         <v>21.591999999999999</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <f t="shared" ref="G4:K4" si="2">SUM(G2:G3)</f>
         <v>25.910400000000003</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="46">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="46">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="46">
         <f t="shared" si="2"/>
         <v>41.625</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="46">
         <f t="shared" si="2"/>
         <v>49.95</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="A5" s="48">
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -1309,23 +1306,23 @@
         <v>24.462</v>
       </c>
       <c r="K5" s="18">
-        <f t="shared" ref="K3:K25" si="3">J5*1.2</f>
+        <f t="shared" ref="K5:K25" si="3">J5*1.2</f>
         <v>29.354399999999998</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="37" t="s">
         <v>74</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12">
@@ -1346,7 +1343,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="14"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -1370,8 +1367,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1394,8 +1391,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1418,8 +1415,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1442,8 +1439,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1466,8 +1463,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1490,8 +1487,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1514,8 +1511,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1538,7 +1535,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1561,7 +1558,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1584,7 +1581,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -1607,7 +1604,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1630,7 +1627,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1653,7 +1650,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1676,7 +1673,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1875,7 +1872,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
+      <c r="A2" s="28"/>
       <c r="F2">
         <f>1.2*E2</f>
         <v>0</v>
@@ -1890,7 +1887,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
       <c r="F3">
         <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
         <v>0</v>
@@ -1905,7 +1902,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="28"/>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1920,7 +1917,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="28"/>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1935,7 +1932,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1950,7 +1947,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1965,7 +1962,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="28"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1980,7 +1977,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1995,7 +1992,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2010,7 +2007,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2025,7 +2022,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2040,7 +2037,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="28"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2055,7 +2052,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2070,7 +2067,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2085,7 +2082,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2100,7 +2097,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="28"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2115,7 +2112,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="28"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2130,7 +2127,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2145,7 +2142,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="28"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2292,7 +2289,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -2321,7 +2318,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -2353,7 +2350,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -2385,7 +2382,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
@@ -2417,7 +2414,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
       <c r="C6" t="s">
         <v>49</v>
       </c>
@@ -2438,7 +2435,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2453,7 +2450,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="28"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2468,7 +2465,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2483,7 +2480,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2498,7 +2495,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2513,7 +2510,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2528,7 +2525,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="28"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2543,7 +2540,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2558,7 +2555,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2573,7 +2570,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2588,7 +2585,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="28"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2603,7 +2600,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="28"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2618,7 +2615,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2633,7 +2630,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="28"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2747,11 +2744,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="11" t="s">
         <v>42</v>
       </c>
@@ -4014,7 +4011,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -4037,7 +4034,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -4060,7 +4057,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -4083,7 +4080,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4106,7 +4103,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>70</v>
       </c>
       <c r="C6" t="s">
@@ -4129,7 +4126,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4144,7 +4141,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="28"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4159,7 +4156,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4174,7 +4171,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4189,7 +4186,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4204,7 +4201,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4219,7 +4216,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="28"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4234,7 +4231,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4249,7 +4246,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4264,7 +4261,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4279,7 +4276,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="28"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4294,7 +4291,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="28"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4309,7 +4306,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4324,7 +4321,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="28"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB48EE7-D756-41E5-A316-51EB05949EDA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0001004A-50C8-4638-A33D-538F946E6B7A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
   <si>
     <t>Système</t>
   </si>
@@ -288,6 +288,15 @@
   </si>
   <si>
     <t>pour le compte tour ( 2x plus chère que chez adafruit !)</t>
+  </si>
+  <si>
+    <t>438-272P</t>
+  </si>
+  <si>
+    <t>THN 15 1211</t>
+  </si>
+  <si>
+    <t>convertisseur 12V-5V pour tableau de bord</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -700,11 +709,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -825,6 +843,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,7 +1138,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,12 +1366,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="B7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>78</v>
+      </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16">
         <f t="shared" si="0"/>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0001004A-50C8-4638-A33D-538F946E6B7A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC8A595-BDBC-4A7F-8276-FE893A8D72B1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,13 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFF57171"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF57171"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,10 +710,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -722,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -822,34 +824,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,7 +1197,7 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -1230,7 +1235,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="42" t="s">
         <v>69</v>
       </c>
@@ -1264,40 +1269,40 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="44"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="55">
         <f>SUM(F2:F3)</f>
         <v>21.591999999999999</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="55">
         <f t="shared" ref="G4:K4" si="2">SUM(G2:G3)</f>
         <v>25.910400000000003</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="55">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="55">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="55">
         <f t="shared" si="2"/>
         <v>41.625</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="55">
         <f t="shared" si="2"/>
         <v>49.95</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+      <c r="A5" s="46">
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -1335,8 +1340,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="45" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="43" t="s">
@@ -1366,18 +1371,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="49" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="48" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="16"/>
@@ -1398,9 +1403,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="28"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1422,9 +1427,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="28"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1446,9 +1451,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="28"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1470,9 +1475,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="28"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1494,9 +1499,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="28"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1518,9 +1523,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="28"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1542,9 +1547,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="28"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1566,8 +1571,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="50"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1589,8 +1594,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="42"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1612,8 +1617,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="42"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -1635,8 +1640,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="42"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1658,8 +1663,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="42"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1681,8 +1686,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="42"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1705,7 +1710,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -2776,11 +2781,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="11" t="s">
         <v>42</v>
       </c>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC8A595-BDBC-4A7F-8276-FE893A8D72B1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42E64F2-BA0C-4CE3-84ED-A8BEFCA89DB8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
   <si>
     <t>Système</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>convertisseur 12V-5V pour tableau de bord</t>
+  </si>
+  <si>
+    <t>609-6164</t>
+  </si>
+  <si>
+    <t>Bouton d'arrêt d'urgence</t>
+  </si>
+  <si>
+    <t>arrêt d'urgence, diamètre 40mm pour les deux cotés</t>
   </si>
 </sst>
 </file>
@@ -407,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -720,11 +729,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -827,12 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -841,6 +853,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,10 +870,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,7 +1164,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1218,7 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -1235,7 +1256,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="42" t="s">
         <v>69</v>
       </c>
@@ -1269,40 +1290,40 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="44"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="50">
         <f>SUM(F2:F3)</f>
         <v>21.591999999999999</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="50">
         <f t="shared" ref="G4:K4" si="2">SUM(G2:G3)</f>
         <v>25.910400000000003</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="50">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="50">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="50">
         <f t="shared" si="2"/>
         <v>41.625</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="50">
         <f t="shared" si="2"/>
         <v>49.95</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="A5" s="51">
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -1340,7 +1361,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="45" t="s">
         <v>71</v>
       </c>
@@ -1361,7 +1382,9 @@
       <c r="H6" s="13">
         <v>0.1</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
       <c r="J6" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1372,17 +1395,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="47" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="46" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="16"/>
@@ -1403,32 +1426,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="12">
+        <v>30.97</v>
+      </c>
       <c r="G8" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>1.2*F8</f>
+        <v>37.163999999999994</v>
       </c>
       <c r="H8" s="13">
         <v>0.1</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="12">
+        <v>2</v>
+      </c>
       <c r="J8" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55.746000000000002</v>
       </c>
       <c r="K8" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>66.895200000000003</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="42"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1452,7 +1487,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="42"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1476,7 +1511,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="42"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1500,7 +1535,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="42"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -1524,7 +1559,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="42"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1548,7 +1583,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="42"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1572,7 +1607,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -2781,11 +2816,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="11" t="s">
         <v>42</v>
       </c>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42E64F2-BA0C-4CE3-84ED-A8BEFCA89DB8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A95D7-9545-4724-AFD0-5DEB84EC6D95}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
   <si>
     <t>Système</t>
   </si>
@@ -288,15 +288,6 @@
   </si>
   <si>
     <t>pour le compte tour ( 2x plus chère que chez adafruit !)</t>
-  </si>
-  <si>
-    <t>438-272P</t>
-  </si>
-  <si>
-    <t>THN 15 1211</t>
-  </si>
-  <si>
-    <t>convertisseur 12V-5V pour tableau de bord</t>
   </si>
   <si>
     <t>609-6164</t>
@@ -742,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -845,12 +836,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -858,6 +843,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,9 +860,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1203,7 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -1256,7 +1241,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="42" t="s">
         <v>69</v>
       </c>
@@ -1271,7 +1256,7 @@
         <v>20.57</v>
       </c>
       <c r="G3" s="38">
-        <f t="shared" ref="G3:G25" si="0">1.2*F3</f>
+        <f t="shared" ref="G3:G24" si="0">1.2*F3</f>
         <v>24.684000000000001</v>
       </c>
       <c r="H3" s="39">
@@ -1281,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="40">
-        <f t="shared" ref="J3:J21" si="1">I3*F3*(1-H3)</f>
+        <f t="shared" ref="J3:J20" si="1">I3*F3*(1-H3)</f>
         <v>37.026000000000003</v>
       </c>
       <c r="K3" s="41">
@@ -1290,40 +1275,40 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="44"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="48">
         <f>SUM(F2:F3)</f>
         <v>21.591999999999999</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="48">
         <f t="shared" ref="G4:K4" si="2">SUM(G2:G3)</f>
         <v>25.910400000000003</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="48">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="48">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="48">
         <f t="shared" si="2"/>
         <v>41.625</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="48">
         <f t="shared" si="2"/>
         <v>49.95</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="A5" s="50">
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -1356,12 +1341,12 @@
         <v>24.462</v>
       </c>
       <c r="K5" s="18">
-        <f t="shared" ref="K5:K25" si="3">J5*1.2</f>
+        <f t="shared" ref="K5:K24" si="3">J5*1.2</f>
         <v>29.354399999999998</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="45" t="s">
         <v>71</v>
       </c>
@@ -1395,75 +1380,67 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="47" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="F7" s="12">
+        <v>30.97</v>
+      </c>
+      <c r="G7" s="12">
+        <f>1.2*F7</f>
+        <v>37.163999999999994</v>
+      </c>
+      <c r="H7" s="13">
         <v>0.1</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
+      <c r="I7" s="12">
+        <v>2</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="1"/>
+        <v>55.746000000000002</v>
+      </c>
+      <c r="K7" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="12">
-        <v>30.97</v>
-      </c>
+        <v>66.895200000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="12">
-        <f>1.2*F8</f>
-        <v>37.163999999999994</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H8" s="13">
         <v>0.1</v>
       </c>
-      <c r="I8" s="12">
-        <v>2</v>
-      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="19">
         <f t="shared" si="1"/>
-        <v>55.746000000000002</v>
+        <v>0</v>
       </c>
       <c r="K8" s="19">
         <f t="shared" si="3"/>
-        <v>66.895200000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="42"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1487,7 +1464,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="42"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1511,7 +1488,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="42"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1535,7 +1512,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="42"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -1559,7 +1536,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="42"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1583,8 +1560,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="42"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1607,7 +1583,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1731,9 +1707,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="13">
-        <v>0.1</v>
-      </c>
+      <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="19">
         <f t="shared" si="1"/>
@@ -1745,22 +1719,15 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="42"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="19">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J24" si="4">I21*F21</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1771,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:J25" si="4">I22*F22</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K22">
@@ -1807,23 +1774,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="A5:A13"/>
     <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,13 +1788,13 @@
           <x14:formula1>
             <xm:f>Données!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B22</xm:sqref>
+          <xm:sqref>B21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F15CAACE-BD3C-4F3F-8AD7-94DA2B82CEF2}">
           <x14:formula1>
             <xm:f>Données!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B21</xm:sqref>
+          <xm:sqref>B2:B20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2816,11 +2769,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="11" t="s">
         <v>42</v>
       </c>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A95D7-9545-4724-AFD0-5DEB84EC6D95}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686898C8-40B2-4108-8E91-73752F39AF30}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="84">
   <si>
     <t>Système</t>
   </si>
@@ -223,13 +223,7 @@
     <t>Motorsport linear motion position sensor</t>
   </si>
   <si>
-    <t>507-949</t>
-  </si>
-  <si>
     <t>numéro de la commande</t>
-  </si>
-  <si>
-    <t>Boîtier IP66</t>
   </si>
   <si>
     <r>
@@ -266,9 +260,6 @@
     </r>
   </si>
   <si>
-    <t>pour arduino uno(voir place des souriau)</t>
-  </si>
-  <si>
     <t>Carte avant</t>
   </si>
   <si>
@@ -297,6 +288,30 @@
   </si>
   <si>
     <t>arrêt d'urgence, diamètre 40mm pour les deux cotés</t>
+  </si>
+  <si>
+    <t>262-3015</t>
+  </si>
+  <si>
+    <t>Eclairage LED rouge</t>
+  </si>
+  <si>
+    <t>Break light</t>
+  </si>
+  <si>
+    <t>772-0928</t>
+  </si>
+  <si>
+    <t>Boîtier IP67</t>
+  </si>
+  <si>
+    <t>pour arduino uno</t>
+  </si>
+  <si>
+    <t>219-5813</t>
+  </si>
+  <si>
+    <t>BOTS</t>
   </si>
 </sst>
 </file>
@@ -733,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -860,6 +875,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,7 +1173,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1181,7 @@
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
@@ -1168,7 +1192,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>0</v>
@@ -1204,10 +1228,10 @@
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>43</v>
@@ -1243,7 +1267,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
       <c r="B3" s="42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>46</v>
@@ -1280,7 +1304,7 @@
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F4" s="48">
         <f>SUM(F2:F3)</f>
@@ -1312,16 +1336,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F5" s="16">
         <v>13.59</v>
@@ -1348,16 +1372,16 @@
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
       <c r="B6" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="E6" s="36" t="s">
         <v>72</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>75</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12">
@@ -1385,13 +1409,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F7" s="12">
         <v>30.97</v>
@@ -1417,50 +1441,74 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="12">
+        <v>16</v>
+      </c>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="H8" s="13">
         <v>0.1</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
       <c r="J8" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K8" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="12">
+        <v>16.47</v>
+      </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.763999999999999</v>
       </c>
       <c r="H9" s="13">
         <v>0.1</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
       <c r="J9" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.822999999999999</v>
       </c>
       <c r="K9" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17.787599999999998</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1827,17 +1875,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4037,7 +4085,7 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>33</v>
@@ -4060,7 +4108,7 @@
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>34</v>
@@ -4083,7 +4131,7 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -4106,7 +4154,7 @@
     </row>
     <row r="5" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>37</v>
@@ -4129,7 +4177,7 @@
     </row>
     <row r="6" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686898C8-40B2-4108-8E91-73752F39AF30}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E7319C-B79A-4166-B364-1F1EE792EE46}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Racecapture" sheetId="9" r:id="rId9"/>
     <sheet name="Données" sheetId="2" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="93">
   <si>
     <t>Système</t>
   </si>
@@ -313,12 +313,39 @@
   <si>
     <t>BOTS</t>
   </si>
+  <si>
+    <t>Bosch 0281002845</t>
+  </si>
+  <si>
+    <t>Capteur, pression de suralimentation BOSCH</t>
+  </si>
+  <si>
+    <t>INT-200</t>
+  </si>
+  <si>
+    <t>Capteur température pneu</t>
+  </si>
+  <si>
+    <t>200° max</t>
+  </si>
+  <si>
+    <t>ELPM25</t>
+  </si>
+  <si>
+    <t>Capteur débattement 25mm</t>
+  </si>
+  <si>
+    <t>pour guillotine</t>
+  </si>
+  <si>
+    <t>j'ai pas compris</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +410,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -748,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -770,9 +803,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -861,6 +891,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -876,14 +915,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,581 +1231,577 @@
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <v>1.022</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <f>1.2*F2</f>
         <v>1.2263999999999999</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="31">
         <v>0.1</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="30">
         <v>5</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="32">
         <f>I2*F2*(1-H2)</f>
         <v>4.5990000000000002</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="33">
         <f>J2*1.2</f>
         <v>5.5187999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37">
         <v>20.57</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="37">
         <f t="shared" ref="G3:G24" si="0">1.2*F3</f>
         <v>24.684000000000001</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>0.1</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="37">
         <v>2</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="39">
         <f t="shared" ref="J3:J20" si="1">I3*F3*(1-H3)</f>
         <v>37.026000000000003</v>
       </c>
-      <c r="K3" s="41">
+      <c r="K3" s="40">
         <f>J3*1.2</f>
         <v>44.431200000000004</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="47" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="47">
         <f>SUM(F2:F3)</f>
         <v>21.591999999999999</v>
       </c>
-      <c r="G4" s="48">
-        <f t="shared" ref="G4:K4" si="2">SUM(G2:G3)</f>
+      <c r="G4" s="47">
+        <f t="shared" ref="G4:K6" si="2">SUM(G2:G3)</f>
         <v>25.910400000000003</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="47">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="47">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="47">
         <f t="shared" si="2"/>
         <v>41.625</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="47">
         <f t="shared" si="2"/>
         <v>49.95</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="16">
-        <v>13.59</v>
-      </c>
-      <c r="G5" s="16">
-        <f t="shared" si="0"/>
-        <v>16.308</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="I5" s="16">
-        <v>2</v>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="11">
+        <v>43.46</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>52.152000000000001</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" si="1"/>
-        <v>24.462</v>
+        <v>41.286999999999999</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ref="K5:K24" si="3">J5*1.2</f>
-        <v>29.354399999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>49.544399999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61">
+        <v>43.46</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>30.97</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <f>1.2*F7</f>
         <v>37.163999999999994</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>0.1</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>2</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="18">
         <f t="shared" si="1"/>
         <v>55.746000000000002</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <f t="shared" si="3"/>
         <v>66.895200000000003</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>16</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>19.2</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>0.1</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>1</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="18">
         <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="18">
         <f t="shared" si="3"/>
         <v>17.28</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>16.47</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>19.763999999999999</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>0.1</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>1</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <f t="shared" si="1"/>
         <v>14.822999999999999</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="18">
         <f t="shared" si="3"/>
         <v>17.787599999999998</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="A10" s="52"/>
+      <c r="B10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="15">
+        <v>13.59</v>
+      </c>
+      <c r="G10" s="15">
+        <f>1.2*F10</f>
+        <v>16.308</v>
+      </c>
+      <c r="H10" s="16">
         <v>0.1</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="19">
+      <c r="I10" s="15">
+        <v>2</v>
+      </c>
+      <c r="J10" s="17">
+        <f>I10*F10*(1-H10)</f>
+        <v>24.462</v>
+      </c>
+      <c r="K10" s="17">
+        <f>J10*1.2</f>
+        <v>29.354399999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
         <v>0.1</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
+      <c r="I12" s="11"/>
+      <c r="J12" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
         <v>0.1</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="19">
+      <c r="I13" s="11"/>
+      <c r="J13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="45"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
         <v>0.1</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="19">
+      <c r="I14" s="11"/>
+      <c r="J14" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="41"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
         <v>0.1</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="19">
+      <c r="I15" s="11"/>
+      <c r="J15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="41"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
         <v>0.1</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="19">
+      <c r="I16" s="11"/>
+      <c r="J16" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="41"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
         <v>0.1</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="19">
+      <c r="I17" s="11"/>
+      <c r="J17" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="13">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="41"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
         <v>0.1</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="19">
+      <c r="I18" s="11"/>
+      <c r="J18" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="13">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
         <v>0.1</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="19">
+      <c r="I19" s="11"/>
+      <c r="J19" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="19">
+      <c r="B20" s="41"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1919,7 +1959,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1945,7 +1985,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
+      <c r="A2" s="27"/>
       <c r="F2">
         <f>1.2*E2</f>
         <v>0</v>
@@ -1960,7 +2000,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
+      <c r="A3" s="27"/>
       <c r="F3">
         <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
         <v>0</v>
@@ -1975,7 +2015,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="27"/>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1990,7 +2030,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="27"/>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2005,7 +2045,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="27"/>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2020,7 +2060,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="27"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2035,7 +2075,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="27"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2050,7 +2090,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2065,7 +2105,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2080,7 +2120,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="27"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2095,7 +2135,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="27"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2110,7 +2150,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="27"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2125,7 +2165,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2140,7 +2180,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2155,7 +2195,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2170,7 +2210,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2185,7 +2225,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2200,7 +2240,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2215,7 +2255,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2313,7 +2353,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2373,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2357,12 +2397,12 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -2391,7 +2431,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -2423,7 +2463,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -2455,7 +2495,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
@@ -2487,7 +2527,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="27"/>
       <c r="C6" t="s">
         <v>49</v>
       </c>
@@ -2508,7 +2548,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="27"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2523,7 +2563,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="27"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2538,7 +2578,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2553,7 +2593,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2568,7 +2608,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="27"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2583,7 +2623,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="27"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2598,7 +2638,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="27"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2613,7 +2653,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2628,7 +2668,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2643,7 +2683,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2658,7 +2698,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2673,7 +2713,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2688,7 +2728,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2703,7 +2743,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2801,7 +2841,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2817,12 +2857,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2907,13 +2947,16 @@
         <f t="shared" ref="F4:F25" si="0">1.2*E4</f>
         <v>132</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
       <c r="I4">
         <f t="shared" ref="I4:I25" si="1">H4*E4</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J25" si="2">I4*1.2</f>
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2926,20 +2969,35 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
+      <c r="E5">
+        <v>110</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2954,17 +3012,32 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7">
+        <v>293</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>351.59999999999997</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>351.59999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3244,7 +3317,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,7 +3336,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -3292,6 +3365,12 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>85</v>
+      </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
@@ -3618,6 +3697,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -3657,7 +3737,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -4039,7 +4119,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,7 +4138,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -4084,10 +4164,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="59" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -4107,7 +4187,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -4130,7 +4210,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -4153,7 +4233,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4176,7 +4256,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C6" t="s">
@@ -4199,7 +4279,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="27"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4214,7 +4294,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="27"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4229,7 +4309,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4244,7 +4324,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4259,7 +4339,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="27"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4274,7 +4354,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="27"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4289,7 +4369,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="27"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4304,7 +4384,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4319,7 +4399,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4334,7 +4414,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4349,7 +4429,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4364,7 +4444,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4379,7 +4459,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4394,7 +4474,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4512,7 +4592,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -4931,7 +5011,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E7319C-B79A-4166-B364-1F1EE792EE46}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AC5880-D61B-48BD-91AA-201C65E9AD44}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
-    <sheet name="Mouser" sheetId="3" r:id="rId2"/>
-    <sheet name="Variohm" sheetId="10" r:id="rId3"/>
-    <sheet name="Texense" sheetId="4" r:id="rId4"/>
-    <sheet name="oscaro" sheetId="5" r:id="rId5"/>
-    <sheet name="DTA Fast" sheetId="6" r:id="rId6"/>
-    <sheet name="DUNKERMOTOREN" sheetId="7" r:id="rId7"/>
-    <sheet name="Souriau" sheetId="8" r:id="rId8"/>
-    <sheet name="Racecapture" sheetId="9" r:id="rId9"/>
-    <sheet name="Données" sheetId="2" r:id="rId10"/>
+    <sheet name="Watterott" sheetId="11" r:id="rId2"/>
+    <sheet name="Mouser" sheetId="3" r:id="rId3"/>
+    <sheet name="Variohm" sheetId="10" r:id="rId4"/>
+    <sheet name="Texense" sheetId="4" r:id="rId5"/>
+    <sheet name="oscaro" sheetId="5" r:id="rId6"/>
+    <sheet name="DTA Fast" sheetId="6" r:id="rId7"/>
+    <sheet name="DUNKERMOTOREN" sheetId="7" r:id="rId8"/>
+    <sheet name="Souriau" sheetId="8" r:id="rId9"/>
+    <sheet name="Racecapture" sheetId="9" r:id="rId10"/>
+    <sheet name="Données" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="112">
   <si>
     <t>Système</t>
   </si>
@@ -224,6 +225,141 @@
   </si>
   <si>
     <t>numéro de la commande</t>
+  </si>
+  <si>
+    <t>Carte avant</t>
+  </si>
+  <si>
+    <t>Carte arrière</t>
+  </si>
+  <si>
+    <t>Tableau de bord</t>
+  </si>
+  <si>
+    <t>124-5482</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Ruban LED</t>
+  </si>
+  <si>
+    <t>pour le compte tour ( 2x plus chère que chez adafruit !)</t>
+  </si>
+  <si>
+    <t>609-6164</t>
+  </si>
+  <si>
+    <t>Bouton d'arrêt d'urgence</t>
+  </si>
+  <si>
+    <t>arrêt d'urgence, diamètre 40mm pour les deux cotés</t>
+  </si>
+  <si>
+    <t>262-3015</t>
+  </si>
+  <si>
+    <t>Eclairage LED rouge</t>
+  </si>
+  <si>
+    <t>Break light</t>
+  </si>
+  <si>
+    <t>772-0928</t>
+  </si>
+  <si>
+    <t>Boîtier IP67</t>
+  </si>
+  <si>
+    <t>pour arduino uno</t>
+  </si>
+  <si>
+    <t>219-5813</t>
+  </si>
+  <si>
+    <t>BOTS</t>
+  </si>
+  <si>
+    <t>Bosch 0281002845</t>
+  </si>
+  <si>
+    <t>Capteur, pression de suralimentation BOSCH</t>
+  </si>
+  <si>
+    <t>INT-200</t>
+  </si>
+  <si>
+    <t>Capteur température pneu</t>
+  </si>
+  <si>
+    <t>200° max</t>
+  </si>
+  <si>
+    <t>ELPM25</t>
+  </si>
+  <si>
+    <t>Capteur débattement 25mm</t>
+  </si>
+  <si>
+    <t>pour guillotine</t>
+  </si>
+  <si>
+    <t>BSPD</t>
+  </si>
+  <si>
+    <t>221-5535</t>
+  </si>
+  <si>
+    <t>NE555</t>
+  </si>
+  <si>
+    <t>timer BSPD</t>
+  </si>
+  <si>
+    <t>305-181</t>
+  </si>
+  <si>
+    <t>porte NOR</t>
+  </si>
+  <si>
+    <t>quadruple</t>
+  </si>
+  <si>
+    <t>463-870</t>
+  </si>
+  <si>
+    <t>Comparateur 2 entrées</t>
+  </si>
+  <si>
+    <t>par paquet de 50</t>
+  </si>
+  <si>
+    <t>par paquet de 20</t>
+  </si>
+  <si>
+    <t>541-9566</t>
+  </si>
+  <si>
+    <t>Double bascule flip-flop</t>
+  </si>
+  <si>
+    <t>par paquet de 5</t>
+  </si>
+  <si>
+    <t>1012 £</t>
+  </si>
+  <si>
+    <t>CANdiy-Shield V2 - CAN-Bus Shield</t>
+  </si>
+  <si>
+    <t>shield pour bus CAN</t>
+  </si>
+  <si>
+    <t>livraison comprise</t>
+  </si>
+  <si>
+    <t>j'ai pas compris le prix</t>
   </si>
   <si>
     <r>
@@ -256,96 +392,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(10/102018)</t>
+      <t>(10/10/2018)</t>
     </r>
   </si>
   <si>
-    <t>Carte avant</t>
-  </si>
-  <si>
-    <t>Carte arrière</t>
-  </si>
-  <si>
-    <t>Tableau de bord</t>
-  </si>
-  <si>
-    <t>124-5482</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Ruban LED</t>
-  </si>
-  <si>
-    <t>pour le compte tour ( 2x plus chère que chez adafruit !)</t>
-  </si>
-  <si>
-    <t>609-6164</t>
-  </si>
-  <si>
-    <t>Bouton d'arrêt d'urgence</t>
-  </si>
-  <si>
-    <t>arrêt d'urgence, diamètre 40mm pour les deux cotés</t>
-  </si>
-  <si>
-    <t>262-3015</t>
-  </si>
-  <si>
-    <t>Eclairage LED rouge</t>
-  </si>
-  <si>
-    <t>Break light</t>
-  </si>
-  <si>
-    <t>772-0928</t>
-  </si>
-  <si>
-    <t>Boîtier IP67</t>
-  </si>
-  <si>
-    <t>pour arduino uno</t>
-  </si>
-  <si>
-    <t>219-5813</t>
-  </si>
-  <si>
-    <t>BOTS</t>
-  </si>
-  <si>
-    <t>Bosch 0281002845</t>
-  </si>
-  <si>
-    <t>Capteur, pression de suralimentation BOSCH</t>
-  </si>
-  <si>
-    <t>INT-200</t>
-  </si>
-  <si>
-    <t>Capteur température pneu</t>
-  </si>
-  <si>
-    <t>200° max</t>
-  </si>
-  <si>
-    <t>ELPM25</t>
-  </si>
-  <si>
-    <t>Capteur débattement 25mm</t>
-  </si>
-  <si>
-    <t>pour guillotine</t>
-  </si>
-  <si>
-    <t>j'ai pas compris</t>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(10/11/2018)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +489,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -455,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -680,19 +766,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -761,9 +834,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -774,14 +845,16 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -813,9 +886,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -858,37 +928,34 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -900,21 +967,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -922,11 +974,36 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,159 +1312,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <v>1.022</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="29">
         <f>1.2*F2</f>
         <v>1.2263999999999999</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="30">
         <v>0.1</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="29">
         <v>5</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="31">
         <f>I2*F2*(1-H2)</f>
         <v>4.5990000000000002</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="32">
         <f>J2*1.2</f>
         <v>5.5187999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="37" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36">
         <v>20.57</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="36">
         <f t="shared" ref="G3:G24" si="0">1.2*F3</f>
         <v>24.684000000000001</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="37">
         <v>0.1</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="36">
         <v>2</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="38">
         <f t="shared" ref="J3:J20" si="1">I3*F3*(1-H3)</f>
         <v>37.026000000000003</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="39">
         <f>J3*1.2</f>
         <v>44.431200000000004</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="47">
+      <c r="A4" s="57"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="45">
         <f>SUM(F2:F3)</f>
         <v>21.591999999999999</v>
       </c>
-      <c r="G4" s="47">
-        <f t="shared" ref="G4:K6" si="2">SUM(G2:G3)</f>
+      <c r="G4" s="45">
+        <f t="shared" ref="G4:K4" si="2">SUM(G2:G3)</f>
         <v>25.910400000000003</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="45">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="45">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="45">
         <f t="shared" si="2"/>
         <v>41.625</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="45">
         <f t="shared" si="2"/>
         <v>49.95</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>69</v>
-      </c>
       <c r="D5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>72</v>
       </c>
       <c r="F5" s="11">
         <v>43.46</v>
@@ -1402,48 +1481,48 @@
       <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <f t="shared" si="1"/>
         <v>41.286999999999999</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="17">
         <f t="shared" ref="K5:K24" si="3">J5*1.2</f>
         <v>49.544399999999996</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61">
+      <c r="A6" s="64"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54">
         <v>43.46</v>
       </c>
-      <c r="L6" s="62" t="s">
-        <v>92</v>
+      <c r="L6" s="55" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>74</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>75</v>
       </c>
       <c r="F7" s="11">
         <v>30.97</v>
@@ -1458,28 +1537,28 @@
       <c r="I7" s="11">
         <v>2</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <f t="shared" si="1"/>
         <v>55.746000000000002</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <f t="shared" si="3"/>
         <v>66.895200000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="41" t="s">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="F8" s="11">
         <v>16</v>
@@ -1494,28 +1573,28 @@
       <c r="I8" s="11">
         <v>1</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="17">
         <f t="shared" si="3"/>
         <v>17.28</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="49" t="s">
         <v>82</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>83</v>
       </c>
       <c r="F9" s="11">
         <v>16.47</v>
@@ -1530,148 +1609,201 @@
       <c r="I9" s="11">
         <v>1</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <f t="shared" si="1"/>
         <v>14.822999999999999</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="17">
         <f t="shared" si="3"/>
         <v>17.787599999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="63"/>
       <c r="B10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>13.59</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <f>1.2*F10</f>
         <v>16.308</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>0.1</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <v>2</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <f>I10*F10*(1-H10)</f>
         <v>24.462</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <f>J10*1.2</f>
         <v>29.354399999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.29899999999999999</v>
+      </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35879999999999995</v>
       </c>
       <c r="H11" s="12">
         <v>0.1</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
+      <c r="I11" s="11">
+        <v>50</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="1"/>
+        <v>13.455</v>
+      </c>
+      <c r="K11" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+        <v>16.146000000000001</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="63"/>
+      <c r="B12" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1.34</v>
+      </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="H12" s="12">
         <v>0.1</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="18">
+      <c r="I12" s="11">
+        <v>4</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="1"/>
+        <v>4.8240000000000007</v>
+      </c>
+      <c r="K12" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+        <v>5.7888000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>99</v>
+      </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="11">
+        <v>0.376</v>
+      </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45119999999999999</v>
       </c>
       <c r="H13" s="12">
         <v>0.1</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
+      <c r="I13" s="11">
+        <v>20</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="1"/>
+        <v>6.7679999999999998</v>
+      </c>
+      <c r="K13" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+        <v>8.121599999999999</v>
+      </c>
+      <c r="L13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>103</v>
+      </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>0.76800000000000002</v>
+      </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.92159999999999997</v>
       </c>
       <c r="H14" s="12">
         <v>0.1</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="18">
+      <c r="I14" s="11">
+        <v>5</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="1"/>
+        <v>3.456</v>
+      </c>
+      <c r="K14" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.1471999999999998</v>
+      </c>
+      <c r="L14" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1684,17 +1816,17 @@
         <v>0.1</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="18">
+      <c r="J15" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1707,17 +1839,17 @@
         <v>0.1</v>
       </c>
       <c r="I16" s="11"/>
-      <c r="J16" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="18">
+      <c r="J16" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -1730,17 +1862,17 @@
         <v>0.1</v>
       </c>
       <c r="I17" s="11"/>
-      <c r="J17" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="18">
+      <c r="J17" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -1753,17 +1885,17 @@
         <v>0.1</v>
       </c>
       <c r="I18" s="11"/>
-      <c r="J18" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="18">
+      <c r="J18" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -1776,17 +1908,17 @@
         <v>0.1</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="18">
+      <c r="J19" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -1797,11 +1929,11 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="18">
+      <c r="J20" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1864,14 +1996,14 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A5:A13"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Données!$A$1:$A$3</xm:f>
@@ -1882,7 +2014,13 @@
           <x14:formula1>
             <xm:f>Données!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B20</xm:sqref>
+          <xm:sqref>B2:B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21FB2DF8-2938-45F7-9B58-C8E63999EABF}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7:B20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1891,11 +2029,160 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <f>1.2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <f>H2*E2-G2</f>
+        <v>-100</v>
+      </c>
+      <c r="J2">
+        <f>I2*1.2</f>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="0">1.2*E3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="1">H3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="2">I3*1.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{83A983CF-8CAD-41B1-865B-95D300006522}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,17 +2202,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1934,11 +2226,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A259F520-E154-4999-AE3C-A4511FCEA811}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2">
+        <f>1.2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>H2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>I2*1.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="45">
+        <f>SUM(E1:E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="45">
+        <f t="shared" ref="F3:J3" si="0">SUM(F1:F2)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="62">
+        <v>35.22</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5E9FD105-6F74-4BFA-8936-356E139B9691}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,7 +2398,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
+      <c r="A2" s="26"/>
       <c r="F2">
         <f>1.2*E2</f>
         <v>0</v>
@@ -2000,7 +2413,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="26"/>
       <c r="F3">
         <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
         <v>0</v>
@@ -2015,7 +2428,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="26"/>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2030,7 +2443,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="26"/>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2045,7 +2458,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="26"/>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2060,7 +2473,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="26"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2075,7 +2488,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="26"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2090,7 +2503,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="26"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2105,7 +2518,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2120,7 +2533,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="26"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2135,7 +2548,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2150,7 +2563,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="26"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2165,7 +2578,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2180,7 +2593,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2195,7 +2608,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="26"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2210,7 +2623,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="26"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2225,7 +2638,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2240,7 +2653,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="26"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2255,7 +2668,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="26"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2348,7 +2761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2975CF6-F759-4AB5-BD70-F4541FA768DC}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -2397,12 +2810,12 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -2431,7 +2844,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -2463,7 +2876,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -2495,7 +2908,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
@@ -2527,7 +2940,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="26"/>
       <c r="C6" t="s">
         <v>49</v>
       </c>
@@ -2548,7 +2961,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="26"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2563,7 +2976,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="26"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2578,7 +2991,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="26"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2593,7 +3006,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2608,7 +3021,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="26"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2623,7 +3036,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2638,7 +3051,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="26"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2653,7 +3066,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2668,7 +3081,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2683,7 +3096,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="26"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2698,7 +3111,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="26"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2713,7 +3126,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2728,7 +3141,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="26"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2743,7 +3156,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="26"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2836,7 +3249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -2857,11 +3270,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="10" t="s">
         <v>42</v>
       </c>
@@ -2990,13 +3403,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
         <v>86</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>88</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -3013,13 +3426,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
       </c>
       <c r="E7">
         <v>293</v>
@@ -3312,7 +3725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -3365,11 +3778,11 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>85</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
@@ -3713,12 +4126,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,7 +4150,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -3831,18 +4244,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+    <row r="5" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="45">
+        <f>SUM(E3:E4)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="45">
+        <f t="shared" ref="F5:J5" si="3">SUM(F3:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4101,12 +4531,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Données!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A20</xm:sqref>
+          <xm:sqref>A2:A4 A6:A20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{81CC792A-A81C-40B0-B414-402672928A29}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4114,7 +4550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -4138,7 +4574,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -4164,10 +4600,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="59" t="s">
+      <c r="A2" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -4187,8 +4623,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>67</v>
+      <c r="A3" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>34</v>
@@ -4210,8 +4646,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>67</v>
+      <c r="A4" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -4233,8 +4669,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>67</v>
+      <c r="A5" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>37</v>
@@ -4256,8 +4692,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>67</v>
+      <c r="A6" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -4279,7 +4715,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="26"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4294,7 +4730,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="26"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4309,7 +4745,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="26"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4324,7 +4760,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4339,7 +4775,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="26"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4354,7 +4790,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4369,7 +4805,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="26"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4384,7 +4820,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4399,7 +4835,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4414,7 +4850,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="26"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4429,7 +4865,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="26"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4444,7 +4880,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4459,7 +4895,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="26"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4474,7 +4910,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="26"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4568,12 +5004,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4984,153 +5420,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2">
-        <f>1.2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <f>H2*E2-G2</f>
-        <v>-100</v>
-      </c>
-      <c r="J2">
-        <f>I2*1.2</f>
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">1.2*E3</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I6" si="1">H3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J6" si="2">I3*1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{83A983CF-8CAD-41B1-865B-95D300006522}">
-          <x14:formula1>
-            <xm:f>Données!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AC5880-D61B-48BD-91AA-201C65E9AD44}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45A824E-8630-482B-AC84-AB4DD532CEBD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
   <si>
     <t>Système</t>
   </si>
@@ -306,45 +306,6 @@
   </si>
   <si>
     <t>BSPD</t>
-  </si>
-  <si>
-    <t>221-5535</t>
-  </si>
-  <si>
-    <t>NE555</t>
-  </si>
-  <si>
-    <t>timer BSPD</t>
-  </si>
-  <si>
-    <t>305-181</t>
-  </si>
-  <si>
-    <t>porte NOR</t>
-  </si>
-  <si>
-    <t>quadruple</t>
-  </si>
-  <si>
-    <t>463-870</t>
-  </si>
-  <si>
-    <t>Comparateur 2 entrées</t>
-  </si>
-  <si>
-    <t>par paquet de 50</t>
-  </si>
-  <si>
-    <t>par paquet de 20</t>
-  </si>
-  <si>
-    <t>541-9566</t>
-  </si>
-  <si>
-    <t>Double bascule flip-flop</t>
-  </si>
-  <si>
-    <t>par paquet de 5</t>
   </si>
   <si>
     <t>1012 £</t>
@@ -981,15 +942,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1003,8 +955,17 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,8 +1309,8 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>110</v>
+      <c r="A2" s="61" t="s">
+        <v>97</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>67</v>
@@ -1386,7 +1347,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="40" t="s">
         <v>65</v>
       </c>
@@ -1420,7 +1381,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="42"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -1453,8 +1414,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
-        <v>111</v>
+      <c r="A5" s="63" t="s">
+        <v>98</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>67</v>
@@ -1491,7 +1452,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="42"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -1507,15 +1468,15 @@
         <v>43.46</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="57" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="34" t="s">
@@ -1547,7 +1508,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="40" t="s">
         <v>10</v>
       </c>
@@ -1583,7 +1544,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="40" t="s">
         <v>10</v>
       </c>
@@ -1619,11 +1580,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="58" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -1655,151 +1616,98 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.29899999999999999</v>
-      </c>
+      <c r="A11" s="60"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="11">
-        <f t="shared" si="0"/>
-        <v>0.35879999999999995</v>
+        <f t="shared" ref="G11:G14" si="4">1.2*F11</f>
+        <v>0</v>
       </c>
       <c r="H11" s="12">
         <v>0.1</v>
       </c>
-      <c r="I11" s="11">
-        <v>50</v>
-      </c>
+      <c r="I11" s="11"/>
       <c r="J11" s="17">
-        <f t="shared" si="1"/>
-        <v>13.455</v>
+        <f t="shared" ref="J11:J14" si="5">I11*F11*(1-H11)</f>
+        <v>0</v>
       </c>
       <c r="K11" s="17">
-        <f t="shared" si="3"/>
-        <v>16.146000000000001</v>
-      </c>
-      <c r="L11" t="s">
-        <v>100</v>
+        <f t="shared" ref="K11:K14" si="6">J11*1.2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1.34</v>
-      </c>
+      <c r="A12" s="60"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
-        <v>1.6080000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H12" s="12">
         <v>0.1</v>
       </c>
-      <c r="I12" s="11">
-        <v>4</v>
-      </c>
+      <c r="I12" s="11"/>
       <c r="J12" s="17">
-        <f t="shared" si="1"/>
-        <v>4.8240000000000007</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K12" s="17">
-        <f t="shared" si="3"/>
-        <v>5.7888000000000011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>99</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="11">
-        <v>0.376</v>
-      </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="11">
-        <f t="shared" si="0"/>
-        <v>0.45119999999999999</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H13" s="12">
         <v>0.1</v>
       </c>
-      <c r="I13" s="11">
-        <v>20</v>
-      </c>
+      <c r="I13" s="11"/>
       <c r="J13" s="17">
-        <f t="shared" si="1"/>
-        <v>6.7679999999999998</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K13" s="17">
-        <f t="shared" si="3"/>
-        <v>8.121599999999999</v>
-      </c>
-      <c r="L13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>103</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11">
-        <v>0.76800000000000002</v>
-      </c>
+      <c r="F14" s="11"/>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
-        <v>0.92159999999999997</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H14" s="12">
         <v>0.1</v>
       </c>
-      <c r="I14" s="11">
-        <v>5</v>
-      </c>
+      <c r="I14" s="11"/>
       <c r="J14" s="17">
-        <f t="shared" si="1"/>
-        <v>3.456</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K14" s="17">
-        <f t="shared" si="3"/>
-        <v>4.1471999999999998</v>
-      </c>
-      <c r="L14" t="s">
-        <v>104</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1944,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21:J24" si="4">I21*F21</f>
+        <f t="shared" ref="J21:J24" si="7">I21*F21</f>
         <v>0</v>
       </c>
       <c r="K21">
@@ -1958,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K22">
@@ -1972,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K23">
@@ -1986,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K24">
@@ -2181,7 +2089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2277,10 +2185,10 @@
         <v>65</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -2307,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="45">
-        <f t="shared" ref="F3:J3" si="0">SUM(F1:F2)</f>
+        <f t="shared" ref="F3:I3" si="0">SUM(F1:F2)</f>
         <v>0</v>
       </c>
       <c r="G3" s="45">
@@ -2322,11 +2230,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="59">
         <v>35.22</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3270,11 +3178,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="10" t="s">
         <v>42</v>
       </c>
@@ -4256,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="45">
-        <f t="shared" ref="F5:J5" si="3">SUM(F3:F4)</f>
+        <f t="shared" ref="F5:I5" si="3">SUM(F3:F4)</f>
         <v>0</v>
       </c>
       <c r="G5" s="45">
@@ -4272,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45A824E-8630-482B-AC84-AB4DD532CEBD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E6B459-680E-4624-A511-073F1FE3CCC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
     <sheet name="Watterott" sheetId="11" r:id="rId2"/>
     <sheet name="Mouser" sheetId="3" r:id="rId3"/>
-    <sheet name="Variohm" sheetId="10" r:id="rId4"/>
-    <sheet name="Texense" sheetId="4" r:id="rId5"/>
+    <sheet name="Texense" sheetId="4" r:id="rId4"/>
+    <sheet name="Variohm" sheetId="10" r:id="rId5"/>
     <sheet name="oscaro" sheetId="5" r:id="rId6"/>
     <sheet name="DTA Fast" sheetId="6" r:id="rId7"/>
     <sheet name="DUNKERMOTOREN" sheetId="7" r:id="rId8"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="113">
   <si>
     <t>Système</t>
   </si>
@@ -371,6 +371,48 @@
       <t>(10/11/2018)</t>
     </r>
   </si>
+  <si>
+    <t>12v to 5v 3A pour alim tdb</t>
+  </si>
+  <si>
+    <t>495-THN15-2411WIR</t>
+  </si>
+  <si>
+    <t>THN15 traco power</t>
+  </si>
+  <si>
+    <t>799-0228</t>
+  </si>
+  <si>
+    <t>mcp2562</t>
+  </si>
+  <si>
+    <t>can transceiver</t>
+  </si>
+  <si>
+    <t>lot de 10</t>
+  </si>
+  <si>
+    <t>628-3548</t>
+  </si>
+  <si>
+    <t>mcp2515</t>
+  </si>
+  <si>
+    <t>can controler</t>
+  </si>
+  <si>
+    <t>547-6294</t>
+  </si>
+  <si>
+    <t>quartz 16 MHz</t>
+  </si>
+  <si>
+    <t>quartz pour le can</t>
+  </si>
+  <si>
+    <t>lot de 5</t>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +421,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +504,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -948,13 +996,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1254,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,7 +1518,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="46" t="s">
         <v>10</v>
       </c>
@@ -1508,7 +1554,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="40" t="s">
         <v>10</v>
       </c>
@@ -1544,7 +1590,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="40" t="s">
         <v>10</v>
       </c>
@@ -1580,11 +1626,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="57" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -1604,47 +1650,70 @@
         <v>0.1</v>
       </c>
       <c r="I10" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="16">
         <f>I10*F10*(1-H10)</f>
-        <v>24.462</v>
+        <v>12.231</v>
       </c>
       <c r="K10" s="16">
         <f>J10*1.2</f>
-        <v>29.354399999999998</v>
+        <v>14.677199999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.78900000000000003</v>
+      </c>
       <c r="G11" s="11">
         <f t="shared" ref="G11:G14" si="4">1.2*F11</f>
-        <v>0</v>
+        <v>0.94679999999999997</v>
       </c>
       <c r="H11" s="12">
         <v>0.1</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11">
+        <v>10</v>
+      </c>
       <c r="J11" s="17">
         <f t="shared" ref="J11:J14" si="5">I11*F11*(1-H11)</f>
-        <v>0</v>
+        <v>7.1010000000000009</v>
       </c>
       <c r="K11" s="17">
         <f t="shared" ref="K11:K14" si="6">J11*1.2</f>
-        <v>0</v>
+        <v>8.5212000000000003</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11">
         <f t="shared" si="4"/>
@@ -1663,28 +1732,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.27600000000000002</v>
+      </c>
       <c r="G13" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.33119999999999999</v>
       </c>
       <c r="H13" s="12">
         <v>0.1</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11">
+        <v>5</v>
+      </c>
       <c r="J13" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.2420000000000002</v>
       </c>
       <c r="K13" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.4904000000000002</v>
+      </c>
+      <c r="L13" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2230,7 +2314,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="58">
         <v>35.22</v>
       </c>
       <c r="K3" s="7" t="s">
@@ -2258,15 +2342,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
@@ -2305,19 +2389,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
+    <row r="2" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2">
+        <v>54.72</v>
+      </c>
       <c r="F2">
         <f>1.2*E2</f>
-        <v>0</v>
+        <v>65.664000000000001</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="I2">
         <f>H2*E2</f>
-        <v>0</v>
+        <v>54.72</v>
       </c>
       <c r="J2">
         <f>I2*1.2</f>
-        <v>0</v>
+        <v>65.664000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2648,6 +2749,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -2670,499 +2772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2975CF6-F759-4AB5-BD70-F4541FA768DC}">
-  <dimension ref="A1:K24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <f>1.2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <f>H2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>I2*1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I24" si="1">H3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J24" si="2">I3*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4380C4A4-E62E-475A-A73D-70090E7E2E9A}">
-          <x14:formula1>
-            <xm:f>Données!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>A21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B58D1E6-4568-4AB6-9373-5555FB956C9D}">
-          <x14:formula1>
-            <xm:f>Données!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A20</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,6 +3240,494 @@
             <xm:f>Données!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2975CF6-F759-4AB5-BD70-F4541FA768DC}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <f>1.2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>H2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>I2*1.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I24" si="1">H3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J24" si="2">I3*1.2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4380C4A4-E62E-475A-A73D-70090E7E2E9A}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B58D1E6-4568-4AB6-9373-5555FB956C9D}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E6B459-680E-4624-A511-073F1FE3CCC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2460DC62-660F-4E07-B90E-28B8B7821895}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
     <sheet name="Watterott" sheetId="11" r:id="rId2"/>
     <sheet name="Mouser" sheetId="3" r:id="rId3"/>
-    <sheet name="Texense" sheetId="4" r:id="rId4"/>
-    <sheet name="Variohm" sheetId="10" r:id="rId5"/>
+    <sheet name="KazTechnologie" sheetId="12" r:id="rId4"/>
+    <sheet name="Texense" sheetId="4" r:id="rId5"/>
     <sheet name="oscaro" sheetId="5" r:id="rId6"/>
     <sheet name="DTA Fast" sheetId="6" r:id="rId7"/>
     <sheet name="DUNKERMOTOREN" sheetId="7" r:id="rId8"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="139">
   <si>
     <t>Système</t>
   </si>
@@ -174,54 +174,6 @@
   </si>
   <si>
     <t>Arduino Uno</t>
-  </si>
-  <si>
-    <t>Pression huile moteur</t>
-  </si>
-  <si>
-    <t>Pressur sensor</t>
-  </si>
-  <si>
-    <t>Position guillotine</t>
-  </si>
-  <si>
-    <t>EPT1200-K-16000-B-5-A</t>
-  </si>
-  <si>
-    <t>Pression frein</t>
-  </si>
-  <si>
-    <t>EPT3100-H-25000-A-5-A</t>
-  </si>
-  <si>
-    <t>EURO-WS-M10</t>
-  </si>
-  <si>
-    <t>Wheel speed sensor</t>
-  </si>
-  <si>
-    <t>Vitesse des roues</t>
-  </si>
-  <si>
-    <t>Pression essence</t>
-  </si>
-  <si>
-    <t>Dash 3</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>M10</t>
-  </si>
-  <si>
-    <t>Connecteur méca</t>
-  </si>
-  <si>
-    <t>ELPM-25</t>
-  </si>
-  <si>
-    <t>Motorsport linear motion position sensor</t>
   </si>
   <si>
     <t>numéro de la commande</t>
@@ -372,18 +324,6 @@
     </r>
   </si>
   <si>
-    <t>12v to 5v 3A pour alim tdb</t>
-  </si>
-  <si>
-    <t>495-THN15-2411WIR</t>
-  </si>
-  <si>
-    <t>THN15 traco power</t>
-  </si>
-  <si>
-    <t>799-0228</t>
-  </si>
-  <si>
     <t>mcp2562</t>
   </si>
   <si>
@@ -393,9 +333,6 @@
     <t>lot de 10</t>
   </si>
   <si>
-    <t>628-3548</t>
-  </si>
-  <si>
     <t>mcp2515</t>
   </si>
   <si>
@@ -412,6 +349,147 @@
   </si>
   <si>
     <t>lot de 5</t>
+  </si>
+  <si>
+    <t>679-5596</t>
+  </si>
+  <si>
+    <t>467-598</t>
+  </si>
+  <si>
+    <t>cosse à sertir série 4809</t>
+  </si>
+  <si>
+    <t>pour KK 254</t>
+  </si>
+  <si>
+    <t>Connecteur 4 voie KK 254</t>
+  </si>
+  <si>
+    <t>mâle</t>
+  </si>
+  <si>
+    <t>467-611</t>
+  </si>
+  <si>
+    <t>femelle</t>
+  </si>
+  <si>
+    <t>10 unités</t>
+  </si>
+  <si>
+    <t>1 kit de 10</t>
+  </si>
+  <si>
+    <t>Afficheur 3 digit</t>
+  </si>
+  <si>
+    <t>863-4967</t>
+  </si>
+  <si>
+    <t>BA56-12SYKWA</t>
+  </si>
+  <si>
+    <t>877-0965</t>
+  </si>
+  <si>
+    <t>SA10-21SYKWA</t>
+  </si>
+  <si>
+    <t>Afficheur 1 digit</t>
+  </si>
+  <si>
+    <t>Paquet de 13</t>
+  </si>
+  <si>
+    <t>Paquet de 4</t>
+  </si>
+  <si>
+    <t>628-3532</t>
+  </si>
+  <si>
+    <t>799-0225</t>
+  </si>
+  <si>
+    <t>on en prends 5 au cas ou</t>
+  </si>
+  <si>
+    <t>734-6823</t>
+  </si>
+  <si>
+    <t>Bouton poussoir</t>
+  </si>
+  <si>
+    <t>173-2916</t>
+  </si>
+  <si>
+    <t>173-2922</t>
+  </si>
+  <si>
+    <t>173-2972</t>
+  </si>
+  <si>
+    <t>Connecteur 2 voie</t>
+  </si>
+  <si>
+    <t>Connecteur 3 voie</t>
+  </si>
+  <si>
+    <t>mâle KK254</t>
+  </si>
+  <si>
+    <t>Paquet de 5</t>
+  </si>
+  <si>
+    <t>296-4934</t>
+  </si>
+  <si>
+    <t>femelle KK254</t>
+  </si>
+  <si>
+    <t>296-4940</t>
+  </si>
+  <si>
+    <t>679-5404</t>
+  </si>
+  <si>
+    <t>Connecteur 7 voie</t>
+  </si>
+  <si>
+    <t>Paquet de 10</t>
+  </si>
+  <si>
+    <t>THN 15-1211</t>
+  </si>
+  <si>
+    <t>Traco power 9-18v to 5V 3A</t>
+  </si>
+  <si>
+    <t>438-272</t>
+  </si>
+  <si>
+    <t>Paquet de 20</t>
+  </si>
+  <si>
+    <t>1 en sécu</t>
+  </si>
+  <si>
+    <t>671-4733</t>
+  </si>
+  <si>
+    <t>2N700</t>
+  </si>
+  <si>
+    <t>mosfet N- 200mA</t>
+  </si>
+  <si>
+    <t>sécu</t>
+  </si>
+  <si>
+    <t>PDWorx Paddle shifter</t>
+  </si>
+  <si>
+    <t>palette au volant</t>
   </si>
 </sst>
 </file>
@@ -421,7 +499,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +589,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -518,12 +604,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -549,8 +629,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -651,21 +737,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -859,11 +930,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -885,10 +1025,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -900,71 +1040,62 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -983,35 +1114,77 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,16 +1471,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
@@ -1319,253 +1492,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <v>1.022</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <f>1.2*F2</f>
         <v>1.2263999999999999</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="29">
         <v>0.1</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="28">
         <v>5</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="30">
         <f>I2*F2*(1-H2)</f>
         <v>4.5990000000000002</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="31">
         <f>J2*1.2</f>
         <v>5.5187999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35">
         <v>20.57</v>
       </c>
-      <c r="G3" s="36">
-        <f t="shared" ref="G3:G24" si="0">1.2*F3</f>
+      <c r="G3" s="35">
+        <f t="shared" ref="G3:G19" si="0">1.2*F3</f>
         <v>24.684000000000001</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="36">
         <v>0.1</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="35">
         <v>2</v>
       </c>
-      <c r="J3" s="38">
-        <f t="shared" ref="J3:J20" si="1">I3*F3*(1-H3)</f>
+      <c r="J3" s="37">
+        <f t="shared" ref="J3:J19" si="1">I3*F3*(1-H3)</f>
         <v>37.026000000000003</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="38">
         <f>J3*1.2</f>
         <v>44.431200000000004</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="45">
+      <c r="A4" s="69"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="42">
         <f>SUM(F2:F3)</f>
         <v>21.591999999999999</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="42">
         <f t="shared" ref="G4:K4" si="2">SUM(G2:G3)</f>
         <v>25.910400000000003</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="42">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="42">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="42">
         <f t="shared" si="2"/>
         <v>41.625</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="65">
         <f t="shared" si="2"/>
         <v>49.95</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="A5" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="28">
         <v>43.46</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="28">
         <f t="shared" si="0"/>
         <v>52.152000000000001</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="29">
         <v>0.05</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="28">
         <v>1</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="30">
         <f t="shared" si="1"/>
         <v>41.286999999999999</v>
       </c>
-      <c r="K5" s="17">
-        <f t="shared" ref="K5:K24" si="3">J5*1.2</f>
+      <c r="K5" s="31">
+        <f t="shared" ref="K5:K19" si="3">J5*1.2</f>
         <v>49.544399999999996</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54">
+      <c r="A6" s="71"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="65">
         <v>43.46</v>
       </c>
-      <c r="L6" s="55" t="s">
-        <v>96</v>
+      <c r="L6" s="50" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="72">
+        <v>3</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="C7" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="14">
         <v>30.97</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="14">
         <f>1.2*F7</f>
         <v>37.163999999999994</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="15">
         <v>0.1</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="14">
         <v>2</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <f t="shared" si="1"/>
         <v>55.746000000000002</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <f t="shared" si="3"/>
         <v>66.895200000000003</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>75</v>
+      <c r="C8" s="45" t="s">
+        <v>59</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F8" s="11">
         <v>16</v>
@@ -1590,18 +1765,18 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>82</v>
+      <c r="C9" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="F9" s="11">
         <v>16.47</v>
@@ -1626,18 +1801,18 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>78</v>
+      <c r="A10" s="72"/>
+      <c r="B10" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>62</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F10" s="14">
         <v>13.59</v>
@@ -1662,25 +1837,25 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>102</v>
+      <c r="A11" s="72"/>
+      <c r="B11" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F11" s="11">
-        <v>0.78900000000000003</v>
+        <v>0.82</v>
       </c>
       <c r="G11" s="11">
         <f t="shared" ref="G11:G14" si="4">1.2*F11</f>
-        <v>0.94679999999999997</v>
+        <v>0.98399999999999987</v>
       </c>
       <c r="H11" s="12">
         <v>0.1</v>
@@ -1690,61 +1865,68 @@
       </c>
       <c r="J11" s="17">
         <f t="shared" ref="J11:J14" si="5">I11*F11*(1-H11)</f>
-        <v>7.1010000000000009</v>
+        <v>7.38</v>
       </c>
       <c r="K11" s="17">
         <f t="shared" ref="K11:K14" si="6">J11*1.2</f>
-        <v>8.5212000000000003</v>
+        <v>8.8559999999999999</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>106</v>
+      <c r="A12" s="72"/>
+      <c r="B12" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1.68</v>
+      </c>
       <c r="G12" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.016</v>
       </c>
       <c r="H12" s="12">
         <v>0.1</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11">
+        <v>5</v>
+      </c>
       <c r="J12" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.5600000000000005</v>
       </c>
       <c r="K12" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.072000000000001</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>110</v>
+      <c r="A13" s="72"/>
+      <c r="B13" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F13" s="11">
         <v>0.27600000000000002</v>
@@ -1768,251 +1950,854 @@
         <v>1.4904000000000002</v>
       </c>
       <c r="L13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+      <c r="B14" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.23300000000000001</v>
+      </c>
       <c r="G14" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.27960000000000002</v>
       </c>
       <c r="H14" s="12">
         <v>0.1</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11">
+        <v>10</v>
+      </c>
       <c r="J14" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.097</v>
       </c>
       <c r="K14" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+        <v>2.5164</v>
+      </c>
+      <c r="L14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="72"/>
+      <c r="B15" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="11">
+        <v>7.8E-2</v>
+      </c>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="H15" s="12">
         <v>0.1</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11">
+        <v>100</v>
+      </c>
       <c r="J15" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.02</v>
       </c>
       <c r="K15" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
+        <v>8.4239999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="72"/>
+      <c r="B16" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="35">
+        <v>3.3</v>
+      </c>
+      <c r="G16" s="35">
+        <f t="shared" si="0"/>
+        <v>3.9599999999999995</v>
+      </c>
+      <c r="H16" s="36">
         <v>0.1</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="17">
+      <c r="I16" s="35">
+        <v>1</v>
+      </c>
+      <c r="J16" s="37">
+        <f t="shared" si="1"/>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="K16" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+        <v>3.5639999999999996</v>
+      </c>
+      <c r="L16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+      <c r="B17" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1.022</v>
+      </c>
       <c r="G17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>1.2*F17</f>
+        <v>1.2263999999999999</v>
       </c>
       <c r="H17" s="12">
         <v>0.1</v>
       </c>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11">
+        <v>5</v>
+      </c>
       <c r="J17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>I17*F17*(1-H17)</f>
+        <v>4.5990000000000002</v>
       </c>
       <c r="K17" s="17">
+        <f>J17*1.2</f>
+        <v>5.5187999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="14">
+        <v>2.117</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="0"/>
+        <v>2.5404</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="14">
+        <v>13</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="1"/>
+        <v>24.768900000000002</v>
+      </c>
+      <c r="K18" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+        <v>29.72268</v>
+      </c>
+      <c r="L18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2.4729999999999999</v>
+      </c>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9675999999999996</v>
       </c>
       <c r="H19" s="12">
         <v>0.1</v>
       </c>
-      <c r="I19" s="11"/>
+      <c r="I19" s="11">
+        <v>4</v>
+      </c>
       <c r="J19" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.9027999999999992</v>
       </c>
       <c r="K19" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+        <v>10.683359999999999</v>
+      </c>
+      <c r="L19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="11">
+        <v>2.6</v>
+      </c>
       <c r="G20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+        <f t="shared" ref="G20:G37" si="7">1.2*F20</f>
+        <v>3.12</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="11">
+        <v>3</v>
+      </c>
       <c r="J20" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="J20:J37" si="8">I20*F20*(1-H20)</f>
+        <v>7.0200000000000005</v>
       </c>
       <c r="K20" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ref="J21:J24" si="7">I21*F21</f>
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
+        <f t="shared" ref="K20:K37" si="9">J20*1.2</f>
+        <v>8.4239999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72"/>
+      <c r="B21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="G21" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="11">
+        <v>10</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="8"/>
+        <v>4.59</v>
+      </c>
+      <c r="K21" s="17">
+        <f t="shared" si="9"/>
+        <v>5.508</v>
+      </c>
+      <c r="L21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="72"/>
+      <c r="B22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="G22" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="11">
+        <v>5</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" si="8"/>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="K22" s="17">
+        <f t="shared" si="9"/>
+        <v>3.8879999999999995</v>
+      </c>
+      <c r="L22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+      <c r="B23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="G23" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="11">
+        <v>5</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="8"/>
+        <v>7.9200000000000008</v>
+      </c>
+      <c r="K23" s="17">
+        <f t="shared" si="9"/>
+        <v>9.5040000000000013</v>
+      </c>
+      <c r="L23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72"/>
+      <c r="B24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="7"/>
+        <v>0.2712</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="11">
+        <v>10</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="8"/>
+        <v>2.0340000000000003</v>
+      </c>
+      <c r="K24" s="17">
+        <f t="shared" si="9"/>
+        <v>2.4408000000000003</v>
+      </c>
+      <c r="L24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="72"/>
+      <c r="B25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="7"/>
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="11">
+        <v>5</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="8"/>
+        <v>2.0340000000000003</v>
+      </c>
+      <c r="K25" s="17">
+        <f t="shared" si="9"/>
+        <v>2.4408000000000003</v>
+      </c>
+      <c r="L25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72"/>
+      <c r="B26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="7"/>
+        <v>0.32280000000000003</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="11">
+        <v>10</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="8"/>
+        <v>2.4210000000000003</v>
+      </c>
+      <c r="K26" s="17">
+        <f t="shared" si="9"/>
+        <v>2.9052000000000002</v>
+      </c>
+      <c r="L26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72"/>
+      <c r="B27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="11">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="7"/>
+        <v>44.808</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="11">
+        <v>2</v>
+      </c>
+      <c r="J27" s="17">
+        <f t="shared" si="8"/>
+        <v>67.212000000000003</v>
+      </c>
+      <c r="K27" s="17">
+        <f t="shared" si="9"/>
+        <v>80.654399999999995</v>
+      </c>
+      <c r="L27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72"/>
+      <c r="B28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.219</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="7"/>
+        <v>0.26279999999999998</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="11">
+        <v>20</v>
+      </c>
+      <c r="J28" s="17">
+        <f t="shared" si="8"/>
+        <v>3.9420000000000002</v>
+      </c>
+      <c r="K28" s="17">
+        <f t="shared" si="9"/>
+        <v>4.7304000000000004</v>
+      </c>
+      <c r="L28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="72"/>
+      <c r="B29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
+        <v>20.57</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="7"/>
+        <v>24.684000000000001</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="11">
+        <v>2</v>
+      </c>
+      <c r="J29" s="17">
+        <f t="shared" si="8"/>
+        <v>37.026000000000003</v>
+      </c>
+      <c r="K29" s="17">
+        <f t="shared" si="9"/>
+        <v>44.431200000000004</v>
+      </c>
+      <c r="L29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="72"/>
+      <c r="B30" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="72"/>
+      <c r="B31" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="72"/>
+      <c r="B32" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="72"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="72"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="72"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="72"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="72"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="61">
+        <f>SUM(K7:K37)</f>
+        <v>361.41443999999996</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>Données!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B21</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F15CAACE-BD3C-4F3F-8AD7-94DA2B82CEF2}">
           <x14:formula1>
             <xm:f>Données!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B6</xm:sqref>
+          <xm:sqref>B2:B6 B17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21FB2DF8-2938-45F7-9B58-C8E63999EABF}">
           <x14:formula1>
             <xm:f>Données!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:B20</xm:sqref>
+          <xm:sqref>B7:B16 B18:B37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2194,22 +2979,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2265,14 +3050,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>65</v>
+      <c r="A2" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -2288,37 +3073,37 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="45">
+      <c r="A3" s="40"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="42">
         <f>SUM(E1:E2)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="42">
         <f t="shared" ref="F3:I3" si="0">SUM(F1:F2)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="58">
+      <c r="G3" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="53">
         <v>35.22</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2342,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2389,361 +3174,346 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2">
-        <v>54.72</v>
-      </c>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="54"/>
+      <c r="D2" s="33"/>
       <c r="F2">
-        <f>1.2*E2</f>
-        <v>65.664000000000001</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+        <f t="shared" ref="F2" si="0">1.2*E2</f>
+        <v>0</v>
       </c>
       <c r="I2">
-        <f>H2*E2</f>
-        <v>54.72</v>
+        <f t="shared" ref="I2" si="1">H2*E2</f>
+        <v>0</v>
       </c>
       <c r="J2">
-        <f>I2*1.2</f>
-        <v>65.664000000000001</v>
+        <f t="shared" ref="J2" si="2">I2*1.2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="25"/>
       <c r="F3">
-        <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
+        <f t="shared" ref="F3:F24" si="3">1.2*E3</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I24" si="1">H3*E3</f>
+        <f t="shared" ref="I3:I24" si="4">H3*E3</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J24" si="2">I3*1.2</f>
+        <f t="shared" ref="J3:J24" si="5">I3*1.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="25"/>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="25"/>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="25"/>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="25"/>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="25"/>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="25"/>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2772,6 +3542,123 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8FBB1F-3B5A-4715-9205-E64014F4A9F8}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="11">
+        <f>305.3/1.2</f>
+        <v>254.41666666666669</v>
+      </c>
+      <c r="F2" s="11">
+        <f t="shared" ref="F2:F3" si="0">1.2*E2</f>
+        <v>305.3</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" ref="I2:I3" si="1">H2*E2</f>
+        <v>254.41666666666669</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" ref="J2:J3" si="2">I2*1.2</f>
+        <v>305.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="74"/>
+      <c r="E3" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3">
+        <f>J2</f>
+        <v>305.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BEDBA88-8B64-47CE-AF14-F0BC3A3BFFD0}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -2792,11 +3679,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="10" t="s">
         <v>42</v>
       </c>
@@ -2925,13 +3812,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -2948,13 +3835,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>293</v>
@@ -3240,494 +4127,6 @@
             <xm:f>Données!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A22</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2975CF6-F759-4AB5-BD70-F4541FA768DC}">
-  <dimension ref="A1:K24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <f>1.2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <f>H2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>I2*1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F24" si="0">1.2*E3</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I24" si="1">H3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J24" si="2">I3*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4380C4A4-E62E-475A-A73D-70090E7E2E9A}">
-          <x14:formula1>
-            <xm:f>Données!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>A21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B58D1E6-4568-4AB6-9373-5555FB956C9D}">
-          <x14:formula1>
-            <xm:f>Données!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3788,11 +4187,11 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>84</v>
+      <c r="B2" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
@@ -4255,34 +4654,34 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="45">
+      <c r="A5" s="40"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="42">
         <f>SUM(E3:E4)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="42">
         <f t="shared" ref="F5:I5" si="3">SUM(F3:F4)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J5" s="45" t="s">
-        <v>92</v>
+      <c r="J5" s="42" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4610,10 +5009,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="52" t="s">
+      <c r="A2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -4633,8 +5032,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>66</v>
+      <c r="A3" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>34</v>
@@ -4656,8 +5055,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>66</v>
+      <c r="A4" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -4679,8 +5078,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>66</v>
+      <c r="A5" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>37</v>
@@ -4702,8 +5101,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>66</v>
+      <c r="A6" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -4725,7 +5124,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4740,7 +5139,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4755,7 +5154,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="25"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4770,7 +5169,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4785,7 +5184,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4800,7 +5199,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4815,7 +5214,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4830,7 +5229,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="25"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4845,7 +5244,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4860,7 +5259,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4875,7 +5274,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="25"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4890,7 +5289,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="25"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4905,7 +5304,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="25"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4920,7 +5319,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E72B5D8-974B-4D20-8E3C-E9F46C5DCE67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7ECA10-7DCD-45E0-A7DE-83924EB955EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,11 @@
     <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="247">
   <si>
     <t>numéro de la commande</t>
   </si>
@@ -296,24 +295,15 @@
     <t>173-2922</t>
   </si>
   <si>
-    <t>Connecteur 3 voie</t>
-  </si>
-  <si>
     <t>173-2972</t>
   </si>
   <si>
-    <t>Connecteur 7 voie</t>
-  </si>
-  <si>
     <t>femelle KK254</t>
   </si>
   <si>
     <t>296-4940</t>
   </si>
   <si>
-    <t>679-5404</t>
-  </si>
-  <si>
     <t>Paquet de 10</t>
   </si>
   <si>
@@ -452,9 +442,6 @@
     <t xml:space="preserve">909-7687 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cosse à sertir FASTON .250 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cosses à sertir pour fil d'alternateur. Les cosses normales brûlent à cause du fort ampérage, il faut les sertir. </t>
   </si>
   <si>
@@ -750,6 +737,96 @@
   </si>
   <si>
     <t>Zener de 14V 5W</t>
+  </si>
+  <si>
+    <t>679-5363</t>
+  </si>
+  <si>
+    <t>173-2916</t>
+  </si>
+  <si>
+    <t>479-131</t>
+  </si>
+  <si>
+    <t>un paquet de 10</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>679-5391</t>
+  </si>
+  <si>
+    <t>Connecteur 6 voies</t>
+  </si>
+  <si>
+    <t>Connecteur 2 voies</t>
+  </si>
+  <si>
+    <t>A10-21SYKWA</t>
+  </si>
+  <si>
+    <t>Connecteur 7 voies</t>
+  </si>
+  <si>
+    <t>Connecteur 3 voies</t>
+  </si>
+  <si>
+    <t>KK 254 femelle</t>
+  </si>
+  <si>
+    <t>173-2966</t>
+  </si>
+  <si>
+    <t>KK 254 mâle</t>
+  </si>
+  <si>
+    <t>740-8802</t>
+  </si>
+  <si>
+    <t>Résistance 100k R0603</t>
+  </si>
+  <si>
+    <t>Paquet de 50</t>
+  </si>
+  <si>
+    <t>740-8798</t>
+  </si>
+  <si>
+    <t>Résistance 100 Ohm R0603</t>
+  </si>
+  <si>
+    <t>679-0532</t>
+  </si>
+  <si>
+    <t>Résistance 560k Ohm R0603</t>
+  </si>
+  <si>
+    <t>679-0285</t>
+  </si>
+  <si>
+    <t>Résistance 39k Ohm R0603</t>
+  </si>
+  <si>
+    <t>678-9667</t>
+  </si>
+  <si>
+    <t>Résistance 10k Ohm R0603</t>
+  </si>
+  <si>
+    <t>136-7681</t>
+  </si>
+  <si>
+    <t>Condensateur 100nF</t>
+  </si>
+  <si>
+    <t>172-6888</t>
+  </si>
+  <si>
+    <t>Condensateur 10µF</t>
+  </si>
+  <si>
+    <t>paquet 100</t>
   </si>
 </sst>
 </file>
@@ -761,7 +838,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[Red]\-#,##0.00\ [$€-40C]"/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;;[Red]\-#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -865,8 +942,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,8 +987,44 @@
         <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1094,41 +1214,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1230,11 +1321,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1289,18 +1555,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1313,22 +1573,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1346,21 +1594,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1368,7 +1616,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1399,23 +1647,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1490,6 +1864,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1812,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,15 +2244,15 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="73" t="s">
-        <v>217</v>
+      <c r="L1" s="67" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="68" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1912,7 +2290,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
@@ -1946,7 +2324,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1977,12 +2355,12 @@
         <f t="shared" si="0"/>
         <v>49.95</v>
       </c>
-      <c r="L4" s="71" t="s">
-        <v>216</v>
+      <c r="L4" s="65" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="68" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -2019,8 +2397,8 @@
         <v>49.544399999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
+    <row r="6" spans="1:12" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -2039,1536 +2417,1861 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="87"/>
+      <c r="B7" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="91">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G7" s="91">
+        <f t="shared" ref="G7:G57" si="1">1.2*F7</f>
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="91">
+        <v>10</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" ref="J7:J57" si="2">I7*F7*(1-H7)</f>
+        <v>2.097</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" ref="K7:K57" si="3">J7*1.2</f>
+        <v>2.5164</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="87"/>
+      <c r="B8" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="31">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="1"/>
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="H8" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="31">
+        <v>100</v>
+      </c>
+      <c r="J8" s="33">
+        <f t="shared" si="2"/>
+        <v>7.02</v>
+      </c>
+      <c r="K8" s="93">
+        <f t="shared" si="3"/>
+        <v>8.4239999999999995</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
+      <c r="B9" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1.022</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="1"/>
+        <v>1.2263999999999999</v>
+      </c>
+      <c r="H9" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="31">
+        <v>5</v>
+      </c>
+      <c r="J9" s="33">
+        <f t="shared" si="2"/>
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="K9" s="93">
+        <f t="shared" si="3"/>
+        <v>5.5187999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="87"/>
+      <c r="B10" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="27">
+        <v>2.117</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
+        <v>2.5404</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="27">
+        <v>13</v>
+      </c>
+      <c r="J10" s="29">
+        <f t="shared" si="2"/>
+        <v>24.768900000000002</v>
+      </c>
+      <c r="K10" s="118">
+        <f t="shared" si="3"/>
+        <v>29.72268</v>
+      </c>
+      <c r="L10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="87"/>
+      <c r="B11" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="31">
+        <v>2.4729999999999999</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" si="1"/>
+        <v>2.9675999999999996</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="31">
+        <v>4</v>
+      </c>
+      <c r="J11" s="33">
+        <f t="shared" si="2"/>
+        <v>8.9027999999999992</v>
+      </c>
+      <c r="K11" s="93">
+        <f t="shared" si="3"/>
+        <v>10.683359999999999</v>
+      </c>
+      <c r="L11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="87"/>
+      <c r="B12" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27">
+        <f t="shared" ref="G12:G15" si="4">1.2*F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="27">
+        <f ca="1">I12:I223</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="29">
+        <f t="shared" ref="J12:J15" ca="1" si="5">I12*F12*(1-H12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="118">
+        <f t="shared" ref="K12:K15" ca="1" si="6">J12*1.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="87"/>
+      <c r="B13" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="87"/>
+      <c r="B14" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="118">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="87"/>
+      <c r="B15" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96">
+        <v>11.11</v>
+      </c>
+      <c r="G15" s="96">
+        <f t="shared" si="4"/>
+        <v>13.331999999999999</v>
+      </c>
+      <c r="H15" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="96">
+        <v>1</v>
+      </c>
+      <c r="J15" s="98">
+        <f t="shared" si="5"/>
+        <v>9.9990000000000006</v>
+      </c>
+      <c r="K15" s="99">
+        <f t="shared" si="6"/>
+        <v>11.998800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="87"/>
+      <c r="B16" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="10">
+        <v>13.59</v>
+      </c>
+      <c r="G16" s="10">
+        <f>1.2*F16</f>
+        <v>16.308</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
+        <f>I16*F16*(1-H16)</f>
+        <v>12.231</v>
+      </c>
+      <c r="K16" s="13">
+        <f>J16*1.2</f>
+        <v>14.677199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87"/>
+      <c r="B17" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0.82</v>
+      </c>
+      <c r="G17" s="31">
+        <f>1.2*F17</f>
+        <v>0.98399999999999987</v>
+      </c>
+      <c r="H17" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="31">
+        <v>10</v>
+      </c>
+      <c r="J17" s="33">
+        <f>I17*F17*(1-H17)</f>
+        <v>7.38</v>
+      </c>
+      <c r="K17" s="93">
+        <f>J17*1.2</f>
+        <v>8.8559999999999999</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="87"/>
+      <c r="B18" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="31">
+        <v>1.68</v>
+      </c>
+      <c r="G18" s="31">
+        <f>1.2*F18</f>
+        <v>2.016</v>
+      </c>
+      <c r="H18" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="31">
+        <v>5</v>
+      </c>
+      <c r="J18" s="33">
+        <f>I18*F18*(1-H18)</f>
+        <v>7.5600000000000005</v>
+      </c>
+      <c r="K18" s="93">
+        <f>J18*1.2</f>
+        <v>9.072000000000001</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="87"/>
+      <c r="B19" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="31">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G19" s="31">
+        <f>1.2*F19</f>
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="H19" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="31">
+        <v>5</v>
+      </c>
+      <c r="J19" s="33">
+        <f>I19*F19*(1-H19)</f>
+        <v>1.2420000000000002</v>
+      </c>
+      <c r="K19" s="93">
+        <f>J19*1.2</f>
+        <v>1.4904000000000002</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="87"/>
+      <c r="B20" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31">
+        <v>2.6</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="1"/>
+        <v>3.12</v>
+      </c>
+      <c r="H20" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="31">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="J20" s="33">
+        <f t="shared" si="2"/>
+        <v>7.0200000000000005</v>
+      </c>
+      <c r="K20" s="93">
+        <f t="shared" si="3"/>
+        <v>8.4239999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="87"/>
+      <c r="B21" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="31">
+        <v>0.72</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="1"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H21" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="31">
+        <v>5</v>
+      </c>
+      <c r="J21" s="33">
+        <f t="shared" si="2"/>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="K21" s="93">
+        <f t="shared" si="3"/>
+        <v>3.8879999999999995</v>
+      </c>
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="87"/>
+      <c r="B22" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="31">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="1"/>
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="H22" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="31">
+        <v>10</v>
+      </c>
+      <c r="J22" s="33">
+        <f t="shared" si="2"/>
+        <v>4.0680000000000005</v>
+      </c>
+      <c r="K22" s="93">
+        <f t="shared" si="3"/>
+        <v>4.8816000000000006</v>
+      </c>
+      <c r="L22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="87"/>
+      <c r="B23" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="31">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="G23" s="31">
+        <f t="shared" si="1"/>
+        <v>44.808</v>
+      </c>
+      <c r="H23" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="31">
+        <v>2</v>
+      </c>
+      <c r="J23" s="33">
+        <f t="shared" si="2"/>
+        <v>67.212000000000003</v>
+      </c>
+      <c r="K23" s="93">
+        <f t="shared" si="3"/>
+        <v>80.654399999999995</v>
+      </c>
+      <c r="L23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="87"/>
+      <c r="B24" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="31">
+        <v>0.219</v>
+      </c>
+      <c r="G24" s="31">
+        <f t="shared" si="1"/>
+        <v>0.26279999999999998</v>
+      </c>
+      <c r="H24" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="31">
+        <v>20</v>
+      </c>
+      <c r="J24" s="33">
+        <f t="shared" si="2"/>
+        <v>3.9420000000000002</v>
+      </c>
+      <c r="K24" s="93">
+        <f t="shared" si="3"/>
+        <v>4.7304000000000004</v>
+      </c>
+      <c r="L24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="87"/>
+      <c r="B25" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96">
+        <v>20.57</v>
+      </c>
+      <c r="G25" s="96">
+        <f t="shared" si="1"/>
+        <v>24.684000000000001</v>
+      </c>
+      <c r="H25" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="96">
+        <v>2</v>
+      </c>
+      <c r="J25" s="98">
+        <f t="shared" si="2"/>
+        <v>37.026000000000003</v>
+      </c>
+      <c r="K25" s="99">
+        <f t="shared" si="3"/>
+        <v>44.431200000000004</v>
+      </c>
+      <c r="L25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="87"/>
+      <c r="B26" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91">
+        <v>2.96</v>
+      </c>
+      <c r="G26" s="91">
+        <f t="shared" si="1"/>
+        <v>3.552</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="91">
+        <v>3</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="2"/>
+        <v>7.9919999999999991</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="shared" si="3"/>
+        <v>9.5903999999999989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="87"/>
+      <c r="B27" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G27" s="31">
+        <f t="shared" si="1"/>
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="H27" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="31">
+        <v>10</v>
+      </c>
+      <c r="J27" s="33">
+        <f t="shared" si="2"/>
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="K27" s="93">
+        <f t="shared" si="3"/>
+        <v>2.7864</v>
+      </c>
+      <c r="L27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="87"/>
+      <c r="B28" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G28" s="31">
+        <f t="shared" si="1"/>
+        <v>0.32519999999999999</v>
+      </c>
+      <c r="H28" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="31">
+        <v>10</v>
+      </c>
+      <c r="J28" s="33">
+        <f t="shared" si="2"/>
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="K28" s="93">
+        <f t="shared" si="3"/>
+        <v>2.9268000000000001</v>
+      </c>
+      <c r="L28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="87"/>
+      <c r="B29" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="31">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G29" s="31">
+        <f t="shared" si="1"/>
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="H29" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="31">
+        <v>5</v>
+      </c>
+      <c r="J29" s="33">
+        <f t="shared" si="2"/>
+        <v>4.995000000000001</v>
+      </c>
+      <c r="K29" s="93">
+        <f t="shared" si="3"/>
+        <v>5.9940000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="87"/>
+      <c r="B30" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31">
+        <v>1.68</v>
+      </c>
+      <c r="G30" s="31">
+        <f t="shared" si="1"/>
+        <v>2.016</v>
+      </c>
+      <c r="H30" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="31">
+        <v>8</v>
+      </c>
+      <c r="J30" s="33">
+        <f t="shared" si="2"/>
+        <v>12.096</v>
+      </c>
+      <c r="K30" s="93">
+        <f t="shared" si="3"/>
+        <v>14.5152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="87"/>
+      <c r="B31" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="G31" s="31">
+        <f t="shared" si="1"/>
+        <v>0.4032</v>
+      </c>
+      <c r="H31" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="31">
         <v>25</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="29">
-        <v>30.97</v>
-      </c>
-      <c r="G7" s="29">
-        <f t="shared" ref="G7:G49" si="1">1.2*F7</f>
-        <v>37.163999999999994</v>
-      </c>
-      <c r="H7" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="29">
-        <v>2</v>
-      </c>
-      <c r="J7" s="31">
-        <f t="shared" ref="J7:J49" si="2">I7*F7*(1-H7)</f>
-        <v>55.746000000000002</v>
-      </c>
-      <c r="K7" s="31">
-        <f t="shared" ref="K7:K49" si="3">J7*1.2</f>
-        <v>66.895200000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="33">
-        <v>16</v>
-      </c>
-      <c r="G8" s="33">
-        <f t="shared" si="1"/>
-        <v>19.2</v>
-      </c>
-      <c r="H8" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="33">
-        <v>1</v>
-      </c>
-      <c r="J8" s="35">
-        <f t="shared" si="2"/>
-        <v>14.4</v>
-      </c>
-      <c r="K8" s="35">
-        <f t="shared" si="3"/>
-        <v>17.28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="33">
-        <v>16.47</v>
-      </c>
-      <c r="G9" s="33">
-        <f t="shared" si="1"/>
-        <v>19.763999999999999</v>
-      </c>
-      <c r="H9" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="33">
-        <v>1</v>
-      </c>
-      <c r="J9" s="35">
-        <f t="shared" si="2"/>
-        <v>14.822999999999999</v>
-      </c>
-      <c r="K9" s="35">
-        <f t="shared" si="3"/>
-        <v>17.787599999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="29">
-        <v>13.59</v>
-      </c>
-      <c r="G10" s="29">
-        <f t="shared" si="1"/>
-        <v>16.308</v>
-      </c>
-      <c r="H10" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="29">
-        <v>1</v>
-      </c>
-      <c r="J10" s="31">
-        <f t="shared" si="2"/>
-        <v>12.231</v>
-      </c>
-      <c r="K10" s="31">
-        <f t="shared" si="3"/>
-        <v>14.677199999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="33">
-        <v>0.82</v>
-      </c>
-      <c r="G11" s="33">
-        <f t="shared" si="1"/>
-        <v>0.98399999999999987</v>
-      </c>
-      <c r="H11" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="33">
-        <v>10</v>
-      </c>
-      <c r="J11" s="35">
-        <f t="shared" si="2"/>
-        <v>7.38</v>
-      </c>
-      <c r="K11" s="35">
-        <f t="shared" si="3"/>
-        <v>8.8559999999999999</v>
-      </c>
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="33">
-        <v>1.68</v>
-      </c>
-      <c r="G12" s="33">
-        <f t="shared" si="1"/>
-        <v>2.016</v>
-      </c>
-      <c r="H12" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="33">
-        <v>5</v>
-      </c>
-      <c r="J12" s="35">
+      <c r="J31" s="33">
         <f t="shared" si="2"/>
         <v>7.5600000000000005</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K31" s="93">
         <f t="shared" si="3"/>
         <v>9.072000000000001</v>
       </c>
-      <c r="L12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="39" t="s">
+      <c r="L31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="87"/>
+      <c r="B32" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G32" s="31">
+        <f t="shared" si="1"/>
+        <v>6.359999999999999E-2</v>
+      </c>
+      <c r="H32" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="31">
+        <v>100</v>
+      </c>
+      <c r="J32" s="33">
+        <f t="shared" si="2"/>
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="K32" s="93">
+        <f t="shared" si="3"/>
+        <v>5.7239999999999993</v>
+      </c>
+      <c r="L32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="87"/>
+      <c r="B33" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="G33" s="31">
+        <f t="shared" si="1"/>
+        <v>0.28559999999999997</v>
+      </c>
+      <c r="H33" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="31">
+        <v>25</v>
+      </c>
+      <c r="J33" s="33">
+        <f t="shared" si="2"/>
+        <v>5.3549999999999995</v>
+      </c>
+      <c r="K33" s="93">
+        <f t="shared" si="3"/>
+        <v>6.4259999999999993</v>
+      </c>
+      <c r="L33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="87"/>
+      <c r="B34" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="31">
+        <v>0.254</v>
+      </c>
+      <c r="G34" s="31">
+        <f t="shared" si="1"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="H34" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I34" s="31">
+        <v>10</v>
+      </c>
+      <c r="J34" s="33">
+        <f t="shared" si="2"/>
+        <v>2.286</v>
+      </c>
+      <c r="K34" s="93">
+        <f t="shared" si="3"/>
+        <v>2.7431999999999999</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="31">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G35" s="31">
+        <f t="shared" si="1"/>
+        <v>1.0295999999999998</v>
+      </c>
+      <c r="H35" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I35" s="31">
+        <v>10</v>
+      </c>
+      <c r="J35" s="33">
+        <f t="shared" si="2"/>
+        <v>7.7220000000000004</v>
+      </c>
+      <c r="K35" s="93">
+        <f t="shared" si="3"/>
+        <v>9.2664000000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G36" s="31">
+        <f t="shared" si="1"/>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="H36" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="31">
+        <v>50</v>
+      </c>
+      <c r="J36" s="33">
+        <f t="shared" si="2"/>
+        <v>1.08</v>
+      </c>
+      <c r="K36" s="93">
+        <f t="shared" si="3"/>
+        <v>1.296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G37" s="31">
+        <f t="shared" si="1"/>
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="H37" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I37" s="31">
+        <v>50</v>
+      </c>
+      <c r="J37" s="33">
+        <f t="shared" si="2"/>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="K37" s="93">
+        <f t="shared" si="3"/>
+        <v>1.458</v>
+      </c>
+      <c r="L37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G38" s="31">
+        <f t="shared" si="1"/>
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="H38" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I38" s="31">
+        <v>50</v>
+      </c>
+      <c r="J38" s="33">
+        <f t="shared" si="2"/>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="K38" s="93">
+        <f t="shared" si="3"/>
+        <v>1.458</v>
+      </c>
+      <c r="L38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G39" s="31">
+        <f t="shared" ref="G39:G45" si="7">1.2*F39</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H39" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I39" s="31">
+        <v>50</v>
+      </c>
+      <c r="J39" s="33">
+        <f t="shared" ref="J39:J45" si="8">I39*F39*(1-H39)</f>
+        <v>1.5750000000000002</v>
+      </c>
+      <c r="K39" s="93">
+        <f t="shared" ref="K39:K45" si="9">J39*1.2</f>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="L39" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G40" s="31">
+        <f t="shared" ref="G40:G42" si="10">1.2*F40</f>
+        <v>4.4399999999999995E-2</v>
+      </c>
+      <c r="H40" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I40" s="31">
+        <v>50</v>
+      </c>
+      <c r="J40" s="33">
+        <f t="shared" ref="J40:J42" si="11">I40*F40*(1-H40)</f>
+        <v>1.6649999999999998</v>
+      </c>
+      <c r="K40" s="93">
+        <f t="shared" ref="K40:K42" si="12">J40*1.2</f>
+        <v>1.9979999999999998</v>
+      </c>
+      <c r="L40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31">
+        <v>0.159</v>
+      </c>
+      <c r="G41" s="31">
+        <f t="shared" si="10"/>
+        <v>0.1908</v>
+      </c>
+      <c r="H41" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I41" s="31">
+        <v>50</v>
+      </c>
+      <c r="J41" s="33">
+        <f t="shared" si="11"/>
+        <v>7.1550000000000002</v>
+      </c>
+      <c r="K41" s="93">
+        <f t="shared" si="12"/>
+        <v>8.5860000000000003</v>
+      </c>
+      <c r="L41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G42" s="96">
+        <f t="shared" si="10"/>
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="H42" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="96">
+        <v>25</v>
+      </c>
+      <c r="J42" s="98">
+        <f t="shared" si="11"/>
+        <v>5.8050000000000006</v>
+      </c>
+      <c r="K42" s="99">
+        <f t="shared" si="12"/>
+        <v>6.9660000000000002</v>
+      </c>
+      <c r="L42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="G43" s="91">
+        <f t="shared" si="7"/>
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I43" s="91">
+        <v>5</v>
+      </c>
+      <c r="J43" s="12">
+        <f t="shared" si="8"/>
+        <v>2.0340000000000003</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="9"/>
+        <v>2.4408000000000003</v>
+      </c>
+      <c r="L43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="31">
+        <v>0.105</v>
+      </c>
+      <c r="G44" s="31">
+        <f t="shared" si="7"/>
+        <v>0.126</v>
+      </c>
+      <c r="H44" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I44" s="31">
+        <v>10</v>
+      </c>
+      <c r="J44" s="33">
+        <f t="shared" si="8"/>
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="K44" s="93">
+        <f t="shared" si="9"/>
+        <v>1.1340000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="31">
+        <v>0.51</v>
+      </c>
+      <c r="G45" s="31">
+        <f t="shared" si="7"/>
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H45" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I45" s="31">
+        <v>10</v>
+      </c>
+      <c r="J45" s="33">
+        <f t="shared" si="8"/>
+        <v>4.59</v>
+      </c>
+      <c r="K45" s="93">
+        <f t="shared" si="9"/>
+        <v>5.508</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="31">
+        <v>2.54</v>
+      </c>
+      <c r="G46" s="31">
+        <f t="shared" si="1"/>
+        <v>3.048</v>
+      </c>
+      <c r="H46" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I46" s="31">
+        <v>1</v>
+      </c>
+      <c r="J46" s="33">
+        <f t="shared" si="2"/>
+        <v>2.286</v>
+      </c>
+      <c r="K46" s="93">
+        <f t="shared" si="3"/>
+        <v>2.7431999999999999</v>
+      </c>
+      <c r="L46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="96" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="96">
+        <v>1.76</v>
+      </c>
+      <c r="G47" s="96">
+        <f t="shared" ref="G47" si="13">1.2*F47</f>
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="H47" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="I47" s="96">
+        <v>10</v>
+      </c>
+      <c r="J47" s="98">
+        <f t="shared" ref="J47" si="14">I47*F47*(1-H47)</f>
+        <v>15.840000000000002</v>
+      </c>
+      <c r="K47" s="99">
+        <f t="shared" ref="K47" si="15">J47*1.2</f>
+        <v>19.008000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="10">
+        <v>30.97</v>
+      </c>
+      <c r="G48" s="10">
+        <f>1.2*F48</f>
+        <v>37.163999999999994</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I48" s="10">
+        <v>2</v>
+      </c>
+      <c r="J48" s="12">
+        <f>I48*F48*(1-H48)</f>
+        <v>55.746000000000002</v>
+      </c>
+      <c r="K48" s="13">
+        <f>J48*1.2</f>
+        <v>66.895200000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="31">
         <v>16</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="33">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="G13" s="33">
-        <f t="shared" si="1"/>
-        <v>0.33119999999999999</v>
-      </c>
-      <c r="H13" s="34">
+      <c r="G49" s="31">
+        <f>1.2*F49</f>
+        <v>19.2</v>
+      </c>
+      <c r="H49" s="38">
         <v>0.1</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I49" s="31">
+        <v>1</v>
+      </c>
+      <c r="J49" s="33">
+        <f>I49*F49*(1-H49)</f>
+        <v>14.4</v>
+      </c>
+      <c r="K49" s="93">
+        <f>J49*1.2</f>
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="15">
+        <v>16.47</v>
+      </c>
+      <c r="G50" s="15">
+        <f>1.2*F50</f>
+        <v>19.763999999999999</v>
+      </c>
+      <c r="H50" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="I50" s="15">
+        <v>1</v>
+      </c>
+      <c r="J50" s="17">
+        <f>I50*F50*(1-H50)</f>
+        <v>14.822999999999999</v>
+      </c>
+      <c r="K50" s="18">
+        <f>J50*1.2</f>
+        <v>17.787599999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="88"/>
+      <c r="F51" s="84">
+        <v>1.45</v>
+      </c>
+      <c r="G51" s="88">
+        <f t="shared" si="1"/>
+        <v>1.74</v>
+      </c>
+      <c r="H51" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="I51" s="26">
+        <v>1</v>
+      </c>
+      <c r="J51" s="29">
+        <f t="shared" si="2"/>
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="K51" s="118">
+        <f t="shared" si="3"/>
+        <v>1.5659999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="40">
+        <v>1.9</v>
+      </c>
+      <c r="G52" s="31">
+        <f t="shared" si="1"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H52" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I52" s="35">
+        <v>1</v>
+      </c>
+      <c r="J52" s="33">
+        <f t="shared" si="2"/>
+        <v>1.71</v>
+      </c>
+      <c r="K52" s="93">
+        <f t="shared" si="3"/>
+        <v>2.052</v>
+      </c>
+      <c r="L52" s="41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="40">
+        <v>0.36</v>
+      </c>
+      <c r="G53" s="31">
+        <f t="shared" si="1"/>
+        <v>0.432</v>
+      </c>
+      <c r="H53" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I53" s="35">
+        <v>10</v>
+      </c>
+      <c r="J53" s="33">
+        <f t="shared" si="2"/>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="K53" s="93">
+        <f t="shared" si="3"/>
+        <v>3.8879999999999995</v>
+      </c>
+      <c r="L53" s="41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="40">
+        <v>0.19</v>
+      </c>
+      <c r="G54" s="31">
+        <f t="shared" si="1"/>
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="H54" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I54" s="35">
+        <v>25</v>
+      </c>
+      <c r="J54" s="33">
+        <f t="shared" si="2"/>
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="K54" s="93">
+        <f t="shared" si="3"/>
+        <v>5.13</v>
+      </c>
+      <c r="L54" s="41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="40">
+        <v>0.11</v>
+      </c>
+      <c r="G55" s="31">
+        <f t="shared" si="1"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H55" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I55" s="35">
+        <v>25</v>
+      </c>
+      <c r="J55" s="33">
+        <f t="shared" si="2"/>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="K55" s="93">
+        <f t="shared" si="3"/>
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="31"/>
+      <c r="F56" s="40">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="G56" s="31">
+        <f t="shared" si="1"/>
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="H56" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="I56" s="35">
         <v>5</v>
       </c>
-      <c r="J13" s="35">
-        <f t="shared" si="2"/>
-        <v>1.2420000000000002</v>
-      </c>
-      <c r="K13" s="35">
+      <c r="J56" s="33">
+        <f t="shared" si="2"/>
+        <v>3.0240000000000005</v>
+      </c>
+      <c r="K56" s="93">
         <f t="shared" si="3"/>
-        <v>1.4904000000000002</v>
-      </c>
-      <c r="L13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
-      <c r="B14" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="37" t="s">
+        <v>3.6288000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96">
+        <v>0.156</v>
+      </c>
+      <c r="G57" s="96">
+        <f t="shared" si="1"/>
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="H57" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="I57" s="96">
         <v>50</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="33">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="G14" s="33">
-        <f t="shared" si="1"/>
-        <v>0.27960000000000002</v>
-      </c>
-      <c r="H14" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="33">
-        <v>10</v>
-      </c>
-      <c r="J14" s="35">
-        <f t="shared" si="2"/>
-        <v>2.097</v>
-      </c>
-      <c r="K14" s="35">
-        <f t="shared" si="3"/>
-        <v>2.5164</v>
-      </c>
-      <c r="L14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="33">
-        <v>7.8E-2</v>
-      </c>
-      <c r="G15" s="33">
-        <f t="shared" si="1"/>
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="H15" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I15" s="33">
-        <v>100</v>
-      </c>
-      <c r="J15" s="35">
+      <c r="J57" s="98">
         <f t="shared" si="2"/>
         <v>7.02</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K57" s="99">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="33">
-        <v>1.022</v>
-      </c>
-      <c r="G16" s="33">
-        <f t="shared" si="1"/>
-        <v>1.2263999999999999</v>
-      </c>
-      <c r="H16" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="33">
-        <v>5</v>
-      </c>
-      <c r="J16" s="35">
-        <f t="shared" si="2"/>
-        <v>4.5990000000000002</v>
-      </c>
-      <c r="K16" s="35">
-        <f t="shared" si="3"/>
-        <v>5.5187999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="29">
-        <v>2.117</v>
-      </c>
-      <c r="G17" s="29">
-        <f t="shared" si="1"/>
-        <v>2.5404</v>
-      </c>
-      <c r="H17" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="29">
-        <v>13</v>
-      </c>
-      <c r="J17" s="31">
-        <f t="shared" si="2"/>
-        <v>24.768900000000002</v>
-      </c>
-      <c r="K17" s="31">
-        <f t="shared" si="3"/>
-        <v>29.72268</v>
-      </c>
-      <c r="L17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
-      <c r="B18" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="33">
-        <v>2.4729999999999999</v>
-      </c>
-      <c r="G18" s="33">
-        <f t="shared" si="1"/>
-        <v>2.9675999999999996</v>
-      </c>
-      <c r="H18" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="33">
-        <v>4</v>
-      </c>
-      <c r="J18" s="35">
-        <f t="shared" si="2"/>
-        <v>8.9027999999999992</v>
-      </c>
-      <c r="K18" s="35">
-        <f t="shared" si="3"/>
-        <v>10.683359999999999</v>
-      </c>
-      <c r="L18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
-      <c r="B19" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33">
-        <v>2.6</v>
-      </c>
-      <c r="G19" s="33">
-        <f t="shared" si="1"/>
-        <v>3.12</v>
-      </c>
-      <c r="H19" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="33">
-        <v>3</v>
-      </c>
-      <c r="J19" s="35">
-        <f t="shared" si="2"/>
-        <v>7.0200000000000005</v>
-      </c>
-      <c r="K19" s="35">
-        <f t="shared" si="3"/>
-        <v>8.4239999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="33">
-        <v>0.72</v>
-      </c>
-      <c r="G20" s="33">
-        <f t="shared" si="1"/>
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H20" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I20" s="33">
-        <v>5</v>
-      </c>
-      <c r="J20" s="35">
-        <f t="shared" si="2"/>
-        <v>3.2399999999999998</v>
-      </c>
-      <c r="K20" s="35">
-        <f t="shared" si="3"/>
-        <v>3.8879999999999995</v>
-      </c>
-      <c r="L20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
-      <c r="B21" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="33">
-        <v>1.76</v>
-      </c>
-      <c r="G21" s="33">
-        <f t="shared" si="1"/>
-        <v>2.1120000000000001</v>
-      </c>
-      <c r="H21" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I21" s="33">
-        <v>5</v>
-      </c>
-      <c r="J21" s="35">
-        <f t="shared" si="2"/>
-        <v>7.9200000000000008</v>
-      </c>
-      <c r="K21" s="35">
-        <f t="shared" si="3"/>
-        <v>9.5040000000000013</v>
-      </c>
-      <c r="L21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="33">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="G22" s="33">
-        <f t="shared" si="1"/>
-        <v>0.54239999999999999</v>
-      </c>
-      <c r="H22" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="33">
-        <v>5</v>
-      </c>
-      <c r="J22" s="35">
-        <f t="shared" si="2"/>
-        <v>2.0340000000000003</v>
-      </c>
-      <c r="K22" s="35">
-        <f t="shared" si="3"/>
-        <v>2.4408000000000003</v>
-      </c>
-      <c r="L22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75"/>
-      <c r="B23" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="33">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="G23" s="33">
-        <f t="shared" si="1"/>
-        <v>0.32280000000000003</v>
-      </c>
-      <c r="H23" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I23" s="33">
-        <v>10</v>
-      </c>
-      <c r="J23" s="35">
-        <f t="shared" si="2"/>
-        <v>2.4210000000000003</v>
-      </c>
-      <c r="K23" s="35">
-        <f t="shared" si="3"/>
-        <v>2.9052000000000002</v>
-      </c>
-      <c r="L23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
-      <c r="B24" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="33">
-        <v>37.340000000000003</v>
-      </c>
-      <c r="G24" s="33">
-        <f t="shared" si="1"/>
-        <v>44.808</v>
-      </c>
-      <c r="H24" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I24" s="33">
-        <v>2</v>
-      </c>
-      <c r="J24" s="35">
-        <f t="shared" si="2"/>
-        <v>67.212000000000003</v>
-      </c>
-      <c r="K24" s="35">
-        <f t="shared" si="3"/>
-        <v>80.654399999999995</v>
-      </c>
-      <c r="L24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="33">
-        <v>0.219</v>
-      </c>
-      <c r="G25" s="33">
-        <f t="shared" si="1"/>
-        <v>0.26279999999999998</v>
-      </c>
-      <c r="H25" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I25" s="33">
-        <v>20</v>
-      </c>
-      <c r="J25" s="35">
-        <f t="shared" si="2"/>
-        <v>3.9420000000000002</v>
-      </c>
-      <c r="K25" s="35">
-        <f t="shared" si="3"/>
-        <v>4.7304000000000004</v>
-      </c>
-      <c r="L25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="75"/>
-      <c r="B26" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15">
-        <v>20.57</v>
-      </c>
-      <c r="G26" s="33">
-        <f t="shared" si="1"/>
-        <v>24.684000000000001</v>
-      </c>
-      <c r="H26" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I26" s="33">
-        <v>2</v>
-      </c>
-      <c r="J26" s="35">
-        <f t="shared" si="2"/>
-        <v>37.026000000000003</v>
-      </c>
-      <c r="K26" s="35">
-        <f t="shared" si="3"/>
-        <v>44.431200000000004</v>
-      </c>
-      <c r="L26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
-      <c r="B27" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33">
-        <v>11.11</v>
-      </c>
-      <c r="G27" s="33">
-        <f t="shared" si="1"/>
-        <v>13.331999999999999</v>
-      </c>
-      <c r="H27" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I27" s="33">
-        <v>1</v>
-      </c>
-      <c r="J27" s="35">
-        <f t="shared" si="2"/>
-        <v>9.9990000000000006</v>
-      </c>
-      <c r="K27" s="35">
-        <f t="shared" si="3"/>
-        <v>11.998800000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="75"/>
-      <c r="B28" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33">
-        <v>2.96</v>
-      </c>
-      <c r="G28" s="33">
-        <f t="shared" si="1"/>
-        <v>3.552</v>
-      </c>
-      <c r="H28" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I28" s="33">
-        <v>3</v>
-      </c>
-      <c r="J28" s="35">
-        <f t="shared" si="2"/>
-        <v>7.9919999999999991</v>
-      </c>
-      <c r="K28" s="35">
-        <f t="shared" si="3"/>
-        <v>9.5903999999999989</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
-      <c r="B29" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="G29" s="33">
-        <f t="shared" si="1"/>
-        <v>0.30959999999999999</v>
-      </c>
-      <c r="H29" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I29" s="33">
-        <v>10</v>
-      </c>
-      <c r="J29" s="35">
-        <f t="shared" si="2"/>
-        <v>2.3220000000000001</v>
-      </c>
-      <c r="K29" s="35">
-        <f t="shared" si="3"/>
-        <v>2.7864</v>
-      </c>
-      <c r="L29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
-      <c r="B30" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="G30" s="33">
-        <f t="shared" si="1"/>
-        <v>0.32519999999999999</v>
-      </c>
-      <c r="H30" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I30" s="33">
-        <v>10</v>
-      </c>
-      <c r="J30" s="35">
-        <f t="shared" si="2"/>
-        <v>2.4390000000000001</v>
-      </c>
-      <c r="K30" s="35">
-        <f t="shared" si="3"/>
-        <v>2.9268000000000001</v>
-      </c>
-      <c r="L30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
-      <c r="B31" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F31" s="33">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G31" s="33">
-        <f t="shared" si="1"/>
-        <v>1.3320000000000001</v>
-      </c>
-      <c r="H31" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I31" s="33">
-        <v>5</v>
-      </c>
-      <c r="J31" s="35">
-        <f t="shared" si="2"/>
-        <v>4.995000000000001</v>
-      </c>
-      <c r="K31" s="35">
-        <f t="shared" si="3"/>
-        <v>5.9940000000000007</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
-      <c r="B32" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33">
-        <v>1.68</v>
-      </c>
-      <c r="G32" s="33">
-        <f t="shared" si="1"/>
-        <v>2.016</v>
-      </c>
-      <c r="H32" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I32" s="33">
-        <v>8</v>
-      </c>
-      <c r="J32" s="35">
-        <f t="shared" si="2"/>
-        <v>12.096</v>
-      </c>
-      <c r="K32" s="35">
-        <f t="shared" si="3"/>
-        <v>14.5152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
-      <c r="B33" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="G33" s="33">
-        <f t="shared" si="1"/>
-        <v>0.4032</v>
-      </c>
-      <c r="H33" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I33" s="33">
-        <v>25</v>
-      </c>
-      <c r="J33" s="35">
-        <f t="shared" si="2"/>
-        <v>7.5600000000000005</v>
-      </c>
-      <c r="K33" s="35">
-        <f t="shared" si="3"/>
-        <v>9.072000000000001</v>
-      </c>
-      <c r="L33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
-      <c r="B34" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G34" s="33">
-        <f t="shared" si="1"/>
-        <v>6.359999999999999E-2</v>
-      </c>
-      <c r="H34" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I34" s="33">
-        <v>100</v>
-      </c>
-      <c r="J34" s="35">
-        <f t="shared" si="2"/>
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="K34" s="35">
-        <f t="shared" si="3"/>
-        <v>5.7239999999999993</v>
-      </c>
-      <c r="L34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
-      <c r="B35" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="G35" s="33">
-        <f t="shared" si="1"/>
-        <v>0.28559999999999997</v>
-      </c>
-      <c r="H35" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I35" s="33">
-        <v>25</v>
-      </c>
-      <c r="J35" s="35">
-        <f t="shared" si="2"/>
-        <v>5.3549999999999995</v>
-      </c>
-      <c r="K35" s="35">
-        <f t="shared" si="3"/>
-        <v>6.4259999999999993</v>
-      </c>
-      <c r="L35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
-      <c r="B36" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33">
-        <f t="shared" ref="G38:G41" si="4">1.2*F38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="35">
-        <f t="shared" ref="J38:J41" si="5">I38*F38*(1-H38)</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="35">
-        <f t="shared" ref="K38:K41" si="6">J38*1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="G39" s="33">
-        <f t="shared" si="4"/>
-        <v>0.54239999999999999</v>
-      </c>
-      <c r="H39" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I39" s="33">
-        <v>5</v>
-      </c>
-      <c r="J39" s="35">
-        <f t="shared" si="5"/>
-        <v>2.0340000000000003</v>
-      </c>
-      <c r="K39" s="35">
-        <f t="shared" si="6"/>
-        <v>2.4408000000000003</v>
-      </c>
-      <c r="L39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I41" s="33"/>
-      <c r="J41" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="46">
-        <v>1.45</v>
-      </c>
-      <c r="G43" s="33">
-        <f t="shared" si="1"/>
-        <v>1.74</v>
-      </c>
-      <c r="H43" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I43" s="37">
-        <v>1</v>
-      </c>
-      <c r="J43" s="35">
-        <f t="shared" si="2"/>
-        <v>1.3049999999999999</v>
-      </c>
-      <c r="K43" s="35">
-        <f t="shared" si="3"/>
-        <v>1.5659999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="46">
-        <v>1.9</v>
-      </c>
-      <c r="G44" s="33">
-        <f t="shared" si="1"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="H44" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I44" s="37">
-        <v>1</v>
-      </c>
-      <c r="J44" s="35">
-        <f t="shared" si="2"/>
-        <v>1.71</v>
-      </c>
-      <c r="K44" s="35">
-        <f t="shared" si="3"/>
-        <v>2.052</v>
-      </c>
-      <c r="L44" s="47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="46">
-        <v>0.36</v>
-      </c>
-      <c r="G45" s="33">
-        <f t="shared" si="1"/>
-        <v>0.432</v>
-      </c>
-      <c r="H45" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I45" s="37">
-        <v>10</v>
-      </c>
-      <c r="J45" s="35">
-        <f t="shared" si="2"/>
-        <v>3.2399999999999998</v>
-      </c>
-      <c r="K45" s="35">
-        <f t="shared" si="3"/>
-        <v>3.8879999999999995</v>
-      </c>
-      <c r="L45" s="47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="46">
-        <v>0.19</v>
-      </c>
-      <c r="G46" s="33">
-        <f t="shared" si="1"/>
-        <v>0.22799999999999998</v>
-      </c>
-      <c r="H46" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I46" s="37">
-        <v>25</v>
-      </c>
-      <c r="J46" s="35">
-        <f t="shared" si="2"/>
-        <v>4.2750000000000004</v>
-      </c>
-      <c r="K46" s="35">
-        <f t="shared" si="3"/>
-        <v>5.13</v>
-      </c>
-      <c r="L46" s="47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="46">
-        <v>0.11</v>
-      </c>
-      <c r="G47" s="33">
-        <f t="shared" si="1"/>
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="H47" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I47" s="37">
-        <v>25</v>
-      </c>
-      <c r="J47" s="35">
-        <f t="shared" si="2"/>
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="K47" s="35">
-        <f t="shared" si="3"/>
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="37" t="s">
+      <c r="L57" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="46">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="G48" s="33">
-        <f t="shared" si="1"/>
-        <v>0.80640000000000001</v>
-      </c>
-      <c r="H48" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I48" s="37">
-        <v>5</v>
-      </c>
-      <c r="J48" s="35">
-        <f t="shared" si="2"/>
-        <v>3.0240000000000005</v>
-      </c>
-      <c r="K48" s="35">
-        <f t="shared" si="3"/>
-        <v>3.6288000000000005</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B49" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33">
-        <v>0.156</v>
-      </c>
-      <c r="G49" s="33">
-        <f t="shared" si="1"/>
-        <v>0.18720000000000001</v>
-      </c>
-      <c r="H49" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="I49" s="33">
-        <v>50</v>
-      </c>
-      <c r="J49" s="35">
-        <f t="shared" si="2"/>
-        <v>7.02</v>
-      </c>
-      <c r="K49" s="35">
-        <f t="shared" si="3"/>
-        <v>8.4239999999999995</v>
-      </c>
-      <c r="L49" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="E50" s="48" t="s">
+    </row>
+    <row r="58" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="50">
-        <f>SUM(K7:K49)</f>
-        <v>449.03483999999997</v>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="44">
+        <f ca="1">SUM(K7:K57)</f>
+        <v>467.92403999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A36"/>
+    <mergeCell ref="A7:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -3579,7 +4282,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B2:B6 B16</xm:sqref>
+          <xm:sqref>B2:B6 B9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -3588,7 +4291,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B7:B15 B36:B49 B17:B26</xm:sqref>
+          <xm:sqref>B34:B57 B10:B14 B16:B25 B48:B50 B7:B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -3597,7 +4300,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B27:B35</xm:sqref>
+          <xm:sqref>B15:B19 B26:B33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3625,46 +4328,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>204</v>
+      <c r="A2" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>200</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F24" si="0">1.2*E2</f>
@@ -3680,84 +4383,84 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D5" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="61" t="s">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D6" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>212</v>
-      </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3772,7 +4475,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="54"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3787,7 +4490,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="54"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3802,7 +4505,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="54"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3817,7 +4520,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="54"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3832,7 +4535,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
+      <c r="A11" s="54"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3847,7 +4550,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="54"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3862,7 +4565,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="54"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3877,7 +4580,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="54"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3892,7 +4595,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="54"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3907,7 +4610,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+      <c r="A16" s="54"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3922,7 +4625,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="54"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3937,7 +4640,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+      <c r="A18" s="54"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3952,7 +4655,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+      <c r="A19" s="54"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3967,7 +4670,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
+      <c r="A20" s="54"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4087,39 +4790,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F2">
@@ -4136,7 +4839,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F3">
@@ -4153,7 +4856,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F4">
@@ -4170,7 +4873,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F5">
@@ -4187,7 +4890,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F6">
@@ -4204,7 +4907,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F7">
@@ -4221,7 +4924,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F8">
@@ -4238,7 +4941,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F9">
@@ -4255,7 +4958,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F10">
@@ -4272,7 +4975,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F11">
@@ -4289,7 +4992,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="52"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4304,7 +5007,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="52"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4319,7 +5022,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="52"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4334,7 +5037,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="52"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4349,7 +5052,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="52"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4364,7 +5067,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="52"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4379,7 +5082,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="52"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4394,7 +5097,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="52"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4409,7 +5112,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="52"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4424,7 +5127,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="52"/>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4522,46 +5225,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>214</v>
+      <c r="A2" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -4580,7 +5283,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="52"/>
       <c r="F3">
         <f>1.2*E3</f>
         <v>0</v>
@@ -4595,7 +5298,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="52"/>
       <c r="F4">
         <f>1.2*E4</f>
         <v>0</v>
@@ -4610,7 +5313,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="52"/>
       <c r="F5">
         <f>1.2*E5</f>
         <v>0</v>
@@ -4625,7 +5328,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="52"/>
       <c r="F6">
         <f>1.2*E6</f>
         <v>0</v>
@@ -4665,7 +5368,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4675,33 +5378,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="71" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>168</v>
+      <c r="A2" s="72" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="73" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>202</v>
+      <c r="A4" s="74" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="75" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>87</v>
+      <c r="A6" s="76" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4734,269 +5437,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="47">
+      <c r="A2" s="50"/>
+      <c r="B2" s="41">
         <v>2313118</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="57">
+      <c r="C2" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="51">
         <v>3.17</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="51">
         <f>1.2*E2</f>
         <v>3.8039999999999998</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41">
         <v>1</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="51">
         <f>H2*E2</f>
         <v>3.17</v>
       </c>
-      <c r="J2" s="57">
+      <c r="J2" s="51">
         <f>F2*H2</f>
         <v>3.8039999999999998</v>
       </c>
-      <c r="K2" s="47"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="47">
+      <c r="A3" s="50"/>
+      <c r="B3" s="41">
         <v>488203</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="57">
+      <c r="C3" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="51">
         <v>0.48</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="51">
         <f>1.2*E3</f>
         <v>0.57599999999999996</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47">
+      <c r="G3" s="41"/>
+      <c r="H3" s="41">
         <v>10</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="51">
         <f>H3*E3</f>
         <v>4.8</v>
       </c>
-      <c r="J3" s="57">
+      <c r="J3" s="51">
         <f>F3*H3</f>
         <v>5.76</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="47"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="47"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="47"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="47"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="47"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
+      <c r="A16" s="50"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
+      <c r="A17" s="50"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
+      <c r="A18" s="50"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="50"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5037,46 +5740,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>126</v>
+      <c r="B2" s="55" t="s">
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -5118,11 +5821,11 @@
         <f>SUM(I1:I2)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="56">
         <v>35.22</v>
       </c>
-      <c r="K3" s="47" t="s">
-        <v>128</v>
+      <c r="K3" s="41" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5151,7 +5854,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5169,444 +5872,501 @@
     <col min="12" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="84">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="26">
+        <v>0</v>
+      </c>
+      <c r="I2" s="84">
+        <v>0</v>
+      </c>
+      <c r="J2" s="84">
+        <v>0</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E3" s="40">
+        <v>21.23</v>
+      </c>
+      <c r="F3" s="40">
+        <v>25.48</v>
+      </c>
+      <c r="G3" s="81"/>
+      <c r="H3" s="35">
+        <v>1</v>
+      </c>
+      <c r="I3" s="40">
+        <v>21.23</v>
+      </c>
+      <c r="J3" s="40">
+        <v>25.48</v>
+      </c>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="57">
-        <v>0.25</v>
-      </c>
-      <c r="F2" s="57">
+      <c r="C4" s="31"/>
+      <c r="D4" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0.19</v>
+      </c>
+      <c r="F4" s="40">
+        <v>0.23</v>
+      </c>
+      <c r="G4" s="81"/>
+      <c r="H4" s="35">
+        <v>30</v>
+      </c>
+      <c r="I4" s="40">
+        <v>5.73</v>
+      </c>
+      <c r="J4" s="40">
+        <v>6.88</v>
+      </c>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0.22</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0.26</v>
+      </c>
+      <c r="G5" s="81"/>
+      <c r="H5" s="35">
+        <v>25</v>
+      </c>
+      <c r="I5" s="40">
+        <v>5.45</v>
+      </c>
+      <c r="J5" s="40">
+        <v>6.54</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="40">
+        <v>0.39</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0.47</v>
+      </c>
+      <c r="G6" s="81"/>
+      <c r="H6" s="35">
+        <v>25</v>
+      </c>
+      <c r="I6" s="40">
+        <v>9.73</v>
+      </c>
+      <c r="J6" s="40">
+        <v>11.67</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0.22</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0.26</v>
+      </c>
+      <c r="G7" s="81"/>
+      <c r="H7" s="35">
+        <v>25</v>
+      </c>
+      <c r="I7" s="40">
+        <v>5.48</v>
+      </c>
+      <c r="J7" s="40">
+        <v>6.57</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="40">
+        <v>0.24</v>
+      </c>
+      <c r="F8" s="40">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H2" s="47">
-        <v>0</v>
-      </c>
-      <c r="I2" s="57">
-        <v>0</v>
-      </c>
-      <c r="J2" s="57">
-        <v>0</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="57">
-        <v>21.23</v>
-      </c>
-      <c r="F3" s="57">
-        <v>25.48</v>
-      </c>
-      <c r="H3" s="47">
-        <v>1</v>
-      </c>
-      <c r="I3" s="57">
-        <v>21.23</v>
-      </c>
-      <c r="J3" s="57">
-        <v>25.48</v>
-      </c>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="57">
-        <v>0.19</v>
-      </c>
-      <c r="F4" s="57">
+      <c r="G8" s="81"/>
+      <c r="H8" s="35">
+        <v>25</v>
+      </c>
+      <c r="I8" s="40">
+        <v>6.03</v>
+      </c>
+      <c r="J8" s="40">
+        <v>7.23</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="40">
         <v>0.23</v>
       </c>
-      <c r="H4" s="47">
-        <v>30</v>
-      </c>
-      <c r="I4" s="57">
+      <c r="F9" s="40">
+        <v>0.27</v>
+      </c>
+      <c r="G9" s="81"/>
+      <c r="H9" s="35">
+        <v>25</v>
+      </c>
+      <c r="I9" s="40">
         <v>5.73</v>
       </c>
-      <c r="J4" s="57">
-        <v>6.88</v>
-      </c>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="57">
-        <v>0.22</v>
-      </c>
-      <c r="F5" s="57">
-        <v>0.26</v>
-      </c>
-      <c r="H5" s="47">
+      <c r="J9" s="40">
+        <v>6.87</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="57">
-        <v>5.45</v>
-      </c>
-      <c r="J5" s="57">
-        <v>6.54</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="57">
-        <v>0.39</v>
-      </c>
-      <c r="F6" s="57">
-        <v>0.47</v>
-      </c>
-      <c r="H6" s="47">
+      <c r="B10" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="40">
+        <v>0.13</v>
+      </c>
+      <c r="F10" s="40">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="35">
         <v>25</v>
       </c>
-      <c r="I6" s="57">
-        <v>9.73</v>
-      </c>
-      <c r="J6" s="57">
-        <v>11.67</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="57">
-        <v>0.22</v>
-      </c>
-      <c r="F7" s="57">
-        <v>0.26</v>
-      </c>
-      <c r="H7" s="47">
+      <c r="I10" s="40">
+        <v>3.13</v>
+      </c>
+      <c r="J10" s="40">
+        <v>3.75</v>
+      </c>
+      <c r="K10" s="52"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="57">
-        <v>5.48</v>
-      </c>
-      <c r="J7" s="57">
-        <v>6.57</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="57">
-        <v>0.24</v>
-      </c>
-      <c r="F8" s="57">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H8" s="47">
+      <c r="B11" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="40">
+        <v>0.08</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0.09</v>
+      </c>
+      <c r="G11" s="81"/>
+      <c r="H11" s="35">
         <v>25</v>
       </c>
-      <c r="I8" s="57">
-        <v>6.03</v>
-      </c>
-      <c r="J8" s="57">
-        <v>7.23</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="57">
-        <v>0.23</v>
-      </c>
-      <c r="F9" s="57">
-        <v>0.27</v>
-      </c>
-      <c r="H9" s="47">
+      <c r="I11" s="40">
+        <v>1.98</v>
+      </c>
+      <c r="J11" s="40">
+        <v>2.37</v>
+      </c>
+      <c r="K11" s="52"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="57">
-        <v>5.73</v>
-      </c>
-      <c r="J9" s="57">
-        <v>6.87</v>
-      </c>
-      <c r="K9" s="47" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="47" t="s">
+      <c r="B12" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C12" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="57">
-        <v>0.13</v>
-      </c>
-      <c r="F10" s="57">
-        <v>0.15</v>
-      </c>
-      <c r="H10" s="47">
+      <c r="D12" s="31"/>
+      <c r="E12" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="40">
+        <v>0.12</v>
+      </c>
+      <c r="G12" s="81"/>
+      <c r="H12" s="35">
         <v>25</v>
       </c>
-      <c r="I10" s="57">
-        <v>3.13</v>
-      </c>
-      <c r="J10" s="57">
-        <v>3.75</v>
-      </c>
-      <c r="K10" s="58"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="47" t="s">
+      <c r="I12" s="40">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J12" s="40">
+        <v>2.94</v>
+      </c>
+      <c r="K12" s="52"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C13" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="57">
-        <v>0.08</v>
-      </c>
-      <c r="F11" s="57">
-        <v>0.09</v>
-      </c>
-      <c r="H11" s="47">
+      <c r="D13" s="31"/>
+      <c r="E13" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="40">
+        <v>0.12</v>
+      </c>
+      <c r="G13" s="81"/>
+      <c r="H13" s="35">
         <v>25</v>
       </c>
-      <c r="I11" s="57">
-        <v>1.98</v>
-      </c>
-      <c r="J11" s="57">
-        <v>2.37</v>
-      </c>
-      <c r="K11" s="58"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="47" t="s">
+      <c r="I13" s="40">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J13" s="40">
+        <v>2.94</v>
+      </c>
+      <c r="K13" s="52"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C14" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="57">
+      <c r="D14" s="31"/>
+      <c r="E14" s="40">
         <v>0.1</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F14" s="40">
         <v>0.12</v>
       </c>
-      <c r="H12" s="47">
+      <c r="G14" s="81"/>
+      <c r="H14" s="35">
         <v>25</v>
       </c>
-      <c r="I12" s="57">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J12" s="57">
-        <v>2.94</v>
-      </c>
-      <c r="K12" s="58"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="47" t="s">
+      <c r="I14" s="40">
+        <v>2.48</v>
+      </c>
+      <c r="J14" s="40">
+        <v>2.97</v>
+      </c>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="57">
-        <v>0.12</v>
-      </c>
-      <c r="H13" s="47">
-        <v>25</v>
-      </c>
-      <c r="I13" s="57">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J13" s="57">
-        <v>2.94</v>
-      </c>
-      <c r="K13" s="58"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="F14" s="57">
-        <v>0.12</v>
-      </c>
-      <c r="H14" s="47">
-        <v>25</v>
-      </c>
-      <c r="I14" s="57">
-        <v>2.48</v>
-      </c>
-      <c r="J14" s="57">
-        <v>2.97</v>
-      </c>
-      <c r="K14" s="58"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="57">
+      <c r="E15" s="40">
         <v>3.19</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="40">
         <v>3.83</v>
       </c>
-      <c r="H15" s="47">
+      <c r="G15" s="81"/>
+      <c r="H15" s="35">
         <v>4</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="40">
         <v>12.76</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="40">
         <v>15.31</v>
       </c>
-      <c r="K15" s="58"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
+      <c r="K15" s="52"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="79"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="E17" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="78">
+        <f>SUM(J2:J15)</f>
+        <v>101.52000000000001</v>
+      </c>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
+      <c r="A18" s="50"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="52"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="50"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="50"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E17:I18"/>
+    <mergeCell ref="J17:J18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
@@ -5651,7 +6411,7 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -5680,45 +6440,45 @@
       <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="33">
+      <c r="B2" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="31">
         <f>305.3/1.2</f>
         <v>254.41666666666669</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="31">
         <f>1.2*E2</f>
         <v>305.3</v>
       </c>
-      <c r="G2" s="34">
-        <v>0</v>
-      </c>
-      <c r="H2" s="33">
+      <c r="G2" s="32">
+        <v>0</v>
+      </c>
+      <c r="H2" s="31">
         <v>1</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="31">
         <f>H2*E2</f>
         <v>254.41666666666669</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="31">
         <f>I2*1.2</f>
         <v>305.3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="65"/>
-      <c r="E3" s="76" t="s">
+      <c r="A3" s="59"/>
+      <c r="E3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
       <c r="J3">
         <f>J2</f>
         <v>305.3</v>
@@ -5771,59 +6531,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="66" t="s">
+      <c r="D3" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" t="s">
-        <v>171</v>
       </c>
       <c r="E3">
         <v>81</v>
@@ -5845,15 +6605,15 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="52"/>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>174</v>
+        <v>169</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="E4">
         <v>110</v>
@@ -5875,15 +6635,15 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="52"/>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E5">
         <v>110</v>
@@ -5905,39 +6665,39 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="52"/>
       <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" t="s">
         <v>178</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>179</v>
-      </c>
-      <c r="D6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" t="s">
-        <v>183</v>
       </c>
       <c r="E7">
         <v>293</v>
@@ -5959,7 +6719,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="52"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5974,7 +6734,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="52"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5989,7 +6749,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="52"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6004,7 +6764,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="52"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6019,7 +6779,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="52"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6034,7 +6794,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="52"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6049,7 +6809,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="52"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6064,7 +6824,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="52"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6079,7 +6839,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="52"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6094,7 +6854,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="52"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6109,7 +6869,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="52"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6124,7 +6884,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="52"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6139,7 +6899,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="52"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6154,7 +6914,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="52"/>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6169,7 +6929,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="52"/>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6269,49 +7029,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>186</v>
+      <c r="A2" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>182</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F24" si="0">1.2*E2</f>
@@ -6327,7 +7087,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="52"/>
       <c r="F3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6342,7 +7102,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="52"/>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6357,7 +7117,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="52"/>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6372,7 +7132,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="52"/>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6387,7 +7147,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="52"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6402,7 +7162,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="52"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6417,7 +7177,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="52"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6432,7 +7192,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="52"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6447,7 +7207,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="52"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6462,7 +7222,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="52"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6477,7 +7237,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="52"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6492,7 +7252,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="52"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6507,7 +7267,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="52"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6522,7 +7282,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="52"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6537,7 +7297,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="52"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6552,7 +7312,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="52"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6567,7 +7327,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="52"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6582,7 +7342,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="52"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6597,7 +7357,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="52"/>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6679,7 +7439,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6695,51 +7455,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="47"/>
+      <c r="B2" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="41"/>
       <c r="H2">
         <v>1</v>
       </c>
@@ -6749,19 +7509,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="41">
         <v>6329</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" s="47"/>
+      <c r="C3" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="41"/>
       <c r="H3">
         <v>1</v>
       </c>
@@ -6771,19 +7531,19 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" s="47"/>
+      <c r="B4" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="41"/>
       <c r="H4">
         <v>2</v>
       </c>
@@ -6833,46 +7593,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -6888,14 +7648,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="70" t="s">
-        <v>197</v>
+      <c r="C3" s="64" t="s">
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F3">
         <f>1.2*E3</f>
@@ -6911,14 +7671,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F4">
         <f>1.2*E4</f>
@@ -6961,11 +7721,11 @@
         <v>0</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="52"/>
       <c r="F6">
         <f t="shared" ref="F6:F23" si="0">1.2*E6</f>
         <v>0</v>
@@ -6980,7 +7740,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="52"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6995,7 +7755,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="52"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7010,7 +7770,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="52"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7025,7 +7785,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="52"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7040,7 +7800,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="52"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7055,7 +7815,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="52"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7070,7 +7830,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="52"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7085,7 +7845,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="52"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7100,7 +7860,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="52"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7115,7 +7875,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="52"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7130,7 +7890,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="52"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7145,7 +7905,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="52"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7160,7 +7920,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="52"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7175,7 +7935,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="52"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7ECA10-7DCD-45E0-A7DE-83924EB955EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9BD2D5-83F1-4DC3-998D-A5C447E9D33A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="256">
   <si>
     <t>numéro de la commande</t>
   </si>
@@ -827,6 +827,33 @@
   </si>
   <si>
     <t>paquet 100</t>
+  </si>
+  <si>
+    <t>123-6063</t>
+  </si>
+  <si>
+    <t>Bouton poussoir simple</t>
+  </si>
+  <si>
+    <t>123-6110</t>
+  </si>
+  <si>
+    <t>Bouton poussoir+ LED bleu</t>
+  </si>
+  <si>
+    <t>123-6274</t>
+  </si>
+  <si>
+    <t>Bouton poussoir+ LED rouge</t>
+  </si>
+  <si>
+    <t>797-5361</t>
+  </si>
+  <si>
+    <t>Boitier IP67, polycarbonate</t>
+  </si>
+  <si>
+    <t>Diamètre de 24mm</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1051,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1076,34 +1103,6 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -1490,17 +1489,150 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1520,114 +1652,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1647,20 +1768,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1668,128 +1780,167 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2190,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,325 +2395,327 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="62" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>1.022</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <f>1.2*F2</f>
         <v>1.2263999999999999</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>0.1</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>5</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <f>I2*F2*(1-H2)</f>
         <v>4.5990000000000002</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <f>J2*1.2</f>
         <v>5.5187999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14">
         <v>20.57</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <f>1.2*F3</f>
         <v>24.684000000000001</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>0.1</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>2</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <f>I3*F3*(1-H3)</f>
         <v>37.026000000000003</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="17">
         <f>J3*1.2</f>
         <v>44.431200000000004</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="A4" s="124"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <f t="shared" ref="F4:K4" si="0">SUM(F2:F3)</f>
         <v>21.591999999999999</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <f t="shared" si="0"/>
         <v>25.910400000000003</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <f t="shared" si="0"/>
         <v>41.625</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <f t="shared" si="0"/>
         <v>49.95</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="60" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>43.46</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f>1.2*F5</f>
         <v>52.152000000000001</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>0.05</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>1</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <f>I5*F5*(1-H5)</f>
         <v>41.286999999999999</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <f>J5*1.2</f>
         <v>49.544399999999996</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21" t="s">
+      <c r="A6" s="124"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23">
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22">
         <v>43.46</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="114" t="s">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="120">
+        <v>3</v>
+      </c>
+      <c r="B7" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="91">
+      <c r="F7" s="79">
         <v>0.23300000000000001</v>
       </c>
-      <c r="G7" s="91">
-        <f t="shared" ref="G7:G57" si="1">1.2*F7</f>
+      <c r="G7" s="79">
+        <f t="shared" ref="G7:G59" si="1">1.2*F7</f>
         <v>0.27960000000000002</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>0.1</v>
       </c>
-      <c r="I7" s="91">
+      <c r="I7" s="79">
         <v>10</v>
       </c>
-      <c r="J7" s="12">
-        <f t="shared" ref="J7:J57" si="2">I7*F7*(1-H7)</f>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:J59" si="2">I7*F7*(1-H7)</f>
         <v>2.097</v>
       </c>
-      <c r="K7" s="13">
-        <f t="shared" ref="K7:K57" si="3">J7*1.2</f>
+      <c r="K7" s="12">
+        <f t="shared" ref="K7:K59" si="3">J7*1.2</f>
         <v>2.5164</v>
       </c>
       <c r="L7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="115" t="s">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="121"/>
+      <c r="B8" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="29">
         <v>7.8E-2</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="29">
         <f t="shared" si="1"/>
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <v>0.1</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="29">
         <v>100</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="31">
         <f t="shared" si="2"/>
         <v>7.02</v>
       </c>
-      <c r="K8" s="93">
+      <c r="K8" s="81">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="23" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="116" t="s">
+      <c r="A9" s="121"/>
+      <c r="B9" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="29">
         <v>1.022</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="29">
         <f t="shared" si="1"/>
         <v>1.2263999999999999</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="36">
         <v>0.1</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="29">
         <v>5</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="31">
         <f t="shared" si="2"/>
         <v>4.5990000000000002</v>
       </c>
-      <c r="K9" s="93">
+      <c r="K9" s="81">
         <f t="shared" si="3"/>
         <v>5.5187999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="117" t="s">
+      <c r="A10" s="121"/>
+      <c r="B10" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="25">
         <v>2.117</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="25">
         <f t="shared" si="1"/>
         <v>2.5404</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="26">
         <v>0.1</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="25">
         <v>13</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="27">
         <f t="shared" si="2"/>
         <v>24.768900000000002</v>
       </c>
-      <c r="K10" s="118">
+      <c r="K10" s="102">
         <f t="shared" si="3"/>
         <v>29.72268</v>
       </c>
@@ -2571,37 +2724,37 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
-      <c r="B11" s="117" t="s">
+      <c r="A11" s="121"/>
+      <c r="B11" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="29">
         <v>2.4729999999999999</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="29">
         <f t="shared" si="1"/>
         <v>2.9675999999999996</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="36">
         <v>0.1</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="29">
         <v>4</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="31">
         <f t="shared" si="2"/>
         <v>8.9027999999999992</v>
       </c>
-      <c r="K11" s="93">
+      <c r="K11" s="81">
         <f t="shared" si="3"/>
         <v>10.683359999999999</v>
       </c>
@@ -2610,1665 +2763,1775 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="117" t="s">
+      <c r="A12" s="121"/>
+      <c r="B12" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27">
-        <f t="shared" ref="G12:G15" si="4">1.2*F12</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="28">
+      <c r="C12" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25">
+        <v>12.17</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" ref="G12:G16" si="4">1.2*F12</f>
+        <v>14.603999999999999</v>
+      </c>
+      <c r="H12" s="26">
         <v>0.1</v>
       </c>
-      <c r="I12" s="27">
-        <f ca="1">I12:I223</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="29">
-        <f t="shared" ref="J12:J15" ca="1" si="5">I12*F12*(1-H12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="118">
-        <f t="shared" ref="K12:K15" ca="1" si="6">J12*1.2</f>
-        <v>0</v>
+      <c r="I12" s="25">
+        <v>2</v>
+      </c>
+      <c r="J12" s="27">
+        <f t="shared" ref="J12:J16" si="5">I12*F12*(1-H12)</f>
+        <v>21.905999999999999</v>
+      </c>
+      <c r="K12" s="102">
+        <f t="shared" ref="K12:K16" si="6">J12*1.2</f>
+        <v>26.287199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="87"/>
-      <c r="B13" s="117" t="s">
+      <c r="A13" s="121"/>
+      <c r="B13" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31">
+      <c r="C13" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="29">
+        <v>15.92</v>
+      </c>
+      <c r="G13" s="29">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="38">
+        <v>19.103999999999999</v>
+      </c>
+      <c r="H13" s="36">
         <v>0.1</v>
       </c>
-      <c r="I13" s="31">
-        <v>0</v>
-      </c>
-      <c r="J13" s="33">
+      <c r="I13" s="29">
+        <v>3</v>
+      </c>
+      <c r="J13" s="31">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="93">
+        <v>42.984000000000002</v>
+      </c>
+      <c r="K13" s="81">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>51.580800000000004</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="117" t="s">
+      <c r="A14" s="121"/>
+      <c r="B14" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27">
+      <c r="C14" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25">
+        <v>12.71</v>
+      </c>
+      <c r="G14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="28">
+        <v>15.252000000000001</v>
+      </c>
+      <c r="H14" s="26">
         <v>0.1</v>
       </c>
-      <c r="I14" s="27">
-        <v>0</v>
-      </c>
-      <c r="J14" s="29">
+      <c r="I14" s="25">
+        <v>2</v>
+      </c>
+      <c r="J14" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="118">
+        <v>22.878000000000004</v>
+      </c>
+      <c r="K14" s="102">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
-      <c r="B15" s="119" t="s">
+        <v>27.453600000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="121"/>
+      <c r="B15" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="112" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="112">
+        <v>16.47</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" si="4"/>
+        <v>19.763999999999999</v>
+      </c>
+      <c r="H15" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="112">
+        <v>1</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" ref="J15" si="7">I15*F15*(1-H15)</f>
+        <v>14.822999999999999</v>
+      </c>
+      <c r="K15" s="102">
+        <f t="shared" ref="K15" si="8">J15*1.2</f>
+        <v>17.787599999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="121"/>
+      <c r="B16" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D16" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96">
+      <c r="E16" s="84"/>
+      <c r="F16" s="84">
         <v>11.11</v>
       </c>
-      <c r="G15" s="96">
+      <c r="G16" s="84">
         <f t="shared" si="4"/>
         <v>13.331999999999999</v>
       </c>
-      <c r="H15" s="97">
+      <c r="H16" s="85">
         <v>0.1</v>
       </c>
-      <c r="I15" s="96">
+      <c r="I16" s="84">
         <v>1</v>
       </c>
-      <c r="J15" s="98">
+      <c r="J16" s="86">
         <f t="shared" si="5"/>
         <v>9.9990000000000006</v>
       </c>
-      <c r="K15" s="99">
+      <c r="K16" s="87">
         <f t="shared" si="6"/>
         <v>11.998800000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="106" t="s">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="121"/>
+      <c r="B17" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C17" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="9">
         <v>13.59</v>
       </c>
-      <c r="G16" s="10">
-        <f>1.2*F16</f>
+      <c r="G17" s="9">
+        <f>1.2*F17</f>
         <v>16.308</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H17" s="10">
         <v>0.1</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I17" s="9">
         <v>1</v>
       </c>
-      <c r="J16" s="12">
-        <f>I16*F16*(1-H16)</f>
+      <c r="J17" s="11">
+        <f>I17*F17*(1-H17)</f>
         <v>12.231</v>
       </c>
-      <c r="K16" s="13">
-        <f>J16*1.2</f>
+      <c r="K17" s="12">
+        <f>J17*1.2</f>
         <v>14.677199999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="108" t="s">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="121"/>
+      <c r="B18" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D18" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F18" s="29">
         <v>0.82</v>
       </c>
-      <c r="G17" s="31">
-        <f>1.2*F17</f>
+      <c r="G18" s="29">
+        <f>1.2*F18</f>
         <v>0.98399999999999987</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H18" s="36">
         <v>0.1</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I18" s="29">
         <v>10</v>
       </c>
-      <c r="J17" s="33">
-        <f>I17*F17*(1-H17)</f>
+      <c r="J18" s="31">
+        <f>I18*F18*(1-H18)</f>
         <v>7.38</v>
       </c>
-      <c r="K17" s="93">
-        <f>J17*1.2</f>
+      <c r="K18" s="81">
+        <f>J18*1.2</f>
         <v>8.8559999999999999</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="108" t="s">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="121"/>
+      <c r="B19" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D19" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E19" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F19" s="29">
         <v>1.68</v>
       </c>
-      <c r="G18" s="31">
-        <f>1.2*F18</f>
+      <c r="G19" s="29">
+        <f>1.2*F19</f>
         <v>2.016</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H19" s="36">
         <v>0.1</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I19" s="29">
         <v>5</v>
       </c>
-      <c r="J18" s="33">
-        <f>I18*F18*(1-H18)</f>
+      <c r="J19" s="31">
+        <f>I19*F19*(1-H19)</f>
         <v>7.5600000000000005</v>
       </c>
-      <c r="K18" s="93">
-        <f>J18*1.2</f>
+      <c r="K19" s="81">
+        <f>J19*1.2</f>
         <v>9.072000000000001</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="108" t="s">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="121"/>
+      <c r="B20" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C20" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D20" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E20" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F20" s="29">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G19" s="31">
-        <f>1.2*F19</f>
+      <c r="G20" s="29">
+        <f>1.2*F20</f>
         <v>0.33119999999999999</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H20" s="36">
         <v>0.1</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I20" s="29">
         <v>5</v>
       </c>
-      <c r="J19" s="33">
-        <f>I19*F19*(1-H19)</f>
+      <c r="J20" s="31">
+        <f>I20*F20*(1-H20)</f>
         <v>1.2420000000000002</v>
       </c>
-      <c r="K19" s="93">
-        <f>J19*1.2</f>
+      <c r="K20" s="81">
+        <f>J20*1.2</f>
         <v>1.4904000000000002</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="109" t="s">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="121"/>
+      <c r="B21" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C21" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D21" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31">
+      <c r="E21" s="29"/>
+      <c r="F21" s="29">
         <v>2.6</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G21" s="29">
         <f t="shared" si="1"/>
         <v>3.12</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H21" s="36">
         <v>0.1</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I21" s="29">
         <v>3</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J21" s="31">
         <f t="shared" si="2"/>
         <v>7.0200000000000005</v>
       </c>
-      <c r="K20" s="93">
+      <c r="K21" s="81">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
-      <c r="B21" s="109" t="s">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="121"/>
+      <c r="B22" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C22" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D22" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E22" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F22" s="29">
         <v>0.72</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G22" s="29">
         <f t="shared" si="1"/>
         <v>0.86399999999999999</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H22" s="36">
         <v>0.1</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I22" s="29">
         <v>5</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J22" s="31">
         <f t="shared" si="2"/>
         <v>3.2399999999999998</v>
       </c>
-      <c r="K21" s="93">
+      <c r="K22" s="81">
         <f t="shared" si="3"/>
         <v>3.8879999999999995</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
-      <c r="B22" s="109" t="s">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="121"/>
+      <c r="B23" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C23" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D23" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F23" s="29">
         <v>0.45200000000000001</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G23" s="29">
         <f t="shared" si="1"/>
         <v>0.54239999999999999</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H23" s="36">
         <v>0.1</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I23" s="29">
         <v>10</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J23" s="31">
         <f t="shared" si="2"/>
         <v>4.0680000000000005</v>
       </c>
-      <c r="K22" s="93">
+      <c r="K23" s="81">
         <f t="shared" si="3"/>
         <v>4.8816000000000006</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="87"/>
-      <c r="B23" s="109" t="s">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="121"/>
+      <c r="B24" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C24" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D24" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E24" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F24" s="29">
         <v>37.340000000000003</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G24" s="29">
         <f t="shared" si="1"/>
         <v>44.808</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H24" s="36">
         <v>0.1</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I24" s="29">
         <v>2</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J24" s="31">
         <f t="shared" si="2"/>
         <v>67.212000000000003</v>
       </c>
-      <c r="K23" s="93">
+      <c r="K24" s="81">
         <f t="shared" si="3"/>
         <v>80.654399999999995</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87"/>
-      <c r="B24" s="109" t="s">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="121"/>
+      <c r="B25" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C25" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D25" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E25" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F25" s="29">
         <v>0.219</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G25" s="29">
         <f t="shared" si="1"/>
         <v>0.26279999999999998</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H25" s="36">
         <v>0.1</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I25" s="29">
         <v>20</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J25" s="31">
         <f t="shared" si="2"/>
         <v>3.9420000000000002</v>
       </c>
-      <c r="K24" s="93">
+      <c r="K25" s="81">
         <f t="shared" si="3"/>
         <v>4.7304000000000004</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87"/>
-      <c r="B25" s="110" t="s">
+    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="121"/>
+      <c r="B26" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C26" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="96" t="s">
+      <c r="D26" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96">
+      <c r="E26" s="84"/>
+      <c r="F26" s="84">
         <v>20.57</v>
       </c>
-      <c r="G25" s="96">
+      <c r="G26" s="84">
         <f t="shared" si="1"/>
         <v>24.684000000000001</v>
       </c>
-      <c r="H25" s="97">
+      <c r="H26" s="85">
         <v>0.1</v>
       </c>
-      <c r="I25" s="96">
+      <c r="I26" s="84">
         <v>2</v>
       </c>
-      <c r="J25" s="98">
+      <c r="J26" s="86">
         <f t="shared" si="2"/>
         <v>37.026000000000003</v>
       </c>
-      <c r="K25" s="99">
+      <c r="K26" s="87">
         <f t="shared" si="3"/>
         <v>44.431200000000004</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="87"/>
-      <c r="B26" s="89" t="s">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="121"/>
+      <c r="B27" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C27" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="91" t="s">
+      <c r="D27" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91">
+      <c r="E27" s="79"/>
+      <c r="F27" s="79">
         <v>2.96</v>
       </c>
-      <c r="G26" s="91">
+      <c r="G27" s="79">
         <f t="shared" si="1"/>
         <v>3.552</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="10">
         <v>0.1</v>
       </c>
-      <c r="I26" s="91">
+      <c r="I27" s="79">
         <v>3</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J27" s="11">
         <f t="shared" si="2"/>
         <v>7.9919999999999991</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K27" s="12">
         <f t="shared" si="3"/>
         <v>9.5903999999999989</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="87"/>
-      <c r="B27" s="92" t="s">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="121"/>
+      <c r="B28" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C28" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D28" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31">
+      <c r="E28" s="29"/>
+      <c r="F28" s="29">
         <v>0.25800000000000001</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G28" s="29">
         <f t="shared" si="1"/>
         <v>0.30959999999999999</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H28" s="36">
         <v>0.1</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I28" s="29">
         <v>10</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J28" s="31">
         <f t="shared" si="2"/>
         <v>2.3220000000000001</v>
       </c>
-      <c r="K27" s="93">
+      <c r="K28" s="81">
         <f t="shared" si="3"/>
         <v>2.7864</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
-      <c r="B28" s="92" t="s">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="121"/>
+      <c r="B29" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C29" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D29" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31">
+      <c r="E29" s="29"/>
+      <c r="F29" s="29">
         <v>0.27100000000000002</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G29" s="29">
         <f t="shared" si="1"/>
         <v>0.32519999999999999</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H29" s="36">
         <v>0.1</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I29" s="29">
         <v>10</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J29" s="31">
         <f t="shared" si="2"/>
         <v>2.4390000000000001</v>
       </c>
-      <c r="K28" s="93">
+      <c r="K29" s="81">
         <f t="shared" si="3"/>
         <v>2.9268000000000001</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
-      <c r="B29" s="92" t="s">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="121"/>
+      <c r="B30" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C30" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D30" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E30" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F30" s="29">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G30" s="29">
         <f t="shared" si="1"/>
         <v>1.3320000000000001</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H30" s="36">
         <v>0.1</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I30" s="29">
         <v>5</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J30" s="31">
         <f t="shared" si="2"/>
         <v>4.995000000000001</v>
       </c>
-      <c r="K29" s="93">
+      <c r="K30" s="81">
         <f t="shared" si="3"/>
         <v>5.9940000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
-      <c r="B30" s="92" t="s">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="121"/>
+      <c r="B31" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C31" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D31" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31">
+      <c r="E31" s="29"/>
+      <c r="F31" s="29">
         <v>1.68</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G31" s="29">
         <f t="shared" si="1"/>
         <v>2.016</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H31" s="36">
         <v>0.1</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I31" s="29">
         <v>8</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J31" s="31">
         <f t="shared" si="2"/>
         <v>12.096</v>
       </c>
-      <c r="K30" s="93">
+      <c r="K31" s="81">
         <f t="shared" si="3"/>
         <v>14.5152</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
-      <c r="B31" s="92" t="s">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="121"/>
+      <c r="B32" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C32" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D32" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31">
+      <c r="E32" s="29"/>
+      <c r="F32" s="29">
         <v>0.33600000000000002</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G32" s="29">
         <f t="shared" si="1"/>
         <v>0.4032</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H32" s="36">
         <v>0.1</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I32" s="29">
         <v>25</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J32" s="31">
         <f t="shared" si="2"/>
         <v>7.5600000000000005</v>
       </c>
-      <c r="K31" s="93">
+      <c r="K32" s="81">
         <f t="shared" si="3"/>
         <v>9.072000000000001</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
-      <c r="B32" s="92" t="s">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="121"/>
+      <c r="B33" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C33" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D33" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31">
+      <c r="E33" s="29"/>
+      <c r="F33" s="29">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G33" s="29">
         <f t="shared" si="1"/>
         <v>6.359999999999999E-2</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H33" s="36">
         <v>0.1</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I33" s="29">
         <v>100</v>
       </c>
-      <c r="J32" s="33">
+      <c r="J33" s="31">
         <f t="shared" si="2"/>
         <v>4.7699999999999996</v>
       </c>
-      <c r="K32" s="93">
+      <c r="K33" s="81">
         <f t="shared" si="3"/>
         <v>5.7239999999999993</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="87"/>
-      <c r="B33" s="92" t="s">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="121"/>
+      <c r="B34" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C34" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D34" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31">
+      <c r="E34" s="29"/>
+      <c r="F34" s="29">
         <v>0.23799999999999999</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G34" s="29">
         <f t="shared" si="1"/>
         <v>0.28559999999999997</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H34" s="36">
         <v>0.1</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I34" s="29">
         <v>25</v>
       </c>
-      <c r="J33" s="33">
+      <c r="J34" s="31">
         <f t="shared" si="2"/>
         <v>5.3549999999999995</v>
       </c>
-      <c r="K33" s="93">
+      <c r="K34" s="81">
         <f t="shared" si="3"/>
         <v>6.4259999999999993</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="92" t="s">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="121"/>
+      <c r="B35" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C35" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D35" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E35" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F35" s="29">
         <v>0.254</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G35" s="29">
         <f t="shared" si="1"/>
         <v>0.30480000000000002</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H35" s="36">
         <v>0.1</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I35" s="29">
         <v>10</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J35" s="31">
         <f t="shared" si="2"/>
         <v>2.286</v>
       </c>
-      <c r="K34" s="93">
+      <c r="K35" s="81">
         <f t="shared" si="3"/>
         <v>2.7431999999999999</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="92" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="121"/>
+      <c r="B36" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C36" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D36" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E36" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F36" s="29">
         <v>0.85799999999999998</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G36" s="29">
         <f t="shared" si="1"/>
         <v>1.0295999999999998</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H36" s="36">
         <v>0.1</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I36" s="29">
         <v>10</v>
       </c>
-      <c r="J35" s="33">
+      <c r="J36" s="31">
         <f t="shared" si="2"/>
         <v>7.7220000000000004</v>
       </c>
-      <c r="K35" s="93">
+      <c r="K36" s="81">
         <f t="shared" si="3"/>
         <v>9.2664000000000009</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="92" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="121"/>
+      <c r="B37" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="86" t="s">
+      <c r="C37" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D37" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31">
+      <c r="E37" s="29"/>
+      <c r="F37" s="29">
         <v>2.4E-2</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G37" s="29">
         <f t="shared" si="1"/>
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H37" s="36">
         <v>0.1</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I37" s="29">
         <v>50</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J37" s="31">
         <f t="shared" si="2"/>
         <v>1.08</v>
       </c>
-      <c r="K36" s="93">
+      <c r="K37" s="81">
         <f t="shared" si="3"/>
         <v>1.296</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L37" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="92" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="121"/>
+      <c r="B38" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C38" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D38" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31">
+      <c r="E38" s="29"/>
+      <c r="F38" s="29">
         <v>2.7E-2</v>
       </c>
-      <c r="G37" s="31">
+      <c r="G38" s="29">
         <f t="shared" si="1"/>
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H38" s="36">
         <v>0.1</v>
       </c>
-      <c r="I37" s="31">
+      <c r="I38" s="29">
         <v>50</v>
       </c>
-      <c r="J37" s="33">
+      <c r="J38" s="31">
         <f t="shared" si="2"/>
         <v>1.2150000000000001</v>
       </c>
-      <c r="K37" s="93">
+      <c r="K38" s="81">
         <f t="shared" si="3"/>
         <v>1.458</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L38" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="92" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="121"/>
+      <c r="B39" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C39" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D39" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31">
+      <c r="E39" s="29"/>
+      <c r="F39" s="29">
         <v>2.7E-2</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G39" s="29">
         <f t="shared" si="1"/>
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H39" s="36">
         <v>0.1</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I39" s="29">
         <v>50</v>
       </c>
-      <c r="J38" s="33">
+      <c r="J39" s="31">
         <f t="shared" si="2"/>
         <v>1.2150000000000001</v>
       </c>
-      <c r="K38" s="93">
+      <c r="K39" s="81">
         <f t="shared" si="3"/>
         <v>1.458</v>
       </c>
-      <c r="L38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="86" t="s">
-        <v>238</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G39" s="31">
-        <f t="shared" ref="G39:G45" si="7">1.2*F39</f>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H39" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="I39" s="31">
-        <v>50</v>
-      </c>
-      <c r="J39" s="33">
-        <f t="shared" ref="J39:J45" si="8">I39*F39*(1-H39)</f>
-        <v>1.5750000000000002</v>
-      </c>
-      <c r="K39" s="93">
-        <f t="shared" ref="K39:K45" si="9">J39*1.2</f>
-        <v>1.8900000000000001</v>
-      </c>
       <c r="L39" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="92" t="s">
+      <c r="A40" s="121"/>
+      <c r="B40" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="86" t="s">
-        <v>240</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G40" s="31">
-        <f t="shared" ref="G40:G42" si="10">1.2*F40</f>
-        <v>4.4399999999999995E-2</v>
-      </c>
-      <c r="H40" s="38">
+      <c r="C40" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G40" s="29">
+        <f t="shared" ref="G40:G47" si="9">1.2*F40</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H40" s="36">
         <v>0.1</v>
       </c>
-      <c r="I40" s="31">
+      <c r="I40" s="29">
         <v>50</v>
       </c>
-      <c r="J40" s="33">
-        <f t="shared" ref="J40:J42" si="11">I40*F40*(1-H40)</f>
-        <v>1.6649999999999998</v>
-      </c>
-      <c r="K40" s="93">
-        <f t="shared" ref="K40:K42" si="12">J40*1.2</f>
-        <v>1.9979999999999998</v>
+      <c r="J40" s="31">
+        <f t="shared" ref="J40:J47" si="10">I40*F40*(1-H40)</f>
+        <v>1.5750000000000002</v>
+      </c>
+      <c r="K40" s="81">
+        <f t="shared" ref="K40:K47" si="11">J40*1.2</f>
+        <v>1.8900000000000001</v>
       </c>
       <c r="L40" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="92" t="s">
+      <c r="A41" s="121"/>
+      <c r="B41" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31">
-        <v>0.159</v>
-      </c>
-      <c r="G41" s="31">
-        <f t="shared" si="10"/>
-        <v>0.1908</v>
-      </c>
-      <c r="H41" s="38">
+      <c r="C41" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G41" s="29">
+        <f t="shared" ref="G41:G44" si="12">1.2*F41</f>
+        <v>4.4399999999999995E-2</v>
+      </c>
+      <c r="H41" s="36">
         <v>0.1</v>
       </c>
-      <c r="I41" s="31">
+      <c r="I41" s="29">
         <v>50</v>
       </c>
-      <c r="J41" s="33">
-        <f t="shared" si="11"/>
-        <v>7.1550000000000002</v>
-      </c>
-      <c r="K41" s="93">
-        <f t="shared" si="12"/>
-        <v>8.5860000000000003</v>
+      <c r="J41" s="31">
+        <f t="shared" ref="J41:J43" si="13">I41*F41*(1-H41)</f>
+        <v>1.6649999999999998</v>
+      </c>
+      <c r="K41" s="81">
+        <f t="shared" ref="K41:K43" si="14">J41*1.2</f>
+        <v>1.9979999999999998</v>
       </c>
       <c r="L41" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="94" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="121"/>
+      <c r="B42" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="95" t="s">
+      <c r="C42" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29">
+        <v>0.159</v>
+      </c>
+      <c r="G42" s="29">
+        <f t="shared" si="12"/>
+        <v>0.1908</v>
+      </c>
+      <c r="H42" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="29">
+        <v>50</v>
+      </c>
+      <c r="J42" s="31">
+        <f t="shared" si="13"/>
+        <v>7.1550000000000002</v>
+      </c>
+      <c r="K42" s="81">
+        <f t="shared" si="14"/>
+        <v>8.5860000000000003</v>
+      </c>
+      <c r="L42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="121"/>
+      <c r="B43" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="D42" s="96" t="s">
+      <c r="D43" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96">
+      <c r="E43" s="84"/>
+      <c r="F43" s="84">
         <v>0.25800000000000001</v>
       </c>
-      <c r="G42" s="96">
+      <c r="G43" s="84">
+        <f t="shared" si="12"/>
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="H43" s="85">
+        <v>0.1</v>
+      </c>
+      <c r="I43" s="84">
+        <v>25</v>
+      </c>
+      <c r="J43" s="86">
+        <f t="shared" si="13"/>
+        <v>5.8050000000000006</v>
+      </c>
+      <c r="K43" s="87">
+        <f t="shared" si="14"/>
+        <v>6.9660000000000002</v>
+      </c>
+      <c r="L43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="121"/>
+      <c r="B44" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="113" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114">
+        <v>16.28</v>
+      </c>
+      <c r="G44" s="14">
+        <f t="shared" si="12"/>
+        <v>19.536000000000001</v>
+      </c>
+      <c r="H44" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I44" s="114">
+        <v>1</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" ref="J44" si="15">I44*F44*(1-H44)</f>
+        <v>14.652000000000001</v>
+      </c>
+      <c r="K44" s="17">
+        <f t="shared" ref="K44" si="16">J44*1.2</f>
+        <v>17.5824</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="121"/>
+      <c r="B45" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="G45" s="29">
+        <f t="shared" si="9"/>
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="H45" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="I45" s="29">
+        <v>5</v>
+      </c>
+      <c r="J45" s="31">
         <f t="shared" si="10"/>
-        <v>0.30959999999999999</v>
-      </c>
-      <c r="H42" s="97">
+        <v>2.0340000000000003</v>
+      </c>
+      <c r="K45" s="81">
+        <f t="shared" si="11"/>
+        <v>2.4408000000000003</v>
+      </c>
+      <c r="L45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="121"/>
+      <c r="B46" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="29">
+        <v>0.105</v>
+      </c>
+      <c r="G46" s="29">
+        <f t="shared" si="9"/>
+        <v>0.126</v>
+      </c>
+      <c r="H46" s="36">
         <v>0.1</v>
       </c>
-      <c r="I42" s="96">
-        <v>25</v>
-      </c>
-      <c r="J42" s="98">
+      <c r="I46" s="29">
+        <v>10</v>
+      </c>
+      <c r="J46" s="31">
+        <f t="shared" si="10"/>
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="K46" s="81">
         <f t="shared" si="11"/>
-        <v>5.8050000000000006</v>
-      </c>
-      <c r="K42" s="99">
-        <f t="shared" si="12"/>
-        <v>6.9660000000000002</v>
-      </c>
-      <c r="L42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="100" t="s">
+        <v>1.1340000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="121"/>
+      <c r="B47" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="C43" s="90" t="s">
-        <v>215</v>
-      </c>
-      <c r="D43" s="91" t="s">
-        <v>216</v>
-      </c>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="G43" s="91">
-        <f t="shared" si="7"/>
-        <v>0.54239999999999999</v>
-      </c>
-      <c r="H43" s="11">
+      <c r="C47" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="29">
+        <v>0.51</v>
+      </c>
+      <c r="G47" s="29">
+        <f t="shared" si="9"/>
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H47" s="36">
         <v>0.1</v>
       </c>
-      <c r="I43" s="91">
-        <v>5</v>
-      </c>
-      <c r="J43" s="12">
-        <f t="shared" si="8"/>
-        <v>2.0340000000000003</v>
-      </c>
-      <c r="K43" s="13">
-        <f t="shared" si="9"/>
-        <v>2.4408000000000003</v>
-      </c>
-      <c r="L43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="101" t="s">
+      <c r="I47" s="29">
+        <v>10</v>
+      </c>
+      <c r="J47" s="31">
+        <f t="shared" si="10"/>
+        <v>4.59</v>
+      </c>
+      <c r="K47" s="81">
+        <f t="shared" si="11"/>
+        <v>5.508</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="121"/>
+      <c r="B48" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="E44" s="31" t="s">
+      <c r="C48" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="31">
-        <v>0.105</v>
-      </c>
-      <c r="G44" s="31">
-        <f t="shared" si="7"/>
-        <v>0.126</v>
-      </c>
-      <c r="H44" s="38">
+      <c r="F48" s="29">
+        <v>2.54</v>
+      </c>
+      <c r="G48" s="29">
+        <f t="shared" si="1"/>
+        <v>3.048</v>
+      </c>
+      <c r="H48" s="36">
         <v>0.1</v>
       </c>
-      <c r="I44" s="31">
-        <v>10</v>
-      </c>
-      <c r="J44" s="33">
-        <f t="shared" si="8"/>
-        <v>0.94500000000000006</v>
-      </c>
-      <c r="K44" s="93">
-        <f t="shared" si="9"/>
-        <v>1.1340000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="31">
-        <v>0.51</v>
-      </c>
-      <c r="G45" s="31">
-        <f t="shared" si="7"/>
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="H45" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="I45" s="31">
-        <v>10</v>
-      </c>
-      <c r="J45" s="33">
-        <f t="shared" si="8"/>
-        <v>4.59</v>
-      </c>
-      <c r="K45" s="93">
-        <f t="shared" si="9"/>
-        <v>5.508</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="31">
-        <v>2.54</v>
-      </c>
-      <c r="G46" s="31">
-        <f t="shared" si="1"/>
-        <v>3.048</v>
-      </c>
-      <c r="H46" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="I46" s="31">
+      <c r="I48" s="29">
         <v>1</v>
       </c>
-      <c r="J46" s="33">
+      <c r="J48" s="31">
         <f t="shared" si="2"/>
         <v>2.286</v>
       </c>
-      <c r="K46" s="93">
+      <c r="K48" s="81">
         <f t="shared" si="3"/>
         <v>2.7431999999999999</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L48" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="104" t="s">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="121"/>
+      <c r="B49" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="105" t="s">
+      <c r="C49" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="96" t="s">
+      <c r="D49" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="E47" s="96" t="s">
+      <c r="E49" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="F47" s="96">
+      <c r="F49" s="84">
         <v>1.76</v>
       </c>
-      <c r="G47" s="96">
-        <f t="shared" ref="G47" si="13">1.2*F47</f>
+      <c r="G49" s="84">
+        <f t="shared" ref="G49" si="17">1.2*F49</f>
         <v>2.1120000000000001</v>
       </c>
-      <c r="H47" s="97">
+      <c r="H49" s="85">
         <v>0.1</v>
       </c>
-      <c r="I47" s="96">
+      <c r="I49" s="84">
         <v>10</v>
       </c>
-      <c r="J47" s="98">
-        <f t="shared" ref="J47" si="14">I47*F47*(1-H47)</f>
+      <c r="J49" s="86">
+        <f t="shared" ref="J49" si="18">I49*F49*(1-H49)</f>
         <v>15.840000000000002</v>
       </c>
-      <c r="K47" s="99">
-        <f t="shared" ref="K47" si="15">J47*1.2</f>
+      <c r="K49" s="87">
+        <f t="shared" ref="K49" si="19">J49*1.2</f>
         <v>19.008000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="120" t="s">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="121"/>
+      <c r="B50" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="107" t="s">
+      <c r="C50" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F50" s="9">
         <v>30.97</v>
       </c>
-      <c r="G48" s="10">
-        <f>1.2*F48</f>
+      <c r="G50" s="9">
+        <f>1.2*F50</f>
         <v>37.163999999999994</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H50" s="10">
         <v>0.1</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I50" s="9">
         <v>2</v>
       </c>
-      <c r="J48" s="12">
-        <f>I48*F48*(1-H48)</f>
+      <c r="J50" s="11">
+        <f>I50*F50*(1-H50)</f>
         <v>55.746000000000002</v>
       </c>
-      <c r="K48" s="13">
-        <f>J48*1.2</f>
+      <c r="K50" s="12">
+        <f>J50*1.2</f>
         <v>66.895200000000003</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="121" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="121"/>
+      <c r="B51" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C51" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D51" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E51" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="31">
+      <c r="F51" s="29">
         <v>16</v>
       </c>
-      <c r="G49" s="31">
-        <f>1.2*F49</f>
+      <c r="G51" s="29">
+        <f>1.2*F51</f>
         <v>19.2</v>
       </c>
-      <c r="H49" s="38">
+      <c r="H51" s="36">
         <v>0.1</v>
       </c>
-      <c r="I49" s="31">
+      <c r="I51" s="29">
         <v>1</v>
       </c>
-      <c r="J49" s="33">
-        <f>I49*F49*(1-H49)</f>
+      <c r="J51" s="31">
+        <f>I51*F51*(1-H51)</f>
         <v>14.4</v>
       </c>
-      <c r="K49" s="93">
-        <f>J49*1.2</f>
+      <c r="K51" s="81">
+        <f>J51*1.2</f>
         <v>17.28</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="122" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="121"/>
+      <c r="B52" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="111" t="s">
+      <c r="C52" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="112" t="s">
+      <c r="D52" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E52" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F52" s="29">
         <v>16.47</v>
       </c>
-      <c r="G50" s="15">
-        <f>1.2*F50</f>
+      <c r="G52" s="29">
+        <f>1.2*F52</f>
         <v>19.763999999999999</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H52" s="36">
         <v>0.1</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I52" s="29">
         <v>1</v>
       </c>
-      <c r="J50" s="17">
-        <f>I50*F50*(1-H50)</f>
+      <c r="J52" s="31">
+        <f>I52*F52*(1-H52)</f>
         <v>14.822999999999999</v>
       </c>
-      <c r="K50" s="18">
-        <f>J50*1.2</f>
+      <c r="K52" s="81">
+        <f>J52*1.2</f>
         <v>17.787599999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="123" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="121"/>
+      <c r="B53" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C53" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D53" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="88"/>
-      <c r="F51" s="84">
+      <c r="E53" s="29"/>
+      <c r="F53" s="38">
         <v>1.45</v>
       </c>
-      <c r="G51" s="88">
+      <c r="G53" s="29">
         <f t="shared" si="1"/>
         <v>1.74</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H53" s="36">
         <v>0.1</v>
       </c>
-      <c r="I51" s="26">
+      <c r="I53" s="33">
         <v>1</v>
       </c>
-      <c r="J51" s="29">
+      <c r="J53" s="31">
         <f t="shared" si="2"/>
         <v>1.3049999999999999</v>
       </c>
-      <c r="K51" s="118">
+      <c r="K53" s="81">
         <f t="shared" si="3"/>
         <v>1.5659999999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="121" t="s">
+    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="121"/>
+      <c r="B54" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C54" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D54" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="40">
+      <c r="E54" s="29"/>
+      <c r="F54" s="38">
         <v>1.9</v>
       </c>
-      <c r="G52" s="31">
+      <c r="G54" s="29">
         <f t="shared" si="1"/>
         <v>2.2799999999999998</v>
       </c>
-      <c r="H52" s="38">
+      <c r="H54" s="36">
         <v>0.1</v>
       </c>
-      <c r="I52" s="35">
+      <c r="I54" s="33">
         <v>1</v>
       </c>
-      <c r="J52" s="33">
+      <c r="J54" s="31">
         <f t="shared" si="2"/>
         <v>1.71</v>
       </c>
-      <c r="K52" s="93">
+      <c r="K54" s="81">
         <f t="shared" si="3"/>
         <v>2.052</v>
       </c>
-      <c r="L52" s="41" t="s">
+      <c r="L54" s="39" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="121" t="s">
+    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="121"/>
+      <c r="B55" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C55" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D55" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="40">
+      <c r="E55" s="29"/>
+      <c r="F55" s="38">
         <v>0.36</v>
       </c>
-      <c r="G53" s="31">
+      <c r="G55" s="29">
         <f t="shared" si="1"/>
         <v>0.432</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H55" s="36">
         <v>0.1</v>
       </c>
-      <c r="I53" s="35">
+      <c r="I55" s="33">
         <v>10</v>
       </c>
-      <c r="J53" s="33">
+      <c r="J55" s="31">
         <f t="shared" si="2"/>
         <v>3.2399999999999998</v>
       </c>
-      <c r="K53" s="93">
+      <c r="K55" s="81">
         <f t="shared" si="3"/>
         <v>3.8879999999999995</v>
       </c>
-      <c r="L53" s="41" t="s">
+      <c r="L55" s="39" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B54" s="121" t="s">
+    <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="121"/>
+      <c r="B56" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C56" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D56" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="40">
+      <c r="E56" s="29"/>
+      <c r="F56" s="38">
         <v>0.19</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G56" s="29">
         <f t="shared" si="1"/>
         <v>0.22799999999999998</v>
       </c>
-      <c r="H54" s="38">
+      <c r="H56" s="36">
         <v>0.1</v>
       </c>
-      <c r="I54" s="35">
+      <c r="I56" s="33">
         <v>25</v>
       </c>
-      <c r="J54" s="33">
+      <c r="J56" s="31">
         <f t="shared" si="2"/>
         <v>4.2750000000000004</v>
       </c>
-      <c r="K54" s="93">
+      <c r="K56" s="81">
         <f t="shared" si="3"/>
         <v>5.13</v>
       </c>
-      <c r="L54" s="41" t="s">
+      <c r="L56" s="39" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="121" t="s">
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="121"/>
+      <c r="B57" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C57" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D57" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="40">
+      <c r="E57" s="29"/>
+      <c r="F57" s="38">
         <v>0.11</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G57" s="29">
         <f t="shared" si="1"/>
         <v>0.13200000000000001</v>
       </c>
-      <c r="H55" s="38">
+      <c r="H57" s="36">
         <v>0.1</v>
       </c>
-      <c r="I55" s="35">
+      <c r="I57" s="33">
         <v>25</v>
       </c>
-      <c r="J55" s="33">
+      <c r="J57" s="31">
         <f t="shared" si="2"/>
         <v>2.4750000000000001</v>
       </c>
-      <c r="K55" s="93">
+      <c r="K57" s="81">
         <f t="shared" si="3"/>
         <v>2.97</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="121" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="121"/>
+      <c r="B58" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C58" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D58" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="40">
+      <c r="E58" s="29"/>
+      <c r="F58" s="38">
         <v>0.67200000000000004</v>
       </c>
-      <c r="G56" s="31">
+      <c r="G58" s="29">
         <f t="shared" si="1"/>
         <v>0.80640000000000001</v>
       </c>
-      <c r="H56" s="38">
+      <c r="H58" s="36">
         <v>0.1</v>
       </c>
-      <c r="I56" s="35">
+      <c r="I58" s="33">
         <v>5</v>
       </c>
-      <c r="J56" s="33">
+      <c r="J58" s="31">
         <f t="shared" si="2"/>
         <v>3.0240000000000005</v>
       </c>
-      <c r="K56" s="93">
+      <c r="K58" s="81">
         <f t="shared" si="3"/>
         <v>3.6288000000000005</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="102" t="s">
+    <row r="59" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="122"/>
+      <c r="B59" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="103" t="s">
+      <c r="C59" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="103" t="s">
+      <c r="D59" s="90" t="s">
         <v>225</v>
       </c>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96">
+      <c r="E59" s="84"/>
+      <c r="F59" s="84">
         <v>0.156</v>
       </c>
-      <c r="G57" s="96">
+      <c r="G59" s="84">
         <f t="shared" si="1"/>
         <v>0.18720000000000001</v>
       </c>
-      <c r="H57" s="97">
+      <c r="H59" s="85">
         <v>0.1</v>
       </c>
-      <c r="I57" s="96">
+      <c r="I59" s="84">
         <v>50</v>
       </c>
-      <c r="J57" s="98">
+      <c r="J59" s="86">
         <f t="shared" si="2"/>
         <v>7.02</v>
       </c>
-      <c r="K57" s="99">
+      <c r="K59" s="87">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
-      <c r="L57" s="41" t="s">
+      <c r="L59" s="39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="42" t="s">
+    <row r="60" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="44">
-        <f ca="1">SUM(K7:K57)</f>
-        <v>467.92403999999999</v>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="118"/>
+      <c r="J60" s="118"/>
+      <c r="K60" s="119">
+        <f>SUM(K7:K59)</f>
+        <v>643.81284000000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A34"/>
+    <mergeCell ref="A7:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4291,7 +4554,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B34:B57 B10:B14 B16:B25 B48:B50 B7:B8</xm:sqref>
+          <xm:sqref>B10:B15 B17:B26 B35:B59 B7:B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -4300,7 +4563,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B15:B19 B26:B33</xm:sqref>
+          <xm:sqref>B16:B20 B27:B34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4328,45 +4591,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>200</v>
       </c>
       <c r="F2">
@@ -4383,13 +4646,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="39" t="s">
         <v>202</v>
       </c>
       <c r="F3">
@@ -4406,13 +4669,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="39" t="s">
         <v>204</v>
       </c>
       <c r="F4">
@@ -4429,13 +4692,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="39" t="s">
         <v>206</v>
       </c>
       <c r="F5">
@@ -4452,13 +4715,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="49" t="s">
         <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>208</v>
       </c>
       <c r="F6">
@@ -4475,7 +4738,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="49"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4490,7 +4753,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="49"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4505,7 +4768,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="49"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4520,7 +4783,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="49"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4535,7 +4798,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="49"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4550,7 +4813,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="49"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4565,7 +4828,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="49"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4580,7 +4843,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="49"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4595,7 +4858,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="49"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4610,7 +4873,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="49"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4625,7 +4888,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="49"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4640,7 +4903,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="49"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4655,7 +4918,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="49"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4670,7 +4933,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="49"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4790,39 +5053,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F2">
@@ -4839,7 +5102,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F3">
@@ -4856,7 +5119,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F4">
@@ -4873,7 +5136,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F5">
@@ -4890,7 +5153,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F6">
@@ -4907,7 +5170,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F7">
@@ -4924,7 +5187,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F8">
@@ -4941,7 +5204,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F9">
@@ -4958,7 +5221,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F10">
@@ -4975,7 +5238,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F11">
@@ -4992,7 +5255,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
+      <c r="A12" s="47"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5007,7 +5270,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="A13" s="47"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5022,7 +5285,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
+      <c r="A14" s="47"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5037,7 +5300,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="47"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5052,7 +5315,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="A16" s="47"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5067,7 +5330,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="47"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5082,7 +5345,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="47"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5097,7 +5360,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="47"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5112,7 +5375,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="47"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5127,7 +5390,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="47"/>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5225,42 +5488,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>210</v>
       </c>
       <c r="D2" t="s">
@@ -5283,7 +5546,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="47"/>
       <c r="F3">
         <f>1.2*E3</f>
         <v>0</v>
@@ -5298,7 +5561,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="47"/>
       <c r="F4">
         <f>1.2*E4</f>
         <v>0</v>
@@ -5313,7 +5576,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="47"/>
       <c r="F5">
         <f>1.2*E5</f>
         <v>0</v>
@@ -5328,7 +5591,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="47"/>
       <c r="F6">
         <f>1.2*E6</f>
         <v>0</v>
@@ -5378,32 +5641,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="65" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="66" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="68" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5437,269 +5700,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="41">
+      <c r="A2" s="45"/>
+      <c r="B2" s="39">
         <v>2313118</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="46">
         <v>3.17</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="46">
         <f>1.2*E2</f>
         <v>3.8039999999999998</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39">
         <v>1</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="46">
         <f>H2*E2</f>
         <v>3.17</v>
       </c>
-      <c r="J2" s="51">
+      <c r="J2" s="46">
         <f>F2*H2</f>
         <v>3.8039999999999998</v>
       </c>
-      <c r="K2" s="41"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="41">
+      <c r="A3" s="45"/>
+      <c r="B3" s="39">
         <v>488203</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="51">
+      <c r="D3" s="47"/>
+      <c r="E3" s="46">
         <v>0.48</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="46">
         <f>1.2*E3</f>
         <v>0.57599999999999996</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39">
         <v>10</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="46">
         <f>H3*E3</f>
         <v>4.8</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="46">
         <f>F3*H3</f>
         <v>5.76</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="41"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="41"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="41"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="41"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="41"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
+      <c r="A16" s="45"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
+      <c r="A17" s="45"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
+      <c r="A18" s="45"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="45"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5740,42 +6003,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="50" t="s">
         <v>122</v>
       </c>
       <c r="D2" t="s">
@@ -5795,36 +6058,36 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <f>SUM(E1:E2)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <f>SUM(F1:F2)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <f>SUM(G1:G2)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <f>SUM(H1:H2)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <f>SUM(I1:I2)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="51">
         <v>35.22</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="39" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5873,494 +6136,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="84">
+      <c r="E2" s="74">
         <v>0.25</v>
       </c>
-      <c r="F2" s="84">
+      <c r="F2" s="74">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="26">
-        <v>0</v>
-      </c>
-      <c r="I2" s="84">
-        <v>0</v>
-      </c>
-      <c r="J2" s="84">
-        <v>0</v>
-      </c>
-      <c r="K2" s="41" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="24">
+        <v>0</v>
+      </c>
+      <c r="I2" s="74">
+        <v>0</v>
+      </c>
+      <c r="J2" s="74">
+        <v>0</v>
+      </c>
+      <c r="K2" s="39" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="38">
         <v>21.23</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="38">
         <v>25.48</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="35">
+      <c r="G3" s="71"/>
+      <c r="H3" s="33">
         <v>1</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="38">
         <v>21.23</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="38">
         <v>25.48</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="38">
         <v>0.19</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="38">
         <v>0.23</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="35">
+      <c r="G4" s="71"/>
+      <c r="H4" s="33">
         <v>30</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="38">
         <v>5.73</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="38">
         <v>6.88</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="38">
         <v>0.22</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="38">
         <v>0.26</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="35">
+      <c r="G5" s="71"/>
+      <c r="H5" s="33">
         <v>25</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="38">
         <v>5.45</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="38">
         <v>6.54</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="39" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="38">
         <v>0.39</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="38">
         <v>0.47</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="35">
+      <c r="G6" s="71"/>
+      <c r="H6" s="33">
         <v>25</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="38">
         <v>9.73</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="38">
         <v>11.67</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="39" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="38">
         <v>0.22</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="38">
         <v>0.26</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="35">
+      <c r="G7" s="71"/>
+      <c r="H7" s="33">
         <v>25</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="38">
         <v>5.48</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="38">
         <v>6.57</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="38">
         <v>0.24</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="38">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="35">
+      <c r="G8" s="71"/>
+      <c r="H8" s="33">
         <v>25</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="38">
         <v>6.03</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="38">
         <v>7.23</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="39" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="38">
         <v>0.23</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="38">
         <v>0.27</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="35">
+      <c r="G9" s="71"/>
+      <c r="H9" s="33">
         <v>25</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="38">
         <v>5.73</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="38">
         <v>6.87</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="39" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="40">
+      <c r="D10" s="29"/>
+      <c r="E10" s="38">
         <v>0.13</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="38">
         <v>0.15</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="35">
+      <c r="G10" s="71"/>
+      <c r="H10" s="33">
         <v>25</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="38">
         <v>3.13</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="38">
         <v>3.75</v>
       </c>
-      <c r="K10" s="52"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="40">
+      <c r="D11" s="29"/>
+      <c r="E11" s="38">
         <v>0.08</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="38">
         <v>0.09</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="35">
+      <c r="G11" s="71"/>
+      <c r="H11" s="33">
         <v>25</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="38">
         <v>1.98</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="38">
         <v>2.37</v>
       </c>
-      <c r="K11" s="52"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="40">
+      <c r="D12" s="29"/>
+      <c r="E12" s="38">
         <v>0.1</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="38">
         <v>0.12</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="35">
+      <c r="G12" s="71"/>
+      <c r="H12" s="33">
         <v>25</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="38">
         <v>2.4500000000000002</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="38">
         <v>2.94</v>
       </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="40">
+      <c r="D13" s="29"/>
+      <c r="E13" s="38">
         <v>0.1</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="38">
         <v>0.12</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="35">
+      <c r="G13" s="71"/>
+      <c r="H13" s="33">
         <v>25</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="38">
         <v>2.4500000000000002</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="38">
         <v>2.94</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="40">
+      <c r="D14" s="29"/>
+      <c r="E14" s="38">
         <v>0.1</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="38">
         <v>0.12</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="35">
+      <c r="G14" s="71"/>
+      <c r="H14" s="33">
         <v>25</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="38">
         <v>2.48</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="38">
         <v>2.97</v>
       </c>
-      <c r="K14" s="52"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="38">
         <v>3.19</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="38">
         <v>3.83</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="35">
+      <c r="G15" s="71"/>
+      <c r="H15" s="33">
         <v>4</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="38">
         <v>12.76</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="38">
         <v>15.31</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
+      <c r="A16" s="69"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="E17" s="77" t="s">
+      <c r="A17" s="45"/>
+      <c r="E17" s="106" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="78">
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="107">
         <f>SUM(J2:J15)</f>
         <v>101.52000000000001</v>
       </c>
-      <c r="K17" s="52"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="52"/>
+      <c r="A18" s="45"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="45"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6411,7 +6674,7 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -6437,48 +6700,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="31">
+      <c r="D2" s="33"/>
+      <c r="E2" s="29">
         <f>305.3/1.2</f>
         <v>254.41666666666669</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="29">
         <f>1.2*E2</f>
         <v>305.3</v>
       </c>
-      <c r="G2" s="32">
-        <v>0</v>
-      </c>
-      <c r="H2" s="31">
+      <c r="G2" s="30">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
         <v>1</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="29">
         <f>H2*E2</f>
         <v>254.41666666666669</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="29">
         <f>I2*1.2</f>
         <v>305.3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
-      <c r="E3" s="69" t="s">
+      <c r="A3" s="54"/>
+      <c r="E3" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
       <c r="J3">
         <f>J2</f>
         <v>305.3</v>
@@ -6531,49 +6794,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="60" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="55" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="47" t="s">
         <v>164</v>
       </c>
       <c r="B3" t="s">
@@ -6605,14 +6868,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="47"/>
       <c r="B4" t="s">
         <v>168</v>
       </c>
       <c r="C4" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="39" t="s">
         <v>170</v>
       </c>
       <c r="E4">
@@ -6635,7 +6898,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="47"/>
       <c r="B5" t="s">
         <v>171</v>
       </c>
@@ -6665,7 +6928,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="47"/>
       <c r="B6" t="s">
         <v>174</v>
       </c>
@@ -6689,7 +6952,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="47"/>
       <c r="B7" t="s">
         <v>177</v>
       </c>
@@ -6719,7 +6982,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
+      <c r="A8" s="47"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6734,7 +6997,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="47"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6749,7 +7012,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+      <c r="A10" s="47"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6764,7 +7027,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="47"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6779,7 +7042,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
+      <c r="A12" s="47"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6794,7 +7057,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="A13" s="47"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6809,7 +7072,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
+      <c r="A14" s="47"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6824,7 +7087,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="47"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6839,7 +7102,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="A16" s="47"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6854,7 +7117,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="47"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6869,7 +7132,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="47"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6884,7 +7147,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="47"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6899,7 +7162,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="47"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6914,7 +7177,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="47"/>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6929,7 +7192,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
+      <c r="A22" s="47"/>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7029,48 +7292,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>182</v>
       </c>
       <c r="F2">
@@ -7087,7 +7350,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="47"/>
       <c r="F3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7102,7 +7365,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="47"/>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7117,7 +7380,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="47"/>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7132,7 +7395,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="47"/>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7147,7 +7410,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="47"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7162,7 +7425,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
+      <c r="A8" s="47"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7177,7 +7440,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="47"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7192,7 +7455,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+      <c r="A10" s="47"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7207,7 +7470,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="47"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7222,7 +7485,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
+      <c r="A12" s="47"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7237,7 +7500,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="A13" s="47"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7252,7 +7515,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
+      <c r="A14" s="47"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7267,7 +7530,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="47"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7282,7 +7545,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="A16" s="47"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7297,7 +7560,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="47"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7312,7 +7575,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="47"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7327,7 +7590,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="47"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7342,7 +7605,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="47"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7357,7 +7620,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="47"/>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7455,51 +7718,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="41"/>
+      <c r="G2" s="39"/>
       <c r="H2">
         <v>1</v>
       </c>
@@ -7509,19 +7772,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="39">
         <v>6329</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="G3" s="41"/>
+      <c r="G3" s="39"/>
       <c r="H3">
         <v>1</v>
       </c>
@@ -7531,19 +7794,19 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="39"/>
       <c r="H4">
         <v>2</v>
       </c>
@@ -7593,39 +7856,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
@@ -7648,10 +7911,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="59" t="s">
         <v>193</v>
       </c>
       <c r="D3" t="s">
@@ -7671,7 +7934,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
@@ -7694,38 +7957,38 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <f>SUM(E3:E4)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <f>SUM(F3:F4)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <f>SUM(G3:G4)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <f>SUM(H3:H4)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <f>SUM(I3:I4)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="21" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="47"/>
       <c r="F6">
         <f t="shared" ref="F6:F23" si="0">1.2*E6</f>
         <v>0</v>
@@ -7740,7 +8003,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="47"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7755,7 +8018,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
+      <c r="A8" s="47"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7770,7 +8033,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="47"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7785,7 +8048,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+      <c r="A10" s="47"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7800,7 +8063,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="47"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7815,7 +8078,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
+      <c r="A12" s="47"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7830,7 +8093,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="A13" s="47"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7845,7 +8108,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
+      <c r="A14" s="47"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7860,7 +8123,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="47"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7875,7 +8138,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="A16" s="47"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7890,7 +8153,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="47"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7905,7 +8168,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="47"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7920,7 +8183,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="47"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7935,7 +8198,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="47"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9BD2D5-83F1-4DC3-998D-A5C447E9D33A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3E02EA-DCC7-4F1F-B04B-8FD07A86AB45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="256">
-  <si>
-    <t>numéro de la commande</t>
-  </si>
   <si>
     <t>Système</t>
   </si>
@@ -854,6 +851,9 @@
   </si>
   <si>
     <t>Diamètre de 24mm</t>
+  </si>
+  <si>
+    <t>Numéro de la commande</t>
   </si>
 </sst>
 </file>
@@ -1875,18 +1875,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1909,6 +1897,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1918,29 +1930,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2343,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,57 +2366,57 @@
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="L1" s="62" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="124" t="s">
+      <c r="B2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="9">
         <v>1.022</v>
@@ -2441,15 +2441,15 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="127" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14">
@@ -2475,12 +2475,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="124"/>
-      <c r="B4" s="123"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="21">
         <f t="shared" ref="F4:K4" si="0">SUM(F2:F3)</f>
@@ -2507,24 +2507,24 @@
         <v>49.95</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="9">
         <v>43.46</v>
@@ -2549,12 +2549,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="124"/>
-      <c r="B6" s="123"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2565,24 +2565,24 @@
         <v>43.46</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="120">
+      <c r="A7" s="124">
         <v>3</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="79" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>51</v>
       </c>
       <c r="F7" s="79">
         <v>0.23300000000000001</v>
@@ -2606,22 +2606,22 @@
         <v>2.5164</v>
       </c>
       <c r="L7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="125"/>
+      <c r="B8" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="E8" s="29" t="s">
         <v>54</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>55</v>
       </c>
       <c r="F8" s="29">
         <v>7.8E-2</v>
@@ -2645,22 +2645,22 @@
         <v>8.4239999999999995</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="121"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="E9" s="33" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>15</v>
       </c>
       <c r="F9" s="29">
         <v>1.022</v>
@@ -2685,18 +2685,18 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>57</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>58</v>
       </c>
       <c r="F10" s="25">
         <v>2.117</v>
@@ -2720,22 +2720,22 @@
         <v>29.72268</v>
       </c>
       <c r="L10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="125"/>
+      <c r="B11" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
-      <c r="B11" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="28" t="s">
+      <c r="D11" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="E11" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="F11" s="29">
         <v>2.4729999999999999</v>
@@ -2759,19 +2759,19 @@
         <v>10.683359999999999</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
+      <c r="A12" s="125"/>
       <c r="B12" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>247</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>248</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25">
@@ -2797,15 +2797,15 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>249</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>250</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="29">
@@ -2831,15 +2831,15 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>251</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>252</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25">
@@ -2853,32 +2853,32 @@
         <v>0.1</v>
       </c>
       <c r="I14" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="27">
         <f t="shared" si="5"/>
-        <v>22.878000000000004</v>
+        <v>11.439000000000002</v>
       </c>
       <c r="K14" s="102">
         <f t="shared" si="6"/>
-        <v>27.453600000000005</v>
+        <v>13.726800000000003</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
+      <c r="A15" s="125"/>
       <c r="B15" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="111" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="112" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" s="112">
+        <v>26</v>
+      </c>
+      <c r="E15" s="108" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15" s="108">
         <v>16.47</v>
       </c>
       <c r="G15" s="25">
@@ -2888,28 +2888,28 @@
       <c r="H15" s="36">
         <v>0.1</v>
       </c>
-      <c r="I15" s="112">
-        <v>1</v>
+      <c r="I15" s="108">
+        <v>2</v>
       </c>
       <c r="J15" s="27">
         <f t="shared" ref="J15" si="7">I15*F15*(1-H15)</f>
-        <v>14.822999999999999</v>
+        <v>29.645999999999997</v>
       </c>
       <c r="K15" s="102">
         <f t="shared" ref="K15" si="8">J15*1.2</f>
-        <v>17.787599999999998</v>
+        <v>35.575199999999995</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="121"/>
+      <c r="A16" s="125"/>
       <c r="B16" s="103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="84" t="s">
         <v>82</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>83</v>
       </c>
       <c r="E16" s="84"/>
       <c r="F16" s="84">
@@ -2935,18 +2935,18 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="121"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="F17" s="9">
         <v>13.59</v>
@@ -2971,18 +2971,18 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="121"/>
+      <c r="A18" s="125"/>
       <c r="B18" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="E18" s="29" t="s">
         <v>38</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>39</v>
       </c>
       <c r="F18" s="29">
         <v>0.82</v>
@@ -3006,22 +3006,22 @@
         <v>8.8559999999999999</v>
       </c>
       <c r="L18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="125"/>
+      <c r="B19" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="121"/>
-      <c r="B19" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="28" t="s">
+      <c r="D19" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="E19" s="29" t="s">
         <v>42</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>43</v>
       </c>
       <c r="F19" s="29">
         <v>1.68</v>
@@ -3045,22 +3045,22 @@
         <v>9.072000000000001</v>
       </c>
       <c r="L19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="125"/>
+      <c r="B20" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="121"/>
-      <c r="B20" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="E20" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>47</v>
       </c>
       <c r="F20" s="29">
         <v>0.27600000000000002</v>
@@ -3084,19 +3084,19 @@
         <v>1.4904000000000002</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="121"/>
+      <c r="A21" s="125"/>
       <c r="B21" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>64</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>65</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29">
@@ -3122,18 +3122,18 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="121"/>
+      <c r="A22" s="125"/>
       <c r="B22" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" s="29">
         <v>0.72</v>
@@ -3157,22 +3157,22 @@
         <v>3.8879999999999995</v>
       </c>
       <c r="L22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="121"/>
+      <c r="A23" s="125"/>
       <c r="B23" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="29">
         <v>0.45200000000000001</v>
@@ -3196,22 +3196,22 @@
         <v>4.8816000000000006</v>
       </c>
       <c r="L23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="121"/>
+      <c r="A24" s="125"/>
       <c r="B24" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="E24" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>75</v>
       </c>
       <c r="F24" s="29">
         <v>37.340000000000003</v>
@@ -3235,22 +3235,22 @@
         <v>80.654399999999995</v>
       </c>
       <c r="L24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="125"/>
+      <c r="B25" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="121"/>
-      <c r="B25" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="28" t="s">
+      <c r="D25" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="E25" s="29" t="s">
         <v>78</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>79</v>
       </c>
       <c r="F25" s="29">
         <v>0.219</v>
@@ -3274,19 +3274,19 @@
         <v>4.7304000000000004</v>
       </c>
       <c r="L25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="121"/>
+      <c r="A26" s="125"/>
       <c r="B26" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="D26" s="84" t="s">
         <v>17</v>
-      </c>
-      <c r="D26" s="84" t="s">
-        <v>18</v>
       </c>
       <c r="E26" s="84"/>
       <c r="F26" s="84">
@@ -3311,19 +3311,19 @@
         <v>44.431200000000004</v>
       </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="121"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="D27" s="79" t="s">
         <v>85</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>86</v>
       </c>
       <c r="E27" s="79"/>
       <c r="F27" s="79">
@@ -3349,15 +3349,15 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="121"/>
+      <c r="A28" s="125"/>
       <c r="B28" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29">
@@ -3382,19 +3382,19 @@
         <v>2.7864</v>
       </c>
       <c r="L28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="125"/>
+      <c r="B29" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="121"/>
-      <c r="B29" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="28" t="s">
+      <c r="D29" s="29" t="s">
         <v>90</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>91</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="29">
@@ -3419,22 +3419,22 @@
         <v>2.9268000000000001</v>
       </c>
       <c r="L29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="121"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="29" t="s">
-        <v>93</v>
-      </c>
       <c r="E30" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F30" s="29">
         <v>1.1100000000000001</v>
@@ -3459,15 +3459,15 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="37" t="s">
         <v>94</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>95</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="29">
@@ -3493,15 +3493,15 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="121"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>96</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>97</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="29">
@@ -3526,19 +3526,19 @@
         <v>9.072000000000001</v>
       </c>
       <c r="L32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="125"/>
+      <c r="B33" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
-      <c r="B33" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="32" t="s">
+      <c r="D33" s="33" t="s">
         <v>99</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>100</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29">
@@ -3563,19 +3563,19 @@
         <v>5.7239999999999993</v>
       </c>
       <c r="L33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="125"/>
+      <c r="B34" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
-      <c r="B34" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="28" t="s">
+      <c r="D34" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29">
@@ -3600,22 +3600,22 @@
         <v>6.4259999999999993</v>
       </c>
       <c r="L34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
+      <c r="A35" s="125"/>
       <c r="B35" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>223</v>
-      </c>
       <c r="E35" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F35" s="29">
         <v>0.254</v>
@@ -3639,22 +3639,22 @@
         <v>2.7431999999999999</v>
       </c>
       <c r="L35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
+      <c r="A36" s="125"/>
       <c r="B36" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="29" t="s">
         <v>229</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>230</v>
       </c>
       <c r="F36" s="29">
         <v>0.85799999999999998</v>
@@ -3679,15 +3679,15 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="121"/>
+      <c r="A37" s="125"/>
       <c r="B37" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="76" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>232</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="29">
@@ -3712,19 +3712,19 @@
         <v>1.296</v>
       </c>
       <c r="L37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="125"/>
+      <c r="B38" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="76" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="121"/>
-      <c r="B38" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="76" t="s">
+      <c r="D38" s="29" t="s">
         <v>234</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>235</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="29">
@@ -3749,19 +3749,19 @@
         <v>1.458</v>
       </c>
       <c r="L38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="29" t="s">
         <v>236</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>237</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="29">
@@ -3786,19 +3786,19 @@
         <v>1.458</v>
       </c>
       <c r="L39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="121"/>
+      <c r="A40" s="125"/>
       <c r="B40" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="29" t="s">
         <v>238</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>239</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29">
@@ -3823,19 +3823,19 @@
         <v>1.8900000000000001</v>
       </c>
       <c r="L40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
+      <c r="A41" s="125"/>
       <c r="B41" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="29" t="s">
         <v>240</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>241</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29">
@@ -3860,19 +3860,19 @@
         <v>1.9979999999999998</v>
       </c>
       <c r="L41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="121"/>
+      <c r="A42" s="125"/>
       <c r="B42" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42" s="29" t="s">
         <v>242</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>243</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="29">
@@ -3897,19 +3897,19 @@
         <v>8.5860000000000003</v>
       </c>
       <c r="L42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="121"/>
+      <c r="A43" s="125"/>
       <c r="B43" s="82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="83" t="s">
+        <v>243</v>
+      </c>
+      <c r="D43" s="84" t="s">
         <v>244</v>
-      </c>
-      <c r="D43" s="84" t="s">
-        <v>245</v>
       </c>
       <c r="E43" s="84"/>
       <c r="F43" s="84">
@@ -3934,22 +3934,22 @@
         <v>6.9660000000000002</v>
       </c>
       <c r="L43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="121"/>
-      <c r="B44" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" s="113" t="s">
+      <c r="A44" s="125"/>
+      <c r="B44" s="111" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="109" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="110" t="s">
         <v>253</v>
       </c>
-      <c r="D44" s="114" t="s">
-        <v>254</v>
-      </c>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114">
+      <c r="E44" s="110"/>
+      <c r="F44" s="110">
         <v>16.28</v>
       </c>
       <c r="G44" s="14">
@@ -3959,7 +3959,7 @@
       <c r="H44" s="15">
         <v>0.1</v>
       </c>
-      <c r="I44" s="114">
+      <c r="I44" s="110">
         <v>1</v>
       </c>
       <c r="J44" s="16">
@@ -3972,15 +3972,15 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="121"/>
-      <c r="B45" s="116" t="s">
-        <v>198</v>
+      <c r="A45" s="125"/>
+      <c r="B45" s="112" t="s">
+        <v>197</v>
       </c>
       <c r="C45" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>215</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>216</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="29">
@@ -4005,22 +4005,22 @@
         <v>2.4408000000000003</v>
       </c>
       <c r="L45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="121"/>
+      <c r="A46" s="125"/>
       <c r="B46" s="88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F46" s="29">
         <v>0.105</v>
@@ -4045,18 +4045,18 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="121"/>
+      <c r="A47" s="125"/>
       <c r="B47" s="88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47" s="29">
         <v>0.51</v>
@@ -4081,18 +4081,18 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="121"/>
+      <c r="A48" s="125"/>
       <c r="B48" s="88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F48" s="29">
         <v>2.54</v>
@@ -4116,22 +4116,22 @@
         <v>2.7431999999999999</v>
       </c>
       <c r="L48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="121"/>
+      <c r="A49" s="125"/>
       <c r="B49" s="91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C49" s="92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" s="84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E49" s="84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" s="84">
         <v>1.76</v>
@@ -4156,18 +4156,18 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="121"/>
+      <c r="A50" s="125"/>
       <c r="B50" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="94" t="s">
+      <c r="D50" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="F50" s="9">
         <v>30.97</v>
@@ -4192,18 +4192,18 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="121"/>
+      <c r="A51" s="125"/>
       <c r="B51" s="105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="E51" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>31</v>
       </c>
       <c r="F51" s="29">
         <v>16</v>
@@ -4228,18 +4228,18 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="121"/>
+      <c r="A52" s="125"/>
       <c r="B52" s="105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="106" t="s">
         <v>32</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="110" t="s">
-        <v>33</v>
       </c>
       <c r="F52" s="29">
         <v>16.47</v>
@@ -4264,15 +4264,15 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="121"/>
+      <c r="A53" s="125"/>
       <c r="B53" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="33" t="s">
         <v>104</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>105</v>
       </c>
       <c r="E53" s="29"/>
       <c r="F53" s="38">
@@ -4298,15 +4298,15 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="121"/>
+      <c r="A54" s="125"/>
       <c r="B54" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="33" t="s">
         <v>106</v>
-      </c>
-      <c r="D54" s="33" t="s">
-        <v>107</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="38">
@@ -4331,19 +4331,19 @@
         <v>2.052</v>
       </c>
       <c r="L54" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="125"/>
+      <c r="B55" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="121" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="121"/>
-      <c r="B55" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="129" t="s">
+      <c r="D55" s="33" t="s">
         <v>109</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>110</v>
       </c>
       <c r="E55" s="29"/>
       <c r="F55" s="38">
@@ -4368,19 +4368,19 @@
         <v>3.8879999999999995</v>
       </c>
       <c r="L55" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="121"/>
+      <c r="A56" s="125"/>
       <c r="B56" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="33" t="s">
         <v>111</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>112</v>
       </c>
       <c r="E56" s="29"/>
       <c r="F56" s="38">
@@ -4405,19 +4405,19 @@
         <v>5.13</v>
       </c>
       <c r="L56" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="121"/>
+      <c r="A57" s="125"/>
       <c r="B57" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>114</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="38">
@@ -4443,15 +4443,15 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="121"/>
+      <c r="A58" s="125"/>
       <c r="B58" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="33" t="s">
         <v>115</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>116</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="38">
@@ -4477,15 +4477,15 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="122"/>
+      <c r="A59" s="126"/>
       <c r="B59" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="130" t="s">
-        <v>117</v>
+        <v>24</v>
+      </c>
+      <c r="C59" s="122" t="s">
+        <v>116</v>
       </c>
       <c r="D59" s="90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E59" s="84"/>
       <c r="F59" s="84">
@@ -4510,21 +4510,21 @@
         <v>8.4239999999999995</v>
       </c>
       <c r="L59" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="118"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="118"/>
-      <c r="K60" s="119">
+      <c r="E60" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="114"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="115">
         <f>SUM(K7:K59)</f>
-        <v>643.81284000000005</v>
+        <v>647.87364000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4592,45 +4592,45 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="D2" s="39" t="s">
         <v>199</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>200</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F24" si="0">1.2*E2</f>
@@ -4647,13 +4647,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>201</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>202</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
@@ -4670,13 +4670,13 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>203</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>204</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -4693,13 +4693,13 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>205</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>206</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -4716,13 +4716,13 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>207</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>208</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -5054,39 +5054,39 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F24" si="0">1.2*E2</f>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -5489,45 +5489,45 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" t="s">
         <v>210</v>
-      </c>
-      <c r="D2" t="s">
-        <v>211</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -5642,32 +5642,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5701,34 +5701,34 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -5737,10 +5737,10 @@
         <v>2313118</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>120</v>
       </c>
       <c r="E2" s="46">
         <v>3.17</v>
@@ -5769,7 +5769,7 @@
         <v>488203</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="46">
@@ -6004,45 +6004,45 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
         <v>122</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -6062,7 +6062,7 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="21">
         <f>SUM(E1:E2)</f>
@@ -6088,7 +6088,7 @@
         <v>35.22</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6137,48 +6137,48 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>126</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>127</v>
       </c>
       <c r="E2" s="74">
         <v>0.25</v>
@@ -6197,19 +6197,19 @@
         <v>0</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="38">
         <v>21.23</v>
@@ -6231,14 +6231,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="38">
         <v>0.19</v>
@@ -6260,14 +6260,14 @@
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="38">
         <v>0.22</v>
@@ -6286,19 +6286,19 @@
         <v>6.54</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="38">
         <v>0.39</v>
@@ -6317,19 +6317,19 @@
         <v>11.67</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="38">
         <v>0.22</v>
@@ -6348,19 +6348,19 @@
         <v>6.57</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="38">
         <v>0.24</v>
@@ -6379,19 +6379,19 @@
         <v>7.23</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="38">
         <v>0.23</v>
@@ -6410,18 +6410,18 @@
         <v>6.87</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>148</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>149</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="38">
@@ -6444,13 +6444,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>150</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>151</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="38">
@@ -6473,13 +6473,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>152</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>153</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="38">
@@ -6502,13 +6502,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>154</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>155</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="38">
@@ -6531,13 +6531,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>156</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>157</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="38">
@@ -6560,14 +6560,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="38">
         <v>3.19</v>
@@ -6596,14 +6596,14 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
-      <c r="E17" s="106" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107">
+      <c r="E17" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="128">
         <f>SUM(J2:J15)</f>
         <v>101.52000000000001</v>
       </c>
@@ -6611,12 +6611,12 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="107"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
       <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6654,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6669,45 +6669,45 @@
   <sheetData>
     <row r="1" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>161</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="29">
@@ -6735,13 +6735,13 @@
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="54"/>
-      <c r="E3" s="108" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
+      <c r="E3" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
       <c r="J3">
         <f>J2</f>
         <v>305.3</v>
@@ -6794,59 +6794,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="130" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="55" t="s">
         <v>162</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="55" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="D2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="E2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="F2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="G2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="44" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
         <v>164</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>165</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>166</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
       </c>
       <c r="E3">
         <v>81</v>
@@ -6870,13 +6870,13 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
         <v>168</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="39" t="s">
         <v>169</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>170</v>
       </c>
       <c r="E4">
         <v>110</v>
@@ -6900,13 +6900,13 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
         <v>171</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>172</v>
-      </c>
-      <c r="D5" t="s">
-        <v>173</v>
       </c>
       <c r="E5">
         <v>110</v>
@@ -6930,13 +6930,13 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" t="s">
         <v>174</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>175</v>
-      </c>
-      <c r="D6" t="s">
-        <v>176</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -6954,13 +6954,13 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
         <v>177</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>178</v>
-      </c>
-      <c r="D7" t="s">
-        <v>179</v>
       </c>
       <c r="E7">
         <v>293</v>
@@ -7293,48 +7293,48 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="D2" s="39" t="s">
         <v>181</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>182</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F24" si="0">1.2*E2</f>
@@ -7719,48 +7719,48 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="F2" s="58" t="s">
         <v>184</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>185</v>
       </c>
       <c r="G2" s="39"/>
       <c r="H2">
@@ -7773,16 +7773,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="39">
         <v>6329</v>
       </c>
       <c r="C3" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="58" t="s">
         <v>186</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>187</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3">
@@ -7795,16 +7795,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="F4" s="58" t="s">
         <v>189</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>190</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4">
@@ -7857,45 +7857,45 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" t="s">
         <v>191</v>
-      </c>
-      <c r="D2" t="s">
-        <v>192</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -7912,13 +7912,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" t="s">
         <v>193</v>
-      </c>
-      <c r="D3" t="s">
-        <v>194</v>
       </c>
       <c r="F3">
         <f>1.2*E3</f>
@@ -7935,13 +7935,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
         <v>195</v>
-      </c>
-      <c r="D4" t="s">
-        <v>196</v>
       </c>
       <c r="F4">
         <f>1.2*E4</f>
@@ -7961,7 +7961,7 @@
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="21">
         <f>SUM(E3:E4)</f>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3E02EA-DCC7-4F1F-B04B-8FD07A86AB45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EB40B9-32DB-4358-896E-2845D96D3CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="257">
   <si>
     <t>Système</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>Numéro de la commande</t>
+  </si>
+  <si>
+    <t>772-1111</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1628,11 +1631,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1813,9 +1836,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1941,6 +1961,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2341,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,10 +2441,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="117" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2441,8 +2479,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="123"/>
-      <c r="B3" s="119" t="s">
+      <c r="A3" s="122"/>
+      <c r="B3" s="118" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2475,8 +2513,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="123"/>
-      <c r="B4" s="116"/>
+      <c r="A4" s="122"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="20" t="s">
@@ -2511,10 +2549,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="116" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2549,8 +2587,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="123"/>
-      <c r="B6" s="116"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="20" t="s">
@@ -2569,13 +2607,13 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="124">
+      <c r="A7" s="123">
         <v>3</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="93" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2588,7 +2626,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="G7" s="79">
-        <f t="shared" ref="G7:G59" si="1">1.2*F7</f>
+        <f t="shared" ref="G7:G61" si="1">1.2*F7</f>
         <v>0.27960000000000002</v>
       </c>
       <c r="H7" s="10">
@@ -2598,11 +2636,11 @@
         <v>10</v>
       </c>
       <c r="J7" s="11">
-        <f t="shared" ref="J7:J59" si="2">I7*F7*(1-H7)</f>
+        <f t="shared" ref="J7:J61" si="2">I7*F7*(1-H7)</f>
         <v>2.097</v>
       </c>
       <c r="K7" s="12">
-        <f t="shared" ref="K7:K59" si="3">J7*1.2</f>
+        <f t="shared" ref="K7:K61" si="3">J7*1.2</f>
         <v>2.5164</v>
       </c>
       <c r="L7" t="s">
@@ -2610,8 +2648,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="99" t="s">
+      <c r="A8" s="124"/>
+      <c r="B8" s="98" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -2649,8 +2687,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="100" t="s">
+      <c r="A9" s="124"/>
+      <c r="B9" s="99" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="34" t="s">
@@ -2685,8 +2723,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="101" t="s">
+      <c r="A10" s="124"/>
+      <c r="B10" s="100" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -2715,7 +2753,7 @@
         <f t="shared" si="2"/>
         <v>24.768900000000002</v>
       </c>
-      <c r="K10" s="102">
+      <c r="K10" s="101">
         <f t="shared" si="3"/>
         <v>29.72268</v>
       </c>
@@ -2724,8 +2762,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
-      <c r="B11" s="101" t="s">
+      <c r="A11" s="124"/>
+      <c r="B11" s="100" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -2763,8 +2801,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
-      <c r="B12" s="101" t="s">
+      <c r="A12" s="124"/>
+      <c r="B12" s="100" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
@@ -2791,14 +2829,14 @@
         <f t="shared" ref="J12:J16" si="5">I12*F12*(1-H12)</f>
         <v>21.905999999999999</v>
       </c>
-      <c r="K12" s="102">
+      <c r="K12" s="101">
         <f t="shared" ref="K12:K16" si="6">J12*1.2</f>
         <v>26.287199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="101" t="s">
+      <c r="A13" s="124"/>
+      <c r="B13" s="100" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -2831,8 +2869,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="101" t="s">
+      <c r="A14" s="124"/>
+      <c r="B14" s="100" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -2859,26 +2897,26 @@
         <f t="shared" si="5"/>
         <v>11.439000000000002</v>
       </c>
-      <c r="K14" s="102">
+      <c r="K14" s="101">
         <f t="shared" si="6"/>
         <v>13.726800000000003</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="100" t="s">
+      <c r="A15" s="124"/>
+      <c r="B15" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="106" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="107" t="s">
         <v>254</v>
       </c>
-      <c r="F15" s="108">
+      <c r="F15" s="107">
         <v>16.47</v>
       </c>
       <c r="G15" s="25">
@@ -2888,58 +2926,58 @@
       <c r="H15" s="36">
         <v>0.1</v>
       </c>
-      <c r="I15" s="108">
+      <c r="I15" s="107">
         <v>2</v>
       </c>
       <c r="J15" s="27">
         <f t="shared" ref="J15" si="7">I15*F15*(1-H15)</f>
         <v>29.645999999999997</v>
       </c>
-      <c r="K15" s="102">
+      <c r="K15" s="101">
         <f t="shared" ref="K15" si="8">J15*1.2</f>
         <v>35.575199999999995</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="125"/>
-      <c r="B16" s="103" t="s">
+      <c r="A16" s="124"/>
+      <c r="B16" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84">
+      <c r="E16" s="83"/>
+      <c r="F16" s="83">
         <v>11.11</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="83">
         <f t="shared" si="4"/>
         <v>13.331999999999999</v>
       </c>
-      <c r="H16" s="85">
+      <c r="H16" s="84">
         <v>0.1</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="83">
         <v>1</v>
       </c>
-      <c r="J16" s="86">
+      <c r="J16" s="85">
         <f t="shared" si="5"/>
         <v>9.9990000000000006</v>
       </c>
-      <c r="K16" s="87">
+      <c r="K16" s="86">
         <f t="shared" si="6"/>
         <v>11.998800000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="125"/>
-      <c r="B17" s="93" t="s">
+      <c r="A17" s="124"/>
+      <c r="B17" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="93" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -2971,8 +3009,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
-      <c r="B18" s="95" t="s">
+      <c r="A18" s="124"/>
+      <c r="B18" s="94" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -3010,8 +3048,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="95" t="s">
+      <c r="A19" s="124"/>
+      <c r="B19" s="94" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -3049,8 +3087,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="125"/>
-      <c r="B20" s="95" t="s">
+      <c r="A20" s="124"/>
+      <c r="B20" s="94" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -3088,8 +3126,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="125"/>
-      <c r="B21" s="96" t="s">
+      <c r="A21" s="124"/>
+      <c r="B21" s="95" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -3122,8 +3160,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="125"/>
-      <c r="B22" s="96" t="s">
+      <c r="A22" s="124"/>
+      <c r="B22" s="95" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -3161,8 +3199,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="125"/>
-      <c r="B23" s="96" t="s">
+      <c r="A23" s="124"/>
+      <c r="B23" s="95" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -3200,8 +3238,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="125"/>
-      <c r="B24" s="96" t="s">
+      <c r="A24" s="124"/>
+      <c r="B24" s="95" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -3239,8 +3277,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="125"/>
-      <c r="B25" s="96" t="s">
+      <c r="A25" s="124"/>
+      <c r="B25" s="95" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -3278,35 +3316,35 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="125"/>
-      <c r="B26" s="97" t="s">
+      <c r="A26" s="124"/>
+      <c r="B26" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84">
+      <c r="E26" s="83"/>
+      <c r="F26" s="83">
         <v>20.57</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="83">
         <f t="shared" si="1"/>
         <v>24.684000000000001</v>
       </c>
-      <c r="H26" s="85">
+      <c r="H26" s="84">
         <v>0.1</v>
       </c>
-      <c r="I26" s="84">
+      <c r="I26" s="83">
         <v>2</v>
       </c>
-      <c r="J26" s="86">
+      <c r="J26" s="85">
         <f t="shared" si="2"/>
         <v>37.026000000000003</v>
       </c>
-      <c r="K26" s="87">
+      <c r="K26" s="86">
         <f t="shared" si="3"/>
         <v>44.431200000000004</v>
       </c>
@@ -3315,7 +3353,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="125"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="77" t="s">
         <v>83</v>
       </c>
@@ -3349,7 +3387,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="125"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="80" t="s">
         <v>83</v>
       </c>
@@ -3386,7 +3424,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="125"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="80" t="s">
         <v>83</v>
       </c>
@@ -3423,7 +3461,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="125"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="80" t="s">
         <v>83</v>
       </c>
@@ -3459,7 +3497,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="125"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="80" t="s">
         <v>83</v>
       </c>
@@ -3493,7 +3531,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="125"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="80" t="s">
         <v>83</v>
       </c>
@@ -3530,7 +3568,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="125"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="80" t="s">
         <v>83</v>
       </c>
@@ -3567,7 +3605,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="125"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="80" t="s">
         <v>83</v>
       </c>
@@ -3604,7 +3642,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="125"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="80" t="s">
         <v>83</v>
       </c>
@@ -3643,7 +3681,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="125"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="80" t="s">
         <v>83</v>
       </c>
@@ -3679,7 +3717,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="125"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="80" t="s">
         <v>83</v>
       </c>
@@ -3716,7 +3754,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="125"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="80" t="s">
         <v>83</v>
       </c>
@@ -3753,7 +3791,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="125"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="80" t="s">
         <v>83</v>
       </c>
@@ -3790,7 +3828,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="125"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="80" t="s">
         <v>83</v>
       </c>
@@ -3805,7 +3843,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G40" s="29">
-        <f t="shared" ref="G40:G47" si="9">1.2*F40</f>
+        <f t="shared" ref="G40:G49" si="9">1.2*F40</f>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H40" s="36">
@@ -3815,11 +3853,11 @@
         <v>50</v>
       </c>
       <c r="J40" s="31">
-        <f t="shared" ref="J40:J47" si="10">I40*F40*(1-H40)</f>
+        <f t="shared" ref="J40:J49" si="10">I40*F40*(1-H40)</f>
         <v>1.5750000000000002</v>
       </c>
       <c r="K40" s="81">
-        <f t="shared" ref="K40:K47" si="11">J40*1.2</f>
+        <f t="shared" ref="K40:K49" si="11">J40*1.2</f>
         <v>1.8900000000000001</v>
       </c>
       <c r="L40" t="s">
@@ -3827,7 +3865,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="125"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="80" t="s">
         <v>83</v>
       </c>
@@ -3842,7 +3880,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="G41" s="29">
-        <f t="shared" ref="G41:G44" si="12">1.2*F41</f>
+        <f t="shared" ref="G41:G46" si="12">1.2*F41</f>
         <v>4.4399999999999995E-2</v>
       </c>
       <c r="H41" s="36">
@@ -3864,7 +3902,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="125"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="80" t="s">
         <v>83</v>
       </c>
@@ -3900,36 +3938,36 @@
         <v>232</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="125"/>
-      <c r="B43" s="82" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="134"/>
+      <c r="B43" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="83" t="s">
+      <c r="C43" s="135" t="s">
         <v>243</v>
       </c>
-      <c r="D43" s="84" t="s">
+      <c r="D43" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84">
+      <c r="E43" s="14"/>
+      <c r="F43" s="14">
         <v>0.25800000000000001</v>
       </c>
-      <c r="G43" s="84">
+      <c r="G43" s="14">
         <f t="shared" si="12"/>
         <v>0.30959999999999999</v>
       </c>
-      <c r="H43" s="85">
+      <c r="H43" s="15">
         <v>0.1</v>
       </c>
-      <c r="I43" s="84">
+      <c r="I43" s="14">
         <v>25</v>
       </c>
-      <c r="J43" s="86">
+      <c r="J43" s="16">
         <f t="shared" si="13"/>
         <v>5.8050000000000006</v>
       </c>
-      <c r="K43" s="87">
+      <c r="K43" s="17">
         <f t="shared" si="14"/>
         <v>6.9660000000000002</v>
       </c>
@@ -3938,600 +3976,649 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="125"/>
-      <c r="B44" s="111" t="s">
+      <c r="A44" s="134"/>
+      <c r="B44" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="135"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="17"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="134"/>
+      <c r="B45" s="137" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83">
+        <v>13.88</v>
+      </c>
+      <c r="G45" s="83">
+        <f t="shared" ref="G45" si="15">1.2*F45</f>
+        <v>16.655999999999999</v>
+      </c>
+      <c r="H45" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="I45" s="83">
+        <v>1</v>
+      </c>
+      <c r="J45" s="85">
+        <f t="shared" ref="J45" si="16">I45*F45*(1-H45)</f>
+        <v>12.492000000000001</v>
+      </c>
+      <c r="K45" s="86">
+        <f t="shared" ref="K45" si="17">J45*1.2</f>
+        <v>14.990400000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="124"/>
+      <c r="B46" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="109" t="s">
+      <c r="C46" s="108" t="s">
         <v>252</v>
       </c>
-      <c r="D44" s="110" t="s">
+      <c r="D46" s="109" t="s">
         <v>253</v>
       </c>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110">
+      <c r="E46" s="109"/>
+      <c r="F46" s="109">
         <v>16.28</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G46" s="109">
         <f t="shared" si="12"/>
         <v>19.536000000000001</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H46" s="131">
         <v>0.1</v>
       </c>
-      <c r="I44" s="110">
+      <c r="I46" s="109">
         <v>1</v>
       </c>
-      <c r="J44" s="16">
-        <f t="shared" ref="J44" si="15">I44*F44*(1-H44)</f>
+      <c r="J46" s="132">
+        <f t="shared" ref="J46" si="18">I46*F46*(1-H46)</f>
         <v>14.652000000000001</v>
       </c>
-      <c r="K44" s="17">
-        <f t="shared" ref="K44" si="16">J44*1.2</f>
+      <c r="K46" s="133">
+        <f t="shared" ref="K46" si="19">J46*1.2</f>
         <v>17.5824</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="125"/>
-      <c r="B45" s="112" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="124"/>
+      <c r="B47" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C47" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D47" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29">
+      <c r="E47" s="29"/>
+      <c r="F47" s="29">
         <v>0.45200000000000001</v>
       </c>
-      <c r="G45" s="29">
+      <c r="G47" s="29">
         <f t="shared" si="9"/>
         <v>0.54239999999999999</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H47" s="36">
         <v>0.1</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I47" s="29">
         <v>5</v>
       </c>
-      <c r="J45" s="31">
+      <c r="J47" s="31">
         <f t="shared" si="10"/>
         <v>2.0340000000000003</v>
       </c>
-      <c r="K45" s="81">
+      <c r="K47" s="81">
         <f t="shared" si="11"/>
         <v>2.4408000000000003</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L47" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="125"/>
-      <c r="B46" s="88" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="124"/>
+      <c r="B48" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C48" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D48" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E48" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F48" s="29">
         <v>0.105</v>
       </c>
-      <c r="G46" s="29">
+      <c r="G48" s="29">
         <f t="shared" si="9"/>
         <v>0.126</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H48" s="36">
         <v>0.1</v>
       </c>
-      <c r="I46" s="29">
+      <c r="I48" s="29">
         <v>10</v>
       </c>
-      <c r="J46" s="31">
+      <c r="J48" s="31">
         <f t="shared" si="10"/>
         <v>0.94500000000000006</v>
       </c>
-      <c r="K46" s="81">
+      <c r="K48" s="81">
         <f t="shared" si="11"/>
         <v>1.1340000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="125"/>
-      <c r="B47" s="88" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="124"/>
+      <c r="B49" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C49" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D49" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E49" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F49" s="29">
         <v>0.51</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G49" s="29">
         <f t="shared" si="9"/>
         <v>0.61199999999999999</v>
       </c>
-      <c r="H47" s="36">
+      <c r="H49" s="36">
         <v>0.1</v>
       </c>
-      <c r="I47" s="29">
+      <c r="I49" s="29">
         <v>10</v>
       </c>
-      <c r="J47" s="31">
+      <c r="J49" s="31">
         <f t="shared" si="10"/>
         <v>4.59</v>
       </c>
-      <c r="K47" s="81">
+      <c r="K49" s="81">
         <f t="shared" si="11"/>
         <v>5.508</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="125"/>
-      <c r="B48" s="88" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="124"/>
+      <c r="B50" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C50" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D50" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E50" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F50" s="29">
         <v>2.54</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G50" s="29">
         <f t="shared" si="1"/>
         <v>3.048</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H50" s="36">
         <v>0.1</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I50" s="29">
         <v>1</v>
       </c>
-      <c r="J48" s="31">
+      <c r="J50" s="31">
         <f t="shared" si="2"/>
         <v>2.286</v>
       </c>
-      <c r="K48" s="81">
+      <c r="K50" s="81">
         <f t="shared" si="3"/>
         <v>2.7431999999999999</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L50" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="125"/>
-      <c r="B49" s="91" t="s">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="124"/>
+      <c r="B51" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="C49" s="92" t="s">
+      <c r="C51" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="84" t="s">
+      <c r="D51" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="E49" s="84" t="s">
+      <c r="E51" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="84">
+      <c r="F51" s="83">
         <v>1.76</v>
       </c>
-      <c r="G49" s="84">
-        <f t="shared" ref="G49" si="17">1.2*F49</f>
+      <c r="G51" s="83">
+        <f t="shared" ref="G51" si="20">1.2*F51</f>
         <v>2.1120000000000001</v>
       </c>
-      <c r="H49" s="85">
+      <c r="H51" s="84">
         <v>0.1</v>
       </c>
-      <c r="I49" s="84">
+      <c r="I51" s="83">
         <v>10</v>
       </c>
-      <c r="J49" s="86">
-        <f t="shared" ref="J49" si="18">I49*F49*(1-H49)</f>
+      <c r="J51" s="85">
+        <f t="shared" ref="J51" si="21">I51*F51*(1-H51)</f>
         <v>15.840000000000002</v>
       </c>
-      <c r="K49" s="87">
-        <f t="shared" ref="K49" si="19">J49*1.2</f>
+      <c r="K51" s="86">
+        <f t="shared" ref="K51" si="22">J51*1.2</f>
         <v>19.008000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="125"/>
-      <c r="B50" s="104" t="s">
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="124"/>
+      <c r="B52" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="94" t="s">
+      <c r="C52" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E52" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F52" s="9">
         <v>30.97</v>
       </c>
-      <c r="G50" s="9">
-        <f>1.2*F50</f>
+      <c r="G52" s="9">
+        <f>1.2*F52</f>
         <v>37.163999999999994</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H52" s="10">
         <v>0.1</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I52" s="9">
         <v>2</v>
       </c>
-      <c r="J50" s="11">
-        <f>I50*F50*(1-H50)</f>
+      <c r="J52" s="11">
+        <f>I52*F52*(1-H52)</f>
         <v>55.746000000000002</v>
       </c>
-      <c r="K50" s="12">
-        <f>J50*1.2</f>
+      <c r="K52" s="12">
+        <f>J52*1.2</f>
         <v>66.895200000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="125"/>
-      <c r="B51" s="105" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="124"/>
+      <c r="B53" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C53" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D53" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E53" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F53" s="29">
         <v>16</v>
       </c>
-      <c r="G51" s="29">
-        <f>1.2*F51</f>
+      <c r="G53" s="29">
+        <f>1.2*F53</f>
         <v>19.2</v>
-      </c>
-      <c r="H51" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="I51" s="29">
-        <v>1</v>
-      </c>
-      <c r="J51" s="31">
-        <f>I51*F51*(1-H51)</f>
-        <v>14.4</v>
-      </c>
-      <c r="K51" s="81">
-        <f>J51*1.2</f>
-        <v>17.28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="125"/>
-      <c r="B52" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="29">
-        <v>16.47</v>
-      </c>
-      <c r="G52" s="29">
-        <f>1.2*F52</f>
-        <v>19.763999999999999</v>
-      </c>
-      <c r="H52" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="I52" s="29">
-        <v>1</v>
-      </c>
-      <c r="J52" s="31">
-        <f>I52*F52*(1-H52)</f>
-        <v>14.822999999999999</v>
-      </c>
-      <c r="K52" s="81">
-        <f>J52*1.2</f>
-        <v>17.787599999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="125"/>
-      <c r="B53" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="120" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="38">
-        <v>1.45</v>
-      </c>
-      <c r="G53" s="29">
-        <f t="shared" si="1"/>
-        <v>1.74</v>
       </c>
       <c r="H53" s="36">
         <v>0.1</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="29">
         <v>1</v>
       </c>
       <c r="J53" s="31">
+        <f>I53*F53*(1-H53)</f>
+        <v>14.4</v>
+      </c>
+      <c r="K53" s="81">
+        <f>J53*1.2</f>
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="124"/>
+      <c r="B54" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="29">
+        <v>16.47</v>
+      </c>
+      <c r="G54" s="29">
+        <f>1.2*F54</f>
+        <v>19.763999999999999</v>
+      </c>
+      <c r="H54" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="I54" s="29">
+        <v>1</v>
+      </c>
+      <c r="J54" s="31">
+        <f>I54*F54*(1-H54)</f>
+        <v>14.822999999999999</v>
+      </c>
+      <c r="K54" s="81">
+        <f>J54*1.2</f>
+        <v>17.787599999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="124"/>
+      <c r="B55" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="29"/>
+      <c r="F55" s="38">
+        <v>1.45</v>
+      </c>
+      <c r="G55" s="29">
+        <f t="shared" si="1"/>
+        <v>1.74</v>
+      </c>
+      <c r="H55" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="I55" s="33">
+        <v>1</v>
+      </c>
+      <c r="J55" s="31">
         <f t="shared" si="2"/>
         <v>1.3049999999999999</v>
       </c>
-      <c r="K53" s="81">
+      <c r="K55" s="81">
         <f t="shared" si="3"/>
         <v>1.5659999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="125"/>
-      <c r="B54" s="105" t="s">
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="124"/>
+      <c r="B56" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="121" t="s">
+      <c r="C56" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D56" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="38">
+      <c r="E56" s="29"/>
+      <c r="F56" s="38">
         <v>1.9</v>
       </c>
-      <c r="G54" s="29">
+      <c r="G56" s="29">
         <f t="shared" si="1"/>
         <v>2.2799999999999998</v>
       </c>
-      <c r="H54" s="36">
+      <c r="H56" s="36">
         <v>0.1</v>
       </c>
-      <c r="I54" s="33">
+      <c r="I56" s="33">
         <v>1</v>
       </c>
-      <c r="J54" s="31">
+      <c r="J56" s="31">
         <f t="shared" si="2"/>
         <v>1.71</v>
       </c>
-      <c r="K54" s="81">
+      <c r="K56" s="81">
         <f t="shared" si="3"/>
         <v>2.052</v>
       </c>
-      <c r="L54" s="39" t="s">
+      <c r="L56" s="39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="125"/>
-      <c r="B55" s="105" t="s">
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="124"/>
+      <c r="B57" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="121" t="s">
+      <c r="C57" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D57" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="38">
+      <c r="E57" s="29"/>
+      <c r="F57" s="38">
         <v>0.36</v>
       </c>
-      <c r="G55" s="29">
+      <c r="G57" s="29">
         <f t="shared" si="1"/>
         <v>0.432</v>
       </c>
-      <c r="H55" s="36">
+      <c r="H57" s="36">
         <v>0.1</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I57" s="33">
         <v>10</v>
       </c>
-      <c r="J55" s="31">
+      <c r="J57" s="31">
         <f t="shared" si="2"/>
         <v>3.2399999999999998</v>
       </c>
-      <c r="K55" s="81">
+      <c r="K57" s="81">
         <f t="shared" si="3"/>
         <v>3.8879999999999995</v>
       </c>
-      <c r="L55" s="39" t="s">
+      <c r="L57" s="39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="125"/>
-      <c r="B56" s="105" t="s">
+    <row r="58" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="124"/>
+      <c r="B58" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="121" t="s">
+      <c r="C58" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D58" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="38">
+      <c r="E58" s="29"/>
+      <c r="F58" s="38">
         <v>0.19</v>
       </c>
-      <c r="G56" s="29">
+      <c r="G58" s="29">
         <f t="shared" si="1"/>
         <v>0.22799999999999998</v>
       </c>
-      <c r="H56" s="36">
+      <c r="H58" s="36">
         <v>0.1</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I58" s="33">
         <v>25</v>
       </c>
-      <c r="J56" s="31">
+      <c r="J58" s="31">
         <f t="shared" si="2"/>
         <v>4.2750000000000004</v>
       </c>
-      <c r="K56" s="81">
+      <c r="K58" s="81">
         <f t="shared" si="3"/>
         <v>5.13</v>
       </c>
-      <c r="L56" s="39" t="s">
+      <c r="L58" s="39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="125"/>
-      <c r="B57" s="105" t="s">
+    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="124"/>
+      <c r="B59" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="121" t="s">
+      <c r="C59" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D59" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="38">
+      <c r="E59" s="29"/>
+      <c r="F59" s="38">
         <v>0.11</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G59" s="29">
         <f t="shared" si="1"/>
         <v>0.13200000000000001</v>
       </c>
-      <c r="H57" s="36">
+      <c r="H59" s="36">
         <v>0.1</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I59" s="33">
         <v>25</v>
       </c>
-      <c r="J57" s="31">
+      <c r="J59" s="31">
         <f t="shared" si="2"/>
         <v>2.4750000000000001</v>
       </c>
-      <c r="K57" s="81">
+      <c r="K59" s="81">
         <f t="shared" si="3"/>
         <v>2.97</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="125"/>
-      <c r="B58" s="105" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="124"/>
+      <c r="B60" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="121" t="s">
+      <c r="C60" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D60" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="38">
+      <c r="E60" s="29"/>
+      <c r="F60" s="38">
         <v>0.67200000000000004</v>
       </c>
-      <c r="G58" s="29">
+      <c r="G60" s="29">
         <f t="shared" si="1"/>
         <v>0.80640000000000001</v>
       </c>
-      <c r="H58" s="36">
+      <c r="H60" s="36">
         <v>0.1</v>
       </c>
-      <c r="I58" s="33">
+      <c r="I60" s="33">
         <v>5</v>
       </c>
-      <c r="J58" s="31">
+      <c r="J60" s="31">
         <f t="shared" si="2"/>
         <v>3.0240000000000005</v>
       </c>
-      <c r="K58" s="81">
+      <c r="K60" s="81">
         <f t="shared" si="3"/>
         <v>3.6288000000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="126"/>
-      <c r="B59" s="89" t="s">
+    <row r="61" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="125"/>
+      <c r="B61" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="122" t="s">
+      <c r="C61" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="90" t="s">
+      <c r="D61" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84">
+      <c r="E61" s="83"/>
+      <c r="F61" s="83">
         <v>0.156</v>
       </c>
-      <c r="G59" s="84">
+      <c r="G61" s="83">
         <f t="shared" si="1"/>
         <v>0.18720000000000001</v>
       </c>
-      <c r="H59" s="85">
+      <c r="H61" s="84">
         <v>0.1</v>
       </c>
-      <c r="I59" s="84">
+      <c r="I61" s="83">
         <v>50</v>
       </c>
-      <c r="J59" s="86">
+      <c r="J61" s="85">
         <f t="shared" si="2"/>
         <v>7.02</v>
       </c>
-      <c r="K59" s="87">
+      <c r="K61" s="86">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
-      <c r="L59" s="39" t="s">
+      <c r="L61" s="39" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="113" t="s">
+    <row r="62" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="114"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="114"/>
-      <c r="K60" s="115">
-        <f>SUM(K7:K59)</f>
-        <v>647.87364000000002</v>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="113"/>
+      <c r="I62" s="113"/>
+      <c r="J62" s="113"/>
+      <c r="K62" s="114">
+        <f>SUM(K7:K61)</f>
+        <v>662.86404000000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A59"/>
+    <mergeCell ref="A7:A61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4554,7 +4641,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B10:B15 B17:B26 B35:B59 B7:B8</xm:sqref>
+          <xm:sqref>B10:B15 B17:B26 B35:B61 B7:B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -6596,14 +6683,14 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
-      <c r="E17" s="127" t="s">
+      <c r="E17" s="126" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="128">
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127">
         <f>SUM(J2:J15)</f>
         <v>101.52000000000001</v>
       </c>
@@ -6611,12 +6698,12 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
       <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6654,7 +6741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:M11"/>
     </sheetView>
   </sheetViews>
@@ -6735,13 +6822,13 @@
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="54"/>
-      <c r="E3" s="129" t="s">
+      <c r="E3" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
       <c r="J3">
         <f>J2</f>
         <v>305.3</v>
@@ -6794,11 +6881,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
       <c r="D1" s="55" t="s">
         <v>162</v>
       </c>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EB40B9-32DB-4358-896E-2845D96D3CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E1F0E3-B2FE-4FA6-AE7D-3CD88C8F550E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="265">
   <si>
     <t>Système</t>
   </si>
@@ -430,9 +430,6 @@
     <t>Fil étanche, série EconoSeal III</t>
   </si>
   <si>
-    <t xml:space="preserve">771-8398 </t>
-  </si>
-  <si>
     <t>Bouchon antipoussière DB-9</t>
   </si>
   <si>
@@ -857,6 +854,33 @@
   </si>
   <si>
     <t>772-1111</t>
+  </si>
+  <si>
+    <t>398-458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">277-7904 </t>
+  </si>
+  <si>
+    <t>Gaine thermorétractable transparente</t>
+  </si>
+  <si>
+    <t>Pour marquer les câbles</t>
+  </si>
+  <si>
+    <t>795-8760</t>
+  </si>
+  <si>
+    <t>Diode de protection TVS</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>783-9732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colle epoxy structurelle DP490 </t>
   </si>
 </sst>
 </file>
@@ -868,7 +892,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[Red]\-#,##0.00\ [$€-40C]"/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;;[Red]\-#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -979,8 +1003,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.2"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,6 +1095,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,106 +1403,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1475,28 +1431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1508,34 +1442,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1644,18 +1552,145 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1825,17 +1860,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1843,142 +1872,163 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2379,10 +2429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,7 +2454,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2437,14 +2487,14 @@
         <v>9</v>
       </c>
       <c r="L1" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="96" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2478,12 +2528,12 @@
         <v>5.5187999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="118" t="s">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="105"/>
+      <c r="B3" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="90" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2512,9 +2562,9 @@
         <v>44.431200000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="115"/>
+    <row r="4" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="105"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="20" t="s">
@@ -2545,14 +2595,14 @@
         <v>49.95</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2587,8 +2637,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="122"/>
-      <c r="B6" s="115"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="20" t="s">
@@ -2607,40 +2657,40 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123">
+      <c r="A7" s="106">
         <v>3</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="87" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="78">
         <v>0.23300000000000001</v>
       </c>
-      <c r="G7" s="79">
-        <f t="shared" ref="G7:G61" si="1">1.2*F7</f>
+      <c r="G7" s="78">
+        <f t="shared" ref="G7:G62" si="1">1.2*F7</f>
         <v>0.27960000000000002</v>
       </c>
       <c r="H7" s="10">
         <v>0.1</v>
       </c>
-      <c r="I7" s="79">
+      <c r="I7" s="78">
         <v>10</v>
       </c>
       <c r="J7" s="11">
-        <f t="shared" ref="J7:J61" si="2">I7*F7*(1-H7)</f>
+        <f t="shared" ref="J7:J62" si="2">I7*F7*(1-H7)</f>
         <v>2.097</v>
       </c>
       <c r="K7" s="12">
-        <f t="shared" ref="K7:K61" si="3">J7*1.2</f>
+        <f t="shared" ref="K7:K62" si="3">J7*1.2</f>
         <v>2.5164</v>
       </c>
       <c r="L7" t="s">
@@ -2648,8 +2698,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="124"/>
-      <c r="B8" s="98" t="s">
+      <c r="A8" s="107"/>
+      <c r="B8" s="118" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -2678,17 +2728,17 @@
         <f t="shared" si="2"/>
         <v>7.02</v>
       </c>
-      <c r="K8" s="81">
+      <c r="K8" s="79">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="124"/>
-      <c r="B9" s="99" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="119" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="34" t="s">
@@ -2717,14 +2767,14 @@
         <f t="shared" si="2"/>
         <v>4.5990000000000002</v>
       </c>
-      <c r="K9" s="81">
+      <c r="K9" s="79">
         <f t="shared" si="3"/>
         <v>5.5187999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="124"/>
-      <c r="B10" s="100" t="s">
+      <c r="A10" s="107"/>
+      <c r="B10" s="120" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -2753,7 +2803,7 @@
         <f t="shared" si="2"/>
         <v>24.768900000000002</v>
       </c>
-      <c r="K10" s="101">
+      <c r="K10" s="88">
         <f t="shared" si="3"/>
         <v>29.72268</v>
       </c>
@@ -2762,8 +2812,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="124"/>
-      <c r="B11" s="100" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="120" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -2792,7 +2842,7 @@
         <f t="shared" si="2"/>
         <v>8.9027999999999992</v>
       </c>
-      <c r="K11" s="81">
+      <c r="K11" s="79">
         <f t="shared" si="3"/>
         <v>10.683359999999999</v>
       </c>
@@ -2801,15 +2851,15 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="124"/>
-      <c r="B12" s="100" t="s">
+      <c r="A12" s="107"/>
+      <c r="B12" s="120" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>247</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25">
@@ -2829,21 +2879,21 @@
         <f t="shared" ref="J12:J16" si="5">I12*F12*(1-H12)</f>
         <v>21.905999999999999</v>
       </c>
-      <c r="K12" s="101">
+      <c r="K12" s="88">
         <f t="shared" ref="K12:K16" si="6">J12*1.2</f>
         <v>26.287199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="124"/>
-      <c r="B13" s="100" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="120" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>248</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>249</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="29">
@@ -2863,21 +2913,21 @@
         <f t="shared" si="5"/>
         <v>42.984000000000002</v>
       </c>
-      <c r="K13" s="81">
+      <c r="K13" s="79">
         <f t="shared" si="6"/>
         <v>51.580800000000004</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="124"/>
-      <c r="B14" s="100" t="s">
+      <c r="A14" s="107"/>
+      <c r="B14" s="120" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>250</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>251</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25">
@@ -2897,26 +2947,26 @@
         <f t="shared" si="5"/>
         <v>11.439000000000002</v>
       </c>
-      <c r="K14" s="101">
+      <c r="K14" s="88">
         <f t="shared" si="6"/>
         <v>13.726800000000003</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="124"/>
-      <c r="B15" s="99" t="s">
+      <c r="A15" s="107"/>
+      <c r="B15" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="90" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="107" t="s">
-        <v>254</v>
-      </c>
-      <c r="F15" s="107">
+      <c r="E15" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="91">
         <v>16.47</v>
       </c>
       <c r="G15" s="25">
@@ -2926,58 +2976,58 @@
       <c r="H15" s="36">
         <v>0.1</v>
       </c>
-      <c r="I15" s="107">
+      <c r="I15" s="91">
         <v>2</v>
       </c>
       <c r="J15" s="27">
         <f t="shared" ref="J15" si="7">I15*F15*(1-H15)</f>
         <v>29.645999999999997</v>
       </c>
-      <c r="K15" s="101">
+      <c r="K15" s="88">
         <f t="shared" ref="K15" si="8">J15*1.2</f>
         <v>35.575199999999995</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="124"/>
-      <c r="B16" s="102" t="s">
+      <c r="A16" s="107"/>
+      <c r="B16" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83">
+      <c r="E16" s="81"/>
+      <c r="F16" s="81">
         <v>11.11</v>
       </c>
-      <c r="G16" s="83">
+      <c r="G16" s="81">
         <f t="shared" si="4"/>
         <v>13.331999999999999</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="82">
         <v>0.1</v>
       </c>
-      <c r="I16" s="83">
+      <c r="I16" s="81">
         <v>1</v>
       </c>
-      <c r="J16" s="85">
+      <c r="J16" s="83">
         <f t="shared" si="5"/>
         <v>9.9990000000000006</v>
       </c>
-      <c r="K16" s="86">
+      <c r="K16" s="84">
         <f t="shared" si="6"/>
         <v>11.998800000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="124"/>
-      <c r="B17" s="92" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="87" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -3009,8 +3059,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
-      <c r="B18" s="94" t="s">
+      <c r="A18" s="107"/>
+      <c r="B18" s="123" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -3039,7 +3089,7 @@
         <f>I18*F18*(1-H18)</f>
         <v>7.38</v>
       </c>
-      <c r="K18" s="81">
+      <c r="K18" s="79">
         <f>J18*1.2</f>
         <v>8.8559999999999999</v>
       </c>
@@ -3048,8 +3098,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="94" t="s">
+      <c r="A19" s="107"/>
+      <c r="B19" s="123" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -3078,7 +3128,7 @@
         <f>I19*F19*(1-H19)</f>
         <v>7.5600000000000005</v>
       </c>
-      <c r="K19" s="81">
+      <c r="K19" s="79">
         <f>J19*1.2</f>
         <v>9.072000000000001</v>
       </c>
@@ -3087,8 +3137,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
-      <c r="B20" s="94" t="s">
+      <c r="A20" s="107"/>
+      <c r="B20" s="123" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -3117,7 +3167,7 @@
         <f>I20*F20*(1-H20)</f>
         <v>1.2420000000000002</v>
       </c>
-      <c r="K20" s="81">
+      <c r="K20" s="79">
         <f>J20*1.2</f>
         <v>1.4904000000000002</v>
       </c>
@@ -3126,8 +3176,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
-      <c r="B21" s="95" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="124" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -3154,21 +3204,21 @@
         <f t="shared" si="2"/>
         <v>7.0200000000000005</v>
       </c>
-      <c r="K21" s="81">
+      <c r="K21" s="79">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="95" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="124" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>65</v>
@@ -3190,7 +3240,7 @@
         <f t="shared" si="2"/>
         <v>3.2399999999999998</v>
       </c>
-      <c r="K22" s="81">
+      <c r="K22" s="79">
         <f t="shared" si="3"/>
         <v>3.8879999999999995</v>
       </c>
@@ -3199,15 +3249,15 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="124"/>
-      <c r="B23" s="95" t="s">
+      <c r="A23" s="107"/>
+      <c r="B23" s="124" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>69</v>
@@ -3229,7 +3279,7 @@
         <f t="shared" si="2"/>
         <v>4.0680000000000005</v>
       </c>
-      <c r="K23" s="81">
+      <c r="K23" s="79">
         <f t="shared" si="3"/>
         <v>4.8816000000000006</v>
       </c>
@@ -3238,8 +3288,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="124"/>
-      <c r="B24" s="95" t="s">
+      <c r="A24" s="107"/>
+      <c r="B24" s="124" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -3268,7 +3318,7 @@
         <f t="shared" si="2"/>
         <v>67.212000000000003</v>
       </c>
-      <c r="K24" s="81">
+      <c r="K24" s="79">
         <f t="shared" si="3"/>
         <v>80.654399999999995</v>
       </c>
@@ -3277,8 +3327,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="124"/>
-      <c r="B25" s="95" t="s">
+      <c r="A25" s="107"/>
+      <c r="B25" s="124" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -3307,7 +3357,7 @@
         <f t="shared" si="2"/>
         <v>3.9420000000000002</v>
       </c>
-      <c r="K25" s="81">
+      <c r="K25" s="79">
         <f t="shared" si="3"/>
         <v>4.7304000000000004</v>
       </c>
@@ -3316,35 +3366,35 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="124"/>
-      <c r="B26" s="96" t="s">
+      <c r="A26" s="107"/>
+      <c r="B26" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83">
+      <c r="E26" s="81"/>
+      <c r="F26" s="81">
         <v>20.57</v>
       </c>
-      <c r="G26" s="83">
+      <c r="G26" s="81">
         <f t="shared" si="1"/>
         <v>24.684000000000001</v>
       </c>
-      <c r="H26" s="84">
+      <c r="H26" s="82">
         <v>0.1</v>
       </c>
-      <c r="I26" s="83">
+      <c r="I26" s="81">
         <v>2</v>
       </c>
-      <c r="J26" s="85">
+      <c r="J26" s="83">
         <f t="shared" si="2"/>
         <v>37.026000000000003</v>
       </c>
-      <c r="K26" s="86">
+      <c r="K26" s="84">
         <f t="shared" si="3"/>
         <v>44.431200000000004</v>
       </c>
@@ -3353,28 +3403,28 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="134"/>
-      <c r="B27" s="77" t="s">
+      <c r="A27" s="107"/>
+      <c r="B27" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79">
+      <c r="E27" s="78"/>
+      <c r="F27" s="78">
         <v>2.96</v>
       </c>
-      <c r="G27" s="79">
+      <c r="G27" s="78">
         <f t="shared" si="1"/>
         <v>3.552</v>
       </c>
       <c r="H27" s="10">
         <v>0.1</v>
       </c>
-      <c r="I27" s="79">
+      <c r="I27" s="78">
         <v>3</v>
       </c>
       <c r="J27" s="11">
@@ -3387,8 +3437,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="134"/>
-      <c r="B28" s="80" t="s">
+      <c r="A28" s="107"/>
+      <c r="B28" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -3415,7 +3465,7 @@
         <f t="shared" si="2"/>
         <v>2.3220000000000001</v>
       </c>
-      <c r="K28" s="81">
+      <c r="K28" s="79">
         <f t="shared" si="3"/>
         <v>2.7864</v>
       </c>
@@ -3424,8 +3474,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="134"/>
-      <c r="B29" s="80" t="s">
+      <c r="A29" s="107"/>
+      <c r="B29" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="28" t="s">
@@ -3452,7 +3502,7 @@
         <f t="shared" si="2"/>
         <v>2.4390000000000001</v>
       </c>
-      <c r="K29" s="81">
+      <c r="K29" s="79">
         <f t="shared" si="3"/>
         <v>2.9268000000000001</v>
       </c>
@@ -3461,8 +3511,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="134"/>
-      <c r="B30" s="80" t="s">
+      <c r="A30" s="107"/>
+      <c r="B30" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="28" t="s">
@@ -3472,7 +3522,7 @@
         <v>92</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F30" s="29">
         <v>1.1100000000000001</v>
@@ -3491,14 +3541,14 @@
         <f t="shared" si="2"/>
         <v>4.995000000000001</v>
       </c>
-      <c r="K30" s="81">
+      <c r="K30" s="79">
         <f t="shared" si="3"/>
         <v>5.9940000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="134"/>
-      <c r="B31" s="80" t="s">
+      <c r="A31" s="107"/>
+      <c r="B31" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C31" s="32" t="s">
@@ -3525,14 +3575,14 @@
         <f t="shared" si="2"/>
         <v>12.096</v>
       </c>
-      <c r="K31" s="81">
+      <c r="K31" s="79">
         <f t="shared" si="3"/>
         <v>14.5152</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="134"/>
-      <c r="B32" s="80" t="s">
+      <c r="A32" s="107"/>
+      <c r="B32" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="28" t="s">
@@ -3559,7 +3609,7 @@
         <f t="shared" si="2"/>
         <v>7.5600000000000005</v>
       </c>
-      <c r="K32" s="81">
+      <c r="K32" s="79">
         <f t="shared" si="3"/>
         <v>9.072000000000001</v>
       </c>
@@ -3568,8 +3618,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="134"/>
-      <c r="B33" s="80" t="s">
+      <c r="A33" s="107"/>
+      <c r="B33" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="32" t="s">
@@ -3596,7 +3646,7 @@
         <f t="shared" si="2"/>
         <v>4.7699999999999996</v>
       </c>
-      <c r="K33" s="81">
+      <c r="K33" s="79">
         <f t="shared" si="3"/>
         <v>5.7239999999999993</v>
       </c>
@@ -3605,8 +3655,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="134"/>
-      <c r="B34" s="80" t="s">
+      <c r="A34" s="107"/>
+      <c r="B34" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="28" t="s">
@@ -3633,7 +3683,7 @@
         <f t="shared" si="2"/>
         <v>5.3549999999999995</v>
       </c>
-      <c r="K34" s="81">
+      <c r="K34" s="79">
         <f t="shared" si="3"/>
         <v>6.4259999999999993</v>
       </c>
@@ -3642,18 +3692,18 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="134"/>
-      <c r="B35" s="80" t="s">
+      <c r="A35" s="107"/>
+      <c r="B35" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>222</v>
-      </c>
       <c r="E35" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F35" s="29">
         <v>0.254</v>
@@ -3672,7 +3722,7 @@
         <f t="shared" si="2"/>
         <v>2.286</v>
       </c>
-      <c r="K35" s="81">
+      <c r="K35" s="79">
         <f t="shared" si="3"/>
         <v>2.7431999999999999</v>
       </c>
@@ -3680,19 +3730,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="134"/>
-      <c r="B36" s="80" t="s">
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="107"/>
+      <c r="B36" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" s="29" t="s">
         <v>228</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>229</v>
       </c>
       <c r="F36" s="29">
         <v>0.85799999999999998</v>
@@ -3711,21 +3761,21 @@
         <f t="shared" si="2"/>
         <v>7.7220000000000004</v>
       </c>
-      <c r="K36" s="81">
+      <c r="K36" s="79">
         <f t="shared" si="3"/>
         <v>9.2664000000000009</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="134"/>
-      <c r="B37" s="80" t="s">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="107"/>
+      <c r="B37" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="29" t="s">
         <v>230</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>231</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="29">
@@ -3745,24 +3795,24 @@
         <f t="shared" si="2"/>
         <v>1.08</v>
       </c>
-      <c r="K37" s="81">
+      <c r="K37" s="79">
         <f t="shared" si="3"/>
         <v>1.296</v>
       </c>
       <c r="L37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="107"/>
+      <c r="B38" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="76" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="134"/>
-      <c r="B38" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="76" t="s">
+      <c r="D38" s="29" t="s">
         <v>233</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>234</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="29">
@@ -3782,24 +3832,24 @@
         <f t="shared" si="2"/>
         <v>1.2150000000000001</v>
       </c>
-      <c r="K38" s="81">
+      <c r="K38" s="79">
         <f t="shared" si="3"/>
         <v>1.458</v>
       </c>
       <c r="L38" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="134"/>
-      <c r="B39" s="80" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="107"/>
+      <c r="B39" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="29" t="s">
         <v>235</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>236</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="29">
@@ -3819,24 +3869,24 @@
         <f t="shared" si="2"/>
         <v>1.2150000000000001</v>
       </c>
-      <c r="K39" s="81">
+      <c r="K39" s="79">
         <f t="shared" si="3"/>
         <v>1.458</v>
       </c>
       <c r="L39" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="134"/>
-      <c r="B40" s="80" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="107"/>
+      <c r="B40" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="29" t="s">
         <v>237</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>238</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29">
@@ -3856,24 +3906,24 @@
         <f t="shared" ref="J40:J49" si="10">I40*F40*(1-H40)</f>
         <v>1.5750000000000002</v>
       </c>
-      <c r="K40" s="81">
+      <c r="K40" s="79">
         <f t="shared" ref="K40:K49" si="11">J40*1.2</f>
         <v>1.8900000000000001</v>
       </c>
       <c r="L40" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="134"/>
-      <c r="B41" s="80" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="107"/>
+      <c r="B41" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="29" t="s">
         <v>239</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>240</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29">
@@ -3890,27 +3940,27 @@
         <v>50</v>
       </c>
       <c r="J41" s="31">
-        <f t="shared" ref="J41:J43" si="13">I41*F41*(1-H41)</f>
+        <f t="shared" ref="J41:J44" si="13">I41*F41*(1-H41)</f>
         <v>1.6649999999999998</v>
       </c>
-      <c r="K41" s="81">
-        <f t="shared" ref="K41:K43" si="14">J41*1.2</f>
+      <c r="K41" s="79">
+        <f t="shared" ref="K41:K44" si="14">J41*1.2</f>
         <v>1.9979999999999998</v>
       </c>
       <c r="L41" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="134"/>
-      <c r="B42" s="80" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="107"/>
+      <c r="B42" s="127" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="D42" s="29" t="s">
         <v>241</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>242</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="29">
@@ -3930,24 +3980,24 @@
         <f t="shared" si="13"/>
         <v>7.1550000000000002</v>
       </c>
-      <c r="K42" s="81">
+      <c r="K42" s="79">
         <f t="shared" si="14"/>
         <v>8.5860000000000003</v>
       </c>
       <c r="L42" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="134"/>
-      <c r="B43" s="130" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="107"/>
+      <c r="B43" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="135" t="s">
+      <c r="C43" s="104" t="s">
+        <v>242</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>244</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14">
@@ -3975,99 +4025,121 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="134"/>
-      <c r="B44" s="136" t="s">
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="107"/>
+      <c r="B44" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="135"/>
-      <c r="D44" s="14"/>
+      <c r="C44" s="104" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>261</v>
+      </c>
       <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="17"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="134"/>
-      <c r="B45" s="137" t="s">
+      <c r="F44" s="14">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G44" s="14">
+        <f t="shared" si="12"/>
+        <v>0.28439999999999999</v>
+      </c>
+      <c r="H44" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I44" s="14">
+        <v>10</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="13"/>
+        <v>2.133</v>
+      </c>
+      <c r="K44" s="17">
+        <f t="shared" si="14"/>
+        <v>2.5596000000000001</v>
+      </c>
+      <c r="L44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="107"/>
+      <c r="B45" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="82" t="s">
-        <v>256</v>
-      </c>
-      <c r="D45" s="83" t="s">
-        <v>253</v>
-      </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83">
+      <c r="C45" s="80" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" s="81" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81">
         <v>13.88</v>
       </c>
-      <c r="G45" s="83">
+      <c r="G45" s="81">
         <f t="shared" ref="G45" si="15">1.2*F45</f>
         <v>16.655999999999999</v>
       </c>
-      <c r="H45" s="84">
+      <c r="H45" s="82">
         <v>0.1</v>
       </c>
-      <c r="I45" s="83">
+      <c r="I45" s="81">
         <v>1</v>
       </c>
-      <c r="J45" s="85">
+      <c r="J45" s="83">
         <f t="shared" ref="J45" si="16">I45*F45*(1-H45)</f>
         <v>12.492000000000001</v>
       </c>
-      <c r="K45" s="86">
+      <c r="K45" s="84">
         <f t="shared" ref="K45" si="17">J45*1.2</f>
         <v>14.990400000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="124"/>
-      <c r="B46" s="110" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="108" t="s">
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="107"/>
+      <c r="B46" s="131" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="D46" s="109" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109">
+      <c r="E46" s="93"/>
+      <c r="F46" s="93">
         <v>16.28</v>
       </c>
-      <c r="G46" s="109">
+      <c r="G46" s="93">
         <f t="shared" si="12"/>
         <v>19.536000000000001</v>
       </c>
-      <c r="H46" s="131">
+      <c r="H46" s="101">
         <v>0.1</v>
       </c>
-      <c r="I46" s="109">
+      <c r="I46" s="93">
         <v>1</v>
       </c>
-      <c r="J46" s="132">
+      <c r="J46" s="102">
         <f t="shared" ref="J46" si="18">I46*F46*(1-H46)</f>
         <v>14.652000000000001</v>
       </c>
-      <c r="K46" s="133">
+      <c r="K46" s="103">
         <f t="shared" ref="K46" si="19">J46*1.2</f>
         <v>17.5824</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="124"/>
-      <c r="B47" s="111" t="s">
-        <v>197</v>
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="107"/>
+      <c r="B47" s="132" t="s">
+        <v>196</v>
       </c>
       <c r="C47" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="29" t="s">
         <v>214</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>215</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29">
@@ -4087,7 +4159,7 @@
         <f t="shared" si="10"/>
         <v>2.0340000000000003</v>
       </c>
-      <c r="K47" s="81">
+      <c r="K47" s="79">
         <f t="shared" si="11"/>
         <v>2.4408000000000003</v>
       </c>
@@ -4095,16 +4167,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="124"/>
-      <c r="B48" s="87" t="s">
-        <v>197</v>
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="107"/>
+      <c r="B48" s="133" t="s">
+        <v>196</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>69</v>
@@ -4126,21 +4198,21 @@
         <f t="shared" si="10"/>
         <v>0.94500000000000006</v>
       </c>
-      <c r="K48" s="81">
+      <c r="K48" s="79">
         <f t="shared" si="11"/>
         <v>1.1340000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="124"/>
-      <c r="B49" s="87" t="s">
-        <v>197</v>
+    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="107"/>
+      <c r="B49" s="133" t="s">
+        <v>196</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>65</v>
@@ -4162,21 +4234,21 @@
         <f t="shared" si="10"/>
         <v>4.59</v>
       </c>
-      <c r="K49" s="81">
+      <c r="K49" s="79">
         <f t="shared" si="11"/>
         <v>5.508</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="124"/>
-      <c r="B50" s="87" t="s">
-        <v>197</v>
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="107"/>
+      <c r="B50" s="133" t="s">
+        <v>196</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>69</v>
@@ -4198,56 +4270,56 @@
         <f t="shared" si="2"/>
         <v>2.286</v>
       </c>
-      <c r="K50" s="81">
+      <c r="K50" s="79">
         <f t="shared" si="3"/>
         <v>2.7431999999999999</v>
       </c>
       <c r="L50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="124"/>
-      <c r="B51" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="C51" s="91" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="107"/>
+      <c r="B51" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" s="83" t="s">
+      <c r="D51" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="83">
+      <c r="F51" s="81">
         <v>1.76</v>
       </c>
-      <c r="G51" s="83">
+      <c r="G51" s="81">
         <f t="shared" ref="G51" si="20">1.2*F51</f>
         <v>2.1120000000000001</v>
       </c>
-      <c r="H51" s="84">
+      <c r="H51" s="82">
         <v>0.1</v>
       </c>
-      <c r="I51" s="83">
+      <c r="I51" s="81">
         <v>10</v>
       </c>
-      <c r="J51" s="85">
+      <c r="J51" s="83">
         <f t="shared" ref="J51" si="21">I51*F51*(1-H51)</f>
         <v>15.840000000000002</v>
       </c>
-      <c r="K51" s="86">
+      <c r="K51" s="84">
         <f t="shared" ref="K51" si="22">J51*1.2</f>
         <v>19.008000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="124"/>
-      <c r="B52" s="103" t="s">
+      <c r="A52" s="107"/>
+      <c r="B52" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="93" t="s">
+      <c r="C52" s="87" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -4278,9 +4350,9 @@
         <v>66.895200000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="124"/>
-      <c r="B53" s="104" t="s">
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="107"/>
+      <c r="B53" s="136" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="28" t="s">
@@ -4309,14 +4381,14 @@
         <f>I53*F53*(1-H53)</f>
         <v>14.4</v>
       </c>
-      <c r="K53" s="81">
+      <c r="K53" s="79">
         <f>J53*1.2</f>
         <v>17.28</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="124"/>
-      <c r="B54" s="104" t="s">
+    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="107"/>
+      <c r="B54" s="136" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="32" t="s">
@@ -4325,7 +4397,7 @@
       <c r="D54" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="105" t="s">
+      <c r="E54" s="89" t="s">
         <v>32</v>
       </c>
       <c r="F54" s="29">
@@ -4345,17 +4417,17 @@
         <f>I54*F54*(1-H54)</f>
         <v>14.822999999999999</v>
       </c>
-      <c r="K54" s="81">
+      <c r="K54" s="79">
         <f>J54*1.2</f>
         <v>17.787599999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="124"/>
-      <c r="B55" s="104" t="s">
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="107"/>
+      <c r="B55" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="119" t="s">
+      <c r="C55" s="98" t="s">
         <v>103</v>
       </c>
       <c r="D55" s="33" t="s">
@@ -4379,17 +4451,17 @@
         <f t="shared" si="2"/>
         <v>1.3049999999999999</v>
       </c>
-      <c r="K55" s="81">
+      <c r="K55" s="79">
         <f t="shared" si="3"/>
         <v>1.5659999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="124"/>
-      <c r="B56" s="104" t="s">
+      <c r="A56" s="107"/>
+      <c r="B56" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="120" t="s">
+      <c r="C56" s="99" t="s">
         <v>105</v>
       </c>
       <c r="D56" s="33" t="s">
@@ -4413,7 +4485,7 @@
         <f t="shared" si="2"/>
         <v>1.71</v>
       </c>
-      <c r="K56" s="81">
+      <c r="K56" s="79">
         <f t="shared" si="3"/>
         <v>2.052</v>
       </c>
@@ -4422,11 +4494,11 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="124"/>
-      <c r="B57" s="104" t="s">
+      <c r="A57" s="107"/>
+      <c r="B57" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="120" t="s">
+      <c r="C57" s="99" t="s">
         <v>108</v>
       </c>
       <c r="D57" s="33" t="s">
@@ -4450,7 +4522,7 @@
         <f t="shared" si="2"/>
         <v>3.2399999999999998</v>
       </c>
-      <c r="K57" s="81">
+      <c r="K57" s="79">
         <f t="shared" si="3"/>
         <v>3.8879999999999995</v>
       </c>
@@ -4459,11 +4531,11 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="124"/>
-      <c r="B58" s="104" t="s">
+      <c r="A58" s="107"/>
+      <c r="B58" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="120" t="s">
+      <c r="C58" s="99" t="s">
         <v>110</v>
       </c>
       <c r="D58" s="33" t="s">
@@ -4487,7 +4559,7 @@
         <f t="shared" si="2"/>
         <v>4.2750000000000004</v>
       </c>
-      <c r="K58" s="81">
+      <c r="K58" s="79">
         <f t="shared" si="3"/>
         <v>5.13</v>
       </c>
@@ -4496,11 +4568,11 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="124"/>
-      <c r="B59" s="104" t="s">
+      <c r="A59" s="107"/>
+      <c r="B59" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="120" t="s">
+      <c r="C59" s="99" t="s">
         <v>112</v>
       </c>
       <c r="D59" s="33" t="s">
@@ -4524,101 +4596,174 @@
         <f t="shared" si="2"/>
         <v>2.4750000000000001</v>
       </c>
-      <c r="K59" s="81">
+      <c r="K59" s="79">
         <f t="shared" si="3"/>
         <v>2.97</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="124"/>
-      <c r="B60" s="104" t="s">
+    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="107"/>
+      <c r="B60" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="120" t="s">
-        <v>114</v>
+      <c r="C60" s="99" t="s">
+        <v>256</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="E60" s="29"/>
       <c r="F60" s="38">
-        <v>0.67200000000000004</v>
+        <v>4.05</v>
       </c>
       <c r="G60" s="29">
-        <f t="shared" si="1"/>
-        <v>0.80640000000000001</v>
+        <f t="shared" ref="G60" si="23">1.2*F60</f>
+        <v>4.8599999999999994</v>
       </c>
       <c r="H60" s="36">
         <v>0.1</v>
       </c>
       <c r="I60" s="33">
+        <v>3</v>
+      </c>
+      <c r="J60" s="31">
+        <f t="shared" ref="J60" si="24">I60*F60*(1-H60)</f>
+        <v>10.934999999999999</v>
+      </c>
+      <c r="K60" s="79">
+        <f t="shared" ref="K60" si="25">J60*1.2</f>
+        <v>13.121999999999998</v>
+      </c>
+      <c r="L60" s="39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="107"/>
+      <c r="B61" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="29"/>
+      <c r="F61" s="38">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="G61" s="29">
+        <f t="shared" si="1"/>
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="H61" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="I61" s="33">
         <v>5</v>
       </c>
-      <c r="J60" s="31">
+      <c r="J61" s="31">
         <f t="shared" si="2"/>
         <v>3.0240000000000005</v>
       </c>
-      <c r="K60" s="81">
+      <c r="K61" s="79">
         <f t="shared" si="3"/>
         <v>3.6288000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="125"/>
-      <c r="B61" s="88" t="s">
+    <row r="62" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="107"/>
+      <c r="B62" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="121" t="s">
-        <v>116</v>
-      </c>
-      <c r="D61" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83">
+      <c r="C62" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81">
         <v>0.156</v>
       </c>
-      <c r="G61" s="83">
+      <c r="G62" s="81">
         <f t="shared" si="1"/>
         <v>0.18720000000000001</v>
       </c>
-      <c r="H61" s="84">
+      <c r="H62" s="82">
         <v>0.1</v>
       </c>
-      <c r="I61" s="83">
+      <c r="I62" s="81">
         <v>50</v>
       </c>
-      <c r="J61" s="85">
+      <c r="J62" s="83">
         <f t="shared" si="2"/>
         <v>7.02</v>
       </c>
-      <c r="K61" s="86">
+      <c r="K62" s="84">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
-      <c r="L61" s="39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="112" t="s">
+      <c r="L62" s="39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="108"/>
+      <c r="B63" s="142" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="144" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="138" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" s="139"/>
+      <c r="F63" s="139">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="G63" s="139">
+        <f t="shared" ref="G63" si="26">1.2*F63</f>
+        <v>1.3871999999999998</v>
+      </c>
+      <c r="H63" s="140">
+        <v>0.1</v>
+      </c>
+      <c r="I63" s="139">
+        <v>1</v>
+      </c>
+      <c r="J63" s="141">
+        <f t="shared" ref="J63" si="27">I63*F63*(1-H63)</f>
+        <v>1.0404</v>
+      </c>
+      <c r="K63" s="143">
+        <f t="shared" ref="K63" si="28">J63*1.2</f>
+        <v>1.24848</v>
+      </c>
+      <c r="L63" s="39"/>
+    </row>
+    <row r="64" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="113"/>
+      <c r="E64" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="F62" s="113"/>
-      <c r="G62" s="113"/>
-      <c r="H62" s="113"/>
-      <c r="I62" s="113"/>
-      <c r="J62" s="113"/>
-      <c r="K62" s="114">
-        <f>SUM(K7:K61)</f>
-        <v>662.86404000000005</v>
+      <c r="F64" s="115"/>
+      <c r="G64" s="115"/>
+      <c r="H64" s="115"/>
+      <c r="I64" s="115"/>
+      <c r="J64" s="115"/>
+      <c r="K64" s="116">
+        <f>SUM(K7:K62)</f>
+        <v>678.54564000000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A61"/>
+    <mergeCell ref="A7:A63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4641,7 +4786,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B10:B15 B17:B26 B35:B61 B7:B8</xm:sqref>
+          <xm:sqref>B10:B15 B17:B26 B7:B8 B35:B62</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -4711,13 +4856,13 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="D2" s="39" t="s">
         <v>198</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>199</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F24" si="0">1.2*E2</f>
@@ -4734,13 +4879,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>200</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>201</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
@@ -4757,13 +4902,13 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>202</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>203</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -4780,13 +4925,13 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>204</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>205</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -4803,13 +4948,13 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>206</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>207</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -5608,13 +5753,13 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" t="s">
         <v>209</v>
-      </c>
-      <c r="D2" t="s">
-        <v>210</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -5734,7 +5879,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -5744,7 +5889,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -5824,10 +5969,10 @@
         <v>2313118</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>118</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>119</v>
       </c>
       <c r="E2" s="46">
         <v>3.17</v>
@@ -5856,7 +6001,7 @@
         <v>488203</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="46">
@@ -6126,10 +6271,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
         <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -6175,7 +6320,7 @@
         <v>35.22</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6203,8 +6348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6259,13 +6404,13 @@
         <v>24</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="E2" s="74">
         <v>0.25</v>
@@ -6284,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6292,11 +6437,11 @@
         <v>24</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="38">
         <v>21.23</v>
@@ -6321,11 +6466,11 @@
         <v>24</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="38">
         <v>0.19</v>
@@ -6350,11 +6495,11 @@
         <v>24</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="38">
         <v>0.22</v>
@@ -6373,7 +6518,7 @@
         <v>6.54</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6381,11 +6526,11 @@
         <v>24</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="38">
         <v>0.39</v>
@@ -6404,7 +6549,7 @@
         <v>11.67</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6412,11 +6557,11 @@
         <v>24</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="38">
         <v>0.22</v>
@@ -6435,7 +6580,7 @@
         <v>6.57</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6443,11 +6588,11 @@
         <v>24</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="38">
         <v>0.24</v>
@@ -6466,7 +6611,7 @@
         <v>7.23</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6474,11 +6619,11 @@
         <v>24</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="38">
         <v>0.23</v>
@@ -6497,7 +6642,7 @@
         <v>6.87</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6505,10 +6650,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>147</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>148</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="38">
@@ -6534,10 +6679,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>150</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="38">
@@ -6563,10 +6708,10 @@
         <v>24</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>151</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>152</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="38">
@@ -6592,10 +6737,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>153</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>154</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="38">
@@ -6621,10 +6766,10 @@
         <v>24</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>155</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>156</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="38">
@@ -6650,11 +6795,11 @@
         <v>24</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" s="38">
         <v>3.19</v>
@@ -6683,14 +6828,14 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
-      <c r="E17" s="126" t="s">
-        <v>220</v>
-      </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="127">
+      <c r="E17" s="109" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="110">
         <f>SUM(J2:J15)</f>
         <v>101.52000000000001</v>
       </c>
@@ -6698,12 +6843,12 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
       <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6791,10 +6936,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>159</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>160</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="29">
@@ -6822,13 +6967,13 @@
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="54"/>
-      <c r="E3" s="128" t="s">
+      <c r="E3" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
       <c r="J3">
         <f>J2</f>
         <v>305.3</v>
@@ -6881,13 +7026,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="55" t="s">
         <v>161</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="55" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -6924,16 +7069,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
         <v>163</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>164</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>166</v>
       </c>
       <c r="E3">
         <v>81</v>
@@ -6957,13 +7102,13 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
         <v>167</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="39" t="s">
         <v>168</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>169</v>
       </c>
       <c r="E4">
         <v>110</v>
@@ -6987,13 +7132,13 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
         <v>170</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>171</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
       </c>
       <c r="E5">
         <v>110</v>
@@ -7017,13 +7162,13 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
         <v>173</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>174</v>
-      </c>
-      <c r="D6" t="s">
-        <v>175</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -7041,13 +7186,13 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" t="s">
         <v>176</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>177</v>
-      </c>
-      <c r="D7" t="s">
-        <v>178</v>
       </c>
       <c r="E7">
         <v>293</v>
@@ -7412,16 +7557,16 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="D2" s="39" t="s">
         <v>180</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>181</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F24" si="0">1.2*E2</f>
@@ -7841,13 +7986,13 @@
         <v>24</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="F2" s="58" t="s">
         <v>183</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>184</v>
       </c>
       <c r="G2" s="39"/>
       <c r="H2">
@@ -7866,10 +8011,10 @@
         <v>6329</v>
       </c>
       <c r="C3" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="58" t="s">
         <v>185</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>186</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3">
@@ -7885,13 +8030,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="F4" s="58" t="s">
         <v>188</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>189</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4">
@@ -7979,10 +8124,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
         <v>190</v>
-      </c>
-      <c r="D2" t="s">
-        <v>191</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -8002,10 +8147,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
         <v>192</v>
-      </c>
-      <c r="D3" t="s">
-        <v>193</v>
       </c>
       <c r="F3">
         <f>1.2*E3</f>
@@ -8025,10 +8170,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" t="s">
         <v>194</v>
-      </c>
-      <c r="D4" t="s">
-        <v>195</v>
       </c>
       <c r="F4">
         <f>1.2*E4</f>
@@ -8071,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E1F0E3-B2FE-4FA6-AE7D-3CD88C8F550E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B86FAD8-A607-41E6-9A20-277617FADEFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -2431,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4755,8 +4755,8 @@
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="116">
-        <f>SUM(K7:K62)</f>
-        <v>678.54564000000005</v>
+        <f>SUM(K7:K63)</f>
+        <v>679.79412000000002</v>
       </c>
     </row>
   </sheetData>
@@ -6348,7 +6348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B86FAD8-A607-41E6-9A20-277617FADEFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D22C22-D7B3-4FFC-AFDD-FB2F2CFA11C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="256">
   <si>
     <t>Système</t>
   </si>
@@ -575,33 +575,6 @@
   </si>
   <si>
     <t>Télémétrie</t>
-  </si>
-  <si>
-    <t>RS-M10WS</t>
-  </si>
-  <si>
-    <t>capteur de vitesse de roue</t>
-  </si>
-  <si>
-    <t>Effet Hall</t>
-  </si>
-  <si>
-    <t>FPS-V2-10</t>
-  </si>
-  <si>
-    <t>Capteur de pression essence</t>
-  </si>
-  <si>
-    <t>10 bar max</t>
-  </si>
-  <si>
-    <t>FPS-V2-100</t>
-  </si>
-  <si>
-    <t>Capteur pression frein</t>
-  </si>
-  <si>
-    <t>100 bar max</t>
   </si>
   <si>
     <t>INT-200</t>
@@ -1920,30 +1893,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2029,6 +1978,30 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2431,7 +2404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
@@ -2454,7 +2427,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2487,11 +2460,11 @@
         <v>9</v>
       </c>
       <c r="L1" s="62" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="137" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="96" t="s">
@@ -2529,7 +2502,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="97" t="s">
         <v>15</v>
       </c>
@@ -2563,7 +2536,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="105"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="94"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -2595,11 +2568,11 @@
         <v>49.95</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="137" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="95" t="s">
@@ -2637,7 +2610,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="105"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="94"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -2657,10 +2630,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106">
+      <c r="A7" s="138">
         <v>3</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="109" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="87" t="s">
@@ -2698,8 +2671,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="118" t="s">
+      <c r="A8" s="139"/>
+      <c r="B8" s="110" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -2733,12 +2706,12 @@
         <v>8.4239999999999995</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
-      <c r="B9" s="119" t="s">
+      <c r="A9" s="139"/>
+      <c r="B9" s="111" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="34" t="s">
@@ -2773,8 +2746,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
-      <c r="B10" s="120" t="s">
+      <c r="A10" s="139"/>
+      <c r="B10" s="112" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -2812,8 +2785,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="120" t="s">
+      <c r="A11" s="139"/>
+      <c r="B11" s="112" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -2851,15 +2824,15 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="120" t="s">
+      <c r="A12" s="139"/>
+      <c r="B12" s="112" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25">
@@ -2885,15 +2858,15 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="120" t="s">
+      <c r="A13" s="139"/>
+      <c r="B13" s="112" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="29">
@@ -2919,15 +2892,15 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="120" t="s">
+      <c r="A14" s="139"/>
+      <c r="B14" s="112" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25">
@@ -2953,8 +2926,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="119" t="s">
+      <c r="A15" s="139"/>
+      <c r="B15" s="111" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="90" t="s">
@@ -2964,7 +2937,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F15" s="91">
         <v>16.47</v>
@@ -2989,8 +2962,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="107"/>
-      <c r="B16" s="121" t="s">
+      <c r="A16" s="139"/>
+      <c r="B16" s="113" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="86" t="s">
@@ -3023,8 +2996,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
-      <c r="B17" s="122" t="s">
+      <c r="A17" s="139"/>
+      <c r="B17" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="87" t="s">
@@ -3059,8 +3032,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
-      <c r="B18" s="123" t="s">
+      <c r="A18" s="139"/>
+      <c r="B18" s="115" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -3098,8 +3071,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
-      <c r="B19" s="123" t="s">
+      <c r="A19" s="139"/>
+      <c r="B19" s="115" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -3137,8 +3110,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
-      <c r="B20" s="123" t="s">
+      <c r="A20" s="139"/>
+      <c r="B20" s="115" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -3176,8 +3149,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
-      <c r="B21" s="124" t="s">
+      <c r="A21" s="139"/>
+      <c r="B21" s="116" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -3210,15 +3183,15 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="124" t="s">
+      <c r="A22" s="139"/>
+      <c r="B22" s="116" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>65</v>
@@ -3249,15 +3222,15 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
-      <c r="B23" s="124" t="s">
+      <c r="A23" s="139"/>
+      <c r="B23" s="116" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>69</v>
@@ -3288,8 +3261,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
-      <c r="B24" s="124" t="s">
+      <c r="A24" s="139"/>
+      <c r="B24" s="116" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -3327,8 +3300,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="107"/>
-      <c r="B25" s="124" t="s">
+      <c r="A25" s="139"/>
+      <c r="B25" s="116" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -3366,8 +3339,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="107"/>
-      <c r="B26" s="125" t="s">
+      <c r="A26" s="139"/>
+      <c r="B26" s="117" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="86" t="s">
@@ -3403,8 +3376,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="107"/>
-      <c r="B27" s="126" t="s">
+      <c r="A27" s="139"/>
+      <c r="B27" s="118" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="77" t="s">
@@ -3437,8 +3410,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="107"/>
-      <c r="B28" s="127" t="s">
+      <c r="A28" s="139"/>
+      <c r="B28" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -3474,8 +3447,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="107"/>
-      <c r="B29" s="127" t="s">
+      <c r="A29" s="139"/>
+      <c r="B29" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="28" t="s">
@@ -3511,8 +3484,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="107"/>
-      <c r="B30" s="127" t="s">
+      <c r="A30" s="139"/>
+      <c r="B30" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="28" t="s">
@@ -3522,7 +3495,7 @@
         <v>92</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F30" s="29">
         <v>1.1100000000000001</v>
@@ -3547,8 +3520,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="107"/>
-      <c r="B31" s="127" t="s">
+      <c r="A31" s="139"/>
+      <c r="B31" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C31" s="32" t="s">
@@ -3581,8 +3554,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="107"/>
-      <c r="B32" s="127" t="s">
+      <c r="A32" s="139"/>
+      <c r="B32" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="28" t="s">
@@ -3618,8 +3591,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
-      <c r="B33" s="127" t="s">
+      <c r="A33" s="139"/>
+      <c r="B33" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="32" t="s">
@@ -3655,8 +3628,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="107"/>
-      <c r="B34" s="127" t="s">
+      <c r="A34" s="139"/>
+      <c r="B34" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="28" t="s">
@@ -3692,18 +3665,18 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="107"/>
-      <c r="B35" s="127" t="s">
+      <c r="A35" s="139"/>
+      <c r="B35" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F35" s="29">
         <v>0.254</v>
@@ -3731,18 +3704,18 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="107"/>
-      <c r="B36" s="127" t="s">
+      <c r="A36" s="139"/>
+      <c r="B36" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F36" s="29">
         <v>0.85799999999999998</v>
@@ -3767,15 +3740,15 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="107"/>
-      <c r="B37" s="127" t="s">
+      <c r="A37" s="139"/>
+      <c r="B37" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="76" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="29">
@@ -3800,19 +3773,19 @@
         <v>1.296</v>
       </c>
       <c r="L37" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="107"/>
-      <c r="B38" s="127" t="s">
+      <c r="A38" s="139"/>
+      <c r="B38" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="76" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="29">
@@ -3837,19 +3810,19 @@
         <v>1.458</v>
       </c>
       <c r="L38" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="107"/>
-      <c r="B39" s="127" t="s">
+      <c r="A39" s="139"/>
+      <c r="B39" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="76" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="29">
@@ -3874,19 +3847,19 @@
         <v>1.458</v>
       </c>
       <c r="L39" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="107"/>
-      <c r="B40" s="127" t="s">
+      <c r="A40" s="139"/>
+      <c r="B40" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="76" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29">
@@ -3911,19 +3884,19 @@
         <v>1.8900000000000001</v>
       </c>
       <c r="L40" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="107"/>
-      <c r="B41" s="127" t="s">
+      <c r="A41" s="139"/>
+      <c r="B41" s="119" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="76" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29">
@@ -3948,19 +3921,19 @@
         <v>1.9979999999999998</v>
       </c>
       <c r="L41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="139"/>
+      <c r="B42" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="76" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="107"/>
-      <c r="B42" s="127" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="76" t="s">
-        <v>240</v>
-      </c>
       <c r="D42" s="29" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="29">
@@ -3985,19 +3958,19 @@
         <v>8.5860000000000003</v>
       </c>
       <c r="L42" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="107"/>
-      <c r="B43" s="128" t="s">
+      <c r="A43" s="139"/>
+      <c r="B43" s="120" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="104" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14">
@@ -4026,15 +3999,15 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="107"/>
-      <c r="B44" s="129" t="s">
+      <c r="A44" s="139"/>
+      <c r="B44" s="121" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="104" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14">
@@ -4063,15 +4036,15 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="107"/>
-      <c r="B45" s="130" t="s">
+      <c r="A45" s="139"/>
+      <c r="B45" s="122" t="s">
         <v>83</v>
       </c>
       <c r="C45" s="80" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D45" s="81" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E45" s="81"/>
       <c r="F45" s="81">
@@ -4097,15 +4070,15 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="107"/>
-      <c r="B46" s="131" t="s">
-        <v>196</v>
+      <c r="A46" s="139"/>
+      <c r="B46" s="123" t="s">
+        <v>187</v>
       </c>
       <c r="C46" s="92" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D46" s="93" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E46" s="93"/>
       <c r="F46" s="93">
@@ -4131,15 +4104,15 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="107"/>
-      <c r="B47" s="132" t="s">
-        <v>196</v>
+      <c r="A47" s="139"/>
+      <c r="B47" s="124" t="s">
+        <v>187</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29">
@@ -4168,15 +4141,15 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="107"/>
-      <c r="B48" s="133" t="s">
-        <v>196</v>
+      <c r="A48" s="139"/>
+      <c r="B48" s="125" t="s">
+        <v>187</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>69</v>
@@ -4204,15 +4177,15 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="107"/>
-      <c r="B49" s="133" t="s">
-        <v>196</v>
+      <c r="A49" s="139"/>
+      <c r="B49" s="125" t="s">
+        <v>187</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>65</v>
@@ -4240,15 +4213,15 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="107"/>
-      <c r="B50" s="133" t="s">
-        <v>196</v>
+      <c r="A50" s="139"/>
+      <c r="B50" s="125" t="s">
+        <v>187</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>69</v>
@@ -4275,19 +4248,19 @@
         <v>2.7431999999999999</v>
       </c>
       <c r="L50" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="107"/>
-      <c r="B51" s="134" t="s">
-        <v>196</v>
+      <c r="A51" s="139"/>
+      <c r="B51" s="126" t="s">
+        <v>187</v>
       </c>
       <c r="C51" s="86" t="s">
         <v>68</v>
       </c>
       <c r="D51" s="81" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E51" s="81" t="s">
         <v>65</v>
@@ -4315,8 +4288,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="107"/>
-      <c r="B52" s="135" t="s">
+      <c r="A52" s="139"/>
+      <c r="B52" s="127" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="87" t="s">
@@ -4351,8 +4324,8 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="107"/>
-      <c r="B53" s="136" t="s">
+      <c r="A53" s="139"/>
+      <c r="B53" s="128" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="28" t="s">
@@ -4387,8 +4360,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="107"/>
-      <c r="B54" s="136" t="s">
+      <c r="A54" s="139"/>
+      <c r="B54" s="128" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="32" t="s">
@@ -4423,8 +4396,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="107"/>
-      <c r="B55" s="136" t="s">
+      <c r="A55" s="139"/>
+      <c r="B55" s="128" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="98" t="s">
@@ -4457,8 +4430,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="107"/>
-      <c r="B56" s="136" t="s">
+      <c r="A56" s="139"/>
+      <c r="B56" s="128" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="99" t="s">
@@ -4494,8 +4467,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="107"/>
-      <c r="B57" s="136" t="s">
+      <c r="A57" s="139"/>
+      <c r="B57" s="128" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="99" t="s">
@@ -4531,8 +4504,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="107"/>
-      <c r="B58" s="136" t="s">
+      <c r="A58" s="139"/>
+      <c r="B58" s="128" t="s">
         <v>24</v>
       </c>
       <c r="C58" s="99" t="s">
@@ -4568,8 +4541,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="107"/>
-      <c r="B59" s="136" t="s">
+      <c r="A59" s="139"/>
+      <c r="B59" s="128" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="99" t="s">
@@ -4602,15 +4575,15 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="107"/>
-      <c r="B60" s="136" t="s">
+      <c r="A60" s="139"/>
+      <c r="B60" s="128" t="s">
         <v>24</v>
       </c>
       <c r="C60" s="99" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E60" s="29"/>
       <c r="F60" s="38">
@@ -4635,16 +4608,16 @@
         <v>13.121999999999998</v>
       </c>
       <c r="L60" s="39" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="107"/>
-      <c r="B61" s="136" t="s">
+      <c r="A61" s="139"/>
+      <c r="B61" s="128" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="99" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D61" s="33" t="s">
         <v>114</v>
@@ -4673,15 +4646,15 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="107"/>
-      <c r="B62" s="137" t="s">
+      <c r="A62" s="139"/>
+      <c r="B62" s="129" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="100" t="s">
         <v>115</v>
       </c>
       <c r="D62" s="85" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E62" s="81"/>
       <c r="F62" s="81">
@@ -4710,51 +4683,51 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="108"/>
-      <c r="B63" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C63" s="144" t="s">
-        <v>263</v>
-      </c>
-      <c r="D63" s="138" t="s">
-        <v>264</v>
-      </c>
-      <c r="E63" s="139"/>
-      <c r="F63" s="139">
+      <c r="A63" s="140"/>
+      <c r="B63" s="134" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" s="136" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" s="130" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="131"/>
+      <c r="F63" s="131">
         <v>1.1559999999999999</v>
       </c>
-      <c r="G63" s="139">
+      <c r="G63" s="131">
         <f t="shared" ref="G63" si="26">1.2*F63</f>
         <v>1.3871999999999998</v>
       </c>
-      <c r="H63" s="140">
+      <c r="H63" s="132">
         <v>0.1</v>
       </c>
-      <c r="I63" s="139">
+      <c r="I63" s="131">
         <v>1</v>
       </c>
-      <c r="J63" s="141">
+      <c r="J63" s="133">
         <f t="shared" ref="J63" si="27">I63*F63*(1-H63)</f>
         <v>1.0404</v>
       </c>
-      <c r="K63" s="143">
+      <c r="K63" s="135">
         <f t="shared" ref="K63" si="28">J63*1.2</f>
         <v>1.24848</v>
       </c>
       <c r="L63" s="39"/>
     </row>
     <row r="64" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="113"/>
-      <c r="E64" s="114" t="s">
+      <c r="C64" s="105"/>
+      <c r="E64" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115"/>
-      <c r="H64" s="115"/>
-      <c r="I64" s="115"/>
-      <c r="J64" s="115"/>
-      <c r="K64" s="116">
+      <c r="F64" s="107"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="107"/>
+      <c r="K64" s="108">
         <f>SUM(K7:K63)</f>
         <v>679.79412000000002</v>
       </c>
@@ -4856,13 +4829,13 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F24" si="0">1.2*E2</f>
@@ -4879,13 +4852,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
@@ -4902,13 +4875,13 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -4925,13 +4898,13 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -4948,13 +4921,13 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
         <v>196</v>
       </c>
-      <c r="C6" t="s">
-        <v>205</v>
-      </c>
       <c r="D6" s="39" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -5753,13 +5726,13 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -5889,7 +5862,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -5912,7 +5885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -6828,14 +6801,14 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
-      <c r="E17" s="109" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="110">
+      <c r="E17" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="142">
         <f>SUM(J2:J15)</f>
         <v>101.52000000000001</v>
       </c>
@@ -6843,12 +6816,12 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="110"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="142"/>
       <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6967,13 +6940,13 @@
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="54"/>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
       <c r="J3">
         <f>J2</f>
         <v>305.3</v>
@@ -7005,10 +6978,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7026,11 +6999,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
       <c r="D1" s="55" t="s">
         <v>161</v>
       </c>
@@ -7080,96 +7053,68 @@
       <c r="D3" t="s">
         <v>165</v>
       </c>
-      <c r="E3">
-        <v>81</v>
-      </c>
       <c r="F3">
-        <f t="shared" ref="F3:F25" si="0">1.2*E3</f>
-        <v>97.2</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
+        <f t="shared" ref="F3:F22" si="0">1.2*E3</f>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I25" si="1">H3*E3</f>
-        <v>324</v>
+        <f t="shared" ref="I3:I22" si="1">H3*E3</f>
+        <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J25" si="2">I3*1.2</f>
-        <v>388.8</v>
+        <f t="shared" ref="J3:J22" si="2">I3*1.2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="47" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" t="s">
         <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" t="s">
         <v>168</v>
       </c>
       <c r="E4">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>351.59999999999997</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>351.59999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
-      <c r="B5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5">
-        <v>110</v>
-      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
-      <c r="B6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" t="s">
-        <v>174</v>
-      </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7185,32 +7130,17 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
-      <c r="B7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7">
-        <v>293</v>
-      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>351.59999999999997</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>351.59999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -7394,7 +7324,6 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7409,7 +7338,6 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7424,7 +7352,6 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7434,48 +7361,6 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7496,7 +7381,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A3:A22</xm:sqref>
+          <xm:sqref>A3:A19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7560,13 +7445,13 @@
         <v>162</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F24" si="0">1.2*E2</f>
@@ -7934,7 +7819,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7986,13 +7871,13 @@
         <v>24</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G2" s="39"/>
       <c r="H2">
@@ -8011,10 +7896,10 @@
         <v>6329</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3">
@@ -8030,13 +7915,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4">
@@ -8049,7 +7934,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -8124,10 +8009,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -8147,10 +8032,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F3">
         <f>1.2*E3</f>
@@ -8170,10 +8055,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F4">
         <f>1.2*E4</f>
@@ -8216,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D22C22-D7B3-4FFC-AFDD-FB2F2CFA11C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263E46B-C595-4739-9BD6-69DDEF33D348}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
     <sheet name="Farnell" sheetId="2" r:id="rId2"/>
-    <sheet name="Watterott" sheetId="3" r:id="rId3"/>
-    <sheet name="Mouser" sheetId="4" r:id="rId4"/>
+    <sheet name="Mouser" sheetId="4" r:id="rId3"/>
+    <sheet name="Watterott" sheetId="3" r:id="rId4"/>
     <sheet name="KazTechnologie" sheetId="5" r:id="rId5"/>
     <sheet name="Texense" sheetId="6" r:id="rId6"/>
     <sheet name="oscaro" sheetId="7" r:id="rId7"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="252">
   <si>
     <t>Système</t>
   </si>
@@ -455,18 +455,6 @@
   </si>
   <si>
     <t>livraison comprise</t>
-  </si>
-  <si>
-    <t>571-62998-2</t>
-  </si>
-  <si>
-    <t>Bornes 250 FAST RCPT 10-8 0</t>
-  </si>
-  <si>
-    <t>Cosse pour MS</t>
-  </si>
-  <si>
-    <t>Cosses à sertir pour les fils en 8 à 10AWG.</t>
   </si>
   <si>
     <t>576-PDM71001ZXM</t>
@@ -1663,7 +1651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1711,9 +1699,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1818,13 +1803,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2427,7 +2406,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2456,18 +2435,18 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="62" t="s">
-        <v>202</v>
+      <c r="L1" s="61" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="93" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2502,11 +2481,11 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137"/>
-      <c r="B3" s="97" t="s">
+      <c r="A3" s="134"/>
+      <c r="B3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="87" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2536,8 +2515,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="137"/>
-      <c r="B4" s="94"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="20" t="s">
@@ -2567,15 +2546,15 @@
         <f t="shared" si="0"/>
         <v>49.95</v>
       </c>
-      <c r="L4" s="60" t="s">
-        <v>201</v>
+      <c r="L4" s="59" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="92" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2610,8 +2589,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="137"/>
-      <c r="B6" s="94"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="20" t="s">
@@ -2630,32 +2609,32 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138">
+      <c r="A7" s="135">
         <v>3</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="84" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="75">
         <v>0.23300000000000001</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="75">
         <f t="shared" ref="G7:G62" si="1">1.2*F7</f>
         <v>0.27960000000000002</v>
       </c>
       <c r="H7" s="10">
         <v>0.1</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="75">
         <v>10</v>
       </c>
       <c r="J7" s="11">
@@ -2671,112 +2650,112 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
-      <c r="B8" s="110" t="s">
+      <c r="A8" s="136"/>
+      <c r="B8" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>7.8E-2</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <f t="shared" si="1"/>
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <v>0.1</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <v>100</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="30">
         <f t="shared" si="2"/>
         <v>7.02</v>
       </c>
-      <c r="K8" s="79">
+      <c r="K8" s="76">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="111" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>1.022</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <f t="shared" si="1"/>
         <v>1.2263999999999999</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <v>0.1</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <v>5</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="30">
         <f t="shared" si="2"/>
         <v>4.5990000000000002</v>
       </c>
-      <c r="K9" s="79">
+      <c r="K9" s="76">
         <f t="shared" si="3"/>
         <v>5.5187999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="112" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>2.117</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <f t="shared" si="1"/>
         <v>2.5404</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>0.1</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="24">
         <v>13</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <f t="shared" si="2"/>
         <v>24.768900000000002</v>
       </c>
-      <c r="K10" s="88">
+      <c r="K10" s="85">
         <f t="shared" si="3"/>
         <v>29.72268</v>
       </c>
@@ -2785,37 +2764,37 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="139"/>
-      <c r="B11" s="112" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <v>2.4729999999999999</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <f t="shared" si="1"/>
         <v>2.9675999999999996</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <v>0.1</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <v>4</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <f t="shared" si="2"/>
         <v>8.9027999999999992</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="76">
         <f t="shared" si="3"/>
         <v>10.683359999999999</v>
       </c>
@@ -2824,183 +2803,183 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
-      <c r="B12" s="112" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25">
+      <c r="C12" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24">
         <v>12.17</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <f t="shared" ref="G12:G16" si="4">1.2*F12</f>
         <v>14.603999999999999</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <v>0.1</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <v>2</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="26">
         <f t="shared" ref="J12:J16" si="5">I12*F12*(1-H12)</f>
         <v>21.905999999999999</v>
       </c>
-      <c r="K12" s="88">
+      <c r="K12" s="85">
         <f t="shared" ref="K12:K16" si="6">J12*1.2</f>
         <v>26.287199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="139"/>
-      <c r="B13" s="112" t="s">
+      <c r="A13" s="136"/>
+      <c r="B13" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="29">
+      <c r="C13" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="28">
         <v>15.92</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="28">
         <f t="shared" si="4"/>
         <v>19.103999999999999</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="35">
         <v>0.1</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="28">
         <v>3</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="30">
         <f t="shared" si="5"/>
         <v>42.984000000000002</v>
       </c>
-      <c r="K13" s="79">
+      <c r="K13" s="76">
         <f t="shared" si="6"/>
         <v>51.580800000000004</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
-      <c r="B14" s="112" t="s">
+      <c r="A14" s="136"/>
+      <c r="B14" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25">
+      <c r="C14" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24">
         <v>12.71</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <f t="shared" si="4"/>
         <v>15.252000000000001</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>0.1</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="24">
         <v>1</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="26">
         <f t="shared" si="5"/>
         <v>11.439000000000002</v>
       </c>
-      <c r="K14" s="88">
+      <c r="K14" s="85">
         <f t="shared" si="6"/>
         <v>13.726800000000003</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
-      <c r="B15" s="111" t="s">
+      <c r="A15" s="136"/>
+      <c r="B15" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="87" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="91" t="s">
-        <v>244</v>
-      </c>
-      <c r="F15" s="91">
+      <c r="E15" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="88">
         <v>16.47</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <f t="shared" si="4"/>
         <v>19.763999999999999</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="35">
         <v>0.1</v>
       </c>
-      <c r="I15" s="91">
+      <c r="I15" s="88">
         <v>2</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <f t="shared" ref="J15" si="7">I15*F15*(1-H15)</f>
         <v>29.645999999999997</v>
       </c>
-      <c r="K15" s="88">
+      <c r="K15" s="85">
         <f t="shared" ref="K15" si="8">J15*1.2</f>
         <v>35.575199999999995</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="139"/>
-      <c r="B16" s="113" t="s">
+      <c r="A16" s="136"/>
+      <c r="B16" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81">
+      <c r="E16" s="78"/>
+      <c r="F16" s="78">
         <v>11.11</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="78">
         <f t="shared" si="4"/>
         <v>13.331999999999999</v>
       </c>
-      <c r="H16" s="82">
+      <c r="H16" s="79">
         <v>0.1</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="78">
         <v>1</v>
       </c>
-      <c r="J16" s="83">
+      <c r="J16" s="80">
         <f t="shared" si="5"/>
         <v>9.9990000000000006</v>
       </c>
-      <c r="K16" s="84">
+      <c r="K16" s="81">
         <f t="shared" si="6"/>
         <v>11.998800000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
-      <c r="B17" s="114" t="s">
+      <c r="A17" s="136"/>
+      <c r="B17" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="84" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -3032,37 +3011,37 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="115" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="28">
         <v>0.82</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="28">
         <f>1.2*F18</f>
         <v>0.98399999999999987</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="35">
         <v>0.1</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="28">
         <v>10</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="30">
         <f>I18*F18*(1-H18)</f>
         <v>7.38</v>
       </c>
-      <c r="K18" s="79">
+      <c r="K18" s="76">
         <f>J18*1.2</f>
         <v>8.8559999999999999</v>
       </c>
@@ -3071,37 +3050,37 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
-      <c r="B19" s="115" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="28">
         <v>1.68</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="28">
         <f>1.2*F19</f>
         <v>2.016</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>0.1</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="28">
         <v>5</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="30">
         <f>I19*F19*(1-H19)</f>
         <v>7.5600000000000005</v>
       </c>
-      <c r="K19" s="79">
+      <c r="K19" s="76">
         <f>J19*1.2</f>
         <v>9.072000000000001</v>
       </c>
@@ -3110,37 +3089,37 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="139"/>
-      <c r="B20" s="115" t="s">
+      <c r="A20" s="136"/>
+      <c r="B20" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="28">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="28">
         <f>1.2*F20</f>
         <v>0.33119999999999999</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="35">
         <v>0.1</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="28">
         <v>5</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="30">
         <f>I20*F20*(1-H20)</f>
         <v>1.2420000000000002</v>
       </c>
-      <c r="K20" s="79">
+      <c r="K20" s="76">
         <f>J20*1.2</f>
         <v>1.4904000000000002</v>
       </c>
@@ -3149,71 +3128,71 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="139"/>
-      <c r="B21" s="116" t="s">
+      <c r="A21" s="136"/>
+      <c r="B21" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29">
+      <c r="E21" s="28"/>
+      <c r="F21" s="28">
         <v>2.6</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <f t="shared" si="1"/>
         <v>3.12</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="35">
         <v>0.1</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <v>3</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="30">
         <f t="shared" si="2"/>
         <v>7.0200000000000005</v>
       </c>
-      <c r="K21" s="79">
+      <c r="K21" s="76">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="139"/>
-      <c r="B22" s="116" t="s">
+      <c r="A22" s="136"/>
+      <c r="B22" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" s="29" t="s">
+      <c r="D22" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="28">
         <v>0.72</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="28">
         <f t="shared" si="1"/>
         <v>0.86399999999999999</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="35">
         <v>0.1</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="28">
         <v>5</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="30">
         <f t="shared" si="2"/>
         <v>3.2399999999999998</v>
       </c>
-      <c r="K22" s="79">
+      <c r="K22" s="76">
         <f t="shared" si="3"/>
         <v>3.8879999999999995</v>
       </c>
@@ -3222,37 +3201,37 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="139"/>
-      <c r="B23" s="116" t="s">
+      <c r="A23" s="136"/>
+      <c r="B23" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" s="29" t="s">
+      <c r="D23" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="28">
         <v>0.45200000000000001</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="28">
         <f t="shared" si="1"/>
         <v>0.54239999999999999</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="35">
         <v>0.1</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <v>10</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="30">
         <f t="shared" si="2"/>
         <v>4.0680000000000005</v>
       </c>
-      <c r="K23" s="79">
+      <c r="K23" s="76">
         <f t="shared" si="3"/>
         <v>4.8816000000000006</v>
       </c>
@@ -3261,37 +3240,37 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="139"/>
-      <c r="B24" s="116" t="s">
+      <c r="A24" s="136"/>
+      <c r="B24" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="28">
         <v>37.340000000000003</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="28">
         <f t="shared" si="1"/>
         <v>44.808</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="35">
         <v>0.1</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="28">
         <v>2</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="30">
         <f t="shared" si="2"/>
         <v>67.212000000000003</v>
       </c>
-      <c r="K24" s="79">
+      <c r="K24" s="76">
         <f t="shared" si="3"/>
         <v>80.654399999999995</v>
       </c>
@@ -3300,37 +3279,37 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="139"/>
-      <c r="B25" s="116" t="s">
+      <c r="A25" s="136"/>
+      <c r="B25" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <v>0.219</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="28">
         <f t="shared" si="1"/>
         <v>0.26279999999999998</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="35">
         <v>0.1</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <v>20</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="30">
         <f t="shared" si="2"/>
         <v>3.9420000000000002</v>
       </c>
-      <c r="K25" s="79">
+      <c r="K25" s="76">
         <f t="shared" si="3"/>
         <v>4.7304000000000004</v>
       </c>
@@ -3339,35 +3318,35 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="139"/>
-      <c r="B26" s="117" t="s">
+      <c r="A26" s="136"/>
+      <c r="B26" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81">
+      <c r="E26" s="78"/>
+      <c r="F26" s="78">
         <v>20.57</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="78">
         <f t="shared" si="1"/>
         <v>24.684000000000001</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="79">
         <v>0.1</v>
       </c>
-      <c r="I26" s="81">
+      <c r="I26" s="78">
         <v>2</v>
       </c>
-      <c r="J26" s="83">
+      <c r="J26" s="80">
         <f t="shared" si="2"/>
         <v>37.026000000000003</v>
       </c>
-      <c r="K26" s="84">
+      <c r="K26" s="81">
         <f t="shared" si="3"/>
         <v>44.431200000000004</v>
       </c>
@@ -3376,28 +3355,28 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="139"/>
-      <c r="B27" s="118" t="s">
+      <c r="A27" s="136"/>
+      <c r="B27" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78">
+      <c r="E27" s="75"/>
+      <c r="F27" s="75">
         <v>2.96</v>
       </c>
-      <c r="G27" s="78">
+      <c r="G27" s="75">
         <f t="shared" si="1"/>
         <v>3.552</v>
       </c>
       <c r="H27" s="10">
         <v>0.1</v>
       </c>
-      <c r="I27" s="78">
+      <c r="I27" s="75">
         <v>3</v>
       </c>
       <c r="J27" s="11">
@@ -3410,35 +3389,35 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="139"/>
-      <c r="B28" s="119" t="s">
+      <c r="A28" s="136"/>
+      <c r="B28" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29">
+      <c r="E28" s="28"/>
+      <c r="F28" s="28">
         <v>0.25800000000000001</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="28">
         <f t="shared" si="1"/>
         <v>0.30959999999999999</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="35">
         <v>0.1</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="28">
         <v>10</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="30">
         <f t="shared" si="2"/>
         <v>2.3220000000000001</v>
       </c>
-      <c r="K28" s="79">
+      <c r="K28" s="76">
         <f t="shared" si="3"/>
         <v>2.7864</v>
       </c>
@@ -3447,35 +3426,35 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="139"/>
-      <c r="B29" s="119" t="s">
+      <c r="A29" s="136"/>
+      <c r="B29" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29">
+      <c r="E29" s="28"/>
+      <c r="F29" s="28">
         <v>0.27100000000000002</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="28">
         <f t="shared" si="1"/>
         <v>0.32519999999999999</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="35">
         <v>0.1</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="28">
         <v>10</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="30">
         <f t="shared" si="2"/>
         <v>2.4390000000000001</v>
       </c>
-      <c r="K29" s="79">
+      <c r="K29" s="76">
         <f t="shared" si="3"/>
         <v>2.9268000000000001</v>
       </c>
@@ -3484,105 +3463,105 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="139"/>
-      <c r="B30" s="119" t="s">
+      <c r="A30" s="136"/>
+      <c r="B30" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" s="29">
+      <c r="E30" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="28">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="28">
         <f t="shared" si="1"/>
         <v>1.3320000000000001</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="35">
         <v>0.1</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="28">
         <v>5</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="30">
         <f t="shared" si="2"/>
         <v>4.995000000000001</v>
       </c>
-      <c r="K30" s="79">
+      <c r="K30" s="76">
         <f t="shared" si="3"/>
         <v>5.9940000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="139"/>
-      <c r="B31" s="119" t="s">
+      <c r="A31" s="136"/>
+      <c r="B31" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28">
         <v>1.68</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="28">
         <f t="shared" si="1"/>
         <v>2.016</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="35">
         <v>0.1</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="28">
         <v>8</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="30">
         <f t="shared" si="2"/>
         <v>12.096</v>
       </c>
-      <c r="K31" s="79">
+      <c r="K31" s="76">
         <f t="shared" si="3"/>
         <v>14.5152</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="139"/>
-      <c r="B32" s="119" t="s">
+      <c r="A32" s="136"/>
+      <c r="B32" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29">
+      <c r="E32" s="28"/>
+      <c r="F32" s="28">
         <v>0.33600000000000002</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="28">
         <f t="shared" si="1"/>
         <v>0.4032</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="35">
         <v>0.1</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="28">
         <v>25</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="30">
         <f t="shared" si="2"/>
         <v>7.5600000000000005</v>
       </c>
-      <c r="K32" s="79">
+      <c r="K32" s="76">
         <f t="shared" si="3"/>
         <v>9.072000000000001</v>
       </c>
@@ -3591,35 +3570,35 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="139"/>
-      <c r="B33" s="119" t="s">
+      <c r="A33" s="136"/>
+      <c r="B33" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29">
+      <c r="E33" s="28"/>
+      <c r="F33" s="28">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="28">
         <f t="shared" si="1"/>
         <v>6.359999999999999E-2</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="35">
         <v>0.1</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="28">
         <v>100</v>
       </c>
-      <c r="J33" s="31">
+      <c r="J33" s="30">
         <f t="shared" si="2"/>
         <v>4.7699999999999996</v>
       </c>
-      <c r="K33" s="79">
+      <c r="K33" s="76">
         <f t="shared" si="3"/>
         <v>5.7239999999999993</v>
       </c>
@@ -3628,35 +3607,35 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="139"/>
-      <c r="B34" s="119" t="s">
+      <c r="A34" s="136"/>
+      <c r="B34" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29">
+      <c r="E34" s="28"/>
+      <c r="F34" s="28">
         <v>0.23799999999999999</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="28">
         <f t="shared" si="1"/>
         <v>0.28559999999999997</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="35">
         <v>0.1</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="28">
         <v>25</v>
       </c>
-      <c r="J34" s="31">
+      <c r="J34" s="30">
         <f t="shared" si="2"/>
         <v>5.3549999999999995</v>
       </c>
-      <c r="K34" s="79">
+      <c r="K34" s="76">
         <f t="shared" si="3"/>
         <v>6.4259999999999993</v>
       </c>
@@ -3665,37 +3644,37 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="139"/>
-      <c r="B35" s="119" t="s">
+      <c r="A35" s="136"/>
+      <c r="B35" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="F35" s="29">
+      <c r="C35" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" s="28">
         <v>0.254</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="28">
         <f t="shared" si="1"/>
         <v>0.30480000000000002</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="35">
         <v>0.1</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="28">
         <v>10</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="30">
         <f t="shared" si="2"/>
         <v>2.286</v>
       </c>
-      <c r="K35" s="79">
+      <c r="K35" s="76">
         <f t="shared" si="3"/>
         <v>2.7431999999999999</v>
       </c>
@@ -3704,273 +3683,273 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="139"/>
-      <c r="B36" s="119" t="s">
+      <c r="A36" s="136"/>
+      <c r="B36" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" s="29">
+      <c r="C36" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="28">
         <v>0.85799999999999998</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="28">
         <f t="shared" si="1"/>
         <v>1.0295999999999998</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="35">
         <v>0.1</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="28">
         <v>10</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="30">
         <f t="shared" si="2"/>
         <v>7.7220000000000004</v>
       </c>
-      <c r="K36" s="79">
+      <c r="K36" s="76">
         <f t="shared" si="3"/>
         <v>9.2664000000000009</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="139"/>
-      <c r="B37" s="119" t="s">
+      <c r="A37" s="136"/>
+      <c r="B37" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="76" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29">
+      <c r="C37" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28">
         <v>2.4E-2</v>
       </c>
-      <c r="G37" s="29">
+      <c r="G37" s="28">
         <f t="shared" si="1"/>
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="35">
         <v>0.1</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="28">
         <v>50</v>
       </c>
-      <c r="J37" s="31">
+      <c r="J37" s="30">
         <f t="shared" si="2"/>
         <v>1.08</v>
       </c>
-      <c r="K37" s="79">
+      <c r="K37" s="76">
         <f t="shared" si="3"/>
         <v>1.296</v>
       </c>
       <c r="L37" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="139"/>
-      <c r="B38" s="119" t="s">
+      <c r="A38" s="136"/>
+      <c r="B38" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29">
+      <c r="C38" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28">
         <v>2.7E-2</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="28">
         <f t="shared" si="1"/>
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="35">
         <v>0.1</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="28">
         <v>50</v>
       </c>
-      <c r="J38" s="31">
+      <c r="J38" s="30">
         <f t="shared" si="2"/>
         <v>1.2150000000000001</v>
       </c>
-      <c r="K38" s="79">
+      <c r="K38" s="76">
         <f t="shared" si="3"/>
         <v>1.458</v>
       </c>
       <c r="L38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="136"/>
+      <c r="B39" s="116" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="139"/>
-      <c r="B39" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29">
+      <c r="E39" s="28"/>
+      <c r="F39" s="28">
         <v>2.7E-2</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="28">
         <f t="shared" si="1"/>
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="35">
         <v>0.1</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="28">
         <v>50</v>
       </c>
-      <c r="J39" s="31">
+      <c r="J39" s="30">
         <f t="shared" si="2"/>
         <v>1.2150000000000001</v>
       </c>
-      <c r="K39" s="79">
+      <c r="K39" s="76">
         <f t="shared" si="3"/>
         <v>1.458</v>
       </c>
       <c r="L39" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="139"/>
-      <c r="B40" s="119" t="s">
+      <c r="A40" s="136"/>
+      <c r="B40" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29">
+      <c r="C40" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="28">
         <f t="shared" ref="G40:G49" si="9">1.2*F40</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="35">
         <v>0.1</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I40" s="28">
         <v>50</v>
       </c>
-      <c r="J40" s="31">
+      <c r="J40" s="30">
         <f t="shared" ref="J40:J49" si="10">I40*F40*(1-H40)</f>
         <v>1.5750000000000002</v>
       </c>
-      <c r="K40" s="79">
+      <c r="K40" s="76">
         <f t="shared" ref="K40:K49" si="11">J40*1.2</f>
         <v>1.8900000000000001</v>
       </c>
       <c r="L40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="139"/>
-      <c r="B41" s="119" t="s">
+      <c r="A41" s="136"/>
+      <c r="B41" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="76" t="s">
-        <v>229</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29">
+      <c r="C41" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="28">
         <f t="shared" ref="G41:G46" si="12">1.2*F41</f>
         <v>4.4399999999999995E-2</v>
       </c>
-      <c r="H41" s="36">
+      <c r="H41" s="35">
         <v>0.1</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="28">
         <v>50</v>
       </c>
-      <c r="J41" s="31">
+      <c r="J41" s="30">
         <f t="shared" ref="J41:J44" si="13">I41*F41*(1-H41)</f>
         <v>1.6649999999999998</v>
       </c>
-      <c r="K41" s="79">
+      <c r="K41" s="76">
         <f t="shared" ref="K41:K44" si="14">J41*1.2</f>
         <v>1.9979999999999998</v>
       </c>
       <c r="L41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="139"/>
-      <c r="B42" s="119" t="s">
+      <c r="A42" s="136"/>
+      <c r="B42" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="76" t="s">
-        <v>231</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29">
+      <c r="C42" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28">
         <v>0.159</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="28">
         <f t="shared" si="12"/>
         <v>0.1908</v>
       </c>
-      <c r="H42" s="36">
+      <c r="H42" s="35">
         <v>0.1</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="28">
         <v>50</v>
       </c>
-      <c r="J42" s="31">
+      <c r="J42" s="30">
         <f t="shared" si="13"/>
         <v>7.1550000000000002</v>
       </c>
-      <c r="K42" s="79">
+      <c r="K42" s="76">
         <f t="shared" si="14"/>
         <v>8.5860000000000003</v>
       </c>
       <c r="L42" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="139"/>
-      <c r="B43" s="120" t="s">
+      <c r="A43" s="136"/>
+      <c r="B43" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="104" t="s">
-        <v>233</v>
+      <c r="C43" s="101" t="s">
+        <v>229</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14">
@@ -3999,15 +3978,15 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="139"/>
-      <c r="B44" s="121" t="s">
+      <c r="A44" s="136"/>
+      <c r="B44" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="104" t="s">
-        <v>251</v>
+      <c r="C44" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14">
@@ -4036,103 +4015,103 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="139"/>
-      <c r="B45" s="122" t="s">
+      <c r="A45" s="136"/>
+      <c r="B45" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="80" t="s">
-        <v>246</v>
-      </c>
-      <c r="D45" s="81" t="s">
-        <v>243</v>
-      </c>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81">
+      <c r="C45" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="78" t="s">
+        <v>239</v>
+      </c>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78">
         <v>13.88</v>
       </c>
-      <c r="G45" s="81">
+      <c r="G45" s="78">
         <f t="shared" ref="G45" si="15">1.2*F45</f>
         <v>16.655999999999999</v>
       </c>
-      <c r="H45" s="82">
+      <c r="H45" s="79">
         <v>0.1</v>
       </c>
-      <c r="I45" s="81">
+      <c r="I45" s="78">
         <v>1</v>
       </c>
-      <c r="J45" s="83">
+      <c r="J45" s="80">
         <f t="shared" ref="J45" si="16">I45*F45*(1-H45)</f>
         <v>12.492000000000001</v>
       </c>
-      <c r="K45" s="84">
+      <c r="K45" s="81">
         <f t="shared" ref="K45" si="17">J45*1.2</f>
         <v>14.990400000000001</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="139"/>
-      <c r="B46" s="123" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="92" t="s">
-        <v>242</v>
-      </c>
-      <c r="D46" s="93" t="s">
-        <v>243</v>
-      </c>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93">
+      <c r="A46" s="136"/>
+      <c r="B46" s="120" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90">
         <v>16.28</v>
       </c>
-      <c r="G46" s="93">
+      <c r="G46" s="90">
         <f t="shared" si="12"/>
         <v>19.536000000000001</v>
       </c>
-      <c r="H46" s="101">
+      <c r="H46" s="98">
         <v>0.1</v>
       </c>
-      <c r="I46" s="93">
+      <c r="I46" s="90">
         <v>1</v>
       </c>
-      <c r="J46" s="102">
+      <c r="J46" s="99">
         <f t="shared" ref="J46" si="18">I46*F46*(1-H46)</f>
         <v>14.652000000000001</v>
       </c>
-      <c r="K46" s="103">
+      <c r="K46" s="100">
         <f t="shared" ref="K46" si="19">J46*1.2</f>
         <v>17.5824</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="139"/>
-      <c r="B47" s="124" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29">
+      <c r="A47" s="136"/>
+      <c r="B47" s="121" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28">
         <v>0.45200000000000001</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G47" s="28">
         <f t="shared" si="9"/>
         <v>0.54239999999999999</v>
       </c>
-      <c r="H47" s="36">
+      <c r="H47" s="35">
         <v>0.1</v>
       </c>
-      <c r="I47" s="29">
+      <c r="I47" s="28">
         <v>5</v>
       </c>
-      <c r="J47" s="31">
+      <c r="J47" s="30">
         <f t="shared" si="10"/>
         <v>2.0340000000000003</v>
       </c>
-      <c r="K47" s="79">
+      <c r="K47" s="76">
         <f t="shared" si="11"/>
         <v>2.4408000000000003</v>
       </c>
@@ -4141,158 +4120,158 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="139"/>
-      <c r="B48" s="125" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="29" t="s">
+      <c r="A48" s="136"/>
+      <c r="B48" s="122" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="28">
         <v>0.105</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="28">
         <f t="shared" si="9"/>
         <v>0.126</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48" s="35">
         <v>0.1</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I48" s="28">
         <v>10</v>
       </c>
-      <c r="J48" s="31">
+      <c r="J48" s="30">
         <f t="shared" si="10"/>
         <v>0.94500000000000006</v>
       </c>
-      <c r="K48" s="79">
+      <c r="K48" s="76">
         <f t="shared" si="11"/>
         <v>1.1340000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="139"/>
-      <c r="B49" s="125" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="E49" s="29" t="s">
+      <c r="A49" s="136"/>
+      <c r="B49" s="122" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="28">
         <v>0.51</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G49" s="28">
         <f t="shared" si="9"/>
         <v>0.61199999999999999</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="35">
         <v>0.1</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I49" s="28">
         <v>10</v>
       </c>
-      <c r="J49" s="31">
+      <c r="J49" s="30">
         <f t="shared" si="10"/>
         <v>4.59</v>
       </c>
-      <c r="K49" s="79">
+      <c r="K49" s="76">
         <f t="shared" si="11"/>
         <v>5.508</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="139"/>
-      <c r="B50" s="125" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="E50" s="29" t="s">
+      <c r="A50" s="136"/>
+      <c r="B50" s="122" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="28">
         <v>2.54</v>
       </c>
-      <c r="G50" s="29">
+      <c r="G50" s="28">
         <f t="shared" si="1"/>
         <v>3.048</v>
       </c>
-      <c r="H50" s="36">
+      <c r="H50" s="35">
         <v>0.1</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I50" s="28">
         <v>1</v>
       </c>
-      <c r="J50" s="31">
+      <c r="J50" s="30">
         <f t="shared" si="2"/>
         <v>2.286</v>
       </c>
-      <c r="K50" s="79">
+      <c r="K50" s="76">
         <f t="shared" si="3"/>
         <v>2.7431999999999999</v>
       </c>
       <c r="L50" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="139"/>
-      <c r="B51" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="86" t="s">
+      <c r="A51" s="136"/>
+      <c r="B51" s="123" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="81" t="s">
-        <v>215</v>
-      </c>
-      <c r="E51" s="81" t="s">
+      <c r="D51" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="81">
+      <c r="F51" s="78">
         <v>1.76</v>
       </c>
-      <c r="G51" s="81">
+      <c r="G51" s="78">
         <f t="shared" ref="G51" si="20">1.2*F51</f>
         <v>2.1120000000000001</v>
       </c>
-      <c r="H51" s="82">
+      <c r="H51" s="79">
         <v>0.1</v>
       </c>
-      <c r="I51" s="81">
+      <c r="I51" s="78">
         <v>10</v>
       </c>
-      <c r="J51" s="83">
+      <c r="J51" s="80">
         <f t="shared" ref="J51" si="21">I51*F51*(1-H51)</f>
         <v>15.840000000000002</v>
       </c>
-      <c r="K51" s="84">
+      <c r="K51" s="81">
         <f t="shared" ref="K51" si="22">J51*1.2</f>
         <v>19.008000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="139"/>
-      <c r="B52" s="127" t="s">
+      <c r="A52" s="136"/>
+      <c r="B52" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="87" t="s">
+      <c r="C52" s="84" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -4324,410 +4303,410 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="139"/>
-      <c r="B53" s="128" t="s">
+      <c r="A53" s="136"/>
+      <c r="B53" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="28">
         <v>16</v>
       </c>
-      <c r="G53" s="29">
+      <c r="G53" s="28">
         <f>1.2*F53</f>
         <v>19.2</v>
       </c>
-      <c r="H53" s="36">
+      <c r="H53" s="35">
         <v>0.1</v>
       </c>
-      <c r="I53" s="29">
+      <c r="I53" s="28">
         <v>1</v>
       </c>
-      <c r="J53" s="31">
+      <c r="J53" s="30">
         <f>I53*F53*(1-H53)</f>
         <v>14.4</v>
       </c>
-      <c r="K53" s="79">
+      <c r="K53" s="76">
         <f>J53*1.2</f>
         <v>17.28</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="139"/>
-      <c r="B54" s="128" t="s">
+      <c r="A54" s="136"/>
+      <c r="B54" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="89" t="s">
+      <c r="E54" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="28">
         <v>16.47</v>
       </c>
-      <c r="G54" s="29">
+      <c r="G54" s="28">
         <f>1.2*F54</f>
         <v>19.763999999999999</v>
       </c>
-      <c r="H54" s="36">
+      <c r="H54" s="35">
         <v>0.1</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I54" s="28">
         <v>1</v>
       </c>
-      <c r="J54" s="31">
+      <c r="J54" s="30">
         <f>I54*F54*(1-H54)</f>
         <v>14.822999999999999</v>
       </c>
-      <c r="K54" s="79">
+      <c r="K54" s="76">
         <f>J54*1.2</f>
         <v>17.787599999999998</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="139"/>
-      <c r="B55" s="128" t="s">
+      <c r="A55" s="136"/>
+      <c r="B55" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="98" t="s">
+      <c r="C55" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="38">
+      <c r="E55" s="28"/>
+      <c r="F55" s="37">
         <v>1.45</v>
       </c>
-      <c r="G55" s="29">
+      <c r="G55" s="28">
         <f t="shared" si="1"/>
         <v>1.74</v>
       </c>
-      <c r="H55" s="36">
+      <c r="H55" s="35">
         <v>0.1</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="32">
         <v>1</v>
       </c>
-      <c r="J55" s="31">
+      <c r="J55" s="30">
         <f t="shared" si="2"/>
         <v>1.3049999999999999</v>
       </c>
-      <c r="K55" s="79">
+      <c r="K55" s="76">
         <f t="shared" si="3"/>
         <v>1.5659999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="139"/>
-      <c r="B56" s="128" t="s">
+      <c r="A56" s="136"/>
+      <c r="B56" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="99" t="s">
+      <c r="C56" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="38">
+      <c r="E56" s="28"/>
+      <c r="F56" s="37">
         <v>1.9</v>
       </c>
-      <c r="G56" s="29">
+      <c r="G56" s="28">
         <f t="shared" si="1"/>
         <v>2.2799999999999998</v>
       </c>
-      <c r="H56" s="36">
+      <c r="H56" s="35">
         <v>0.1</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I56" s="32">
         <v>1</v>
       </c>
-      <c r="J56" s="31">
+      <c r="J56" s="30">
         <f t="shared" si="2"/>
         <v>1.71</v>
       </c>
-      <c r="K56" s="79">
+      <c r="K56" s="76">
         <f t="shared" si="3"/>
         <v>2.052</v>
       </c>
-      <c r="L56" s="39" t="s">
+      <c r="L56" s="38" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="139"/>
-      <c r="B57" s="128" t="s">
+      <c r="A57" s="136"/>
+      <c r="B57" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="99" t="s">
+      <c r="C57" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="38">
+      <c r="E57" s="28"/>
+      <c r="F57" s="37">
         <v>0.36</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G57" s="28">
         <f t="shared" si="1"/>
         <v>0.432</v>
       </c>
-      <c r="H57" s="36">
+      <c r="H57" s="35">
         <v>0.1</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="32">
         <v>10</v>
       </c>
-      <c r="J57" s="31">
+      <c r="J57" s="30">
         <f t="shared" si="2"/>
         <v>3.2399999999999998</v>
       </c>
-      <c r="K57" s="79">
+      <c r="K57" s="76">
         <f t="shared" si="3"/>
         <v>3.8879999999999995</v>
       </c>
-      <c r="L57" s="39" t="s">
+      <c r="L57" s="38" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="139"/>
-      <c r="B58" s="128" t="s">
+      <c r="A58" s="136"/>
+      <c r="B58" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="99" t="s">
+      <c r="C58" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="38">
+      <c r="E58" s="28"/>
+      <c r="F58" s="37">
         <v>0.19</v>
       </c>
-      <c r="G58" s="29">
+      <c r="G58" s="28">
         <f t="shared" si="1"/>
         <v>0.22799999999999998</v>
       </c>
-      <c r="H58" s="36">
+      <c r="H58" s="35">
         <v>0.1</v>
       </c>
-      <c r="I58" s="33">
+      <c r="I58" s="32">
         <v>25</v>
       </c>
-      <c r="J58" s="31">
+      <c r="J58" s="30">
         <f t="shared" si="2"/>
         <v>4.2750000000000004</v>
       </c>
-      <c r="K58" s="79">
+      <c r="K58" s="76">
         <f t="shared" si="3"/>
         <v>5.13</v>
       </c>
-      <c r="L58" s="39" t="s">
+      <c r="L58" s="38" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="139"/>
-      <c r="B59" s="128" t="s">
+      <c r="A59" s="136"/>
+      <c r="B59" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="99" t="s">
+      <c r="C59" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="33" t="s">
+      <c r="D59" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="29"/>
-      <c r="F59" s="38">
+      <c r="E59" s="28"/>
+      <c r="F59" s="37">
         <v>0.11</v>
       </c>
-      <c r="G59" s="29">
+      <c r="G59" s="28">
         <f t="shared" si="1"/>
         <v>0.13200000000000001</v>
       </c>
-      <c r="H59" s="36">
+      <c r="H59" s="35">
         <v>0.1</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="32">
         <v>25</v>
       </c>
-      <c r="J59" s="31">
+      <c r="J59" s="30">
         <f t="shared" si="2"/>
         <v>2.4750000000000001</v>
       </c>
-      <c r="K59" s="79">
+      <c r="K59" s="76">
         <f t="shared" si="3"/>
         <v>2.97</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="139"/>
-      <c r="B60" s="128" t="s">
+      <c r="A60" s="136"/>
+      <c r="B60" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="99" t="s">
-        <v>247</v>
-      </c>
-      <c r="D60" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="E60" s="29"/>
-      <c r="F60" s="38">
+      <c r="C60" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="E60" s="28"/>
+      <c r="F60" s="37">
         <v>4.05</v>
       </c>
-      <c r="G60" s="29">
+      <c r="G60" s="28">
         <f t="shared" ref="G60" si="23">1.2*F60</f>
         <v>4.8599999999999994</v>
       </c>
-      <c r="H60" s="36">
+      <c r="H60" s="35">
         <v>0.1</v>
       </c>
-      <c r="I60" s="33">
+      <c r="I60" s="32">
         <v>3</v>
       </c>
-      <c r="J60" s="31">
+      <c r="J60" s="30">
         <f t="shared" ref="J60" si="24">I60*F60*(1-H60)</f>
         <v>10.934999999999999</v>
       </c>
-      <c r="K60" s="79">
+      <c r="K60" s="76">
         <f t="shared" ref="K60" si="25">J60*1.2</f>
         <v>13.121999999999998</v>
       </c>
-      <c r="L60" s="39" t="s">
-        <v>250</v>
+      <c r="L60" s="38" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="139"/>
-      <c r="B61" s="128" t="s">
+      <c r="A61" s="136"/>
+      <c r="B61" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="99" t="s">
-        <v>248</v>
-      </c>
-      <c r="D61" s="33" t="s">
+      <c r="C61" s="96" t="s">
+        <v>244</v>
+      </c>
+      <c r="D61" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="38">
+      <c r="E61" s="28"/>
+      <c r="F61" s="37">
         <v>0.67200000000000004</v>
       </c>
-      <c r="G61" s="29">
+      <c r="G61" s="28">
         <f t="shared" si="1"/>
         <v>0.80640000000000001</v>
       </c>
-      <c r="H61" s="36">
+      <c r="H61" s="35">
         <v>0.1</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="32">
         <v>5</v>
       </c>
-      <c r="J61" s="31">
+      <c r="J61" s="30">
         <f t="shared" si="2"/>
         <v>3.0240000000000005</v>
       </c>
-      <c r="K61" s="79">
+      <c r="K61" s="76">
         <f t="shared" si="3"/>
         <v>3.6288000000000005</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="139"/>
-      <c r="B62" s="129" t="s">
+      <c r="A62" s="136"/>
+      <c r="B62" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="100" t="s">
+      <c r="C62" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="85" t="s">
-        <v>214</v>
-      </c>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81">
+      <c r="D62" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78">
         <v>0.156</v>
       </c>
-      <c r="G62" s="81">
+      <c r="G62" s="78">
         <f t="shared" si="1"/>
         <v>0.18720000000000001</v>
       </c>
-      <c r="H62" s="82">
+      <c r="H62" s="79">
         <v>0.1</v>
       </c>
-      <c r="I62" s="81">
+      <c r="I62" s="78">
         <v>50</v>
       </c>
-      <c r="J62" s="83">
+      <c r="J62" s="80">
         <f t="shared" si="2"/>
         <v>7.02</v>
       </c>
-      <c r="K62" s="84">
+      <c r="K62" s="81">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
-      <c r="L62" s="39" t="s">
+      <c r="L62" s="38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="140"/>
-      <c r="B63" s="134" t="s">
-        <v>253</v>
-      </c>
-      <c r="C63" s="136" t="s">
-        <v>254</v>
-      </c>
-      <c r="D63" s="130" t="s">
-        <v>255</v>
-      </c>
-      <c r="E63" s="131"/>
-      <c r="F63" s="131">
+      <c r="A63" s="137"/>
+      <c r="B63" s="131" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" s="133" t="s">
+        <v>250</v>
+      </c>
+      <c r="D63" s="127" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="128"/>
+      <c r="F63" s="128">
         <v>1.1559999999999999</v>
       </c>
-      <c r="G63" s="131">
+      <c r="G63" s="128">
         <f t="shared" ref="G63" si="26">1.2*F63</f>
         <v>1.3871999999999998</v>
       </c>
-      <c r="H63" s="132">
+      <c r="H63" s="129">
         <v>0.1</v>
       </c>
-      <c r="I63" s="131">
+      <c r="I63" s="128">
         <v>1</v>
       </c>
-      <c r="J63" s="133">
+      <c r="J63" s="130">
         <f t="shared" ref="J63" si="27">I63*F63*(1-H63)</f>
         <v>1.0404</v>
       </c>
-      <c r="K63" s="135">
+      <c r="K63" s="132">
         <f t="shared" ref="K63" si="28">J63*1.2</f>
         <v>1.24848</v>
       </c>
-      <c r="L63" s="39"/>
+      <c r="L63" s="38"/>
     </row>
     <row r="64" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="105"/>
-      <c r="E64" s="106" t="s">
+      <c r="C64" s="102"/>
+      <c r="E64" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="107"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="107"/>
-      <c r="J64" s="107"/>
-      <c r="K64" s="108">
+      <c r="F64" s="104"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="104"/>
+      <c r="J64" s="104"/>
+      <c r="K64" s="105">
         <f>SUM(K7:K63)</f>
         <v>679.79412000000002</v>
       </c>
@@ -4796,46 +4775,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>189</v>
+      <c r="A2" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>185</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F24" si="0">1.2*E2</f>
@@ -4851,84 +4830,84 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>197</v>
-      </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4943,7 +4922,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="48"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4958,7 +4937,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="48"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4973,7 +4952,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="48"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4988,7 +4967,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="48"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5003,7 +4982,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="48"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5018,7 +4997,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="48"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5033,7 +5012,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="48"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5048,7 +5027,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="48"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5063,7 +5042,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="48"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5078,7 +5057,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="48"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5093,7 +5072,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="48"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5108,7 +5087,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="48"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5123,7 +5102,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="48"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5138,7 +5117,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="48"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5258,39 +5237,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>24</v>
       </c>
       <c r="F2">
@@ -5307,7 +5286,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>24</v>
       </c>
       <c r="F3">
@@ -5324,7 +5303,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>24</v>
       </c>
       <c r="F4">
@@ -5341,7 +5320,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>24</v>
       </c>
       <c r="F5">
@@ -5358,7 +5337,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>24</v>
       </c>
       <c r="F6">
@@ -5375,7 +5354,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>24</v>
       </c>
       <c r="F7">
@@ -5392,7 +5371,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>24</v>
       </c>
       <c r="F8">
@@ -5409,7 +5388,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>24</v>
       </c>
       <c r="F9">
@@ -5426,7 +5405,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="46" t="s">
         <v>24</v>
       </c>
       <c r="F10">
@@ -5443,7 +5422,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>24</v>
       </c>
       <c r="F11">
@@ -5460,7 +5439,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="46"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5475,7 +5454,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="46"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5490,7 +5469,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="46"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5505,7 +5484,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="46"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5520,7 +5499,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="46"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5535,7 +5514,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="46"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5550,7 +5529,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="46"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5565,7 +5544,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="46"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5580,7 +5559,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="46"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5595,7 +5574,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="46"/>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5693,46 +5672,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>199</v>
+      <c r="A2" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -5751,7 +5730,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="46"/>
       <c r="F3">
         <f>1.2*E3</f>
         <v>0</v>
@@ -5766,7 +5745,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="46"/>
       <c r="F4">
         <f>1.2*E4</f>
         <v>0</v>
@@ -5781,7 +5760,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="46"/>
       <c r="F5">
         <f>1.2*E5</f>
         <v>0</v>
@@ -5796,7 +5775,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="46"/>
       <c r="F6">
         <f>1.2*E6</f>
         <v>0</v>
@@ -5846,32 +5825,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>162</v>
+      <c r="A2" s="63" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>187</v>
+      <c r="A4" s="65" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="66" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5885,8 +5864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5905,269 +5884,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="39">
+      <c r="A2" s="44"/>
+      <c r="B2" s="38">
         <v>2313118</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="45">
         <v>3.17</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="45">
         <f>1.2*E2</f>
         <v>3.8039999999999998</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <v>1</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="45">
         <f>H2*E2</f>
         <v>3.17</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2" s="45">
         <f>F2*H2</f>
         <v>3.8039999999999998</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="39">
+      <c r="A3" s="44"/>
+      <c r="B3" s="38">
         <v>488203</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="46">
+      <c r="D3" s="46"/>
+      <c r="E3" s="45">
         <v>0.48</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="45">
         <f>1.2*E3</f>
         <v>0.57599999999999996</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38">
         <v>10</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="45">
         <f>H3*E3</f>
         <v>4.8</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="45">
         <f>F3*H3</f>
         <v>5.76</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="39"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="39"/>
+      <c r="A6" s="44"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="39"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="39"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="39"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+      <c r="A16" s="44"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
+      <c r="A17" s="44"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
+      <c r="A18" s="44"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6191,138 +6169,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="1025" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2">
-        <f>1.2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>H2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>I2*1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="21">
-        <f>SUM(E1:E2)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="21">
-        <f>SUM(F1:F2)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="21">
-        <f>SUM(G1:G2)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
-        <f>SUM(H1:H2)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="21">
-        <f>SUM(I1:I2)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="51">
-        <v>35.22</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
-          <x14:formula1>
-            <xm:f>Données!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A2:A3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K20"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6341,499 +6192,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75" t="s">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="37">
+        <v>21.23</v>
+      </c>
+      <c r="F2" s="37">
+        <v>25.48</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="32">
+        <v>1</v>
+      </c>
+      <c r="I2" s="37">
+        <v>21.23</v>
+      </c>
+      <c r="J2" s="37">
+        <v>25.48</v>
+      </c>
+      <c r="K2" s="46"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="74">
-        <v>0.25</v>
-      </c>
-      <c r="F2" s="74">
+      <c r="C3" s="28"/>
+      <c r="D3" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0.19</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="G3" s="70"/>
+      <c r="H3" s="32">
+        <v>30</v>
+      </c>
+      <c r="I3" s="37">
+        <v>5.73</v>
+      </c>
+      <c r="J3" s="37">
+        <v>6.88</v>
+      </c>
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="G4" s="70"/>
+      <c r="H4" s="32">
+        <v>25</v>
+      </c>
+      <c r="I4" s="37">
+        <v>5.45</v>
+      </c>
+      <c r="J4" s="37">
+        <v>6.54</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0.39</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.47</v>
+      </c>
+      <c r="G5" s="70"/>
+      <c r="H5" s="32">
+        <v>25</v>
+      </c>
+      <c r="I5" s="37">
+        <v>9.73</v>
+      </c>
+      <c r="J5" s="37">
+        <v>11.67</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="G6" s="70"/>
+      <c r="H6" s="32">
+        <v>25</v>
+      </c>
+      <c r="I6" s="37">
+        <v>5.48</v>
+      </c>
+      <c r="J6" s="37">
+        <v>6.57</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0.24</v>
+      </c>
+      <c r="F7" s="37">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="24">
-        <v>0</v>
-      </c>
-      <c r="I2" s="74">
-        <v>0</v>
-      </c>
-      <c r="J2" s="74">
-        <v>0</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="G7" s="70"/>
+      <c r="H7" s="32">
+        <v>25</v>
+      </c>
+      <c r="I7" s="37">
+        <v>6.03</v>
+      </c>
+      <c r="J7" s="37">
+        <v>7.23</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="38">
-        <v>21.23</v>
-      </c>
-      <c r="F3" s="38">
-        <v>25.48</v>
-      </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="33">
-        <v>1</v>
-      </c>
-      <c r="I3" s="38">
-        <v>21.23</v>
-      </c>
-      <c r="J3" s="38">
-        <v>25.48</v>
-      </c>
-      <c r="K3" s="47"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="B8" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.27</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="32">
+        <v>25</v>
+      </c>
+      <c r="I8" s="37">
+        <v>5.73</v>
+      </c>
+      <c r="J8" s="37">
+        <v>6.87</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="38">
-        <v>0.19</v>
-      </c>
-      <c r="F4" s="38">
-        <v>0.23</v>
-      </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="33">
-        <v>30</v>
-      </c>
-      <c r="I4" s="38">
-        <v>5.73</v>
-      </c>
-      <c r="J4" s="38">
-        <v>6.88</v>
-      </c>
-      <c r="K4" s="47"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="B9" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="37">
+        <v>0.13</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.15</v>
+      </c>
+      <c r="G9" s="70"/>
+      <c r="H9" s="32">
+        <v>25</v>
+      </c>
+      <c r="I9" s="37">
+        <v>3.13</v>
+      </c>
+      <c r="J9" s="37">
+        <v>3.75</v>
+      </c>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="38">
-        <v>0.22</v>
-      </c>
-      <c r="F5" s="38">
-        <v>0.26</v>
-      </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="33">
+      <c r="B10" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.09</v>
+      </c>
+      <c r="G10" s="70"/>
+      <c r="H10" s="32">
         <v>25</v>
       </c>
-      <c r="I5" s="38">
-        <v>5.45</v>
-      </c>
-      <c r="J5" s="38">
-        <v>6.54</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="I10" s="37">
+        <v>1.98</v>
+      </c>
+      <c r="J10" s="37">
+        <v>2.37</v>
+      </c>
+      <c r="K10" s="46"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="38">
-        <v>0.39</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0.47</v>
-      </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="33">
+      <c r="B11" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="G11" s="70"/>
+      <c r="H11" s="32">
         <v>25</v>
       </c>
-      <c r="I6" s="38">
-        <v>9.73</v>
-      </c>
-      <c r="J6" s="38">
-        <v>11.67</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="I11" s="37">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J11" s="37">
+        <v>2.94</v>
+      </c>
+      <c r="K11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="38">
-        <v>0.22</v>
-      </c>
-      <c r="F7" s="38">
-        <v>0.26</v>
-      </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="33">
+      <c r="B12" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="G12" s="70"/>
+      <c r="H12" s="32">
         <v>25</v>
       </c>
-      <c r="I7" s="38">
-        <v>5.48</v>
-      </c>
-      <c r="J7" s="38">
-        <v>6.57</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="I12" s="37">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J12" s="37">
+        <v>2.94</v>
+      </c>
+      <c r="K12" s="46"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="38">
-        <v>0.24</v>
-      </c>
-      <c r="F8" s="38">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="33">
+      <c r="B13" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="G13" s="70"/>
+      <c r="H13" s="32">
         <v>25</v>
       </c>
-      <c r="I8" s="38">
-        <v>6.03</v>
-      </c>
-      <c r="J8" s="38">
-        <v>7.23</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="I13" s="37">
+        <v>2.48</v>
+      </c>
+      <c r="J13" s="37">
+        <v>2.97</v>
+      </c>
+      <c r="K13" s="46"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="38">
-        <v>0.23</v>
-      </c>
-      <c r="F9" s="38">
-        <v>0.27</v>
-      </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="33">
-        <v>25</v>
-      </c>
-      <c r="I9" s="38">
-        <v>5.73</v>
-      </c>
-      <c r="J9" s="38">
-        <v>6.87</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="38">
-        <v>0.13</v>
-      </c>
-      <c r="F10" s="38">
-        <v>0.15</v>
-      </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="33">
-        <v>25</v>
-      </c>
-      <c r="I10" s="38">
-        <v>3.13</v>
-      </c>
-      <c r="J10" s="38">
-        <v>3.75</v>
-      </c>
-      <c r="K10" s="47"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="38">
-        <v>0.08</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0.09</v>
-      </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="33">
-        <v>25</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1.98</v>
-      </c>
-      <c r="J11" s="38">
-        <v>2.37</v>
-      </c>
-      <c r="K11" s="47"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="38">
-        <v>0.12</v>
-      </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="33">
-        <v>25</v>
-      </c>
-      <c r="I12" s="38">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J12" s="38">
-        <v>2.94</v>
-      </c>
-      <c r="K12" s="47"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="38">
-        <v>0.12</v>
-      </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="33">
-        <v>25</v>
-      </c>
-      <c r="I13" s="38">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J13" s="38">
-        <v>2.94</v>
-      </c>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="F14" s="38">
-        <v>0.12</v>
-      </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="33">
-        <v>25</v>
-      </c>
-      <c r="I14" s="38">
-        <v>2.48</v>
-      </c>
-      <c r="J14" s="38">
-        <v>2.97</v>
-      </c>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="38">
+      <c r="E14" s="37">
         <v>3.19</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F14" s="37">
         <v>3.83</v>
       </c>
-      <c r="G15" s="71"/>
-      <c r="H15" s="33">
+      <c r="G14" s="70"/>
+      <c r="H14" s="32">
         <v>4</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I14" s="37">
         <v>12.76</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J14" s="37">
         <v>15.31</v>
       </c>
-      <c r="K15" s="47"/>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="68"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="E17" s="141" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="142">
-        <f>SUM(J2:J15)</f>
+      <c r="A16" s="44"/>
+      <c r="E16" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="139">
+        <f>SUM(J2:J14)</f>
         <v>101.52000000000001</v>
       </c>
-      <c r="K17" s="47"/>
+      <c r="K16" s="46"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="47"/>
+      <c r="A18" s="44"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A19" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E17:I18"/>
-    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="E16:I17"/>
+    <mergeCell ref="J16:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6847,7 +6665,134 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A2:A20</xm:sqref>
+          <xm:sqref>A2:A19</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="1025" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2">
+        <f>1.2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>H2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>I2*1.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="21">
+        <f>SUM(E1:E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <f>SUM(F1:F2)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <f>SUM(G1:G2)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <f>SUM(H1:H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
+        <f>SUM(I1:I2)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="50">
+        <v>35.22</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>A2:A3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6879,7 +6824,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -6908,45 +6853,45 @@
       <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="29">
+      <c r="B2" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="28">
         <f>305.3/1.2</f>
         <v>254.41666666666669</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <f>1.2*E2</f>
         <v>305.3</v>
       </c>
-      <c r="G2" s="30">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
+      <c r="G2" s="29">
+        <v>0</v>
+      </c>
+      <c r="H2" s="28">
         <v>1</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="28">
         <f>H2*E2</f>
         <v>254.41666666666669</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="28">
         <f>I2*1.2</f>
         <v>305.3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="54"/>
-      <c r="E3" s="143" t="s">
+      <c r="A3" s="53"/>
+      <c r="E3" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
       <c r="J3">
         <f>J2</f>
         <v>305.3</v>
@@ -6999,59 +6944,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="141" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="55" t="s">
+      <c r="D3" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" t="s">
-        <v>165</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F22" si="0">1.2*E3</f>
@@ -7067,17 +7012,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E4">
         <v>293</v>
@@ -7099,7 +7044,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="46"/>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7114,7 +7059,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="46"/>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7129,7 +7074,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="46"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7144,7 +7089,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="46"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7159,7 +7104,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="46"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7174,7 +7119,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="46"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7189,7 +7134,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="46"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7204,7 +7149,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="46"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7219,7 +7164,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="46"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7234,7 +7179,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="46"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7249,7 +7194,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="46"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7264,7 +7209,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="46"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7279,7 +7224,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="46"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7294,7 +7239,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="46"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7309,7 +7254,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="46"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7409,49 +7354,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>171</v>
+      <c r="A2" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>167</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F24" si="0">1.2*E2</f>
@@ -7467,7 +7412,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="46"/>
       <c r="F3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7482,7 +7427,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="46"/>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7497,7 +7442,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="46"/>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7512,7 +7457,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="46"/>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7527,7 +7472,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="46"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7542,7 +7487,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="46"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7557,7 +7502,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="46"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7572,7 +7517,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="46"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7587,7 +7532,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="46"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7602,7 +7547,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="46"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7617,7 +7562,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="46"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7632,7 +7577,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="46"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7647,7 +7592,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="46"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7662,7 +7607,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="46"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7677,7 +7622,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="46"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7692,7 +7637,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="46"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7707,7 +7652,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="46"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7722,7 +7667,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="46"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7737,7 +7682,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="46"/>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7835,51 +7780,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="39"/>
+      <c r="B2" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="38"/>
       <c r="H2">
         <v>1</v>
       </c>
@@ -7889,19 +7834,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="38">
         <v>6329</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" s="39"/>
+      <c r="C3" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="38"/>
       <c r="H3">
         <v>1</v>
       </c>
@@ -7911,19 +7856,19 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="39"/>
+      <c r="B4" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="38"/>
       <c r="H4">
         <v>2</v>
       </c>
@@ -7973,46 +7918,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F2">
         <f>1.2*E2</f>
@@ -8028,14 +7973,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>182</v>
+      <c r="C3" s="58" t="s">
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F3">
         <f>1.2*E3</f>
@@ -8051,14 +7996,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F4">
         <f>1.2*E4</f>
@@ -8101,11 +8046,11 @@
         <v>0</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="46"/>
       <c r="F6">
         <f t="shared" ref="F6:F23" si="0">1.2*E6</f>
         <v>0</v>
@@ -8120,7 +8065,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="46"/>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8135,7 +8080,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="46"/>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8150,7 +8095,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="46"/>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8165,7 +8110,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="46"/>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8180,7 +8125,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="46"/>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8195,7 +8140,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="46"/>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8210,7 +8155,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="46"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8225,7 +8170,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="46"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8240,7 +8185,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="46"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8255,7 +8200,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="46"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8270,7 +8215,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="46"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8285,7 +8230,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="46"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8300,7 +8245,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="46"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8315,7 +8260,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="46"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263E46B-C595-4739-9BD6-69DDEF33D348}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EC8D36-4FAC-4374-B4A8-118E849493E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -5814,7 +5814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -5865,7 +5865,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6172,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7339,7 +7339,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EC8D36-4FAC-4374-B4A8-118E849493E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B410630D-BB96-4126-86B6-4B7C1EA50BC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="13530" windowHeight="10830" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -700,9 +700,6 @@
     <t>173-2916</t>
   </si>
   <si>
-    <t>479-131</t>
-  </si>
-  <si>
     <t>un paquet de 10</t>
   </si>
   <si>
@@ -842,6 +839,9 @@
   </si>
   <si>
     <t xml:space="preserve">Colle epoxy structurelle DP490 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">679-5404 </t>
   </si>
 </sst>
 </file>
@@ -2383,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2406,7 +2406,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>8.4239999999999995</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2808,10 +2808,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>233</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24">
@@ -2842,10 +2842,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>234</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>235</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="28">
@@ -2876,10 +2876,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>237</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24">
@@ -2916,7 +2916,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F15" s="88">
         <v>16.47</v>
@@ -3170,7 +3170,7 @@
         <v>67</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>65</v>
@@ -3209,7 +3209,7 @@
         <v>70</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>69</v>
@@ -3649,13 +3649,13 @@
         <v>83</v>
       </c>
       <c r="C35" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="28" t="s">
-        <v>208</v>
-      </c>
       <c r="E35" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F35" s="28">
         <v>0.254</v>
@@ -3688,13 +3688,13 @@
         <v>83</v>
       </c>
       <c r="C36" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="28" t="s">
         <v>214</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>215</v>
       </c>
       <c r="F36" s="28">
         <v>0.85799999999999998</v>
@@ -3724,10 +3724,10 @@
         <v>83</v>
       </c>
       <c r="C37" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>216</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>217</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28">
@@ -3752,7 +3752,7 @@
         <v>1.296</v>
       </c>
       <c r="L37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3761,10 +3761,10 @@
         <v>83</v>
       </c>
       <c r="C38" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28">
@@ -3789,7 +3789,7 @@
         <v>1.458</v>
       </c>
       <c r="L38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3798,10 +3798,10 @@
         <v>83</v>
       </c>
       <c r="C39" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>221</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>222</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28">
@@ -3826,7 +3826,7 @@
         <v>1.458</v>
       </c>
       <c r="L39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3835,10 +3835,10 @@
         <v>83</v>
       </c>
       <c r="C40" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="28" t="s">
         <v>223</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>224</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28">
@@ -3863,7 +3863,7 @@
         <v>1.8900000000000001</v>
       </c>
       <c r="L40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3872,10 +3872,10 @@
         <v>83</v>
       </c>
       <c r="C41" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="28" t="s">
         <v>225</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>226</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28">
@@ -3900,7 +3900,7 @@
         <v>1.9979999999999998</v>
       </c>
       <c r="L41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3909,10 +3909,10 @@
         <v>83</v>
       </c>
       <c r="C42" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="28" t="s">
         <v>227</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>228</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28">
@@ -3937,7 +3937,7 @@
         <v>8.5860000000000003</v>
       </c>
       <c r="L42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3946,10 +3946,10 @@
         <v>83</v>
       </c>
       <c r="C43" s="101" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>229</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>230</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14">
@@ -3983,10 +3983,10 @@
         <v>83</v>
       </c>
       <c r="C44" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>248</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14">
@@ -4020,10 +4020,10 @@
         <v>83</v>
       </c>
       <c r="C45" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E45" s="78"/>
       <c r="F45" s="78">
@@ -4054,10 +4054,10 @@
         <v>183</v>
       </c>
       <c r="C46" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="90" t="s">
         <v>238</v>
-      </c>
-      <c r="D46" s="90" t="s">
-        <v>239</v>
       </c>
       <c r="E46" s="90"/>
       <c r="F46" s="90">
@@ -4128,7 +4128,7 @@
         <v>202</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>69</v>
@@ -4164,7 +4164,7 @@
         <v>203</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>65</v>
@@ -4197,10 +4197,10 @@
         <v>183</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E50" s="28" t="s">
         <v>69</v>
@@ -4227,7 +4227,7 @@
         <v>2.7431999999999999</v>
       </c>
       <c r="L50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4239,7 +4239,7 @@
         <v>68</v>
       </c>
       <c r="D51" s="78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E51" s="78" t="s">
         <v>65</v>
@@ -4559,10 +4559,10 @@
         <v>24</v>
       </c>
       <c r="C60" s="96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="37">
@@ -4587,7 +4587,7 @@
         <v>13.121999999999998</v>
       </c>
       <c r="L60" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4596,7 +4596,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="96" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D61" s="32" t="s">
         <v>114</v>
@@ -4633,7 +4633,7 @@
         <v>115</v>
       </c>
       <c r="D62" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E62" s="78"/>
       <c r="F62" s="78">
@@ -4664,13 +4664,13 @@
     <row r="63" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="137"/>
       <c r="B63" s="131" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" s="133" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="133" t="s">
+      <c r="D63" s="127" t="s">
         <v>250</v>
-      </c>
-      <c r="D63" s="127" t="s">
-        <v>251</v>
       </c>
       <c r="E63" s="128"/>
       <c r="F63" s="128">
@@ -5814,7 +5814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6620,7 +6620,7 @@
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="E16" s="138" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F16" s="138"/>
       <c r="G16" s="138"/>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telep\Documents\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EC8D36-4FAC-4374-B4A8-118E849493E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36462ECF-557A-4963-91DA-ED0C0D2912DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,12 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="256">
   <si>
     <t>Système</t>
   </si>
@@ -843,6 +843,18 @@
   <si>
     <t xml:space="preserve">Colle epoxy structurelle DP490 </t>
   </si>
+  <si>
+    <t>Recu</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>A venir</t>
+  </si>
+  <si>
+    <t>prevenu</t>
+  </si>
 </sst>
 </file>
 
@@ -853,7 +865,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[Red]\-#,##0.00\ [$€-40C]"/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;;[Red]\-#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -985,8 +997,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1063,6 +1089,16 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1648,10 +1684,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1982,8 +2020,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Insatisfaisant" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutre" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2381,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,7 +2449,7 @@
     <col min="13" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
@@ -2441,8 +2486,17 @@
       <c r="L1" s="61" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="142" t="s">
+        <v>252</v>
+      </c>
+      <c r="N1" s="142" t="s">
+        <v>254</v>
+      </c>
+      <c r="O1" s="142" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="134" t="s">
         <v>10</v>
       </c>
@@ -2480,7 +2534,7 @@
         <v>5.5187999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="134"/>
       <c r="B3" s="94" t="s">
         <v>15</v>
@@ -2514,7 +2568,7 @@
         <v>44.431200000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="134"/>
       <c r="B4" s="91"/>
       <c r="C4" s="19"/>
@@ -2550,7 +2604,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="134" t="s">
         <v>19</v>
       </c>
@@ -2588,7 +2642,7 @@
         <v>49.544399999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="134"/>
       <c r="B6" s="91"/>
       <c r="C6" s="19"/>
@@ -2608,7 +2662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="135">
         <v>3</v>
       </c>
@@ -2648,8 +2702,15 @@
       <c r="L7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <f>I7-M7-N7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="136"/>
       <c r="B8" s="107" t="s">
         <v>11</v>
@@ -2687,8 +2748,15 @@
       <c r="L8" s="23" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O63" si="4">I8-M8-N8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="136"/>
       <c r="B9" s="108" t="s">
         <v>11</v>
@@ -2723,8 +2791,15 @@
         <f t="shared" si="3"/>
         <v>5.5187999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="136"/>
       <c r="B10" s="109" t="s">
         <v>11</v>
@@ -2762,8 +2837,15 @@
       <c r="L10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="P10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="136"/>
       <c r="B11" s="109" t="s">
         <v>11</v>
@@ -2801,8 +2883,15 @@
       <c r="L11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="136"/>
       <c r="B12" s="109" t="s">
         <v>11</v>
@@ -2818,7 +2907,7 @@
         <v>12.17</v>
       </c>
       <c r="G12" s="24">
-        <f t="shared" ref="G12:G16" si="4">1.2*F12</f>
+        <f t="shared" ref="G12:G16" si="5">1.2*F12</f>
         <v>14.603999999999999</v>
       </c>
       <c r="H12" s="25">
@@ -2828,15 +2917,22 @@
         <v>2</v>
       </c>
       <c r="J12" s="26">
-        <f t="shared" ref="J12:J16" si="5">I12*F12*(1-H12)</f>
+        <f t="shared" ref="J12:J16" si="6">I12*F12*(1-H12)</f>
         <v>21.905999999999999</v>
       </c>
       <c r="K12" s="85">
-        <f t="shared" ref="K12:K16" si="6">J12*1.2</f>
+        <f t="shared" ref="K12:K16" si="7">J12*1.2</f>
         <v>26.287199999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="143">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="136"/>
       <c r="B13" s="109" t="s">
         <v>11</v>
@@ -2852,7 +2948,7 @@
         <v>15.92</v>
       </c>
       <c r="G13" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.103999999999999</v>
       </c>
       <c r="H13" s="35">
@@ -2862,15 +2958,22 @@
         <v>3</v>
       </c>
       <c r="J13" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.984000000000002</v>
       </c>
       <c r="K13" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.580800000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="143">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="136"/>
       <c r="B14" s="109" t="s">
         <v>11</v>
@@ -2886,7 +2989,7 @@
         <v>12.71</v>
       </c>
       <c r="G14" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.252000000000001</v>
       </c>
       <c r="H14" s="25">
@@ -2896,15 +2999,22 @@
         <v>1</v>
       </c>
       <c r="J14" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.439000000000002</v>
       </c>
       <c r="K14" s="85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.726800000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="136"/>
       <c r="B15" s="108" t="s">
         <v>11</v>
@@ -2922,7 +3032,7 @@
         <v>16.47</v>
       </c>
       <c r="G15" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.763999999999999</v>
       </c>
       <c r="H15" s="35">
@@ -2932,15 +3042,22 @@
         <v>2</v>
       </c>
       <c r="J15" s="26">
-        <f t="shared" ref="J15" si="7">I15*F15*(1-H15)</f>
+        <f t="shared" ref="J15" si="8">I15*F15*(1-H15)</f>
         <v>29.645999999999997</v>
       </c>
       <c r="K15" s="85">
-        <f t="shared" ref="K15" si="8">J15*1.2</f>
+        <f t="shared" ref="K15" si="9">J15*1.2</f>
         <v>35.575199999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="136"/>
       <c r="B16" s="110" t="s">
         <v>11</v>
@@ -2956,7 +3073,7 @@
         <v>11.11</v>
       </c>
       <c r="G16" s="78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.331999999999999</v>
       </c>
       <c r="H16" s="79">
@@ -2966,15 +3083,22 @@
         <v>1</v>
       </c>
       <c r="J16" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9990000000000006</v>
       </c>
       <c r="K16" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.998800000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="136"/>
       <c r="B17" s="111" t="s">
         <v>15</v>
@@ -3009,8 +3133,15 @@
         <f>J17*1.2</f>
         <v>14.677199999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="136"/>
       <c r="B18" s="112" t="s">
         <v>15</v>
@@ -3048,8 +3179,15 @@
       <c r="L18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="136"/>
       <c r="B19" s="112" t="s">
         <v>15</v>
@@ -3087,8 +3225,15 @@
       <c r="L19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="O19" s="144">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="136"/>
       <c r="B20" s="112" t="s">
         <v>15</v>
@@ -3126,8 +3271,15 @@
       <c r="L20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="136"/>
       <c r="B21" s="113" t="s">
         <v>15</v>
@@ -3160,8 +3312,15 @@
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="O21" s="144">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="136"/>
       <c r="B22" s="113" t="s">
         <v>15</v>
@@ -3199,8 +3358,15 @@
       <c r="L22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="136"/>
       <c r="B23" s="113" t="s">
         <v>15</v>
@@ -3238,8 +3404,15 @@
       <c r="L23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="136"/>
       <c r="B24" s="113" t="s">
         <v>15</v>
@@ -3277,8 +3450,15 @@
       <c r="L24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="O24" s="143">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="136"/>
       <c r="B25" s="113" t="s">
         <v>15</v>
@@ -3316,8 +3496,15 @@
       <c r="L25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>20</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="136"/>
       <c r="B26" s="114" t="s">
         <v>15</v>
@@ -3353,8 +3540,15 @@
       <c r="L26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="143">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="136"/>
       <c r="B27" s="115" t="s">
         <v>83</v>
@@ -3387,8 +3581,15 @@
         <f t="shared" si="3"/>
         <v>9.5903999999999989</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="143">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="136"/>
       <c r="B28" s="116" t="s">
         <v>83</v>
@@ -3424,8 +3625,15 @@
       <c r="L28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="136"/>
       <c r="B29" s="116" t="s">
         <v>83</v>
@@ -3461,8 +3669,15 @@
       <c r="L29" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="136"/>
       <c r="B30" s="116" t="s">
         <v>83</v>
@@ -3497,8 +3712,15 @@
         <f t="shared" si="3"/>
         <v>5.9940000000000007</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="O30" s="143">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="136"/>
       <c r="B31" s="116" t="s">
         <v>83</v>
@@ -3531,8 +3753,15 @@
         <f t="shared" si="3"/>
         <v>14.5152</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="143">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="136"/>
       <c r="B32" s="116" t="s">
         <v>83</v>
@@ -3568,8 +3797,15 @@
       <c r="L32" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="136"/>
       <c r="B33" s="116" t="s">
         <v>83</v>
@@ -3605,8 +3841,15 @@
       <c r="L33" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>100</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="136"/>
       <c r="B34" s="116" t="s">
         <v>83</v>
@@ -3642,8 +3885,15 @@
       <c r="L34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>25</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="136"/>
       <c r="B35" s="116" t="s">
         <v>83</v>
@@ -3681,8 +3931,15 @@
       <c r="L35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="136"/>
       <c r="B36" s="116" t="s">
         <v>83</v>
@@ -3717,8 +3974,18 @@
         <f t="shared" si="3"/>
         <v>9.2664000000000009</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="136"/>
       <c r="B37" s="116" t="s">
         <v>83</v>
@@ -3754,8 +4021,15 @@
       <c r="L37" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>50</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="136"/>
       <c r="B38" s="116" t="s">
         <v>83</v>
@@ -3791,8 +4065,15 @@
       <c r="L38" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>50</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="136"/>
       <c r="B39" s="116" t="s">
         <v>83</v>
@@ -3828,8 +4109,15 @@
       <c r="L39" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>50</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="136"/>
       <c r="B40" s="116" t="s">
         <v>83</v>
@@ -3845,7 +4133,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G40" s="28">
-        <f t="shared" ref="G40:G49" si="9">1.2*F40</f>
+        <f t="shared" ref="G40:G49" si="10">1.2*F40</f>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H40" s="35">
@@ -3855,18 +4143,25 @@
         <v>50</v>
       </c>
       <c r="J40" s="30">
-        <f t="shared" ref="J40:J49" si="10">I40*F40*(1-H40)</f>
+        <f t="shared" ref="J40:J49" si="11">I40*F40*(1-H40)</f>
         <v>1.5750000000000002</v>
       </c>
       <c r="K40" s="76">
-        <f t="shared" ref="K40:K49" si="11">J40*1.2</f>
+        <f t="shared" ref="K40:K49" si="12">J40*1.2</f>
         <v>1.8900000000000001</v>
       </c>
       <c r="L40" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>50</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="136"/>
       <c r="B41" s="116" t="s">
         <v>83</v>
@@ -3882,7 +4177,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" ref="G41:G46" si="12">1.2*F41</f>
+        <f t="shared" ref="G41:G46" si="13">1.2*F41</f>
         <v>4.4399999999999995E-2</v>
       </c>
       <c r="H41" s="35">
@@ -3892,18 +4187,25 @@
         <v>50</v>
       </c>
       <c r="J41" s="30">
-        <f t="shared" ref="J41:J44" si="13">I41*F41*(1-H41)</f>
+        <f t="shared" ref="J41:J44" si="14">I41*F41*(1-H41)</f>
         <v>1.6649999999999998</v>
       </c>
       <c r="K41" s="76">
-        <f t="shared" ref="K41:K44" si="14">J41*1.2</f>
+        <f t="shared" ref="K41:K44" si="15">J41*1.2</f>
         <v>1.9979999999999998</v>
       </c>
       <c r="L41" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>50</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="136"/>
       <c r="B42" s="116" t="s">
         <v>83</v>
@@ -3919,7 +4221,7 @@
         <v>0.159</v>
       </c>
       <c r="G42" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1908</v>
       </c>
       <c r="H42" s="35">
@@ -3929,18 +4231,25 @@
         <v>50</v>
       </c>
       <c r="J42" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.1550000000000002</v>
       </c>
       <c r="K42" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.5860000000000003</v>
       </c>
       <c r="L42" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>50</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="136"/>
       <c r="B43" s="117" t="s">
         <v>83</v>
@@ -3956,7 +4265,7 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="G43" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.30959999999999999</v>
       </c>
       <c r="H43" s="15">
@@ -3966,18 +4275,25 @@
         <v>25</v>
       </c>
       <c r="J43" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.8050000000000006</v>
       </c>
       <c r="K43" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.9660000000000002</v>
       </c>
       <c r="L43" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="P43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="136"/>
       <c r="B44" s="118" t="s">
         <v>83</v>
@@ -3993,7 +4309,7 @@
         <v>0.23699999999999999</v>
       </c>
       <c r="G44" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.28439999999999999</v>
       </c>
       <c r="H44" s="15">
@@ -4003,18 +4319,25 @@
         <v>10</v>
       </c>
       <c r="J44" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.133</v>
       </c>
       <c r="K44" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.5596000000000001</v>
       </c>
       <c r="L44" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="136"/>
       <c r="B45" s="119" t="s">
         <v>83</v>
@@ -4030,7 +4353,7 @@
         <v>13.88</v>
       </c>
       <c r="G45" s="78">
-        <f t="shared" ref="G45" si="15">1.2*F45</f>
+        <f t="shared" ref="G45" si="16">1.2*F45</f>
         <v>16.655999999999999</v>
       </c>
       <c r="H45" s="79">
@@ -4040,15 +4363,22 @@
         <v>1</v>
       </c>
       <c r="J45" s="80">
-        <f t="shared" ref="J45" si="16">I45*F45*(1-H45)</f>
+        <f t="shared" ref="J45" si="17">I45*F45*(1-H45)</f>
         <v>12.492000000000001</v>
       </c>
       <c r="K45" s="81">
-        <f t="shared" ref="K45" si="17">J45*1.2</f>
+        <f t="shared" ref="K45" si="18">J45*1.2</f>
         <v>14.990400000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="136"/>
       <c r="B46" s="120" t="s">
         <v>183</v>
@@ -4064,7 +4394,7 @@
         <v>16.28</v>
       </c>
       <c r="G46" s="90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.536000000000001</v>
       </c>
       <c r="H46" s="98">
@@ -4074,15 +4404,22 @@
         <v>1</v>
       </c>
       <c r="J46" s="99">
-        <f t="shared" ref="J46" si="18">I46*F46*(1-H46)</f>
+        <f t="shared" ref="J46" si="19">I46*F46*(1-H46)</f>
         <v>14.652000000000001</v>
       </c>
       <c r="K46" s="100">
-        <f t="shared" ref="K46" si="19">J46*1.2</f>
+        <f t="shared" ref="K46" si="20">J46*1.2</f>
         <v>17.5824</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="136"/>
       <c r="B47" s="121" t="s">
         <v>183</v>
@@ -4098,7 +4435,7 @@
         <v>0.45200000000000001</v>
       </c>
       <c r="G47" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.54239999999999999</v>
       </c>
       <c r="H47" s="35">
@@ -4108,18 +4445,25 @@
         <v>5</v>
       </c>
       <c r="J47" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0340000000000003</v>
       </c>
       <c r="K47" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4408000000000003</v>
       </c>
       <c r="L47" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="136"/>
       <c r="B48" s="122" t="s">
         <v>183</v>
@@ -4137,7 +4481,7 @@
         <v>0.105</v>
       </c>
       <c r="G48" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.126</v>
       </c>
       <c r="H48" s="35">
@@ -4147,15 +4491,22 @@
         <v>10</v>
       </c>
       <c r="J48" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94500000000000006</v>
       </c>
       <c r="K48" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1340000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>10</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="136"/>
       <c r="B49" s="122" t="s">
         <v>183</v>
@@ -4173,7 +4524,7 @@
         <v>0.51</v>
       </c>
       <c r="G49" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="H49" s="35">
@@ -4183,15 +4534,22 @@
         <v>10</v>
       </c>
       <c r="J49" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.59</v>
       </c>
       <c r="K49" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.508</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="O49" s="143">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="136"/>
       <c r="B50" s="122" t="s">
         <v>183</v>
@@ -4229,8 +4587,15 @@
       <c r="L50" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="136"/>
       <c r="B51" s="123" t="s">
         <v>183</v>
@@ -4248,7 +4613,7 @@
         <v>1.76</v>
       </c>
       <c r="G51" s="78">
-        <f t="shared" ref="G51" si="20">1.2*F51</f>
+        <f t="shared" ref="G51" si="21">1.2*F51</f>
         <v>2.1120000000000001</v>
       </c>
       <c r="H51" s="79">
@@ -4258,15 +4623,23 @@
         <v>10</v>
       </c>
       <c r="J51" s="80">
-        <f t="shared" ref="J51" si="21">I51*F51*(1-H51)</f>
+        <f t="shared" ref="J51" si="22">I51*F51*(1-H51)</f>
         <v>15.840000000000002</v>
       </c>
       <c r="K51" s="81">
-        <f t="shared" ref="K51" si="22">J51*1.2</f>
+        <f t="shared" ref="K51" si="23">J51*1.2</f>
         <v>19.008000000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="O51" s="143">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P51" s="143"/>
+    </row>
+    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="136"/>
       <c r="B52" s="124" t="s">
         <v>24</v>
@@ -4301,8 +4674,15 @@
         <f>J52*1.2</f>
         <v>66.895200000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="O52" s="143">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="136"/>
       <c r="B53" s="125" t="s">
         <v>24</v>
@@ -4337,8 +4717,15 @@
         <f>J53*1.2</f>
         <v>17.28</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="136"/>
       <c r="B54" s="125" t="s">
         <v>24</v>
@@ -4373,8 +4760,12 @@
         <f>J54*1.2</f>
         <v>17.787599999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O54" s="143">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="136"/>
       <c r="B55" s="125" t="s">
         <v>24</v>
@@ -4407,8 +4798,15 @@
         <f t="shared" si="3"/>
         <v>1.5659999999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="136"/>
       <c r="B56" s="125" t="s">
         <v>24</v>
@@ -4444,8 +4842,15 @@
       <c r="L56" s="38" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="136"/>
       <c r="B57" s="125" t="s">
         <v>24</v>
@@ -4481,8 +4886,15 @@
       <c r="L57" s="38" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <v>10</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="136"/>
       <c r="B58" s="125" t="s">
         <v>24</v>
@@ -4518,8 +4930,15 @@
       <c r="L58" s="38" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>25</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="136"/>
       <c r="B59" s="125" t="s">
         <v>24</v>
@@ -4552,8 +4971,15 @@
         <f t="shared" si="3"/>
         <v>2.97</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>25</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="136"/>
       <c r="B60" s="125" t="s">
         <v>24</v>
@@ -4569,7 +4995,7 @@
         <v>4.05</v>
       </c>
       <c r="G60" s="28">
-        <f t="shared" ref="G60" si="23">1.2*F60</f>
+        <f t="shared" ref="G60" si="24">1.2*F60</f>
         <v>4.8599999999999994</v>
       </c>
       <c r="H60" s="35">
@@ -4579,18 +5005,25 @@
         <v>3</v>
       </c>
       <c r="J60" s="30">
-        <f t="shared" ref="J60" si="24">I60*F60*(1-H60)</f>
+        <f t="shared" ref="J60" si="25">I60*F60*(1-H60)</f>
         <v>10.934999999999999</v>
       </c>
       <c r="K60" s="76">
-        <f t="shared" ref="K60" si="25">J60*1.2</f>
+        <f t="shared" ref="K60" si="26">J60*1.2</f>
         <v>13.121999999999998</v>
       </c>
       <c r="L60" s="38" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="O60" s="144">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="136"/>
       <c r="B61" s="125" t="s">
         <v>24</v>
@@ -4623,8 +5056,12 @@
         <f t="shared" si="3"/>
         <v>3.6288000000000005</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O61" s="144">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="136"/>
       <c r="B62" s="126" t="s">
         <v>24</v>
@@ -4660,8 +5097,15 @@
       <c r="L62" s="38" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N62">
+        <v>50</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="137"/>
       <c r="B63" s="131" t="s">
         <v>249</v>
@@ -4677,7 +5121,7 @@
         <v>1.1559999999999999</v>
       </c>
       <c r="G63" s="128">
-        <f t="shared" ref="G63" si="26">1.2*F63</f>
+        <f t="shared" ref="G63" si="27">1.2*F63</f>
         <v>1.3871999999999998</v>
       </c>
       <c r="H63" s="129">
@@ -4687,16 +5131,23 @@
         <v>1</v>
       </c>
       <c r="J63" s="130">
-        <f t="shared" ref="J63" si="27">I63*F63*(1-H63)</f>
+        <f t="shared" ref="J63" si="28">I63*F63*(1-H63)</f>
         <v>1.0404</v>
       </c>
       <c r="K63" s="132">
-        <f t="shared" ref="K63" si="28">J63*1.2</f>
+        <f t="shared" ref="K63" si="29">J63*1.2</f>
         <v>1.24848</v>
       </c>
       <c r="L63" s="38"/>
-    </row>
-    <row r="64" spans="1:12" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P63" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="102"/>
       <c r="E64" s="103" t="s">
         <v>18</v>
@@ -5814,7 +6265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6170,10 +6621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6191,7 +6642,7 @@
     <col min="12" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -6222,8 +6673,11 @@
       <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="142" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>24</v>
       </c>
@@ -6251,8 +6705,11 @@
         <v>25.48</v>
       </c>
       <c r="K2" s="46"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>24</v>
       </c>
@@ -6280,8 +6737,11 @@
         <v>6.88</v>
       </c>
       <c r="K3" s="46"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>24</v>
       </c>
@@ -6311,8 +6771,11 @@
       <c r="K4" s="38" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>24</v>
       </c>
@@ -6342,8 +6805,11 @@
       <c r="K5" s="38" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>24</v>
       </c>
@@ -6373,8 +6839,11 @@
       <c r="K6" s="38" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>24</v>
       </c>
@@ -6404,8 +6873,11 @@
       <c r="K7" s="38" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
         <v>24</v>
       </c>
@@ -6435,8 +6907,11 @@
       <c r="K8" s="38" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>24</v>
       </c>
@@ -6464,8 +6939,11 @@
         <v>3.75</v>
       </c>
       <c r="K9" s="46"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
         <v>24</v>
       </c>
@@ -6493,8 +6971,11 @@
         <v>2.37</v>
       </c>
       <c r="K10" s="46"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
         <v>24</v>
       </c>
@@ -6522,8 +7003,11 @@
         <v>2.94</v>
       </c>
       <c r="K11" s="46"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
         <v>24</v>
       </c>
@@ -6551,8 +7035,11 @@
         <v>2.94</v>
       </c>
       <c r="K12" s="46"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="69" t="s">
         <v>24</v>
       </c>
@@ -6580,8 +7067,11 @@
         <v>2.97</v>
       </c>
       <c r="K13" s="46"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
         <v>24</v>
       </c>
@@ -6609,15 +7099,18 @@
         <v>15.31</v>
       </c>
       <c r="K14" s="46"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="68"/>
       <c r="H15" s="38"/>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
       <c r="K15" s="46"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="E16" s="138" t="s">
         <v>206</v>
@@ -7828,9 +8321,9 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="J2" t="e">
+      <c r="J2">
         <f>H2*F2</f>
-        <v>#VALUE!</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7850,9 +8343,9 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="J3" t="e">
+      <c r="J3">
         <f>H3*F3</f>
-        <v>#VALUE!</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -7872,9 +8365,9 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="J4" t="e">
+      <c r="J4">
         <f>H4*F4</f>
-        <v>#VALUE!</v>
+        <v>69.8</v>
       </c>
     </row>
   </sheetData>

--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -1,41 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26757678-4026-4401-82EB-87BD8DA7DA2E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CA91C9-F961-4480-91FC-82CCA11C3AED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
     <sheet name="Farnell" sheetId="2" r:id="rId2"/>
-    <sheet name="Mouser" sheetId="4" r:id="rId3"/>
-    <sheet name="Watterott" sheetId="3" r:id="rId4"/>
-    <sheet name="KazTechnologie" sheetId="5" r:id="rId5"/>
-    <sheet name="Texense" sheetId="6" r:id="rId6"/>
-    <sheet name="oscaro" sheetId="7" r:id="rId7"/>
-    <sheet name="Reverchon" sheetId="8" r:id="rId8"/>
-    <sheet name="DTA Fast" sheetId="9" r:id="rId9"/>
-    <sheet name="DUNKERMOTOREN" sheetId="10" r:id="rId10"/>
-    <sheet name="Souriau" sheetId="11" r:id="rId11"/>
-    <sheet name="Racecapture" sheetId="12" r:id="rId12"/>
-    <sheet name="Données" sheetId="13" r:id="rId13"/>
+    <sheet name="Conrad" sheetId="14" r:id="rId3"/>
+    <sheet name="Mouser" sheetId="4" r:id="rId4"/>
+    <sheet name="Watterott" sheetId="3" r:id="rId5"/>
+    <sheet name="KazTechnologie" sheetId="5" r:id="rId6"/>
+    <sheet name="Texense" sheetId="6" r:id="rId7"/>
+    <sheet name="oscaro" sheetId="7" r:id="rId8"/>
+    <sheet name="Reverchon" sheetId="8" r:id="rId9"/>
+    <sheet name="DTA Fast" sheetId="9" r:id="rId10"/>
+    <sheet name="DUNKERMOTOREN" sheetId="10" r:id="rId11"/>
+    <sheet name="Souriau" sheetId="11" r:id="rId12"/>
+    <sheet name="Racecapture" sheetId="12" r:id="rId13"/>
+    <sheet name="Données" sheetId="13" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="278">
   <si>
     <t>Système</t>
   </si>
@@ -906,6 +914,21 @@
   <si>
     <t>Offert par RS le sang ( avec 1 mois de retard quand même)</t>
   </si>
+  <si>
+    <t>BV1 -  Prolongateur, Rouge, Série BV, 22 AWG, 16 AWG, 1.25 mm², Vinyl</t>
+  </si>
+  <si>
+    <t>1 paquet de 100</t>
+  </si>
+  <si>
+    <t>cosse pour TDB</t>
+  </si>
+  <si>
+    <t>Cosse femelle superseal</t>
+  </si>
+  <si>
+    <t>Cosse male superseal</t>
+  </si>
 </sst>
 </file>
 
@@ -916,13 +939,20 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[Red]\-#,##0.00\ [$€-40C]"/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;;[Red]\-#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1089,13 +1119,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF454545"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1108,8 +1131,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1207,12 +1237,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1924,30 +1948,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1968,7 +1992,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1991,7 +2015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2006,19 +2030,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2027,32 +2051,32 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -2067,10 +2091,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2086,7 +2110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2124,7 +2148,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2197,15 +2221,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2242,17 +2266,9 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2262,72 +2278,141 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="23" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="22" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="16" fillId="24" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2733,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,7 +2887,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="149" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="82" t="s">
@@ -2840,7 +2925,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="145"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
@@ -2874,7 +2959,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="145"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="80"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -2910,7 +2995,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="149" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="81" t="s">
@@ -2948,7 +3033,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="145"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="80"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -2968,7 +3053,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155">
+      <c r="A7" s="150">
         <v>3</v>
       </c>
       <c r="B7" s="91" t="s">
@@ -3016,7 +3101,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="156"/>
+      <c r="A8" s="151"/>
       <c r="B8" s="92" t="s">
         <v>11</v>
       </c>
@@ -3062,7 +3147,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="156"/>
+      <c r="A9" s="151"/>
       <c r="B9" s="93" t="s">
         <v>11</v>
       </c>
@@ -3105,7 +3190,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156"/>
+      <c r="A10" s="151"/>
       <c r="B10" s="94" t="s">
         <v>11</v>
       </c>
@@ -3151,7 +3236,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="156"/>
+      <c r="A11" s="151"/>
       <c r="B11" s="94" t="s">
         <v>11</v>
       </c>
@@ -3197,7 +3282,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="156"/>
+      <c r="A12" s="151"/>
       <c r="B12" s="94" t="s">
         <v>11</v>
       </c>
@@ -3238,7 +3323,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="156"/>
+      <c r="A13" s="151"/>
       <c r="B13" s="94" t="s">
         <v>11</v>
       </c>
@@ -3279,7 +3364,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="156"/>
+      <c r="A14" s="151"/>
       <c r="B14" s="94" t="s">
         <v>11</v>
       </c>
@@ -3320,7 +3405,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="156"/>
+      <c r="A15" s="151"/>
       <c r="B15" s="93" t="s">
         <v>11</v>
       </c>
@@ -3363,7 +3448,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="156"/>
+      <c r="A16" s="151"/>
       <c r="B16" s="95" t="s">
         <v>11</v>
       </c>
@@ -3404,7 +3489,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="156"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="96" t="s">
         <v>15</v>
       </c>
@@ -3447,7 +3532,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="156"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="97" t="s">
         <v>15</v>
       </c>
@@ -3493,7 +3578,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="156"/>
+      <c r="A19" s="151"/>
       <c r="B19" s="97" t="s">
         <v>15</v>
       </c>
@@ -3539,7 +3624,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="156"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="97" t="s">
         <v>15</v>
       </c>
@@ -3585,7 +3670,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="156"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="98" t="s">
         <v>15</v>
       </c>
@@ -3626,7 +3711,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="156"/>
+      <c r="A22" s="151"/>
       <c r="B22" s="98" t="s">
         <v>15</v>
       </c>
@@ -3672,7 +3757,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="156"/>
+      <c r="A23" s="151"/>
       <c r="B23" s="98" t="s">
         <v>15</v>
       </c>
@@ -3718,7 +3803,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="156"/>
+      <c r="A24" s="151"/>
       <c r="B24" s="98" t="s">
         <v>15</v>
       </c>
@@ -3764,7 +3849,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="98" t="s">
         <v>15</v>
       </c>
@@ -3810,7 +3895,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="156"/>
+      <c r="A26" s="151"/>
       <c r="B26" s="99" t="s">
         <v>15</v>
       </c>
@@ -3854,7 +3939,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="156"/>
+      <c r="A27" s="151"/>
       <c r="B27" s="100" t="s">
         <v>83</v>
       </c>
@@ -3895,7 +3980,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="156"/>
+      <c r="A28" s="151"/>
       <c r="B28" s="101" t="s">
         <v>83</v>
       </c>
@@ -3939,7 +4024,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="156"/>
+      <c r="A29" s="151"/>
       <c r="B29" s="101" t="s">
         <v>83</v>
       </c>
@@ -3983,7 +4068,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="156"/>
+      <c r="A30" s="151"/>
       <c r="B30" s="101" t="s">
         <v>83</v>
       </c>
@@ -4026,7 +4111,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="156"/>
+      <c r="A31" s="151"/>
       <c r="B31" s="101" t="s">
         <v>83</v>
       </c>
@@ -4067,7 +4152,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="156"/>
+      <c r="A32" s="151"/>
       <c r="B32" s="101" t="s">
         <v>83</v>
       </c>
@@ -4111,7 +4196,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="156"/>
+      <c r="A33" s="151"/>
       <c r="B33" s="101" t="s">
         <v>83</v>
       </c>
@@ -4155,7 +4240,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="156"/>
+      <c r="A34" s="151"/>
       <c r="B34" s="101" t="s">
         <v>83</v>
       </c>
@@ -4199,7 +4284,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="156"/>
+      <c r="A35" s="151"/>
       <c r="B35" s="101" t="s">
         <v>83</v>
       </c>
@@ -4245,7 +4330,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="156"/>
+      <c r="A36" s="151"/>
       <c r="B36" s="101" t="s">
         <v>83</v>
       </c>
@@ -4291,7 +4376,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="156"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="101" t="s">
         <v>83</v>
       </c>
@@ -4335,7 +4420,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="156"/>
+      <c r="A38" s="151"/>
       <c r="B38" s="101" t="s">
         <v>83</v>
       </c>
@@ -4379,7 +4464,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="156"/>
+      <c r="A39" s="151"/>
       <c r="B39" s="101" t="s">
         <v>83</v>
       </c>
@@ -4423,7 +4508,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="156"/>
+      <c r="A40" s="151"/>
       <c r="B40" s="101" t="s">
         <v>83</v>
       </c>
@@ -4467,7 +4552,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="156"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="101" t="s">
         <v>83</v>
       </c>
@@ -4511,7 +4596,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="156"/>
+      <c r="A42" s="151"/>
       <c r="B42" s="101" t="s">
         <v>83</v>
       </c>
@@ -4555,7 +4640,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="156"/>
+      <c r="A43" s="151"/>
       <c r="B43" s="102" t="s">
         <v>83</v>
       </c>
@@ -4599,7 +4684,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="156"/>
+      <c r="A44" s="151"/>
       <c r="B44" s="103" t="s">
         <v>83</v>
       </c>
@@ -4643,7 +4728,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="156"/>
+      <c r="A45" s="151"/>
       <c r="B45" s="104" t="s">
         <v>83</v>
       </c>
@@ -4684,7 +4769,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="156"/>
+      <c r="A46" s="151"/>
       <c r="B46" s="105" t="s">
         <v>182</v>
       </c>
@@ -4725,7 +4810,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="156"/>
+      <c r="A47" s="151"/>
       <c r="B47" s="106" t="s">
         <v>182</v>
       </c>
@@ -4769,7 +4854,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="156"/>
+      <c r="A48" s="151"/>
       <c r="B48" s="107" t="s">
         <v>182</v>
       </c>
@@ -4812,7 +4897,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="156"/>
+      <c r="A49" s="151"/>
       <c r="B49" s="107" t="s">
         <v>182</v>
       </c>
@@ -4855,7 +4940,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="156"/>
+      <c r="A50" s="151"/>
       <c r="B50" s="107" t="s">
         <v>182</v>
       </c>
@@ -4901,7 +4986,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="156"/>
+      <c r="A51" s="151"/>
       <c r="B51" s="108" t="s">
         <v>182</v>
       </c>
@@ -4945,7 +5030,7 @@
       <c r="P51" s="119"/>
     </row>
     <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="156"/>
+      <c r="A52" s="151"/>
       <c r="B52" s="109" t="s">
         <v>24</v>
       </c>
@@ -4988,7 +5073,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="156"/>
+      <c r="A53" s="151"/>
       <c r="B53" s="110" t="s">
         <v>24</v>
       </c>
@@ -5031,7 +5116,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="156"/>
+      <c r="A54" s="151"/>
       <c r="B54" s="110" t="s">
         <v>24</v>
       </c>
@@ -5071,7 +5156,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="156"/>
+      <c r="A55" s="151"/>
       <c r="B55" s="110" t="s">
         <v>24</v>
       </c>
@@ -5112,7 +5197,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="156"/>
+      <c r="A56" s="151"/>
       <c r="B56" s="110" t="s">
         <v>24</v>
       </c>
@@ -5156,7 +5241,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="156"/>
+      <c r="A57" s="151"/>
       <c r="B57" s="110" t="s">
         <v>24</v>
       </c>
@@ -5200,7 +5285,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="156"/>
+      <c r="A58" s="151"/>
       <c r="B58" s="110" t="s">
         <v>24</v>
       </c>
@@ -5244,7 +5329,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="156"/>
+      <c r="A59" s="151"/>
       <c r="B59" s="110" t="s">
         <v>24</v>
       </c>
@@ -5288,7 +5373,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="156"/>
+      <c r="A60" s="151"/>
       <c r="B60" s="110" t="s">
         <v>24</v>
       </c>
@@ -5332,7 +5417,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="156"/>
+      <c r="A61" s="151"/>
       <c r="B61" s="110" t="s">
         <v>24</v>
       </c>
@@ -5370,7 +5455,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="156"/>
+      <c r="A62" s="151"/>
       <c r="C62" s="86" t="s">
         <v>114</v>
       </c>
@@ -5411,7 +5496,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="156"/>
+      <c r="A63" s="151"/>
       <c r="B63" s="115" t="s">
         <v>248</v>
       </c>
@@ -5453,17 +5538,17 @@
       </c>
     </row>
     <row r="64" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="156"/>
+      <c r="A64" s="151"/>
       <c r="C64" s="90"/>
-      <c r="E64" s="159" t="s">
+      <c r="E64" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="160"/>
-      <c r="G64" s="160"/>
-      <c r="H64" s="160"/>
-      <c r="I64" s="160"/>
-      <c r="J64" s="160"/>
-      <c r="K64" s="161">
+      <c r="F64" s="142"/>
+      <c r="G64" s="142"/>
+      <c r="H64" s="142"/>
+      <c r="I64" s="142"/>
+      <c r="J64" s="142"/>
+      <c r="K64" s="143">
         <f>SUM(K7:K63)</f>
         <v>679.79412000000002</v>
       </c>
@@ -5472,13 +5557,13 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="158">
+      <c r="A65" s="152">
         <v>4</v>
       </c>
       <c r="B65" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="164" t="s">
+      <c r="C65" s="146" t="s">
         <v>267</v>
       </c>
       <c r="D65" s="32" t="s">
@@ -5508,8 +5593,8 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="158"/>
-      <c r="B66" s="165" t="s">
+      <c r="A66" s="152"/>
+      <c r="B66" s="147" t="s">
         <v>182</v>
       </c>
       <c r="C66" s="28" t="s">
@@ -5542,8 +5627,8 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="158"/>
-      <c r="B67" s="166" t="s">
+      <c r="A67" s="152"/>
+      <c r="B67" s="148" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -5576,8 +5661,8 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="158"/>
-      <c r="B68" s="165" t="s">
+      <c r="A68" s="152"/>
+      <c r="B68" s="147" t="s">
         <v>182</v>
       </c>
       <c r="C68" s="28" t="s">
@@ -5610,15 +5695,15 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="157" t="s">
+      <c r="E69" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="162"/>
-      <c r="G69" s="162"/>
-      <c r="H69" s="162"/>
-      <c r="I69" s="162"/>
-      <c r="J69" s="162"/>
-      <c r="K69" s="163">
+      <c r="F69" s="144"/>
+      <c r="G69" s="144"/>
+      <c r="H69" s="144"/>
+      <c r="I69" s="144"/>
+      <c r="J69" s="144"/>
+      <c r="K69" s="145">
         <f>SUM(K65:K68)</f>
         <v>23.986799999999999</v>
       </c>
@@ -5669,6 +5754,439 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="1025" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2">
+        <f>1.2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>H2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>I2*1.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3">
+        <f>1.2*E3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>H3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>I3*1.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4">
+        <f>1.2*E4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>H4*E4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>I4*1.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="21">
+        <f>SUM(E3:E4)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <f>SUM(F3:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <f>SUM(G3:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <f>SUM(H3:H4)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <f>SUM(I3:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" ref="F6:F23" si="0">1.2*E6</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I23" si="1">H6*E6</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J23" si="2">I6*1.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>A2:A4 A6:A20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -6130,7 +6648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -6554,7 +7072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -6709,12 +7227,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6763,8 +7281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6819,13 +7337,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="146">
+      <c r="A2" s="153">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="175">
         <v>2313118</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -6856,11 +7374,11 @@
       <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="147"/>
+      <c r="A3" s="154"/>
       <c r="B3" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="128">
+      <c r="C3" s="176">
         <v>488203</v>
       </c>
       <c r="D3" s="128" t="s">
@@ -6888,13 +7406,13 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="148">
+      <c r="A4" s="159">
         <v>2</v>
       </c>
       <c r="B4" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="175">
         <v>2611923</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -6922,14 +7440,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
-      <c r="B5" s="142" t="s">
+      <c r="A5" s="160"/>
+      <c r="B5" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="138">
+      <c r="C5" s="177">
         <v>2576913</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="135" t="s">
         <v>260</v>
       </c>
       <c r="E5" s="32"/>
@@ -6955,11 +7473,11 @@
       <c r="L5" s="37"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="149"/>
-      <c r="B6" s="140" t="s">
+      <c r="A6" s="160"/>
+      <c r="B6" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="84">
         <v>2335763</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -6988,11 +7506,11 @@
       <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
-      <c r="B7" s="141" t="s">
+      <c r="A7" s="160"/>
+      <c r="B7" s="137" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>1462838</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -7021,11 +7539,11 @@
       <c r="L7" s="37"/>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="149"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="84">
         <v>488203</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -7054,11 +7572,11 @@
       <c r="L8" s="37"/>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="149"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="84">
         <v>2452544</v>
       </c>
       <c r="D9" s="32" t="s">
@@ -7087,11 +7605,11 @@
       <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="149"/>
-      <c r="B10" s="135" t="s">
+      <c r="A10" s="160"/>
+      <c r="B10" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="137">
+      <c r="C10" s="178">
         <v>2822512</v>
       </c>
       <c r="D10" s="128" t="s">
@@ -7120,126 +7638,273 @@
       <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="150"/>
-      <c r="B11" s="134" t="s">
+      <c r="A11" s="161"/>
+      <c r="B11" s="173" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="176">
         <v>2667832</v>
       </c>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="174" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="125">
+      <c r="E11" s="128"/>
+      <c r="F11" s="129">
         <v>19.670000000000002</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="129">
         <f t="shared" si="0"/>
         <v>23.604000000000003</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="73">
+      <c r="H11" s="14"/>
+      <c r="I11" s="128">
         <v>1</v>
       </c>
-      <c r="J11" s="125">
+      <c r="J11" s="129">
         <f t="shared" si="1"/>
         <v>19.670000000000002</v>
       </c>
-      <c r="K11" s="126">
+      <c r="K11" s="130">
         <f t="shared" si="2"/>
         <v>23.604000000000003</v>
       </c>
       <c r="L11" s="37"/>
     </row>
-    <row r="12" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="136"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="43"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="183">
+        <v>3</v>
+      </c>
+      <c r="B12" s="179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="175">
+        <v>9972056</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="123">
+        <v>9.09</v>
+      </c>
+      <c r="G12" s="123">
+        <f t="shared" ref="G12:G13" si="3">1.2*F12</f>
+        <v>10.907999999999999</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="123">
+        <f t="shared" ref="J12:J13" si="4">I12*F12</f>
+        <v>9.09</v>
+      </c>
+      <c r="K12" s="124">
+        <f t="shared" ref="K12:K13" si="5">G12*I12</f>
+        <v>10.907999999999999</v>
+      </c>
+      <c r="L12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="184"/>
+      <c r="B13" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="84">
+        <v>2452544</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="36">
+        <v>0.214</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="3"/>
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="32">
+        <v>100</v>
+      </c>
+      <c r="J13" s="36">
+        <f t="shared" si="4"/>
+        <v>21.4</v>
+      </c>
+      <c r="K13" s="131">
+        <f t="shared" si="5"/>
+        <v>25.679999999999996</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
+      <c r="A14" s="184"/>
+      <c r="B14" s="180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36">
+        <f t="shared" ref="G14:G17" si="6">1.2*F14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="32">
+        <v>20</v>
+      </c>
+      <c r="J14" s="36">
+        <f t="shared" ref="J14:J17" si="7">I14*F14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="131">
+        <f t="shared" ref="K14:K17" si="8">G14*I14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
+      <c r="A15" s="184"/>
+      <c r="B15" s="180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="84">
+        <v>2424111</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="36">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="6"/>
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="32">
+        <v>100</v>
+      </c>
+      <c r="J15" s="36">
+        <f t="shared" si="7"/>
+        <v>7.3</v>
+      </c>
+      <c r="K15" s="131">
+        <f t="shared" si="8"/>
+        <v>8.76</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="43"/>
-      <c r="C17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="43"/>
+      <c r="A16" s="184"/>
+      <c r="B16" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="185">
+        <v>1863412</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="36">
+        <v>0.09</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="6"/>
+        <v>0.108</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="32">
+        <v>50</v>
+      </c>
+      <c r="J16" s="36">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="K16" s="131">
+        <f t="shared" si="8"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="184"/>
+      <c r="B17" s="186" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="187">
+        <v>151038</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="125">
+        <v>0.16</v>
+      </c>
+      <c r="G17" s="125">
+        <f t="shared" si="6"/>
+        <v>0.192</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="73">
+        <v>50</v>
+      </c>
+      <c r="J17" s="125">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="K17" s="126">
+        <f t="shared" si="8"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="182"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="162"/>
       <c r="I18" s="37"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="43"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="164" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="44">
+        <f>SUM(K12:K17)</f>
+        <v>60.347999999999992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="43"/>
       <c r="I20" s="37"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="43"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="F19:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7253,7 +7918,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B2:B3 B12:B22</xm:sqref>
+          <xm:sqref>B2:B3 B14:B15 B18:B22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B907E55F-DD64-43DB-AF65-00BB92578686}">
           <x14:formula1>
@@ -7262,7 +7927,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B11 B4:B10</xm:sqref>
+          <xm:sqref>B4:B13 B16:B17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7271,10 +7936,321 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F248BBE-05E5-4589-8552-F2AB50D90F2A}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="121" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="166">
+        <v>1</v>
+      </c>
+      <c r="B2" s="171" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="167">
+        <v>9972056</v>
+      </c>
+      <c r="D2" s="167" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="167"/>
+      <c r="F2" s="168">
+        <v>9.09</v>
+      </c>
+      <c r="G2" s="168">
+        <f t="shared" ref="G2:G7" si="0">1.2*F2</f>
+        <v>10.907999999999999</v>
+      </c>
+      <c r="H2" s="169">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="167">
+        <v>1</v>
+      </c>
+      <c r="J2" s="168">
+        <f t="shared" ref="J2:J7" si="1">I2*F2</f>
+        <v>9.09</v>
+      </c>
+      <c r="K2" s="168">
+        <f t="shared" ref="K2:K7" si="2">G2*I2</f>
+        <v>10.907999999999999</v>
+      </c>
+      <c r="L2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="165"/>
+      <c r="B3" s="172" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="32">
+        <v>2452544</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="36">
+        <v>0.214</v>
+      </c>
+      <c r="G3" s="36">
+        <f t="shared" si="0"/>
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="H3" s="163">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="32">
+        <v>100</v>
+      </c>
+      <c r="J3" s="36">
+        <f t="shared" si="1"/>
+        <v>21.4</v>
+      </c>
+      <c r="K3" s="36">
+        <f t="shared" si="2"/>
+        <v>25.679999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="165"/>
+      <c r="B4" s="172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="163">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="32">
+        <v>101</v>
+      </c>
+      <c r="J4" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="165"/>
+      <c r="B5" s="172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="32">
+        <v>2424111</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="36">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G5" s="36">
+        <f t="shared" si="0"/>
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="H5" s="163">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="32">
+        <v>102</v>
+      </c>
+      <c r="J5" s="36">
+        <f t="shared" si="1"/>
+        <v>7.4459999999999997</v>
+      </c>
+      <c r="K5" s="36">
+        <f t="shared" si="2"/>
+        <v>8.9352</v>
+      </c>
+      <c r="L5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="165"/>
+      <c r="B6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="28">
+        <v>749730</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="28">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="H6" s="163">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="28">
+        <v>50</v>
+      </c>
+      <c r="J6" s="28">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K6" s="28">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="165"/>
+      <c r="B7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="170">
+        <v>749706</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>0.18</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" si="0"/>
+        <v>0.216</v>
+      </c>
+      <c r="H7" s="163">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="28">
+        <v>50</v>
+      </c>
+      <c r="J7" s="28">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" si="2"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="165"/>
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4FDC7918-19FD-4A20-B78F-E944E8B4F1E0}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$6</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>B2:B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8CB4E303-0A3A-4CC9-BAF7-E52A02AA8F1D}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>B4:B8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -7754,26 +8730,26 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
-      <c r="E16" s="151" t="s">
+      <c r="E16" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152">
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="156">
         <f>SUM(J2:J14)</f>
         <v>101.52000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="156"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
@@ -7806,7 +8782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -7933,7 +8909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -8018,13 +8994,13 @@
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="50"/>
-      <c r="E3" s="153" t="s">
+      <c r="E3" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
       <c r="J3">
         <f>J2</f>
         <v>305.3</v>
@@ -8054,7 +9030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
@@ -8077,12 +9053,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="158" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="144" t="s">
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="139" t="s">
         <v>156</v>
       </c>
     </row>
@@ -8452,7 +9428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -8858,7 +9834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -8927,9 +9903,9 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="e">
         <f>H2*F2</f>
-        <v>15.95</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8949,9 +9925,9 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="e">
         <f>H3*F3</f>
-        <v>9.9</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -8971,9 +9947,9 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="e">
         <f>H4*F4</f>
-        <v>69.8</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -8995,437 +9971,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="1025" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2">
-        <f>1.2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>H2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>I2*1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3">
-        <f>1.2*E3</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f>H3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>I3*1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4">
-        <f>1.2*E4</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f>H4*E4</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>I4*1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="21">
-        <f>SUM(E3:E4)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
-        <f>SUM(F3:F4)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="21">
-        <f>SUM(G3:G4)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
-        <f>SUM(H3:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="21">
-        <f>SUM(I3:I4)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F6">
-        <f t="shared" ref="F6:F23" si="0">1.2*E6</f>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ref="I6:I23" si="1">H6*E6</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J23" si="2">I6*1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
-          <x14:formula1>
-            <xm:f>Données!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A2:A4 A6:A20</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
-          <x14:formula1>
-            <xm:f>Données!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A5</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/EL - Electrical/Autre/Commandes.xlsx
+++ b/EL - Electrical/Autre/Commandes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CA91C9-F961-4480-91FC-82CCA11C3AED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D5391D-2F40-4412-AFE8-94DA46E20547}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="284">
   <si>
     <t>Système</t>
   </si>
@@ -928,6 +928,24 @@
   </si>
   <si>
     <t>Cosse male superseal</t>
+  </si>
+  <si>
+    <t>Contact auxiliaire</t>
+  </si>
+  <si>
+    <t>Contacteur, 6 A, Rail DIN</t>
+  </si>
+  <si>
+    <t>Partie de commande relais pour fraiseuse</t>
+  </si>
+  <si>
+    <t>Partie de puissance pour relaise fraiseuse</t>
+  </si>
+  <si>
+    <t>31818 -  Prolongateur, Série SOLISTRAND, 22 AWG, 16 AWG, 1.65 mm², Non-isolél</t>
+  </si>
+  <si>
+    <t>Cosse à sertir pour DTA</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1894,21 +1912,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1945,13 +1948,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2239,13 +2279,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2263,22 +2297,22 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2287,11 +2321,11 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="23" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2305,58 +2339,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2371,7 +2354,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2387,32 +2370,99 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2818,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,7 +2937,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="161" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="82" t="s">
@@ -2925,7 +2975,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="149"/>
+      <c r="A3" s="161"/>
       <c r="B3" s="83" t="s">
         <v>15</v>
       </c>
@@ -2959,7 +3009,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="149"/>
+      <c r="A4" s="161"/>
       <c r="B4" s="80"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -2995,7 +3045,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="161" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="81" t="s">
@@ -3033,7 +3083,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="149"/>
+      <c r="A6" s="161"/>
       <c r="B6" s="80"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -3053,7 +3103,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="150">
+      <c r="A7" s="162">
         <v>3</v>
       </c>
       <c r="B7" s="91" t="s">
@@ -3101,7 +3151,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="151"/>
+      <c r="A8" s="163"/>
       <c r="B8" s="92" t="s">
         <v>11</v>
       </c>
@@ -3147,7 +3197,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="151"/>
+      <c r="A9" s="163"/>
       <c r="B9" s="93" t="s">
         <v>11</v>
       </c>
@@ -3190,7 +3240,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="151"/>
+      <c r="A10" s="163"/>
       <c r="B10" s="94" t="s">
         <v>11</v>
       </c>
@@ -3236,7 +3286,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="151"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="94" t="s">
         <v>11</v>
       </c>
@@ -3282,7 +3332,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="151"/>
+      <c r="A12" s="163"/>
       <c r="B12" s="94" t="s">
         <v>11</v>
       </c>
@@ -3323,7 +3373,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="151"/>
+      <c r="A13" s="163"/>
       <c r="B13" s="94" t="s">
         <v>11</v>
       </c>
@@ -3364,7 +3414,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="151"/>
+      <c r="A14" s="163"/>
       <c r="B14" s="94" t="s">
         <v>11</v>
       </c>
@@ -3405,7 +3455,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="151"/>
+      <c r="A15" s="163"/>
       <c r="B15" s="93" t="s">
         <v>11</v>
       </c>
@@ -3448,7 +3498,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
+      <c r="A16" s="163"/>
       <c r="B16" s="95" t="s">
         <v>11</v>
       </c>
@@ -3489,7 +3539,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="151"/>
+      <c r="A17" s="163"/>
       <c r="B17" s="96" t="s">
         <v>15</v>
       </c>
@@ -3532,7 +3582,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="151"/>
+      <c r="A18" s="163"/>
       <c r="B18" s="97" t="s">
         <v>15</v>
       </c>
@@ -3578,7 +3628,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="151"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="97" t="s">
         <v>15</v>
       </c>
@@ -3624,7 +3674,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="151"/>
+      <c r="A20" s="163"/>
       <c r="B20" s="97" t="s">
         <v>15</v>
       </c>
@@ -3670,7 +3720,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="151"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="98" t="s">
         <v>15</v>
       </c>
@@ -3711,7 +3761,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="151"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="98" t="s">
         <v>15</v>
       </c>
@@ -3757,7 +3807,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="151"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="98" t="s">
         <v>15</v>
       </c>
@@ -3803,7 +3853,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="151"/>
+      <c r="A24" s="163"/>
       <c r="B24" s="98" t="s">
         <v>15</v>
       </c>
@@ -3849,7 +3899,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="151"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="98" t="s">
         <v>15</v>
       </c>
@@ -3895,7 +3945,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="151"/>
+      <c r="A26" s="163"/>
       <c r="B26" s="99" t="s">
         <v>15</v>
       </c>
@@ -3939,7 +3989,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="151"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="100" t="s">
         <v>83</v>
       </c>
@@ -3980,7 +4030,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="151"/>
+      <c r="A28" s="163"/>
       <c r="B28" s="101" t="s">
         <v>83</v>
       </c>
@@ -4024,7 +4074,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="151"/>
+      <c r="A29" s="163"/>
       <c r="B29" s="101" t="s">
         <v>83</v>
       </c>
@@ -4068,7 +4118,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="151"/>
+      <c r="A30" s="163"/>
       <c r="B30" s="101" t="s">
         <v>83</v>
       </c>
@@ -4111,7 +4161,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="151"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="101" t="s">
         <v>83</v>
       </c>
@@ -4152,7 +4202,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="151"/>
+      <c r="A32" s="163"/>
       <c r="B32" s="101" t="s">
         <v>83</v>
       </c>
@@ -4196,7 +4246,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="151"/>
+      <c r="A33" s="163"/>
       <c r="B33" s="101" t="s">
         <v>83</v>
       </c>
@@ -4240,7 +4290,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="151"/>
+      <c r="A34" s="163"/>
       <c r="B34" s="101" t="s">
         <v>83</v>
       </c>
@@ -4284,7 +4334,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="151"/>
+      <c r="A35" s="163"/>
       <c r="B35" s="101" t="s">
         <v>83</v>
       </c>
@@ -4330,7 +4380,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="151"/>
+      <c r="A36" s="163"/>
       <c r="B36" s="101" t="s">
         <v>83</v>
       </c>
@@ -4376,7 +4426,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="151"/>
+      <c r="A37" s="163"/>
       <c r="B37" s="101" t="s">
         <v>83</v>
       </c>
@@ -4420,7 +4470,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="151"/>
+      <c r="A38" s="163"/>
       <c r="B38" s="101" t="s">
         <v>83</v>
       </c>
@@ -4464,7 +4514,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="151"/>
+      <c r="A39" s="163"/>
       <c r="B39" s="101" t="s">
         <v>83</v>
       </c>
@@ -4508,7 +4558,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="151"/>
+      <c r="A40" s="163"/>
       <c r="B40" s="101" t="s">
         <v>83</v>
       </c>
@@ -4552,7 +4602,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="151"/>
+      <c r="A41" s="163"/>
       <c r="B41" s="101" t="s">
         <v>83</v>
       </c>
@@ -4596,7 +4646,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="151"/>
+      <c r="A42" s="163"/>
       <c r="B42" s="101" t="s">
         <v>83</v>
       </c>
@@ -4640,7 +4690,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="151"/>
+      <c r="A43" s="163"/>
       <c r="B43" s="102" t="s">
         <v>83</v>
       </c>
@@ -4684,7 +4734,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="151"/>
+      <c r="A44" s="163"/>
       <c r="B44" s="103" t="s">
         <v>83</v>
       </c>
@@ -4728,7 +4778,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="151"/>
+      <c r="A45" s="163"/>
       <c r="B45" s="104" t="s">
         <v>83</v>
       </c>
@@ -4769,7 +4819,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="151"/>
+      <c r="A46" s="163"/>
       <c r="B46" s="105" t="s">
         <v>182</v>
       </c>
@@ -4810,7 +4860,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="151"/>
+      <c r="A47" s="163"/>
       <c r="B47" s="106" t="s">
         <v>182</v>
       </c>
@@ -4854,7 +4904,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="151"/>
+      <c r="A48" s="163"/>
       <c r="B48" s="107" t="s">
         <v>182</v>
       </c>
@@ -4897,7 +4947,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="151"/>
+      <c r="A49" s="163"/>
       <c r="B49" s="107" t="s">
         <v>182</v>
       </c>
@@ -4940,7 +4990,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="151"/>
+      <c r="A50" s="163"/>
       <c r="B50" s="107" t="s">
         <v>182</v>
       </c>
@@ -4986,7 +5036,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="151"/>
+      <c r="A51" s="163"/>
       <c r="B51" s="108" t="s">
         <v>182</v>
       </c>
@@ -5030,7 +5080,7 @@
       <c r="P51" s="119"/>
     </row>
     <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="151"/>
+      <c r="A52" s="163"/>
       <c r="B52" s="109" t="s">
         <v>24</v>
       </c>
@@ -5073,7 +5123,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="151"/>
+      <c r="A53" s="163"/>
       <c r="B53" s="110" t="s">
         <v>24</v>
       </c>
@@ -5116,7 +5166,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="151"/>
+      <c r="A54" s="163"/>
       <c r="B54" s="110" t="s">
         <v>24</v>
       </c>
@@ -5156,7 +5206,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="151"/>
+      <c r="A55" s="163"/>
       <c r="B55" s="110" t="s">
         <v>24</v>
       </c>
@@ -5197,7 +5247,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="151"/>
+      <c r="A56" s="163"/>
       <c r="B56" s="110" t="s">
         <v>24</v>
       </c>
@@ -5241,7 +5291,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="151"/>
+      <c r="A57" s="163"/>
       <c r="B57" s="110" t="s">
         <v>24</v>
       </c>
@@ -5285,7 +5335,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="151"/>
+      <c r="A58" s="163"/>
       <c r="B58" s="110" t="s">
         <v>24</v>
       </c>
@@ -5329,7 +5379,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="151"/>
+      <c r="A59" s="163"/>
       <c r="B59" s="110" t="s">
         <v>24</v>
       </c>
@@ -5373,7 +5423,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="151"/>
+      <c r="A60" s="163"/>
       <c r="B60" s="110" t="s">
         <v>24</v>
       </c>
@@ -5417,7 +5467,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="151"/>
+      <c r="A61" s="163"/>
       <c r="B61" s="110" t="s">
         <v>24</v>
       </c>
@@ -5455,7 +5505,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="151"/>
+      <c r="A62" s="163"/>
       <c r="C62" s="86" t="s">
         <v>114</v>
       </c>
@@ -5496,7 +5546,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="151"/>
+      <c r="A63" s="163"/>
       <c r="B63" s="115" t="s">
         <v>248</v>
       </c>
@@ -5538,17 +5588,17 @@
       </c>
     </row>
     <row r="64" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="151"/>
+      <c r="A64" s="163"/>
       <c r="C64" s="90"/>
-      <c r="E64" s="141" t="s">
+      <c r="E64" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="142"/>
-      <c r="G64" s="142"/>
-      <c r="H64" s="142"/>
-      <c r="I64" s="142"/>
-      <c r="J64" s="142"/>
-      <c r="K64" s="143">
+      <c r="F64" s="140"/>
+      <c r="G64" s="140"/>
+      <c r="H64" s="140"/>
+      <c r="I64" s="140"/>
+      <c r="J64" s="140"/>
+      <c r="K64" s="141">
         <f>SUM(K7:K63)</f>
         <v>679.79412000000002</v>
       </c>
@@ -5557,13 +5607,13 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="152">
+      <c r="A65" s="164">
         <v>4</v>
       </c>
       <c r="B65" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="146" t="s">
+      <c r="C65" s="144" t="s">
         <v>267</v>
       </c>
       <c r="D65" s="32" t="s">
@@ -5593,8 +5643,8 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="152"/>
-      <c r="B66" s="147" t="s">
+      <c r="A66" s="164"/>
+      <c r="B66" s="145" t="s">
         <v>182</v>
       </c>
       <c r="C66" s="28" t="s">
@@ -5627,8 +5677,8 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="152"/>
-      <c r="B67" s="148" t="s">
+      <c r="A67" s="164"/>
+      <c r="B67" s="146" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -5661,8 +5711,8 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="152"/>
-      <c r="B68" s="147" t="s">
+      <c r="A68" s="164"/>
+      <c r="B68" s="145" t="s">
         <v>182</v>
       </c>
       <c r="C68" s="28" t="s">
@@ -5695,15 +5745,15 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="140" t="s">
+      <c r="E69" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="144"/>
-      <c r="G69" s="144"/>
-      <c r="H69" s="144"/>
-      <c r="I69" s="144"/>
-      <c r="J69" s="144"/>
-      <c r="K69" s="145">
+      <c r="F69" s="142"/>
+      <c r="G69" s="142"/>
+      <c r="H69" s="142"/>
+      <c r="I69" s="142"/>
+      <c r="J69" s="142"/>
+      <c r="K69" s="143">
         <f>SUM(K65:K68)</f>
         <v>23.986799999999999</v>
       </c>
@@ -7279,10 +7329,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7337,13 +7387,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="153">
+      <c r="A2" s="165">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="175">
+      <c r="C2" s="156">
         <v>2313118</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -7374,45 +7424,45 @@
       <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="154"/>
-      <c r="B3" s="127" t="s">
+      <c r="A3" s="166"/>
+      <c r="B3" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="176">
+      <c r="C3" s="157">
         <v>488203</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="126" t="s">
         <v>118</v>
       </c>
       <c r="E3" s="14"/>
-      <c r="F3" s="129">
+      <c r="F3" s="127">
         <v>0.48</v>
       </c>
-      <c r="G3" s="129">
+      <c r="G3" s="127">
         <f>1.2*F3</f>
         <v>0.57599999999999996</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128">
+      <c r="H3" s="126"/>
+      <c r="I3" s="126">
         <v>10</v>
       </c>
-      <c r="J3" s="129">
+      <c r="J3" s="127">
         <f>I3*F3</f>
         <v>4.8</v>
       </c>
-      <c r="K3" s="130">
+      <c r="K3" s="128">
         <f>G3*I3</f>
         <v>5.76</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="159">
+      <c r="A4" s="167">
         <v>2</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="175">
+      <c r="C4" s="156">
         <v>2611923</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -7440,14 +7490,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="138" t="s">
+      <c r="A5" s="168"/>
+      <c r="B5" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="177">
+      <c r="C5" s="158">
         <v>2576913</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="133" t="s">
         <v>260</v>
       </c>
       <c r="E5" s="32"/>
@@ -7466,15 +7516,15 @@
         <f>I5*F5</f>
         <v>19.66</v>
       </c>
-      <c r="K5" s="131">
+      <c r="K5" s="129">
         <f>G5*I5</f>
         <v>23.591999999999999</v>
       </c>
       <c r="L5" s="37"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
-      <c r="B6" s="136" t="s">
+      <c r="A6" s="168"/>
+      <c r="B6" s="134" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="84">
@@ -7499,15 +7549,15 @@
         <f t="shared" si="1"/>
         <v>8.1199999999999992</v>
       </c>
-      <c r="K6" s="131">
+      <c r="K6" s="129">
         <f t="shared" si="2"/>
         <v>9.743999999999998</v>
       </c>
       <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
-      <c r="B7" s="137" t="s">
+      <c r="A7" s="168"/>
+      <c r="B7" s="135" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="27">
@@ -7532,15 +7582,15 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K7" s="131">
+      <c r="K7" s="129">
         <f t="shared" si="2"/>
         <v>10.8</v>
       </c>
       <c r="L7" s="37"/>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
-      <c r="B8" s="133" t="s">
+      <c r="A8" s="168"/>
+      <c r="B8" s="131" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="84">
@@ -7565,15 +7615,15 @@
         <f t="shared" si="1"/>
         <v>47.199999999999996</v>
       </c>
-      <c r="K8" s="131">
+      <c r="K8" s="129">
         <f t="shared" si="2"/>
         <v>56.639999999999993</v>
       </c>
       <c r="L8" s="37"/>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="133" t="s">
+      <c r="A9" s="168"/>
+      <c r="B9" s="131" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="84">
@@ -7598,121 +7648,121 @@
         <f t="shared" si="1"/>
         <v>21.4</v>
       </c>
-      <c r="K9" s="131">
+      <c r="K9" s="129">
         <f t="shared" si="2"/>
         <v>25.679999999999996</v>
       </c>
       <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
-      <c r="B10" s="134" t="s">
+      <c r="A10" s="168"/>
+      <c r="B10" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="178">
+      <c r="C10" s="159">
         <v>2822512</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="126" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="128"/>
-      <c r="F10" s="129">
+      <c r="E10" s="126"/>
+      <c r="F10" s="127">
         <v>0.184</v>
       </c>
-      <c r="G10" s="129">
+      <c r="G10" s="127">
         <f t="shared" si="0"/>
         <v>0.2208</v>
       </c>
       <c r="H10" s="14"/>
-      <c r="I10" s="128">
+      <c r="I10" s="126">
         <v>5</v>
       </c>
-      <c r="J10" s="129">
+      <c r="J10" s="127">
         <f t="shared" si="1"/>
         <v>0.91999999999999993</v>
       </c>
-      <c r="K10" s="130">
+      <c r="K10" s="128">
         <f t="shared" si="2"/>
         <v>1.1040000000000001</v>
       </c>
       <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="161"/>
-      <c r="B11" s="173" t="s">
+      <c r="A11" s="169"/>
+      <c r="B11" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="176">
+      <c r="C11" s="157">
         <v>2667832</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="D11" s="155" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129">
+      <c r="E11" s="126"/>
+      <c r="F11" s="127">
         <v>19.670000000000002</v>
       </c>
-      <c r="G11" s="129">
+      <c r="G11" s="127">
         <f t="shared" si="0"/>
         <v>23.604000000000003</v>
       </c>
       <c r="H11" s="14"/>
-      <c r="I11" s="128">
+      <c r="I11" s="126">
         <v>1</v>
       </c>
-      <c r="J11" s="129">
+      <c r="J11" s="127">
         <f t="shared" si="1"/>
         <v>19.670000000000002</v>
       </c>
-      <c r="K11" s="130">
+      <c r="K11" s="128">
         <f t="shared" si="2"/>
         <v>23.604000000000003</v>
       </c>
       <c r="L11" s="37"/>
     </row>
-    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="183">
+    <row r="12" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="185">
         <v>3</v>
       </c>
-      <c r="B12" s="179" t="s">
+      <c r="B12" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="175">
-        <v>9972056</v>
+      <c r="C12" s="181">
+        <v>2139108</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="123">
-        <v>9.09</v>
+        <v>12.1</v>
       </c>
       <c r="G12" s="123">
         <f t="shared" ref="G12:G13" si="3">1.2*F12</f>
-        <v>10.907999999999999</v>
+        <v>14.52</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="123">
         <f t="shared" ref="J12:J13" si="4">I12*F12</f>
-        <v>9.09</v>
+        <v>24.2</v>
       </c>
       <c r="K12" s="124">
-        <f t="shared" ref="K12:K13" si="5">G12*I12</f>
-        <v>10.907999999999999</v>
+        <f>J12*1.2</f>
+        <v>29.04</v>
       </c>
       <c r="L12" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="184"/>
-      <c r="B13" s="133" t="s">
+    <row r="13" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="186"/>
+      <c r="B13" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="85">
         <v>2452544</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -7734,42 +7784,46 @@
         <f t="shared" si="4"/>
         <v>21.4</v>
       </c>
-      <c r="K13" s="131">
-        <f t="shared" si="5"/>
+      <c r="K13" s="124">
+        <f t="shared" ref="K13:K20" si="5">J13*1.2</f>
         <v>25.679999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="184"/>
-      <c r="B14" s="180" t="s">
+    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="186"/>
+      <c r="B14" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="84">
+        <v>9971823</v>
+      </c>
       <c r="D14" s="32" t="s">
         <v>275</v>
       </c>
       <c r="E14" s="28"/>
-      <c r="F14" s="36"/>
+      <c r="F14" s="36">
+        <v>9.92</v>
+      </c>
       <c r="G14" s="36">
-        <f t="shared" ref="G14:G17" si="6">1.2*F14</f>
-        <v>0</v>
+        <f t="shared" ref="G14:G20" si="6">1.2*F14</f>
+        <v>11.904</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="32">
         <v>20</v>
       </c>
       <c r="J14" s="36">
-        <f t="shared" ref="J14:J17" si="7">I14*F14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="131">
-        <f t="shared" ref="K14:K17" si="8">G14*I14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
-      <c r="B15" s="180" t="s">
+        <f t="shared" ref="J14:J18" si="7">I14*F14</f>
+        <v>198.4</v>
+      </c>
+      <c r="K14" s="124">
+        <f t="shared" si="5"/>
+        <v>238.07999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="186"/>
+      <c r="B15" s="98" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="84">
@@ -7796,17 +7850,17 @@
         <f t="shared" si="7"/>
         <v>7.3</v>
       </c>
-      <c r="K15" s="131">
-        <f t="shared" si="8"/>
+      <c r="K15" s="124">
+        <f t="shared" si="5"/>
         <v>8.76</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="184"/>
-      <c r="B16" s="133" t="s">
+    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="186"/>
+      <c r="B16" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="185">
+      <c r="C16" s="160">
         <v>1863412</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -7828,83 +7882,163 @@
         <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
-      <c r="K16" s="131">
-        <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="184"/>
-      <c r="B17" s="186" t="s">
+      <c r="K16" s="124">
+        <f t="shared" si="5"/>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="186"/>
+      <c r="B17" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="187">
+      <c r="C17" s="177">
         <v>151038</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="125">
+      <c r="E17" s="14"/>
+      <c r="F17" s="127">
         <v>0.16</v>
       </c>
-      <c r="G17" s="125">
+      <c r="G17" s="127">
         <f t="shared" si="6"/>
         <v>0.192</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="73">
+      <c r="H17" s="14"/>
+      <c r="I17" s="126">
         <v>50</v>
       </c>
-      <c r="J17" s="125">
+      <c r="J17" s="127">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="K17" s="126">
-        <f t="shared" si="8"/>
+      <c r="K17" s="124">
+        <f t="shared" si="5"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
-      <c r="B18" s="181"/>
-      <c r="C18" s="162"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-    </row>
-    <row r="19" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="43"/>
-      <c r="F19" s="164" t="s">
+    <row r="18" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="186"/>
+      <c r="B18" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="31">
+        <v>2579132</v>
+      </c>
+      <c r="D18" s="178" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="28">
+        <v>13.35</v>
+      </c>
+      <c r="G18" s="28">
+        <f t="shared" si="6"/>
+        <v>16.02</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="32">
+        <v>2</v>
+      </c>
+      <c r="J18" s="36">
+        <f t="shared" si="7"/>
+        <v>26.7</v>
+      </c>
+      <c r="K18" s="124">
+        <f t="shared" si="5"/>
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="186"/>
+      <c r="B19" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="179">
+        <v>288184</v>
+      </c>
+      <c r="D19" s="180" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" s="28">
+        <v>25.77</v>
+      </c>
+      <c r="G19" s="28">
+        <f t="shared" si="6"/>
+        <v>30.923999999999999</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28">
+        <v>2</v>
+      </c>
+      <c r="J19" s="36">
+        <f t="shared" ref="J19" si="8">I19*F19</f>
+        <v>51.54</v>
+      </c>
+      <c r="K19" s="124">
+        <f t="shared" si="5"/>
+        <v>61.847999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="170"/>
+      <c r="B20" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="179">
+        <v>2448173</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="187">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G20" s="187">
+        <f t="shared" si="6"/>
+        <v>0.51239999999999997</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14">
+        <v>20</v>
+      </c>
+      <c r="J20" s="127">
+        <f t="shared" ref="J20" si="9">I20*F20</f>
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="K20" s="124">
+        <f t="shared" si="5"/>
+        <v>10.247999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="191"/>
+      <c r="F21" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="44">
-        <f>SUM(K12:K17)</f>
-        <v>60.347999999999992</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="43"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="190">
+        <f>SUM(K12:K20)</f>
+        <v>420.69599999999997</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A12:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7918,7 +8052,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B2:B3 B14:B15 B18:B22</xm:sqref>
+          <xm:sqref>B2:B3 B21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B907E55F-DD64-43DB-AF65-00BB92578686}">
           <x14:formula1>
@@ -7927,7 +8061,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B4:B13 B16:B17</xm:sqref>
+          <xm:sqref>B4:B20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7990,37 +8124,37 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="166">
+      <c r="A2" s="171">
         <v>1</v>
       </c>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="167">
+      <c r="C2" s="148">
         <v>9972056</v>
       </c>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="148" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="167"/>
-      <c r="F2" s="168">
+      <c r="E2" s="148"/>
+      <c r="F2" s="149">
         <v>9.09</v>
       </c>
-      <c r="G2" s="168">
+      <c r="G2" s="149">
         <f t="shared" ref="G2:G7" si="0">1.2*F2</f>
         <v>10.907999999999999</v>
       </c>
-      <c r="H2" s="169">
+      <c r="H2" s="150">
         <v>0.1</v>
       </c>
-      <c r="I2" s="167">
+      <c r="I2" s="148">
         <v>1</v>
       </c>
-      <c r="J2" s="168">
+      <c r="J2" s="149">
         <f t="shared" ref="J2:J7" si="1">I2*F2</f>
         <v>9.09</v>
       </c>
-      <c r="K2" s="168">
+      <c r="K2" s="149">
         <f t="shared" ref="K2:K7" si="2">G2*I2</f>
         <v>10.907999999999999</v>
       </c>
@@ -8029,8 +8163,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="165"/>
-      <c r="B3" s="172" t="s">
+      <c r="A3" s="172"/>
+      <c r="B3" s="153" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="32">
@@ -8047,7 +8181,7 @@
         <f t="shared" si="0"/>
         <v>0.25679999999999997</v>
       </c>
-      <c r="H3" s="163">
+      <c r="H3" s="147">
         <v>0.1</v>
       </c>
       <c r="I3" s="32">
@@ -8063,8 +8197,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
-      <c r="B4" s="172" t="s">
+      <c r="A4" s="172"/>
+      <c r="B4" s="153" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="32"/>
@@ -8077,7 +8211,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="163">
+      <c r="H4" s="147">
         <v>0.1</v>
       </c>
       <c r="I4" s="32">
@@ -8093,8 +8227,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165"/>
-      <c r="B5" s="172" t="s">
+      <c r="A5" s="172"/>
+      <c r="B5" s="153" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="32">
@@ -8113,7 +8247,7 @@
         <f t="shared" si="0"/>
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="H5" s="163">
+      <c r="H5" s="147">
         <v>0.1</v>
       </c>
       <c r="I5" s="32">
@@ -8132,7 +8266,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
+      <c r="A6" s="172"/>
       <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
@@ -8150,7 +8284,7 @@
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="H6" s="163">
+      <c r="H6" s="147">
         <v>0.1</v>
       </c>
       <c r="I6" s="28">
@@ -8166,11 +8300,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="165"/>
+      <c r="A7" s="172"/>
       <c r="B7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="170">
+      <c r="C7" s="151">
         <v>749706</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -8184,7 +8318,7 @@
         <f t="shared" si="0"/>
         <v>0.216</v>
       </c>
-      <c r="H7" s="163">
+      <c r="H7" s="147">
         <v>0.1</v>
       </c>
       <c r="I7" s="28">
@@ -8200,7 +8334,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="165"/>
+      <c r="A8" s="172"/>
       <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
@@ -8730,26 +8864,26 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
-      <c r="E16" s="155" t="s">
+      <c r="E16" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="156">
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="174">
         <f>SUM(J2:J14)</f>
         <v>101.52000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="156"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="174"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
@@ -8994,13 +9128,13 @@
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="50"/>
-      <c r="E3" s="157" t="s">
+      <c r="E3" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
       <c r="J3">
         <f>J2</f>
         <v>305.3</v>
@@ -9053,12 +9187,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="176" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="139" t="s">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="137" t="s">
         <v>156</v>
       </c>
     </row>
